--- a/Jeu d'essai.xlsx
+++ b/Jeu d'essai.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="184" documentId="11_AD4D9D64A577C11A406BCC2E771E5A145ADEDD99" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{FAC68D90-983F-4AD6-9EED-EFDF8A6E1713}"/>
+  <xr:revisionPtr revIDLastSave="386" documentId="11_AD4D9D64A577C11A406BCC2E771E5A145ADEDD99" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{A5EA6DF1-8350-4922-A7DC-17856F754D8D}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" firstSheet="11" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PPArticlesEnPanier" sheetId="3" r:id="rId1"/>
@@ -23,17 +23,23 @@
     <sheet name="PPVendeurs" sheetId="13" r:id="rId13"/>
     <sheet name="PPVendeursClients" sheetId="14" r:id="rId14"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="285">
   <si>
     <t>Djembé</t>
   </si>
@@ -690,6 +696,204 @@
   </si>
   <si>
     <t>DateVisite</t>
+  </si>
+  <si>
+    <t>1000110.jpg</t>
+  </si>
+  <si>
+    <t>2000100.jpg</t>
+  </si>
+  <si>
+    <t>3000090.jpg</t>
+  </si>
+  <si>
+    <t>1000120.jpg</t>
+  </si>
+  <si>
+    <t>2000110.jpg</t>
+  </si>
+  <si>
+    <t>3000100.jpg</t>
+  </si>
+  <si>
+    <t>1000130.jpg</t>
+  </si>
+  <si>
+    <t>2000120.jpg</t>
+  </si>
+  <si>
+    <t>3000110.jpg</t>
+  </si>
+  <si>
+    <t>Petite théière japonaise</t>
+  </si>
+  <si>
+    <t>Il fait froid! Réchauffez-vous avec un thé! Toute petite théière en fonte. Bleue et noire. Contient 10 oz, 1 1/4 tasse. Neuve, servait d'objet décoratif Départ en résidence</t>
+  </si>
+  <si>
+    <t>3.0</t>
+  </si>
+  <si>
+    <t>1000060.JPG</t>
+  </si>
+  <si>
+    <t>Verre taillé</t>
+  </si>
+  <si>
+    <t>1.0</t>
+  </si>
+  <si>
+    <t>Verre taillé comprenant ensemble de parfumeuse en parfaite condition.</t>
+  </si>
+  <si>
+    <t>2000050.JPG</t>
+  </si>
+  <si>
+    <t>Couverture requin</t>
+  </si>
+  <si>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t>Petite couverture en polar pour enfants en forme de requin. Insertion par la bouche du requin.</t>
+  </si>
+  <si>
+    <t>3000040.JPG</t>
+  </si>
+  <si>
+    <t>Table de cuisine style scandinave</t>
+  </si>
+  <si>
+    <t>Table de 48’’ x 96’’ en frêne massif Épaisseur 2’’ avec insertions en érable torréfier Pattes en acier , cornière en L 4’’ x 4’’ aux extrémités, donc aucune pattes au milieu Peut assoir 12 personnes Pièce unique faite à la main Valeur 2000$ Liquidation à 800$</t>
+  </si>
+  <si>
+    <t>45.0</t>
+  </si>
+  <si>
+    <t>1000070.JPG</t>
+  </si>
+  <si>
+    <t>Meuble foyer</t>
+  </si>
+  <si>
+    <t>Meuble avec foyer intégré acheté sur costco.ca Manuel d’instruction et télécommande.</t>
+  </si>
+  <si>
+    <t>116.0</t>
+  </si>
+  <si>
+    <t>2000060.JPG</t>
+  </si>
+  <si>
+    <t>Bureau en U</t>
+  </si>
+  <si>
+    <t>Très grand bureau en forme de U. Facile à démontrer pour le transport. extérieur: 60'' x 90'' Intérieur: 40'' x 42''</t>
+  </si>
+  <si>
+    <t>323.0</t>
+  </si>
+  <si>
+    <t>3000050.JPG</t>
+  </si>
+  <si>
+    <t>Términal illico enregistreur haute définition modèle Samsung smt-c8340 pvr récente génération</t>
+  </si>
+  <si>
+    <t>Vidéotron illico términal enregistreur</t>
+  </si>
+  <si>
+    <t>4.5</t>
+  </si>
+  <si>
+    <t>1000080.JPG</t>
+  </si>
+  <si>
+    <t>Console PlayStation 1 en excellente condition, fourni avec manette et filages</t>
+  </si>
+  <si>
+    <t>Console PlayStation 1</t>
+  </si>
+  <si>
+    <t>2000070.JPG</t>
+  </si>
+  <si>
+    <t>Nikon 24-85</t>
+  </si>
+  <si>
+    <t>Nikon AF-S Nikkor 24-85mm f/3.5-4.5G ED</t>
+  </si>
+  <si>
+    <t>3000060.JPG</t>
+  </si>
+  <si>
+    <t>Habit de neige North Face bébé 0-3 mois</t>
+  </si>
+  <si>
+    <t>habit de neige pour bébé North Face 0-3 mois Porté quelques fois Raison de la vente: trop petit environnement non fumeur Avec Tuque perlimpinpin</t>
+  </si>
+  <si>
+    <t>13.0</t>
+  </si>
+  <si>
+    <t>Barrière de sécurité pour bébé</t>
+  </si>
+  <si>
+    <t>Barrière de sécurité double pour bébé, en bois, s'installe sur tous types d'ouvertures. Idéale pour escalier. Vendue avec manuel d'installation.</t>
+  </si>
+  <si>
+    <t>Poussette Graco</t>
+  </si>
+  <si>
+    <t>Poussette Graco avec plateau avant amovible Dessus baldaquin dont le siège et repose pied s'abaisse 3 positons Roulettes pivotantes avec freins.</t>
+  </si>
+  <si>
+    <t>2 x Roulette pivotante D=4'' L=1-15/16'' en polyoléfine</t>
+  </si>
+  <si>
+    <t>Diamètre de roue: 4" (100 mm) Type de roulette: Pivotant Matériau du cadre: Acier Distance entre les trous de boulon (centre-centre): 55 mm x 80 mm Dimensions de la plaque: 78 mm x 102 mm Hauteur hors tout: 5"</t>
+  </si>
+  <si>
+    <t>37.5</t>
+  </si>
+  <si>
+    <t>2.0</t>
+  </si>
+  <si>
+    <t>Cles Craftman</t>
+  </si>
+  <si>
+    <t>set de cles Craftman 8 cles</t>
+  </si>
+  <si>
+    <t>2.5</t>
+  </si>
+  <si>
+    <t>scie onglet 12"</t>
+  </si>
+  <si>
+    <t>56.0</t>
+  </si>
+  <si>
+    <t>scie a onglet 12" mastercraft maximum avec lazer</t>
+  </si>
+  <si>
+    <t>1000090.JPG</t>
+  </si>
+  <si>
+    <t>2000080.JPG</t>
+  </si>
+  <si>
+    <t>3000070.JPG</t>
+  </si>
+  <si>
+    <t>1000100.JPG</t>
+  </si>
+  <si>
+    <t>2000090.JPG</t>
+  </si>
+  <si>
+    <t>3000080.JPG</t>
   </si>
 </sst>
 </file>
@@ -1010,19 +1214,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76D97D7B-15CA-41E8-9326-CD4952F54623}">
   <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>78</v>
       </c>
@@ -1053,14 +1257,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>168</v>
       </c>
@@ -1071,7 +1275,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>10</v>
       </c>
@@ -1082,7 +1286,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>20</v>
       </c>
@@ -1093,7 +1297,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>30</v>
       </c>
@@ -1104,7 +1308,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>40</v>
       </c>
@@ -1126,13 +1330,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>159</v>
       </c>
@@ -1140,7 +1344,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1148,7 +1352,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1156,7 +1360,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1175,14 +1379,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>160</v>
       </c>
@@ -1193,7 +1397,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>10</v>
       </c>
@@ -1204,7 +1408,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>20</v>
       </c>
@@ -1215,7 +1419,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>30</v>
       </c>
@@ -1226,7 +1430,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>40</v>
       </c>
@@ -1248,31 +1452,31 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.6328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.6328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.90625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.90625" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="25.54296875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="25.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="15" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="5.54296875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.08984375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.26953125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="5.7265625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="5.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>28</v>
       </c>
@@ -1337,7 +1541,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>10</v>
       </c>
@@ -1402,7 +1606,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>20</v>
       </c>
@@ -1467,7 +1671,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>30</v>
       </c>
@@ -1541,16 +1745,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5F6AD32-B3D8-4AE8-A088-25A7746AC051}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>28</v>
       </c>
@@ -1561,7 +1765,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>10</v>
       </c>
@@ -1572,7 +1776,7 @@
         <v>41641</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>10</v>
       </c>
@@ -1583,7 +1787,7 @@
         <v>41642</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>10</v>
       </c>
@@ -1594,7 +1798,7 @@
         <v>41588</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>10</v>
       </c>
@@ -1605,7 +1809,7 @@
         <v>41609</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>10</v>
       </c>
@@ -1616,7 +1820,7 @@
         <v>41587</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>20</v>
       </c>
@@ -1627,7 +1831,7 @@
         <v>41579</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>30</v>
       </c>
@@ -1638,7 +1842,7 @@
         <v>41548</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>30</v>
       </c>
@@ -1649,7 +1853,7 @@
         <v>41545</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>30</v>
       </c>
@@ -1671,14 +1875,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="61.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="61.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>29</v>
       </c>
@@ -1689,7 +1893,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>10</v>
       </c>
@@ -1700,7 +1904,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>20</v>
       </c>
@@ -1711,7 +1915,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>30</v>
       </c>
@@ -1722,7 +1926,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>40</v>
       </c>
@@ -1733,7 +1937,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>50</v>
       </c>
@@ -1744,7 +1948,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>60</v>
       </c>
@@ -1755,7 +1959,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>70</v>
       </c>
@@ -1766,7 +1970,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>80</v>
       </c>
@@ -1788,26 +1992,26 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.21875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.36328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.90625" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.08984375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.26953125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.90625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.08984375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>79</v>
       </c>
@@ -1860,7 +2064,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>10000</v>
       </c>
@@ -1913,7 +2117,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>10100</v>
       </c>
@@ -1966,7 +2170,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>10200</v>
       </c>
@@ -2019,7 +2223,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>10300</v>
       </c>
@@ -2072,7 +2276,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>10400</v>
       </c>
@@ -2125,7 +2329,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>10500</v>
       </c>
@@ -2178,7 +2382,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>10600</v>
       </c>
@@ -2242,23 +2446,23 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.36328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.08984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="3.7265625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.26953125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7265625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.77734375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>141</v>
       </c>
@@ -2307,16 +2511,16 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>150</v>
       </c>
@@ -2344,23 +2548,23 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.90625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.81640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.08984375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>152</v>
       </c>
@@ -2409,14 +2613,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>159</v>
       </c>
@@ -2427,7 +2631,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2438,7 +2642,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2449,7 +2653,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -2460,7 +2664,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
@@ -2471,7 +2675,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2</v>
       </c>
@@ -2482,7 +2686,7 @@
         <v>6.75</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2</v>
       </c>
@@ -2493,7 +2697,7 @@
         <v>15.75</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2</v>
       </c>
@@ -2504,7 +2708,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2</v>
       </c>
@@ -2515,7 +2719,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>3</v>
       </c>
@@ -2526,7 +2730,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>3</v>
       </c>
@@ -2537,7 +2741,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>3</v>
       </c>
@@ -2548,7 +2752,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>3</v>
       </c>
@@ -2566,28 +2770,28 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N13"/>
+  <dimension ref="A1:N37"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.08984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="102.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="45.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="102.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.26953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.36328125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.08984375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>27</v>
       </c>
@@ -2631,7 +2835,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1000010</v>
       </c>
@@ -2675,7 +2879,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1000020</v>
       </c>
@@ -2719,7 +2923,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1000030</v>
       </c>
@@ -2763,7 +2967,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1000040</v>
       </c>
@@ -2807,7 +3011,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1000050</v>
       </c>
@@ -2851,7 +3055,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2000010</v>
       </c>
@@ -2895,7 +3099,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2000020</v>
       </c>
@@ -2939,7 +3143,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2000030</v>
       </c>
@@ -2983,7 +3187,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2000040</v>
       </c>
@@ -3027,7 +3231,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>3000010</v>
       </c>
@@ -3071,7 +3275,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>3000020</v>
       </c>
@@ -3115,7 +3319,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>3000030</v>
       </c>
@@ -3159,8 +3363,903 @@
         <v>2</v>
       </c>
     </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>1000060</v>
+      </c>
+      <c r="B14">
+        <v>10</v>
+      </c>
+      <c r="C14">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>228</v>
+      </c>
+      <c r="E14" t="s">
+        <v>229</v>
+      </c>
+      <c r="F14" t="s">
+        <v>231</v>
+      </c>
+      <c r="G14">
+        <v>20</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14" t="s">
+        <v>2</v>
+      </c>
+      <c r="K14">
+        <v>20</v>
+      </c>
+      <c r="L14" t="s">
+        <v>230</v>
+      </c>
+      <c r="M14" s="1">
+        <v>43489</v>
+      </c>
+      <c r="N14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>2000050</v>
+      </c>
+      <c r="B15">
+        <v>20</v>
+      </c>
+      <c r="C15">
+        <v>10</v>
+      </c>
+      <c r="D15" t="s">
+        <v>232</v>
+      </c>
+      <c r="E15" t="s">
+        <v>234</v>
+      </c>
+      <c r="F15" t="s">
+        <v>235</v>
+      </c>
+      <c r="G15">
+        <v>20</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15" t="s">
+        <v>2</v>
+      </c>
+      <c r="K15">
+        <v>20</v>
+      </c>
+      <c r="L15" t="s">
+        <v>237</v>
+      </c>
+      <c r="M15" s="1">
+        <v>43489</v>
+      </c>
+      <c r="N15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>3000040</v>
+      </c>
+      <c r="B16">
+        <v>30</v>
+      </c>
+      <c r="C16">
+        <v>10</v>
+      </c>
+      <c r="D16" t="s">
+        <v>236</v>
+      </c>
+      <c r="E16" t="s">
+        <v>238</v>
+      </c>
+      <c r="F16" t="s">
+        <v>239</v>
+      </c>
+      <c r="G16">
+        <v>5</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16" t="s">
+        <v>2</v>
+      </c>
+      <c r="K16">
+        <v>5</v>
+      </c>
+      <c r="L16" t="s">
+        <v>233</v>
+      </c>
+      <c r="M16" s="1">
+        <v>43489</v>
+      </c>
+      <c r="N16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>1000070</v>
+      </c>
+      <c r="B17">
+        <v>10</v>
+      </c>
+      <c r="C17">
+        <v>20</v>
+      </c>
+      <c r="D17" t="s">
+        <v>240</v>
+      </c>
+      <c r="E17" t="s">
+        <v>241</v>
+      </c>
+      <c r="F17" t="s">
+        <v>243</v>
+      </c>
+      <c r="G17">
+        <v>500</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17" t="s">
+        <v>2</v>
+      </c>
+      <c r="K17">
+        <v>500</v>
+      </c>
+      <c r="L17" t="s">
+        <v>242</v>
+      </c>
+      <c r="M17" s="1">
+        <v>43489</v>
+      </c>
+      <c r="N17" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>2000060</v>
+      </c>
+      <c r="B18">
+        <v>20</v>
+      </c>
+      <c r="C18">
+        <v>20</v>
+      </c>
+      <c r="D18" t="s">
+        <v>244</v>
+      </c>
+      <c r="E18" t="s">
+        <v>245</v>
+      </c>
+      <c r="F18" t="s">
+        <v>247</v>
+      </c>
+      <c r="G18">
+        <v>275</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18" t="s">
+        <v>2</v>
+      </c>
+      <c r="K18">
+        <v>275</v>
+      </c>
+      <c r="L18" t="s">
+        <v>246</v>
+      </c>
+      <c r="M18" s="1">
+        <v>43489</v>
+      </c>
+      <c r="N18" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>3000050</v>
+      </c>
+      <c r="B19">
+        <v>30</v>
+      </c>
+      <c r="C19">
+        <v>20</v>
+      </c>
+      <c r="D19" t="s">
+        <v>248</v>
+      </c>
+      <c r="E19" t="s">
+        <v>249</v>
+      </c>
+      <c r="F19" t="s">
+        <v>251</v>
+      </c>
+      <c r="G19">
+        <v>50</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19" t="s">
+        <v>2</v>
+      </c>
+      <c r="K19">
+        <v>50</v>
+      </c>
+      <c r="L19" t="s">
+        <v>250</v>
+      </c>
+      <c r="M19" s="1">
+        <v>43489</v>
+      </c>
+      <c r="N19" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>1000080</v>
+      </c>
+      <c r="B20">
+        <v>10</v>
+      </c>
+      <c r="C20">
+        <v>30</v>
+      </c>
+      <c r="D20" t="s">
+        <v>253</v>
+      </c>
+      <c r="E20" t="s">
+        <v>252</v>
+      </c>
+      <c r="F20" t="s">
+        <v>255</v>
+      </c>
+      <c r="G20">
+        <v>150</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20" t="s">
+        <v>2</v>
+      </c>
+      <c r="K20">
+        <v>150</v>
+      </c>
+      <c r="L20" t="s">
+        <v>254</v>
+      </c>
+      <c r="M20" s="1">
+        <v>43489</v>
+      </c>
+      <c r="N20" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>2000070</v>
+      </c>
+      <c r="B21">
+        <v>20</v>
+      </c>
+      <c r="C21">
+        <v>30</v>
+      </c>
+      <c r="D21" t="s">
+        <v>257</v>
+      </c>
+      <c r="E21" t="s">
+        <v>256</v>
+      </c>
+      <c r="F21" t="s">
+        <v>258</v>
+      </c>
+      <c r="G21">
+        <v>40</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21" t="s">
+        <v>2</v>
+      </c>
+      <c r="K21">
+        <v>40</v>
+      </c>
+      <c r="L21" t="s">
+        <v>233</v>
+      </c>
+      <c r="M21" s="1">
+        <v>43489</v>
+      </c>
+      <c r="N21" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>3000060</v>
+      </c>
+      <c r="B22">
+        <v>30</v>
+      </c>
+      <c r="C22">
+        <v>30</v>
+      </c>
+      <c r="D22" t="s">
+        <v>259</v>
+      </c>
+      <c r="E22" t="s">
+        <v>260</v>
+      </c>
+      <c r="F22" t="s">
+        <v>261</v>
+      </c>
+      <c r="G22">
+        <v>100</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22" t="s">
+        <v>2</v>
+      </c>
+      <c r="K22">
+        <v>100</v>
+      </c>
+      <c r="L22" t="s">
+        <v>233</v>
+      </c>
+      <c r="M22" s="1">
+        <v>43489</v>
+      </c>
+      <c r="N22" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>1000090</v>
+      </c>
+      <c r="B23">
+        <v>10</v>
+      </c>
+      <c r="C23">
+        <v>40</v>
+      </c>
+      <c r="D23" t="s">
+        <v>262</v>
+      </c>
+      <c r="E23" t="s">
+        <v>263</v>
+      </c>
+      <c r="F23" t="s">
+        <v>279</v>
+      </c>
+      <c r="G23">
+        <v>70</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23" t="s">
+        <v>2</v>
+      </c>
+      <c r="K23">
+        <v>70</v>
+      </c>
+      <c r="L23" t="s">
+        <v>264</v>
+      </c>
+      <c r="M23" s="1">
+        <v>43489</v>
+      </c>
+      <c r="N23" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>2000080</v>
+      </c>
+      <c r="B24">
+        <v>20</v>
+      </c>
+      <c r="C24">
+        <v>40</v>
+      </c>
+      <c r="D24" t="s">
+        <v>265</v>
+      </c>
+      <c r="E24" t="s">
+        <v>266</v>
+      </c>
+      <c r="F24" t="s">
+        <v>280</v>
+      </c>
+      <c r="G24">
+        <v>60</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24" t="s">
+        <v>2</v>
+      </c>
+      <c r="K24">
+        <v>60</v>
+      </c>
+      <c r="L24" t="s">
+        <v>65</v>
+      </c>
+      <c r="M24" s="1">
+        <v>43489</v>
+      </c>
+      <c r="N24" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>3000070</v>
+      </c>
+      <c r="B25">
+        <v>30</v>
+      </c>
+      <c r="C25">
+        <v>40</v>
+      </c>
+      <c r="D25" t="s">
+        <v>267</v>
+      </c>
+      <c r="E25" t="s">
+        <v>268</v>
+      </c>
+      <c r="F25" t="s">
+        <v>281</v>
+      </c>
+      <c r="G25">
+        <v>150</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25" t="s">
+        <v>2</v>
+      </c>
+      <c r="K25">
+        <v>150</v>
+      </c>
+      <c r="L25" t="s">
+        <v>271</v>
+      </c>
+      <c r="M25" s="1">
+        <v>43489</v>
+      </c>
+      <c r="N25" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>1000100</v>
+      </c>
+      <c r="B26">
+        <v>10</v>
+      </c>
+      <c r="C26">
+        <v>50</v>
+      </c>
+      <c r="D26" t="s">
+        <v>269</v>
+      </c>
+      <c r="E26" t="s">
+        <v>270</v>
+      </c>
+      <c r="F26" t="s">
+        <v>282</v>
+      </c>
+      <c r="G26">
+        <v>30</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="J26" t="s">
+        <v>2</v>
+      </c>
+      <c r="K26">
+        <v>30</v>
+      </c>
+      <c r="L26" t="s">
+        <v>272</v>
+      </c>
+      <c r="M26" s="1">
+        <v>43489</v>
+      </c>
+      <c r="N26" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>2000090</v>
+      </c>
+      <c r="B27">
+        <v>20</v>
+      </c>
+      <c r="C27">
+        <v>50</v>
+      </c>
+      <c r="D27" t="s">
+        <v>273</v>
+      </c>
+      <c r="E27" t="s">
+        <v>274</v>
+      </c>
+      <c r="F27" t="s">
+        <v>283</v>
+      </c>
+      <c r="G27">
+        <v>10</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+      <c r="J27" t="s">
+        <v>2</v>
+      </c>
+      <c r="K27">
+        <v>10</v>
+      </c>
+      <c r="L27" t="s">
+        <v>275</v>
+      </c>
+      <c r="M27" s="1">
+        <v>43489</v>
+      </c>
+      <c r="N27" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>3000080</v>
+      </c>
+      <c r="B28">
+        <v>30</v>
+      </c>
+      <c r="C28">
+        <v>50</v>
+      </c>
+      <c r="D28" t="s">
+        <v>276</v>
+      </c>
+      <c r="E28" t="s">
+        <v>278</v>
+      </c>
+      <c r="F28" t="s">
+        <v>284</v>
+      </c>
+      <c r="G28">
+        <v>100</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="J28" t="s">
+        <v>2</v>
+      </c>
+      <c r="K28">
+        <v>100</v>
+      </c>
+      <c r="L28" t="s">
+        <v>277</v>
+      </c>
+      <c r="M28" s="1">
+        <v>43489</v>
+      </c>
+      <c r="N28" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>1000110</v>
+      </c>
+      <c r="B29">
+        <v>10</v>
+      </c>
+      <c r="C29">
+        <v>60</v>
+      </c>
+      <c r="F29" t="s">
+        <v>219</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
+      <c r="J29" t="s">
+        <v>2</v>
+      </c>
+      <c r="N29" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>2000100</v>
+      </c>
+      <c r="B30">
+        <v>20</v>
+      </c>
+      <c r="C30">
+        <v>60</v>
+      </c>
+      <c r="F30" t="s">
+        <v>220</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="J30" t="s">
+        <v>2</v>
+      </c>
+      <c r="N30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>3000090</v>
+      </c>
+      <c r="B31">
+        <v>30</v>
+      </c>
+      <c r="C31">
+        <v>60</v>
+      </c>
+      <c r="F31" t="s">
+        <v>221</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
+      <c r="I31">
+        <v>1</v>
+      </c>
+      <c r="J31" t="s">
+        <v>2</v>
+      </c>
+      <c r="N31" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>1000120</v>
+      </c>
+      <c r="B32">
+        <v>10</v>
+      </c>
+      <c r="C32">
+        <v>70</v>
+      </c>
+      <c r="F32" t="s">
+        <v>222</v>
+      </c>
+      <c r="H32">
+        <v>1</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
+      <c r="J32" t="s">
+        <v>2</v>
+      </c>
+      <c r="N32" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>2000110</v>
+      </c>
+      <c r="B33">
+        <v>20</v>
+      </c>
+      <c r="C33">
+        <v>70</v>
+      </c>
+      <c r="F33" t="s">
+        <v>223</v>
+      </c>
+      <c r="H33">
+        <v>1</v>
+      </c>
+      <c r="I33">
+        <v>1</v>
+      </c>
+      <c r="J33" t="s">
+        <v>2</v>
+      </c>
+      <c r="N33" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>3000100</v>
+      </c>
+      <c r="B34">
+        <v>30</v>
+      </c>
+      <c r="C34">
+        <v>70</v>
+      </c>
+      <c r="F34" t="s">
+        <v>224</v>
+      </c>
+      <c r="H34">
+        <v>1</v>
+      </c>
+      <c r="I34">
+        <v>1</v>
+      </c>
+      <c r="J34" t="s">
+        <v>2</v>
+      </c>
+      <c r="N34" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>1000130</v>
+      </c>
+      <c r="B35">
+        <v>10</v>
+      </c>
+      <c r="C35">
+        <v>80</v>
+      </c>
+      <c r="F35" t="s">
+        <v>225</v>
+      </c>
+      <c r="H35">
+        <v>1</v>
+      </c>
+      <c r="I35">
+        <v>1</v>
+      </c>
+      <c r="J35" t="s">
+        <v>2</v>
+      </c>
+      <c r="N35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>2000120</v>
+      </c>
+      <c r="B36">
+        <v>20</v>
+      </c>
+      <c r="C36">
+        <v>80</v>
+      </c>
+      <c r="F36" t="s">
+        <v>226</v>
+      </c>
+      <c r="H36">
+        <v>1</v>
+      </c>
+      <c r="I36">
+        <v>1</v>
+      </c>
+      <c r="J36" t="s">
+        <v>2</v>
+      </c>
+      <c r="N36" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>3000110</v>
+      </c>
+      <c r="B37">
+        <v>30</v>
+      </c>
+      <c r="C37">
+        <v>80</v>
+      </c>
+      <c r="F37" t="s">
+        <v>227</v>
+      </c>
+      <c r="H37">
+        <v>1</v>
+      </c>
+      <c r="I37">
+        <v>1</v>
+      </c>
+      <c r="J37" t="s">
+        <v>2</v>
+      </c>
+      <c r="N37" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3170,14 +4269,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>162</v>
       </c>
@@ -3188,7 +4287,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>10</v>
       </c>
@@ -3199,7 +4298,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>20</v>
       </c>
@@ -3210,7 +4309,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>30</v>
       </c>

--- a/Jeu d'essai.xlsx
+++ b/Jeu d'essai.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="386" documentId="11_AD4D9D64A577C11A406BCC2E771E5A145ADEDD99" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{A5EA6DF1-8350-4922-A7DC-17856F754D8D}"/>
+  <xr:revisionPtr revIDLastSave="423" documentId="11_AD4D9D64A577C11A406BCC2E771E5A145ADEDD99" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{B64165C4-F500-4A6F-A252-109182B63983}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="292">
   <si>
     <t>Djembé</t>
   </si>
@@ -698,15 +698,6 @@
     <t>DateVisite</t>
   </si>
   <si>
-    <t>1000110.jpg</t>
-  </si>
-  <si>
-    <t>2000100.jpg</t>
-  </si>
-  <si>
-    <t>3000090.jpg</t>
-  </si>
-  <si>
     <t>1000120.jpg</t>
   </si>
   <si>
@@ -848,9 +839,6 @@
     <t>Poussette Graco avec plateau avant amovible Dessus baldaquin dont le siège et repose pied s'abaisse 3 positons Roulettes pivotantes avec freins.</t>
   </si>
   <si>
-    <t>2 x Roulette pivotante D=4'' L=1-15/16'' en polyoléfine</t>
-  </si>
-  <si>
     <t>Diamètre de roue: 4" (100 mm) Type de roulette: Pivotant Matériau du cadre: Acier Distance entre les trous de boulon (centre-centre): 55 mm x 80 mm Dimensions de la plaque: 78 mm x 102 mm Hauteur hors tout: 5"</t>
   </si>
   <si>
@@ -894,6 +882,39 @@
   </si>
   <si>
     <t>3000080.JPG</t>
+  </si>
+  <si>
+    <t>2 x Roulette pivotante en polyoléfine</t>
+  </si>
+  <si>
+    <t>Ski ELAN 144 cm</t>
+  </si>
+  <si>
+    <t>A vendre ensemble de ski alpin: Ski ELAN 144 cm avec bottes pointure 26, plus bâtons.</t>
+  </si>
+  <si>
+    <t>Patin grandeur 2</t>
+  </si>
+  <si>
+    <t>Patin hockey gr 2 CCM SL-100 220mm</t>
+  </si>
+  <si>
+    <t>Bâton Bauer Junior Nexus 1N</t>
+  </si>
+  <si>
+    <t>Bâton Bauer Junior Nexus 1N - Kane P88 Flex 47 Lie 5 Bâton haut de gamme. Pour joueur de catégorie Atome et Peewee. Excellent état. Peu utilisé (mon garçon a grandi rapidement ). A été coupé légèrement (longueur 48 po du talon )</t>
+  </si>
+  <si>
+    <t>3000090.JPG</t>
+  </si>
+  <si>
+    <t>2000100.JPG</t>
+  </si>
+  <si>
+    <t>1000110.JPG</t>
+  </si>
+  <si>
+    <t>7.0</t>
   </si>
 </sst>
 </file>
@@ -3374,13 +3395,13 @@
         <v>10</v>
       </c>
       <c r="D14" t="s">
+        <v>225</v>
+      </c>
+      <c r="E14" t="s">
+        <v>226</v>
+      </c>
+      <c r="F14" t="s">
         <v>228</v>
-      </c>
-      <c r="E14" t="s">
-        <v>229</v>
-      </c>
-      <c r="F14" t="s">
-        <v>231</v>
       </c>
       <c r="G14">
         <v>20</v>
@@ -3398,7 +3419,7 @@
         <v>20</v>
       </c>
       <c r="L14" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="M14" s="1">
         <v>43489</v>
@@ -3418,13 +3439,13 @@
         <v>10</v>
       </c>
       <c r="D15" t="s">
+        <v>229</v>
+      </c>
+      <c r="E15" t="s">
+        <v>231</v>
+      </c>
+      <c r="F15" t="s">
         <v>232</v>
-      </c>
-      <c r="E15" t="s">
-        <v>234</v>
-      </c>
-      <c r="F15" t="s">
-        <v>235</v>
       </c>
       <c r="G15">
         <v>20</v>
@@ -3442,7 +3463,7 @@
         <v>20</v>
       </c>
       <c r="L15" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="M15" s="1">
         <v>43489</v>
@@ -3462,13 +3483,13 @@
         <v>10</v>
       </c>
       <c r="D16" t="s">
+        <v>233</v>
+      </c>
+      <c r="E16" t="s">
+        <v>235</v>
+      </c>
+      <c r="F16" t="s">
         <v>236</v>
-      </c>
-      <c r="E16" t="s">
-        <v>238</v>
-      </c>
-      <c r="F16" t="s">
-        <v>239</v>
       </c>
       <c r="G16">
         <v>5</v>
@@ -3486,7 +3507,7 @@
         <v>5</v>
       </c>
       <c r="L16" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="M16" s="1">
         <v>43489</v>
@@ -3506,13 +3527,13 @@
         <v>20</v>
       </c>
       <c r="D17" t="s">
+        <v>237</v>
+      </c>
+      <c r="E17" t="s">
+        <v>238</v>
+      </c>
+      <c r="F17" t="s">
         <v>240</v>
-      </c>
-      <c r="E17" t="s">
-        <v>241</v>
-      </c>
-      <c r="F17" t="s">
-        <v>243</v>
       </c>
       <c r="G17">
         <v>500</v>
@@ -3530,7 +3551,7 @@
         <v>500</v>
       </c>
       <c r="L17" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="M17" s="1">
         <v>43489</v>
@@ -3550,13 +3571,13 @@
         <v>20</v>
       </c>
       <c r="D18" t="s">
+        <v>241</v>
+      </c>
+      <c r="E18" t="s">
+        <v>242</v>
+      </c>
+      <c r="F18" t="s">
         <v>244</v>
-      </c>
-      <c r="E18" t="s">
-        <v>245</v>
-      </c>
-      <c r="F18" t="s">
-        <v>247</v>
       </c>
       <c r="G18">
         <v>275</v>
@@ -3574,7 +3595,7 @@
         <v>275</v>
       </c>
       <c r="L18" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="M18" s="1">
         <v>43489</v>
@@ -3594,13 +3615,13 @@
         <v>20</v>
       </c>
       <c r="D19" t="s">
+        <v>245</v>
+      </c>
+      <c r="E19" t="s">
+        <v>246</v>
+      </c>
+      <c r="F19" t="s">
         <v>248</v>
-      </c>
-      <c r="E19" t="s">
-        <v>249</v>
-      </c>
-      <c r="F19" t="s">
-        <v>251</v>
       </c>
       <c r="G19">
         <v>50</v>
@@ -3618,7 +3639,7 @@
         <v>50</v>
       </c>
       <c r="L19" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="M19" s="1">
         <v>43489</v>
@@ -3638,13 +3659,13 @@
         <v>30</v>
       </c>
       <c r="D20" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="E20" t="s">
+        <v>249</v>
+      </c>
+      <c r="F20" t="s">
         <v>252</v>
-      </c>
-      <c r="F20" t="s">
-        <v>255</v>
       </c>
       <c r="G20">
         <v>150</v>
@@ -3662,7 +3683,7 @@
         <v>150</v>
       </c>
       <c r="L20" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="M20" s="1">
         <v>43489</v>
@@ -3682,13 +3703,13 @@
         <v>30</v>
       </c>
       <c r="D21" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="E21" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F21" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G21">
         <v>40</v>
@@ -3706,7 +3727,7 @@
         <v>40</v>
       </c>
       <c r="L21" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="M21" s="1">
         <v>43489</v>
@@ -3726,13 +3747,13 @@
         <v>30</v>
       </c>
       <c r="D22" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="E22" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F22" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="G22">
         <v>100</v>
@@ -3750,7 +3771,7 @@
         <v>100</v>
       </c>
       <c r="L22" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="M22" s="1">
         <v>43489</v>
@@ -3770,13 +3791,13 @@
         <v>40</v>
       </c>
       <c r="D23" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="E23" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F23" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="G23">
         <v>70</v>
@@ -3794,7 +3815,7 @@
         <v>70</v>
       </c>
       <c r="L23" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="M23" s="1">
         <v>43489</v>
@@ -3814,13 +3835,13 @@
         <v>40</v>
       </c>
       <c r="D24" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E24" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="F24" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="G24">
         <v>60</v>
@@ -3858,13 +3879,13 @@
         <v>40</v>
       </c>
       <c r="D25" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="E25" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="F25" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="G25">
         <v>150</v>
@@ -3882,7 +3903,7 @@
         <v>150</v>
       </c>
       <c r="L25" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="M25" s="1">
         <v>43489</v>
@@ -3902,13 +3923,13 @@
         <v>50</v>
       </c>
       <c r="D26" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="E26" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="F26" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="G26">
         <v>30</v>
@@ -3926,7 +3947,7 @@
         <v>30</v>
       </c>
       <c r="L26" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="M26" s="1">
         <v>43489</v>
@@ -3946,13 +3967,13 @@
         <v>50</v>
       </c>
       <c r="D27" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="E27" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="F27" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="G27">
         <v>10</v>
@@ -3970,7 +3991,7 @@
         <v>10</v>
       </c>
       <c r="L27" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="M27" s="1">
         <v>43489</v>
@@ -3990,13 +4011,13 @@
         <v>50</v>
       </c>
       <c r="D28" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="E28" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="F28" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="G28">
         <v>100</v>
@@ -4014,7 +4035,7 @@
         <v>100</v>
       </c>
       <c r="L28" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="M28" s="1">
         <v>43489</v>
@@ -4033,8 +4054,17 @@
       <c r="C29">
         <v>60</v>
       </c>
+      <c r="D29" t="s">
+        <v>282</v>
+      </c>
+      <c r="E29" t="s">
+        <v>283</v>
+      </c>
       <c r="F29" t="s">
-        <v>219</v>
+        <v>290</v>
+      </c>
+      <c r="G29">
+        <v>110</v>
       </c>
       <c r="H29">
         <v>1</v>
@@ -4044,6 +4074,15 @@
       </c>
       <c r="J29" t="s">
         <v>2</v>
+      </c>
+      <c r="K29">
+        <v>110</v>
+      </c>
+      <c r="L29" t="s">
+        <v>291</v>
+      </c>
+      <c r="M29" s="1">
+        <v>43490</v>
       </c>
       <c r="N29" t="s">
         <v>2</v>
@@ -4059,8 +4098,17 @@
       <c r="C30">
         <v>60</v>
       </c>
+      <c r="D30" t="s">
+        <v>284</v>
+      </c>
+      <c r="E30" t="s">
+        <v>285</v>
+      </c>
       <c r="F30" t="s">
-        <v>220</v>
+        <v>289</v>
+      </c>
+      <c r="G30">
+        <v>20</v>
       </c>
       <c r="H30">
         <v>1</v>
@@ -4070,6 +4118,15 @@
       </c>
       <c r="J30" t="s">
         <v>2</v>
+      </c>
+      <c r="K30">
+        <v>20</v>
+      </c>
+      <c r="L30" t="s">
+        <v>251</v>
+      </c>
+      <c r="M30" s="1">
+        <v>43490</v>
       </c>
       <c r="N30" t="s">
         <v>2</v>
@@ -4085,8 +4142,17 @@
       <c r="C31">
         <v>60</v>
       </c>
+      <c r="D31" t="s">
+        <v>286</v>
+      </c>
+      <c r="E31" t="s">
+        <v>287</v>
+      </c>
       <c r="F31" t="s">
-        <v>221</v>
+        <v>288</v>
+      </c>
+      <c r="G31">
+        <v>25</v>
       </c>
       <c r="H31">
         <v>1</v>
@@ -4096,6 +4162,15 @@
       </c>
       <c r="J31" t="s">
         <v>2</v>
+      </c>
+      <c r="K31">
+        <v>25</v>
+      </c>
+      <c r="L31" t="s">
+        <v>230</v>
+      </c>
+      <c r="M31" s="1">
+        <v>43490</v>
       </c>
       <c r="N31" t="s">
         <v>2</v>
@@ -4112,7 +4187,7 @@
         <v>70</v>
       </c>
       <c r="F32" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="H32">
         <v>1</v>
@@ -4138,7 +4213,7 @@
         <v>70</v>
       </c>
       <c r="F33" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="H33">
         <v>1</v>
@@ -4164,7 +4239,7 @@
         <v>70</v>
       </c>
       <c r="F34" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H34">
         <v>1</v>
@@ -4190,7 +4265,7 @@
         <v>80</v>
       </c>
       <c r="F35" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="H35">
         <v>1</v>
@@ -4216,7 +4291,7 @@
         <v>80</v>
       </c>
       <c r="F36" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="H36">
         <v>1</v>
@@ -4242,7 +4317,7 @@
         <v>80</v>
       </c>
       <c r="F37" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="H37">
         <v>1</v>

--- a/Jeu d'essai.xlsx
+++ b/Jeu d'essai.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="5497" documentId="14_{E952B2A6-1070-47AA-ABAD-4591E8C72938}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{68ED3AB5-5884-45E2-9F89-4B115AFD1E9E}"/>
+  <xr:revisionPtr revIDLastSave="123" documentId="114_{8D9B191C-2013-4270-87A9-3FB899E57325}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{A5336531-4270-454E-92BD-BC67120EEC4A}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1519,9 +1519,6 @@
     <t>26.99</t>
   </si>
   <si>
-    <t>Perceuse à percussion sans fil, 3 vitesses, 20 V MAX</t>
-  </si>
-  <si>
     <t>La perceuse à percussion sans fil 20V MAX de Dewalt est munie d'un moteur sans brosse à haute puissance et efficacité. Avec ses 3 vitesses réversibles, elle peut atteindre jusqu'à 2250 tr/min. et 38 250 CPM. Mandrin métallique robuste avec insertions au carbure. Son éclairage DEL intégré fournit la lumière nécessaire dans les espaces sombres et confinés. Son mode projecteur propose aussi une fonction d'arrêt de 20 minutes permettant un temps de travail prolongé. Batterie 20V MAX Lithium-ion XR, non-incluse. Garantie limitée de 3 ans.</t>
   </si>
   <si>
@@ -1724,9 +1721,6 @@
   </si>
   <si>
     <t>1100022.jpg</t>
-  </si>
-  <si>
-    <t>Skis de fond Evo First 49 avec fixations de Rossignol</t>
   </si>
   <si>
     <t>Apprenez la bonne technique et le contrôle sur ces skis conçus spécifiquement pour les débutants. Grâce à leurs dimensions réduites, ils sont plus faciles à manœuvrer et à contrôler dans les pentes et les sections glacées.</t>
@@ -2406,73 +2400,76 @@
     <t>Secret123</t>
   </si>
   <si>
-    <t>client101@gmail.com</t>
-  </si>
-  <si>
-    <t>client102@gmail.com</t>
-  </si>
-  <si>
-    <t>client103@gmail.com</t>
-  </si>
-  <si>
-    <t>client104@gmail.com</t>
-  </si>
-  <si>
-    <t>client105@gmail.com</t>
-  </si>
-  <si>
-    <t>client106@gmail.com</t>
-  </si>
-  <si>
-    <t>client107@gmail.com</t>
-  </si>
-  <si>
-    <t>client108@gmail.com</t>
-  </si>
-  <si>
-    <t>client109@gmail.com</t>
-  </si>
-  <si>
-    <t>client110@gmail.com</t>
-  </si>
-  <si>
-    <t>client111@gmail.com</t>
-  </si>
-  <si>
-    <t>client112@gmail.com</t>
-  </si>
-  <si>
-    <t>client113@gmail.com</t>
-  </si>
-  <si>
-    <t>client114@gmail.com</t>
-  </si>
-  <si>
-    <t>client115@gmail.com</t>
-  </si>
-  <si>
-    <t>client116@gmail.com</t>
-  </si>
-  <si>
-    <t>client117@gmail.com</t>
-  </si>
-  <si>
-    <t>client118@gmail.com</t>
-  </si>
-  <si>
-    <t>client119@gmail.com</t>
-  </si>
-  <si>
-    <t>client120@gmail.com</t>
+    <t>Perceuse à percussion sans fil, 3 vitesses</t>
+  </si>
+  <si>
+    <t>Skis de fond Evo First 49 de Rossignol</t>
+  </si>
+  <si>
+    <t>client10001@gmail.com</t>
+  </si>
+  <si>
+    <t>client10002@gmail.com</t>
+  </si>
+  <si>
+    <t>client10003@gmail.com</t>
+  </si>
+  <si>
+    <t>client10004@gmail.com</t>
+  </si>
+  <si>
+    <t>client10005@gmail.com</t>
+  </si>
+  <si>
+    <t>client10006@gmail.com</t>
+  </si>
+  <si>
+    <t>client10007@gmail.com</t>
+  </si>
+  <si>
+    <t>client10008@gmail.com</t>
+  </si>
+  <si>
+    <t>client10009@gmail.com</t>
+  </si>
+  <si>
+    <t>client10010@gmail.com</t>
+  </si>
+  <si>
+    <t>client10011@gmail.com</t>
+  </si>
+  <si>
+    <t>client10012@gmail.com</t>
+  </si>
+  <si>
+    <t>client10013@gmail.com</t>
+  </si>
+  <si>
+    <t>client10014@gmail.com</t>
+  </si>
+  <si>
+    <t>client10015@gmail.com</t>
+  </si>
+  <si>
+    <t>client10016@gmail.com</t>
+  </si>
+  <si>
+    <t>client10017@gmail.com</t>
+  </si>
+  <si>
+    <t>client10018@gmail.com</t>
+  </si>
+  <si>
+    <t>client10019@gmail.com</t>
+  </si>
+  <si>
+    <t>client10020@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="_ * #,##0.00_)\ [$$-C0C]_ ;_ * \(#,##0.00\)\ [$$-C0C]_ ;_ * &quot;-&quot;??_)\ [$$-C0C]_ ;_ @_ "/>
-  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2502,7 +2499,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2512,7 +2509,6 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -2928,10 +2924,10 @@
         <v>0</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="M2" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="N2">
         <v>500</v>
@@ -2993,10 +2989,10 @@
         <v>0</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="M3" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="N3">
         <v>500</v>
@@ -3058,10 +3054,10 @@
         <v>4505658849</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="M4" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="N4">
         <v>75</v>
@@ -3123,16 +3119,16 @@
         <v>0</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="M5" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="N5">
         <v>100</v>
       </c>
       <c r="O5" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="P5">
         <v>1</v>
@@ -3188,10 +3184,10 @@
         <v>5149938373</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="M6" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="N6">
         <v>30</v>
@@ -3253,10 +3249,10 @@
         <v>0</v>
       </c>
       <c r="L7" s="3" t="s">
+        <v>765</v>
+      </c>
+      <c r="M7" t="s">
         <v>767</v>
-      </c>
-      <c r="M7" t="s">
-        <v>769</v>
       </c>
       <c r="N7">
         <v>40</v>
@@ -3318,16 +3314,16 @@
         <v>0</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="M8" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="N8">
         <v>50</v>
       </c>
       <c r="O8" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="P8">
         <v>1</v>
@@ -3381,7 +3377,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>2001</v>
+        <v>301</v>
       </c>
       <c r="B2" t="s">
         <v>87</v>
@@ -3392,7 +3388,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>2002</v>
+        <v>302</v>
       </c>
       <c r="B3" t="s">
         <v>89</v>
@@ -3403,7 +3399,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>2003</v>
+        <v>303</v>
       </c>
       <c r="B4" t="s">
         <v>91</v>
@@ -3414,7 +3410,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>2004</v>
+        <v>304</v>
       </c>
       <c r="B5" t="s">
         <v>93</v>
@@ -3451,7 +3447,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>3001</v>
+        <v>401</v>
       </c>
       <c r="B2" t="s">
         <v>82</v>
@@ -3459,7 +3455,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>3002</v>
+        <v>402</v>
       </c>
       <c r="B3" t="s">
         <v>83</v>
@@ -3467,7 +3463,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>3003</v>
+        <v>403</v>
       </c>
       <c r="B4" t="s">
         <v>84</v>
@@ -3505,32 +3501,32 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>3001</v>
+        <v>401</v>
       </c>
       <c r="B2">
-        <v>2001</v>
+        <v>301</v>
       </c>
       <c r="C2" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>3001</v>
+        <v>401</v>
       </c>
       <c r="B3">
-        <v>2002</v>
+        <v>302</v>
       </c>
       <c r="C3" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>3001</v>
+        <v>401</v>
       </c>
       <c r="B4">
-        <v>2003</v>
+        <v>303</v>
       </c>
       <c r="C4" t="s">
         <v>361</v>
@@ -3538,10 +3534,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>3001</v>
+        <v>401</v>
       </c>
       <c r="B5">
-        <v>2004</v>
+        <v>304</v>
       </c>
       <c r="C5" t="s">
         <v>253</v>
@@ -3549,43 +3545,43 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>3002</v>
+        <v>402</v>
       </c>
       <c r="B6">
-        <v>2001</v>
+        <v>301</v>
       </c>
       <c r="C6" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>3002</v>
+        <v>402</v>
       </c>
       <c r="B7">
-        <v>2002</v>
+        <v>302</v>
       </c>
       <c r="C7" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>3002</v>
+        <v>402</v>
       </c>
       <c r="B8">
-        <v>2003</v>
+        <v>303</v>
       </c>
       <c r="C8" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>3002</v>
+        <v>402</v>
       </c>
       <c r="B9">
-        <v>2004</v>
+        <v>304</v>
       </c>
       <c r="C9" t="s">
         <v>352</v>
@@ -3593,21 +3589,21 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>3003</v>
+        <v>403</v>
       </c>
       <c r="B10">
-        <v>2001</v>
+        <v>301</v>
       </c>
       <c r="C10" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>3003</v>
+        <v>403</v>
       </c>
       <c r="B11">
-        <v>2002</v>
+        <v>302</v>
       </c>
       <c r="C11" t="s">
         <v>345</v>
@@ -3615,10 +3611,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>3003</v>
+        <v>403</v>
       </c>
       <c r="B12">
-        <v>2003</v>
+        <v>303</v>
       </c>
       <c r="C12" t="s">
         <v>253</v>
@@ -3626,10 +3622,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>3003</v>
+        <v>403</v>
       </c>
       <c r="B13">
-        <v>2004</v>
+        <v>304</v>
       </c>
       <c r="C13" t="s">
         <v>260</v>
@@ -3667,7 +3663,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>4001</v>
+        <v>101</v>
       </c>
       <c r="B2" s="1">
         <v>38353</v>
@@ -3678,7 +3674,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>4002</v>
+        <v>102</v>
       </c>
       <c r="B3" s="1">
         <v>40544</v>
@@ -3689,7 +3685,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>4003</v>
+        <v>103</v>
       </c>
       <c r="B4" s="1">
         <v>40909</v>
@@ -3700,7 +3696,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>4004</v>
+        <v>104</v>
       </c>
       <c r="B5" s="1">
         <v>41275</v>
@@ -3741,7 +3737,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>5001</v>
+        <v>201</v>
       </c>
       <c r="B2" s="1">
         <v>36892</v>
@@ -3752,7 +3748,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>5002</v>
+        <v>202</v>
       </c>
       <c r="B3" s="1">
         <v>38353</v>
@@ -3763,7 +3759,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>5003</v>
+        <v>203</v>
       </c>
       <c r="B4" s="1">
         <v>39448</v>
@@ -3807,10 +3803,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="C2" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
     </row>
   </sheetData>
@@ -3899,13 +3895,13 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>101</v>
+        <v>10001</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>770</v>
       </c>
       <c r="C2" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="D2" t="s">
         <v>293</v>
@@ -3952,13 +3948,13 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>102</v>
+        <v>10002</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>771</v>
       </c>
       <c r="C3" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="D3" t="s">
         <v>298</v>
@@ -4005,13 +4001,13 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>103</v>
+        <v>10003</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>772</v>
       </c>
       <c r="C4" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="D4" t="s">
         <v>0</v>
@@ -4058,13 +4054,13 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>104</v>
+        <v>10004</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>773</v>
       </c>
       <c r="C5" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="D5" t="s">
         <v>276</v>
@@ -4111,13 +4107,13 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>105</v>
+        <v>10005</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>774</v>
       </c>
       <c r="C6" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="D6" t="s">
         <v>0</v>
@@ -4164,13 +4160,13 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>106</v>
+        <v>10006</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>775</v>
       </c>
       <c r="C7" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="D7" t="s">
         <v>0</v>
@@ -4217,13 +4213,13 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>107</v>
+        <v>10007</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>776</v>
       </c>
       <c r="C8" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="D8" t="s">
         <v>0</v>
@@ -4270,13 +4266,13 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>108</v>
+        <v>10008</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>777</v>
       </c>
       <c r="C9" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="D9" t="s">
         <v>306</v>
@@ -4323,13 +4319,13 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>109</v>
+        <v>10009</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>778</v>
       </c>
       <c r="C10" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="D10" t="s">
         <v>0</v>
@@ -4376,13 +4372,13 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>110</v>
+        <v>10010</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>779</v>
       </c>
       <c r="C11" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="D11" t="s">
         <v>0</v>
@@ -4429,13 +4425,13 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>111</v>
+        <v>10011</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>780</v>
       </c>
       <c r="C12" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="D12" t="s">
         <v>0</v>
@@ -4482,13 +4478,13 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>112</v>
+        <v>10012</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>781</v>
       </c>
       <c r="C13" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="D13" t="s">
         <v>0</v>
@@ -4535,13 +4531,13 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>113</v>
+        <v>10013</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>782</v>
       </c>
       <c r="C14" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="D14" t="s">
         <v>0</v>
@@ -4588,13 +4584,13 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>114</v>
+        <v>10014</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>783</v>
       </c>
       <c r="C15" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="D15" t="s">
         <v>309</v>
@@ -4641,13 +4637,13 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>115</v>
+        <v>10015</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>784</v>
       </c>
       <c r="C16" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="D16" t="s">
         <v>0</v>
@@ -4694,13 +4690,13 @@
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>116</v>
+        <v>10016</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>785</v>
       </c>
       <c r="C17" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="D17" t="s">
         <v>0</v>
@@ -4747,13 +4743,13 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>117</v>
+        <v>10017</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>786</v>
       </c>
       <c r="C18" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="D18" t="s">
         <v>0</v>
@@ -4800,13 +4796,13 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>118</v>
+        <v>10018</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>787</v>
       </c>
       <c r="C19" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="D19" t="s">
         <v>312</v>
@@ -4853,13 +4849,13 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>119</v>
+        <v>10019</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>788</v>
       </c>
       <c r="C20" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="D20" t="s">
         <v>317</v>
@@ -4906,13 +4902,13 @@
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>120</v>
+        <v>10020</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>789</v>
       </c>
       <c r="C21" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="D21" t="s">
         <v>322</v>
@@ -4989,7 +4985,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>1001</v>
+        <v>501</v>
       </c>
       <c r="B2" t="s">
         <v>15</v>
@@ -5000,7 +4996,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>1002</v>
+        <v>502</v>
       </c>
       <c r="B3" t="s">
         <v>17</v>
@@ -5011,7 +5007,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>1003</v>
+        <v>503</v>
       </c>
       <c r="B4" t="s">
         <v>19</v>
@@ -5022,7 +5018,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>1004</v>
+        <v>504</v>
       </c>
       <c r="B5" t="s">
         <v>21</v>
@@ -5033,7 +5029,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>1005</v>
+        <v>505</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -5044,7 +5040,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>1006</v>
+        <v>506</v>
       </c>
       <c r="B7" t="s">
         <v>25</v>
@@ -5055,7 +5051,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>1007</v>
+        <v>507</v>
       </c>
       <c r="B8" t="s">
         <v>27</v>
@@ -5066,7 +5062,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>1008</v>
+        <v>508</v>
       </c>
       <c r="B9" t="s">
         <v>29</v>
@@ -5085,9 +5081,7 @@
   <sheetPr codeName="Feuil4"/>
   <dimension ref="A1:N105"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -5160,7 +5154,7 @@
         <v>11</v>
       </c>
       <c r="C2" s="2">
-        <v>1001</v>
+        <v>501</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>110</v>
@@ -5183,7 +5177,7 @@
       <c r="J2" s="4">
         <v>43532.999988425923</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="6" t="s">
         <v>267</v>
       </c>
       <c r="L2" s="2" t="s">
@@ -5192,7 +5186,7 @@
       <c r="M2" s="4">
         <v>43473.377766203703</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="N2" s="5" t="s">
         <v>0</v>
       </c>
     </row>
@@ -5204,7 +5198,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="2">
-        <v>1003</v>
+        <v>503</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>113</v>
@@ -5227,7 +5221,7 @@
       <c r="J3" s="4">
         <v>43533.999988425923</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="K3" s="6" t="s">
         <v>353</v>
       </c>
       <c r="L3" s="2" t="s">
@@ -5236,7 +5230,7 @@
       <c r="M3" s="4">
         <v>43474.375092592592</v>
       </c>
-      <c r="N3" s="6" t="s">
+      <c r="N3" s="5" t="s">
         <v>0</v>
       </c>
     </row>
@@ -5248,7 +5242,7 @@
         <v>11</v>
       </c>
       <c r="C4" s="2">
-        <v>1003</v>
+        <v>503</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>120</v>
@@ -5271,7 +5265,7 @@
       <c r="J4" s="4">
         <v>43533.999988425923</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="K4" s="6" t="s">
         <v>354</v>
       </c>
       <c r="L4" s="2" t="s">
@@ -5280,7 +5274,7 @@
       <c r="M4" s="4">
         <v>43474.382164351853</v>
       </c>
-      <c r="N4" s="6" t="s">
+      <c r="N4" s="5" t="s">
         <v>0</v>
       </c>
     </row>
@@ -5292,7 +5286,7 @@
         <v>11</v>
       </c>
       <c r="C5" s="2">
-        <v>1003</v>
+        <v>503</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>123</v>
@@ -5315,7 +5309,7 @@
       <c r="J5" s="4">
         <v>43533.999988425923</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="K5" s="6" t="s">
         <v>74</v>
       </c>
       <c r="L5" s="2" t="s">
@@ -5324,7 +5318,7 @@
       <c r="M5" s="4">
         <v>43474.392974537041</v>
       </c>
-      <c r="N5" s="6" t="s">
+      <c r="N5" s="5" t="s">
         <v>0</v>
       </c>
     </row>
@@ -5336,7 +5330,7 @@
         <v>11</v>
       </c>
       <c r="C6" s="2">
-        <v>1003</v>
+        <v>503</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>125</v>
@@ -5359,7 +5353,7 @@
       <c r="J6" s="4">
         <v>43533.999988425923</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="K6" s="6" t="s">
         <v>74</v>
       </c>
       <c r="L6" s="2" t="s">
@@ -5368,7 +5362,7 @@
       <c r="M6" s="4">
         <v>43474.401585648149</v>
       </c>
-      <c r="N6" s="6" t="s">
+      <c r="N6" s="5" t="s">
         <v>0</v>
       </c>
     </row>
@@ -5380,7 +5374,7 @@
         <v>11</v>
       </c>
       <c r="C7" s="2">
-        <v>1003</v>
+        <v>503</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>147</v>
@@ -5397,13 +5391,13 @@
       <c r="H7" s="2">
         <v>1</v>
       </c>
-      <c r="I7" s="7">
+      <c r="I7" s="6">
         <v>1</v>
       </c>
       <c r="J7" s="4">
         <v>43533.999988425923</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="K7" s="6" t="s">
         <v>355</v>
       </c>
       <c r="L7" s="2" t="s">
@@ -5412,7 +5406,7 @@
       <c r="M7" s="4">
         <v>43474.40662037037</v>
       </c>
-      <c r="N7" s="6" t="s">
+      <c r="N7" s="5" t="s">
         <v>0</v>
       </c>
     </row>
@@ -5424,7 +5418,7 @@
         <v>11</v>
       </c>
       <c r="C8" s="2">
-        <v>1004</v>
+        <v>504</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>107</v>
@@ -5441,13 +5435,13 @@
       <c r="H8" s="2">
         <v>1</v>
       </c>
-      <c r="I8" s="7">
+      <c r="I8" s="6">
         <v>1</v>
       </c>
       <c r="J8" s="4">
         <v>43534.999988368058</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="K8" s="6" t="s">
         <v>356</v>
       </c>
       <c r="L8" s="2" t="s">
@@ -5456,7 +5450,7 @@
       <c r="M8" s="4">
         <v>43475.376284722224</v>
       </c>
-      <c r="N8" s="6" t="s">
+      <c r="N8" s="5" t="s">
         <v>0</v>
       </c>
     </row>
@@ -5468,7 +5462,7 @@
         <v>11</v>
       </c>
       <c r="C9" s="2">
-        <v>1004</v>
+        <v>504</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>418</v>
@@ -5485,14 +5479,14 @@
       <c r="H9" s="2">
         <v>3</v>
       </c>
-      <c r="I9" s="7">
+      <c r="I9" s="6">
         <v>1</v>
       </c>
       <c r="J9" s="4">
         <v>43534.999988368058</v>
       </c>
-      <c r="K9" s="7" t="s">
-        <v>675</v>
+      <c r="K9" s="6" t="s">
+        <v>673</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>116</v>
@@ -5500,7 +5494,7 @@
       <c r="M9" s="4">
         <v>43475.389664351853</v>
       </c>
-      <c r="N9" s="6" t="s">
+      <c r="N9" s="5" t="s">
         <v>0</v>
       </c>
     </row>
@@ -5512,7 +5506,7 @@
         <v>11</v>
       </c>
       <c r="C10" s="2">
-        <v>1004</v>
+        <v>504</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>422</v>
@@ -5529,13 +5523,13 @@
       <c r="H10" s="2">
         <v>3</v>
       </c>
-      <c r="I10" s="7">
+      <c r="I10" s="6">
         <v>1</v>
       </c>
       <c r="J10" s="4">
         <v>43534.999988368058</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="K10" s="6" t="s">
         <v>421</v>
       </c>
       <c r="L10" s="2" t="s">
@@ -5544,7 +5538,7 @@
       <c r="M10" s="4">
         <v>43475.394305555557</v>
       </c>
-      <c r="N10" s="6" t="s">
+      <c r="N10" s="5" t="s">
         <v>0</v>
       </c>
     </row>
@@ -5556,7 +5550,7 @@
         <v>11</v>
       </c>
       <c r="C11" s="2">
-        <v>1005</v>
+        <v>505</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>468</v>
@@ -5573,13 +5567,13 @@
       <c r="H11" s="2">
         <v>3</v>
       </c>
-      <c r="I11" s="7">
+      <c r="I11" s="6">
         <v>1</v>
       </c>
       <c r="J11" s="4">
         <v>43535.999988368058</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="K11" s="6" t="s">
         <v>471</v>
       </c>
       <c r="L11" s="2" t="s">
@@ -5588,7 +5582,7 @@
       <c r="M11" s="4">
         <v>43476.377349537041</v>
       </c>
-      <c r="N11" s="6" t="s">
+      <c r="N11" s="5" t="s">
         <v>0</v>
       </c>
     </row>
@@ -5600,7 +5594,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="2">
-        <v>1005</v>
+        <v>505</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>472</v>
@@ -5617,13 +5611,13 @@
       <c r="H12" s="2">
         <v>3</v>
       </c>
-      <c r="I12" s="7">
+      <c r="I12" s="6">
         <v>1</v>
       </c>
       <c r="J12" s="4">
         <v>43535.999988368058</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="K12" s="6" t="s">
         <v>474</v>
       </c>
       <c r="L12" s="2" t="s">
@@ -5632,7 +5626,7 @@
       <c r="M12" s="4">
         <v>43476.380740740744</v>
       </c>
-      <c r="N12" s="6" t="s">
+      <c r="N12" s="5" t="s">
         <v>0</v>
       </c>
     </row>
@@ -5644,7 +5638,7 @@
         <v>11</v>
       </c>
       <c r="C13" s="2">
-        <v>1005</v>
+        <v>505</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>475</v>
@@ -5661,13 +5655,13 @@
       <c r="H13" s="2">
         <v>3</v>
       </c>
-      <c r="I13" s="7">
+      <c r="I13" s="6">
         <v>1</v>
       </c>
       <c r="J13" s="4">
         <v>43535.999988368058</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="K13" s="6" t="s">
         <v>478</v>
       </c>
       <c r="L13" s="2" t="s">
@@ -5676,7 +5670,7 @@
       <c r="M13" s="4">
         <v>43476.387083333335</v>
       </c>
-      <c r="N13" s="6" t="s">
+      <c r="N13" s="5" t="s">
         <v>0</v>
       </c>
     </row>
@@ -5688,31 +5682,31 @@
         <v>11</v>
       </c>
       <c r="C14" s="2">
-        <v>1005</v>
+        <v>505</v>
       </c>
       <c r="D14" s="2" t="s">
+        <v>768</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>479</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="F14" s="2" t="s">
+        <v>721</v>
+      </c>
+      <c r="G14" s="2" t="s">
         <v>480</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>723</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>481</v>
       </c>
       <c r="H14" s="2">
         <v>3</v>
       </c>
-      <c r="I14" s="7">
+      <c r="I14" s="6">
         <v>1</v>
       </c>
       <c r="J14" s="4">
         <v>43535.999988368058</v>
       </c>
-      <c r="K14" s="7" t="s">
-        <v>481</v>
+      <c r="K14" s="6" t="s">
+        <v>480</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>203</v>
@@ -5720,7 +5714,7 @@
       <c r="M14" s="4">
         <v>43476.391909722224</v>
       </c>
-      <c r="N14" s="6" t="s">
+      <c r="N14" s="5" t="s">
         <v>0</v>
       </c>
     </row>
@@ -5732,13 +5726,13 @@
         <v>11</v>
       </c>
       <c r="C15" s="2">
-        <v>1006</v>
+        <v>506</v>
       </c>
       <c r="D15" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>509</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>510</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>240</v>
@@ -5749,22 +5743,22 @@
       <c r="H15" s="2">
         <v>3</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I15" s="6">
         <v>1</v>
       </c>
       <c r="J15" s="4">
         <v>43536.999988368058</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="K15" s="6" t="s">
         <v>351</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="M15" s="4">
         <v>43477.417650462965</v>
       </c>
-      <c r="N15" s="6" t="s">
+      <c r="N15" s="5" t="s">
         <v>0</v>
       </c>
     </row>
@@ -5776,16 +5770,16 @@
         <v>11</v>
       </c>
       <c r="C16" s="2">
-        <v>1006</v>
+        <v>506</v>
       </c>
       <c r="D16" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>513</v>
       </c>
-      <c r="E16" s="2" t="s">
-        <v>514</v>
-      </c>
       <c r="F16" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>401</v>
@@ -5793,22 +5787,22 @@
       <c r="H16" s="2">
         <v>3</v>
       </c>
-      <c r="I16" s="7">
+      <c r="I16" s="6">
         <v>1</v>
       </c>
       <c r="J16" s="4">
         <v>43536.999988368058</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="K16" s="6" t="s">
         <v>401</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="M16" s="4">
         <v>43477.430960648147</v>
       </c>
-      <c r="N16" s="6" t="s">
+      <c r="N16" s="5" t="s">
         <v>0</v>
       </c>
     </row>
@@ -5820,39 +5814,39 @@
         <v>11</v>
       </c>
       <c r="C17" s="2">
-        <v>1006</v>
+        <v>506</v>
       </c>
       <c r="D17" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>535</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="F17" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="G17" s="2" t="s">
         <v>536</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>516</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>537</v>
       </c>
       <c r="H17" s="2">
         <v>3</v>
       </c>
-      <c r="I17" s="7">
+      <c r="I17" s="6">
         <v>1</v>
       </c>
       <c r="J17" s="4">
         <v>43536.999988368058</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="K17" s="6" t="s">
+        <v>536</v>
+      </c>
+      <c r="L17" s="2" t="s">
         <v>537</v>
-      </c>
-      <c r="L17" s="2" t="s">
-        <v>538</v>
       </c>
       <c r="M17" s="4">
         <v>43477.444803240738</v>
       </c>
-      <c r="N17" s="6" t="s">
+      <c r="N17" s="5" t="s">
         <v>0</v>
       </c>
     </row>
@@ -5864,31 +5858,31 @@
         <v>11</v>
       </c>
       <c r="C18" s="2">
-        <v>1006</v>
+        <v>506</v>
       </c>
       <c r="D18" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>518</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="F18" s="2" t="s">
         <v>519</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="G18" s="2" t="s">
         <v>520</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>521</v>
       </c>
       <c r="H18" s="2">
         <v>3</v>
       </c>
-      <c r="I18" s="7">
+      <c r="I18" s="6">
         <v>1</v>
       </c>
       <c r="J18" s="4">
         <v>43536.999988368058</v>
       </c>
-      <c r="K18" s="7" t="s">
-        <v>521</v>
+      <c r="K18" s="6" t="s">
+        <v>520</v>
       </c>
       <c r="L18" s="2" t="s">
         <v>137</v>
@@ -5896,7 +5890,7 @@
       <c r="M18" s="4">
         <v>43477.457928240743</v>
       </c>
-      <c r="N18" s="6" t="s">
+      <c r="N18" s="5" t="s">
         <v>0</v>
       </c>
     </row>
@@ -5908,16 +5902,16 @@
         <v>11</v>
       </c>
       <c r="C19" s="2">
-        <v>1006</v>
+        <v>506</v>
       </c>
       <c r="D19" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>522</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="F19" s="2" t="s">
         <v>523</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>524</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>253</v>
@@ -5925,22 +5919,22 @@
       <c r="H19" s="2">
         <v>3</v>
       </c>
-      <c r="I19" s="7">
+      <c r="I19" s="6">
         <v>0</v>
       </c>
       <c r="J19" s="4">
         <v>43536.999988368058</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="K19" s="6" t="s">
         <v>253</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="M19" s="4">
         <v>43477.468217592592</v>
       </c>
-      <c r="N19" s="6" t="s">
+      <c r="N19" s="5" t="s">
         <v>0</v>
       </c>
     </row>
@@ -5952,39 +5946,39 @@
         <v>11</v>
       </c>
       <c r="C20" s="2">
-        <v>1006</v>
+        <v>506</v>
       </c>
       <c r="D20" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>526</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="F20" s="2" t="s">
         <v>527</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="G20" s="2" t="s">
         <v>528</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>529</v>
       </c>
       <c r="H20" s="2">
         <v>3</v>
       </c>
-      <c r="I20" s="7">
+      <c r="I20" s="6">
         <v>1</v>
       </c>
       <c r="J20" s="4">
         <v>43536.999988368058</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="K20" s="6" t="s">
+        <v>528</v>
+      </c>
+      <c r="L20" s="2" t="s">
         <v>529</v>
-      </c>
-      <c r="L20" s="2" t="s">
-        <v>530</v>
       </c>
       <c r="M20" s="4">
         <v>43477.474861111114</v>
       </c>
-      <c r="N20" s="6" t="s">
+      <c r="N20" s="5" t="s">
         <v>0</v>
       </c>
     </row>
@@ -5996,31 +5990,31 @@
         <v>11</v>
       </c>
       <c r="C21" s="2">
-        <v>1006</v>
+        <v>506</v>
       </c>
       <c r="D21" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="G21" s="2" t="s">
         <v>532</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>531</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>534</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>533</v>
       </c>
       <c r="H21" s="2">
         <v>3</v>
       </c>
-      <c r="I21" s="7">
+      <c r="I21" s="6">
         <v>1</v>
       </c>
       <c r="J21" s="4">
         <v>43536.999988368058</v>
       </c>
-      <c r="K21" s="7" t="s">
-        <v>533</v>
+      <c r="K21" s="6" t="s">
+        <v>532</v>
       </c>
       <c r="L21" s="2" t="s">
         <v>477</v>
@@ -6028,7 +6022,7 @@
       <c r="M21" s="4">
         <v>43477.488576388889</v>
       </c>
-      <c r="N21" s="6" t="s">
+      <c r="N21" s="5" t="s">
         <v>0</v>
       </c>
     </row>
@@ -6040,39 +6034,39 @@
         <v>11</v>
       </c>
       <c r="C22" s="2">
-        <v>1006</v>
+        <v>506</v>
       </c>
       <c r="D22" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>539</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="F22" s="2" t="s">
         <v>540</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="G22" s="2" t="s">
         <v>541</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>542</v>
       </c>
       <c r="H22" s="2">
         <v>3</v>
       </c>
-      <c r="I22" s="7">
+      <c r="I22" s="6">
         <v>1</v>
       </c>
       <c r="J22" s="4">
         <v>43536.999988368058</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="K22" s="6" t="s">
+        <v>541</v>
+      </c>
+      <c r="L22" s="2" t="s">
         <v>542</v>
-      </c>
-      <c r="L22" s="2" t="s">
-        <v>543</v>
       </c>
       <c r="M22" s="4">
         <v>43477.543715277781</v>
       </c>
-      <c r="N22" s="6" t="s">
+      <c r="N22" s="5" t="s">
         <v>0</v>
       </c>
     </row>
@@ -6084,31 +6078,31 @@
         <v>11</v>
       </c>
       <c r="C23" s="2">
-        <v>1006</v>
+        <v>506</v>
       </c>
       <c r="D23" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>544</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="F23" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="G23" s="2" t="s">
         <v>545</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>547</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>546</v>
       </c>
       <c r="H23" s="2">
         <v>3</v>
       </c>
-      <c r="I23" s="7">
+      <c r="I23" s="6">
         <v>1</v>
       </c>
       <c r="J23" s="4">
         <v>43536.999988368058</v>
       </c>
-      <c r="K23" s="7" t="s">
-        <v>546</v>
+      <c r="K23" s="6" t="s">
+        <v>545</v>
       </c>
       <c r="L23" s="2" t="s">
         <v>134</v>
@@ -6116,7 +6110,7 @@
       <c r="M23" s="4">
         <v>43477.552569444444</v>
       </c>
-      <c r="N23" s="6" t="s">
+      <c r="N23" s="5" t="s">
         <v>0</v>
       </c>
     </row>
@@ -6128,39 +6122,39 @@
         <v>11</v>
       </c>
       <c r="C24" s="2">
-        <v>1006</v>
+        <v>506</v>
       </c>
       <c r="D24" s="2" t="s">
+        <v>769</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="G24" s="2" t="s">
         <v>548</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>549</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>551</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>550</v>
       </c>
       <c r="H24" s="2">
         <v>3</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I24" s="6">
         <v>1</v>
       </c>
       <c r="J24" s="4">
         <v>43536.999988368058</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="K24" s="6" t="s">
+        <v>548</v>
+      </c>
+      <c r="L24" s="2" t="s">
         <v>550</v>
-      </c>
-      <c r="L24" s="2" t="s">
-        <v>552</v>
       </c>
       <c r="M24" s="4">
         <v>43477.556377314817</v>
       </c>
-      <c r="N24" s="6" t="s">
+      <c r="N24" s="5" t="s">
         <v>0</v>
       </c>
     </row>
@@ -6172,39 +6166,39 @@
         <v>11</v>
       </c>
       <c r="C25" s="2">
-        <v>1006</v>
+        <v>506</v>
       </c>
       <c r="D25" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="G25" s="2" t="s">
         <v>553</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>554</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>556</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>555</v>
       </c>
       <c r="H25" s="2">
         <v>3</v>
       </c>
-      <c r="I25" s="7">
+      <c r="I25" s="6">
         <v>0</v>
       </c>
       <c r="J25" s="4">
         <v>43536.999988368058</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="K25" s="6" t="s">
+        <v>553</v>
+      </c>
+      <c r="L25" s="2" t="s">
         <v>555</v>
-      </c>
-      <c r="L25" s="2" t="s">
-        <v>557</v>
       </c>
       <c r="M25" s="4">
         <v>43477.567870370367</v>
       </c>
-      <c r="N25" s="6" t="s">
+      <c r="N25" s="5" t="s">
         <v>0</v>
       </c>
     </row>
@@ -6216,39 +6210,39 @@
         <v>11</v>
       </c>
       <c r="C26" s="2">
-        <v>1006</v>
+        <v>506</v>
       </c>
       <c r="D26" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="G26" s="2" t="s">
         <v>558</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>559</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>562</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>560</v>
       </c>
       <c r="H26" s="2">
         <v>3</v>
       </c>
-      <c r="I26" s="7">
+      <c r="I26" s="6">
         <v>1</v>
       </c>
       <c r="J26" s="4">
         <v>43536.999988368058</v>
       </c>
-      <c r="K26" s="7" t="s">
-        <v>560</v>
+      <c r="K26" s="6" t="s">
+        <v>558</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="M26" s="4">
         <v>43477.578946759262</v>
       </c>
-      <c r="N26" s="6" t="s">
+      <c r="N26" s="5" t="s">
         <v>0</v>
       </c>
     </row>
@@ -6260,39 +6254,39 @@
         <v>11</v>
       </c>
       <c r="C27" s="2">
-        <v>1006</v>
+        <v>506</v>
       </c>
       <c r="D27" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="F27" s="2" t="s">
         <v>563</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="G27" s="2" t="s">
         <v>564</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>565</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>566</v>
       </c>
       <c r="H27" s="2">
         <v>3</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I27" s="6">
         <v>1</v>
       </c>
       <c r="J27" s="4">
         <v>43536.999988368058</v>
       </c>
-      <c r="K27" s="7" t="s">
-        <v>566</v>
+      <c r="K27" s="6" t="s">
+        <v>564</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="M27" s="4">
         <v>43477.583715277775</v>
       </c>
-      <c r="N27" s="6" t="s">
+      <c r="N27" s="5" t="s">
         <v>0</v>
       </c>
     </row>
@@ -6304,39 +6298,39 @@
         <v>11</v>
       </c>
       <c r="C28" s="2">
-        <v>1006</v>
+        <v>506</v>
       </c>
       <c r="D28" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="F28" s="2" t="s">
         <v>568</v>
       </c>
-      <c r="E28" s="2" t="s">
-        <v>569</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>570</v>
-      </c>
       <c r="G28" s="2" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="H28" s="2">
         <v>3</v>
       </c>
-      <c r="I28" s="7">
+      <c r="I28" s="6">
         <v>1</v>
       </c>
       <c r="J28" s="4">
         <v>43536.999988368058</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="K28" s="6" t="s">
+        <v>553</v>
+      </c>
+      <c r="L28" s="2" t="s">
         <v>555</v>
-      </c>
-      <c r="L28" s="2" t="s">
-        <v>557</v>
       </c>
       <c r="M28" s="4">
         <v>43477.591446759259</v>
       </c>
-      <c r="N28" s="6" t="s">
+      <c r="N28" s="5" t="s">
         <v>0</v>
       </c>
     </row>
@@ -6348,13 +6342,13 @@
         <v>11</v>
       </c>
       <c r="C29" s="2">
-        <v>1007</v>
+        <v>507</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>105</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>241</v>
@@ -6365,13 +6359,13 @@
       <c r="H29" s="2">
         <v>1</v>
       </c>
-      <c r="I29" s="7">
+      <c r="I29" s="6">
         <v>1</v>
       </c>
       <c r="J29" s="4">
         <v>43537.999988368058</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="K29" s="6" t="s">
         <v>355</v>
       </c>
       <c r="L29" s="2" t="s">
@@ -6380,7 +6374,7 @@
       <c r="M29" s="4">
         <v>43478.584328703706</v>
       </c>
-      <c r="N29" s="6" t="s">
+      <c r="N29" s="5" t="s">
         <v>0</v>
       </c>
     </row>
@@ -6392,13 +6386,13 @@
         <v>11</v>
       </c>
       <c r="C30" s="2">
-        <v>1007</v>
+        <v>507</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>242</v>
@@ -6409,13 +6403,13 @@
       <c r="H30" s="2">
         <v>1</v>
       </c>
-      <c r="I30" s="7">
+      <c r="I30" s="6">
         <v>1</v>
       </c>
       <c r="J30" s="4">
         <v>43537.999988368058</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="K30" s="6" t="s">
         <v>359</v>
       </c>
       <c r="L30" s="2" t="s">
@@ -6424,7 +6418,7 @@
       <c r="M30" s="4">
         <v>43478.597199074073</v>
       </c>
-      <c r="N30" s="6" t="s">
+      <c r="N30" s="5" t="s">
         <v>0</v>
       </c>
     </row>
@@ -6436,13 +6430,13 @@
         <v>11</v>
       </c>
       <c r="C31" s="2">
-        <v>1007</v>
+        <v>507</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>117</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>243</v>
@@ -6453,13 +6447,13 @@
       <c r="H31" s="2">
         <v>0</v>
       </c>
-      <c r="I31" s="7">
+      <c r="I31" s="6">
         <v>0</v>
       </c>
       <c r="J31" s="4">
         <v>43537.999988368058</v>
       </c>
-      <c r="K31" s="7" t="s">
+      <c r="K31" s="6" t="s">
         <v>362</v>
       </c>
       <c r="L31" s="2" t="s">
@@ -6468,7 +6462,7 @@
       <c r="M31" s="4">
         <v>43478.609270833331</v>
       </c>
-      <c r="N31" s="6" t="s">
+      <c r="N31" s="5" t="s">
         <v>0</v>
       </c>
     </row>
@@ -6480,39 +6474,39 @@
         <v>11</v>
       </c>
       <c r="C32" s="2">
-        <v>1008</v>
+        <v>508</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="E32" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="G32" s="2" t="s">
         <v>610</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>614</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>612</v>
       </c>
       <c r="H32" s="2">
         <v>2</v>
       </c>
-      <c r="I32" s="7">
+      <c r="I32" s="6">
         <v>1</v>
       </c>
       <c r="J32" s="4">
         <v>43538.999988368058</v>
       </c>
-      <c r="K32" s="7" t="s">
-        <v>612</v>
+      <c r="K32" s="6" t="s">
+        <v>610</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="M32" s="4">
         <v>43479.378148148149</v>
       </c>
-      <c r="N32" s="6" t="s">
+      <c r="N32" s="5" t="s">
         <v>0</v>
       </c>
     </row>
@@ -6524,39 +6518,39 @@
         <v>11</v>
       </c>
       <c r="C33" s="2">
-        <v>1008</v>
+        <v>508</v>
       </c>
       <c r="D33" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>616</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="G33" s="2" t="s">
         <v>615</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>618</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>616</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>617</v>
       </c>
       <c r="H33" s="2">
         <v>2</v>
       </c>
-      <c r="I33" s="7">
+      <c r="I33" s="6">
         <v>1</v>
       </c>
       <c r="J33" s="4">
         <v>43538.999988368058</v>
       </c>
-      <c r="K33" s="7" t="s">
-        <v>617</v>
+      <c r="K33" s="6" t="s">
+        <v>615</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="M33" s="4">
         <v>43479.381909722222</v>
       </c>
-      <c r="N33" s="6" t="s">
+      <c r="N33" s="5" t="s">
         <v>0</v>
       </c>
     </row>
@@ -6568,7 +6562,7 @@
         <v>12</v>
       </c>
       <c r="C34" s="2">
-        <v>1002</v>
+        <v>502</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>204</v>
@@ -6577,7 +6571,7 @@
         <v>205</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>348</v>
@@ -6585,13 +6579,13 @@
       <c r="H34" s="2">
         <v>1</v>
       </c>
-      <c r="I34" s="7">
+      <c r="I34" s="6">
         <v>1</v>
       </c>
       <c r="J34" s="4">
         <v>43539.999988368058</v>
       </c>
-      <c r="K34" s="7" t="s">
+      <c r="K34" s="6" t="s">
         <v>348</v>
       </c>
       <c r="L34" s="2" t="s">
@@ -6600,7 +6594,7 @@
       <c r="M34" s="4">
         <v>43480.379016203704</v>
       </c>
-      <c r="N34" s="6" t="s">
+      <c r="N34" s="5" t="s">
         <v>0</v>
       </c>
     </row>
@@ -6612,7 +6606,7 @@
         <v>12</v>
       </c>
       <c r="C35" s="2">
-        <v>1002</v>
+        <v>502</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>208</v>
@@ -6621,7 +6615,7 @@
         <v>209</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>210</v>
@@ -6629,13 +6623,13 @@
       <c r="H35" s="2">
         <v>1</v>
       </c>
-      <c r="I35" s="7">
+      <c r="I35" s="6">
         <v>1</v>
       </c>
       <c r="J35" s="4">
         <v>43539.999988368058</v>
       </c>
-      <c r="K35" s="7" t="s">
+      <c r="K35" s="6" t="s">
         <v>210</v>
       </c>
       <c r="L35" s="2" t="s">
@@ -6644,7 +6638,7 @@
       <c r="M35" s="4">
         <v>43480.385787037034</v>
       </c>
-      <c r="N35" s="6" t="s">
+      <c r="N35" s="5" t="s">
         <v>0</v>
       </c>
     </row>
@@ -6656,7 +6650,7 @@
         <v>12</v>
       </c>
       <c r="C36" s="2">
-        <v>1002</v>
+        <v>502</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>211</v>
@@ -6673,13 +6667,13 @@
       <c r="H36" s="2">
         <v>2</v>
       </c>
-      <c r="I36" s="7">
+      <c r="I36" s="6">
         <v>1</v>
       </c>
       <c r="J36" s="4">
         <v>43539.999988368058</v>
       </c>
-      <c r="K36" s="7" t="s">
+      <c r="K36" s="6" t="s">
         <v>215</v>
       </c>
       <c r="L36" s="2" t="s">
@@ -6688,7 +6682,7 @@
       <c r="M36" s="4">
         <v>43480.390034722222</v>
       </c>
-      <c r="N36" s="6" t="s">
+      <c r="N36" s="5" t="s">
         <v>0</v>
       </c>
     </row>
@@ -6700,7 +6694,7 @@
         <v>12</v>
       </c>
       <c r="C37" s="2">
-        <v>1002</v>
+        <v>502</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>216</v>
@@ -6717,13 +6711,13 @@
       <c r="H37" s="2">
         <v>2</v>
       </c>
-      <c r="I37" s="7">
+      <c r="I37" s="6">
         <v>1</v>
       </c>
       <c r="J37" s="4">
         <v>43539.999988368058</v>
       </c>
-      <c r="K37" s="7" t="s">
+      <c r="K37" s="6" t="s">
         <v>349</v>
       </c>
       <c r="L37" s="2" t="s">
@@ -6732,7 +6726,7 @@
       <c r="M37" s="4">
         <v>43480.40042824074</v>
       </c>
-      <c r="N37" s="6" t="s">
+      <c r="N37" s="5" t="s">
         <v>0</v>
       </c>
     </row>
@@ -6744,7 +6738,7 @@
         <v>12</v>
       </c>
       <c r="C38" s="2">
-        <v>1002</v>
+        <v>502</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>220</v>
@@ -6761,13 +6755,13 @@
       <c r="H38" s="2">
         <v>1</v>
       </c>
-      <c r="I38" s="7">
+      <c r="I38" s="6">
         <v>1</v>
       </c>
       <c r="J38" s="4">
         <v>43539.999988368058</v>
       </c>
-      <c r="K38" s="7" t="s">
+      <c r="K38" s="6" t="s">
         <v>350</v>
       </c>
       <c r="L38" s="2" t="s">
@@ -6776,7 +6770,7 @@
       <c r="M38" s="4">
         <v>43480.412245370368</v>
       </c>
-      <c r="N38" s="6" t="s">
+      <c r="N38" s="5" t="s">
         <v>0</v>
       </c>
     </row>
@@ -6788,7 +6782,7 @@
         <v>12</v>
       </c>
       <c r="C39" s="2">
-        <v>1002</v>
+        <v>502</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>373</v>
@@ -6805,13 +6799,13 @@
       <c r="H39" s="2">
         <v>2</v>
       </c>
-      <c r="I39" s="7">
+      <c r="I39" s="6">
         <v>1</v>
       </c>
       <c r="J39" s="4">
         <v>43539.999988368058</v>
       </c>
-      <c r="K39" s="7" t="s">
+      <c r="K39" s="6" t="s">
         <v>376</v>
       </c>
       <c r="L39" s="2" t="s">
@@ -6820,7 +6814,7 @@
       <c r="M39" s="4">
         <v>43480.417557870373</v>
       </c>
-      <c r="N39" s="6" t="s">
+      <c r="N39" s="5" t="s">
         <v>0</v>
       </c>
     </row>
@@ -6832,7 +6826,7 @@
         <v>12</v>
       </c>
       <c r="C40" s="2">
-        <v>1002</v>
+        <v>502</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>378</v>
@@ -6849,13 +6843,13 @@
       <c r="H40" s="2">
         <v>1</v>
       </c>
-      <c r="I40" s="7">
+      <c r="I40" s="6">
         <v>1</v>
       </c>
       <c r="J40" s="4">
         <v>43539.999988368058</v>
       </c>
-      <c r="K40" s="7" t="s">
+      <c r="K40" s="6" t="s">
         <v>380</v>
       </c>
       <c r="L40" s="2" t="s">
@@ -6864,7 +6858,7 @@
       <c r="M40" s="4">
         <v>43480.421307870369</v>
       </c>
-      <c r="N40" s="6" t="s">
+      <c r="N40" s="5" t="s">
         <v>0</v>
       </c>
     </row>
@@ -6876,7 +6870,7 @@
         <v>12</v>
       </c>
       <c r="C41" s="2">
-        <v>1002</v>
+        <v>502</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>382</v>
@@ -6893,13 +6887,13 @@
       <c r="H41" s="2">
         <v>2</v>
       </c>
-      <c r="I41" s="7">
+      <c r="I41" s="6">
         <v>1</v>
       </c>
       <c r="J41" s="4">
         <v>43539.999988368058</v>
       </c>
-      <c r="K41" s="7" t="s">
+      <c r="K41" s="6" t="s">
         <v>384</v>
       </c>
       <c r="L41" s="2" t="s">
@@ -6908,7 +6902,7 @@
       <c r="M41" s="4">
         <v>43480.428981481484</v>
       </c>
-      <c r="N41" s="6" t="s">
+      <c r="N41" s="5" t="s">
         <v>0</v>
       </c>
     </row>
@@ -6920,7 +6914,7 @@
         <v>12</v>
       </c>
       <c r="C42" s="2">
-        <v>1002</v>
+        <v>502</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>386</v>
@@ -6937,13 +6931,13 @@
       <c r="H42" s="2">
         <v>1</v>
       </c>
-      <c r="I42" s="7">
+      <c r="I42" s="6">
         <v>1</v>
       </c>
       <c r="J42" s="4">
         <v>43539.999988368058</v>
       </c>
-      <c r="K42" s="7" t="s">
+      <c r="K42" s="6" t="s">
         <v>388</v>
       </c>
       <c r="L42" s="2" t="s">
@@ -6952,7 +6946,7 @@
       <c r="M42" s="4">
         <v>43480.437777777777</v>
       </c>
-      <c r="N42" s="6" t="s">
+      <c r="N42" s="5" t="s">
         <v>0</v>
       </c>
     </row>
@@ -6964,7 +6958,7 @@
         <v>12</v>
       </c>
       <c r="C43" s="2">
-        <v>1002</v>
+        <v>502</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>390</v>
@@ -6981,13 +6975,13 @@
       <c r="H43" s="2">
         <v>1</v>
       </c>
-      <c r="I43" s="7">
+      <c r="I43" s="6">
         <v>1</v>
       </c>
       <c r="J43" s="4">
         <v>43539.999988368058</v>
       </c>
-      <c r="K43" s="7" t="s">
+      <c r="K43" s="6" t="s">
         <v>392</v>
       </c>
       <c r="L43" s="2" t="s">
@@ -6996,7 +6990,7 @@
       <c r="M43" s="4">
         <v>43480.446944444448</v>
       </c>
-      <c r="N43" s="6" t="s">
+      <c r="N43" s="5" t="s">
         <v>0</v>
       </c>
     </row>
@@ -7008,7 +7002,7 @@
         <v>12</v>
       </c>
       <c r="C44" s="2">
-        <v>1002</v>
+        <v>502</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>394</v>
@@ -7025,13 +7019,13 @@
       <c r="H44" s="2">
         <v>4</v>
       </c>
-      <c r="I44" s="7">
+      <c r="I44" s="6">
         <v>1</v>
       </c>
       <c r="J44" s="4">
         <v>43539.999988368058</v>
       </c>
-      <c r="K44" s="7" t="s">
+      <c r="K44" s="6" t="s">
         <v>397</v>
       </c>
       <c r="L44" s="2" t="s">
@@ -7040,7 +7034,7 @@
       <c r="M44" s="4">
         <v>43480.460914351854</v>
       </c>
-      <c r="N44" s="6" t="s">
+      <c r="N44" s="5" t="s">
         <v>0</v>
       </c>
     </row>
@@ -7052,7 +7046,7 @@
         <v>12</v>
       </c>
       <c r="C45" s="2">
-        <v>1002</v>
+        <v>502</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>398</v>
@@ -7069,13 +7063,13 @@
       <c r="H45" s="2">
         <v>2</v>
       </c>
-      <c r="I45" s="7">
+      <c r="I45" s="6">
         <v>0</v>
       </c>
       <c r="J45" s="4">
         <v>43539.999988368058</v>
       </c>
-      <c r="K45" s="7" t="s">
+      <c r="K45" s="6" t="s">
         <v>401</v>
       </c>
       <c r="L45" s="2" t="s">
@@ -7084,7 +7078,7 @@
       <c r="M45" s="4">
         <v>43480.470405092594</v>
       </c>
-      <c r="N45" s="6" t="s">
+      <c r="N45" s="5" t="s">
         <v>0</v>
       </c>
     </row>
@@ -7096,7 +7090,7 @@
         <v>12</v>
       </c>
       <c r="C46" s="2">
-        <v>1005</v>
+        <v>505</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>403</v>
@@ -7113,13 +7107,13 @@
       <c r="H46" s="2">
         <v>6</v>
       </c>
-      <c r="I46" s="7">
+      <c r="I46" s="6">
         <v>1</v>
       </c>
       <c r="J46" s="4">
         <v>43539.999988368058</v>
       </c>
-      <c r="K46" s="7" t="s">
+      <c r="K46" s="6" t="s">
         <v>405</v>
       </c>
       <c r="L46" s="2" t="s">
@@ -7128,7 +7122,7 @@
       <c r="M46" s="4">
         <v>43480.474641203706</v>
       </c>
-      <c r="N46" s="6" t="s">
+      <c r="N46" s="5" t="s">
         <v>0</v>
       </c>
     </row>
@@ -7140,7 +7134,7 @@
         <v>14</v>
       </c>
       <c r="C47" s="2">
-        <v>1001</v>
+        <v>501</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>129</v>
@@ -7157,13 +7151,13 @@
       <c r="H47" s="2">
         <v>0</v>
       </c>
-      <c r="I47" s="7">
+      <c r="I47" s="6">
         <v>0</v>
       </c>
       <c r="J47" s="4">
         <v>43540.999988368058</v>
       </c>
-      <c r="K47" s="7" t="s">
+      <c r="K47" s="6" t="s">
         <v>345</v>
       </c>
       <c r="L47" s="2" t="s">
@@ -7172,7 +7166,7 @@
       <c r="M47" s="4">
         <v>43481.376319444447</v>
       </c>
-      <c r="N47" s="6" t="s">
+      <c r="N47" s="5" t="s">
         <v>0</v>
       </c>
     </row>
@@ -7184,7 +7178,7 @@
         <v>14</v>
       </c>
       <c r="C48" s="2">
-        <v>1001</v>
+        <v>501</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>132</v>
@@ -7201,13 +7195,13 @@
       <c r="H48" s="2">
         <v>1</v>
       </c>
-      <c r="I48" s="7">
+      <c r="I48" s="6">
         <v>1</v>
       </c>
       <c r="J48" s="4">
         <v>43540.999988368058</v>
       </c>
-      <c r="K48" s="7" t="s">
+      <c r="K48" s="6" t="s">
         <v>345</v>
       </c>
       <c r="L48" s="2" t="s">
@@ -7216,7 +7210,7 @@
       <c r="M48" s="4">
         <v>43481.38795138889</v>
       </c>
-      <c r="N48" s="6" t="s">
+      <c r="N48" s="5" t="s">
         <v>0</v>
       </c>
     </row>
@@ -7228,7 +7222,7 @@
         <v>14</v>
       </c>
       <c r="C49" s="2">
-        <v>1002</v>
+        <v>502</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>407</v>
@@ -7245,13 +7239,13 @@
       <c r="H49" s="2">
         <v>1</v>
       </c>
-      <c r="I49" s="7">
+      <c r="I49" s="6">
         <v>1</v>
       </c>
       <c r="J49" s="4">
         <v>43540.999988368058</v>
       </c>
-      <c r="K49" s="7" t="s">
+      <c r="K49" s="6" t="s">
         <v>346</v>
       </c>
       <c r="L49" s="2" t="s">
@@ -7260,7 +7254,7 @@
       <c r="M49" s="4">
         <v>43481.393090277779</v>
       </c>
-      <c r="N49" s="6" t="s">
+      <c r="N49" s="5" t="s">
         <v>0</v>
       </c>
     </row>
@@ -7272,7 +7266,7 @@
         <v>14</v>
       </c>
       <c r="C50" s="2">
-        <v>1004</v>
+        <v>504</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>154</v>
@@ -7289,13 +7283,13 @@
       <c r="H50" s="2">
         <v>1</v>
       </c>
-      <c r="I50" s="7">
+      <c r="I50" s="6">
         <v>1</v>
       </c>
       <c r="J50" s="4">
         <v>43541.999988368058</v>
       </c>
-      <c r="K50" s="7" t="s">
+      <c r="K50" s="6" t="s">
         <v>357</v>
       </c>
       <c r="L50" s="2" t="s">
@@ -7304,7 +7298,7 @@
       <c r="M50" s="4">
         <v>43482.376562500001</v>
       </c>
-      <c r="N50" s="6" t="s">
+      <c r="N50" s="5" t="s">
         <v>0</v>
       </c>
     </row>
@@ -7316,7 +7310,7 @@
         <v>14</v>
       </c>
       <c r="C51" s="2">
-        <v>1004</v>
+        <v>504</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>157</v>
@@ -7333,13 +7327,13 @@
       <c r="H51" s="2">
         <v>1</v>
       </c>
-      <c r="I51" s="7">
+      <c r="I51" s="6">
         <v>1</v>
       </c>
       <c r="J51" s="4">
         <v>43541.999988368058</v>
       </c>
-      <c r="K51" s="7" t="s">
+      <c r="K51" s="6" t="s">
         <v>358</v>
       </c>
       <c r="L51" s="2" t="s">
@@ -7348,7 +7342,7 @@
       <c r="M51" s="4">
         <v>43482.380891203706</v>
       </c>
-      <c r="N51" s="6" t="s">
+      <c r="N51" s="5" t="s">
         <v>0</v>
       </c>
     </row>
@@ -7360,7 +7354,7 @@
         <v>14</v>
       </c>
       <c r="C52" s="2">
-        <v>1004</v>
+        <v>504</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>159</v>
@@ -7377,13 +7371,13 @@
       <c r="H52" s="2">
         <v>1</v>
       </c>
-      <c r="I52" s="7">
+      <c r="I52" s="6">
         <v>1</v>
       </c>
       <c r="J52" s="4">
         <v>43541.999988368058</v>
       </c>
-      <c r="K52" s="7" t="s">
+      <c r="K52" s="6" t="s">
         <v>355</v>
       </c>
       <c r="L52" s="2" t="s">
@@ -7392,7 +7386,7 @@
       <c r="M52" s="4">
         <v>43482.393275462964</v>
       </c>
-      <c r="N52" s="6" t="s">
+      <c r="N52" s="5" t="s">
         <v>0</v>
       </c>
     </row>
@@ -7404,7 +7398,7 @@
         <v>14</v>
       </c>
       <c r="C53" s="2">
-        <v>1004</v>
+        <v>504</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>430</v>
@@ -7421,13 +7415,13 @@
       <c r="H53" s="2">
         <v>0</v>
       </c>
-      <c r="I53" s="7">
+      <c r="I53" s="6">
         <v>1</v>
       </c>
       <c r="J53" s="4">
         <v>43541.999988368058</v>
       </c>
-      <c r="K53" s="7" t="s">
+      <c r="K53" s="6" t="s">
         <v>253</v>
       </c>
       <c r="L53" s="2" t="s">
@@ -7436,7 +7430,7 @@
       <c r="M53" s="4">
         <v>43482.398923611108</v>
       </c>
-      <c r="N53" s="6" t="s">
+      <c r="N53" s="5" t="s">
         <v>0</v>
       </c>
     </row>
@@ -7448,7 +7442,7 @@
         <v>14</v>
       </c>
       <c r="C54" s="2">
-        <v>1005</v>
+        <v>505</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>162</v>
@@ -7465,13 +7459,13 @@
       <c r="H54" s="2">
         <v>1</v>
       </c>
-      <c r="I54" s="7">
+      <c r="I54" s="6">
         <v>1</v>
       </c>
       <c r="J54" s="4">
         <v>43542.999988368058</v>
       </c>
-      <c r="K54" s="7" t="s">
+      <c r="K54" s="6" t="s">
         <v>353</v>
       </c>
       <c r="L54" s="2" t="s">
@@ -7480,7 +7474,7 @@
       <c r="M54" s="4">
         <v>43483.37736111111</v>
       </c>
-      <c r="N54" s="6" t="s">
+      <c r="N54" s="5" t="s">
         <v>0</v>
       </c>
     </row>
@@ -7492,7 +7486,7 @@
         <v>14</v>
       </c>
       <c r="C55" s="2">
-        <v>1005</v>
+        <v>505</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>165</v>
@@ -7509,13 +7503,13 @@
       <c r="H55" s="2">
         <v>1</v>
       </c>
-      <c r="I55" s="7">
+      <c r="I55" s="6">
         <v>1</v>
       </c>
       <c r="J55" s="4">
         <v>43542.999988368058</v>
       </c>
-      <c r="K55" s="7" t="s">
+      <c r="K55" s="6" t="s">
         <v>267</v>
       </c>
       <c r="L55" s="2" t="s">
@@ -7524,7 +7518,7 @@
       <c r="M55" s="4">
         <v>43483.383680555555</v>
       </c>
-      <c r="N55" s="6" t="s">
+      <c r="N55" s="5" t="s">
         <v>0</v>
       </c>
     </row>
@@ -7536,10 +7530,10 @@
         <v>14</v>
       </c>
       <c r="C56" s="2">
-        <v>1006</v>
+        <v>506</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>168</v>
@@ -7553,13 +7547,13 @@
       <c r="H56" s="2">
         <v>1</v>
       </c>
-      <c r="I56" s="7">
+      <c r="I56" s="6">
         <v>1</v>
       </c>
       <c r="J56" s="4">
         <v>43542.999988368058</v>
       </c>
-      <c r="K56" s="7" t="s">
+      <c r="K56" s="6" t="s">
         <v>360</v>
       </c>
       <c r="L56" s="2" t="s">
@@ -7568,7 +7562,7 @@
       <c r="M56" s="4">
         <v>43483.396793981483</v>
       </c>
-      <c r="N56" s="6" t="s">
+      <c r="N56" s="5" t="s">
         <v>0</v>
       </c>
     </row>
@@ -7580,7 +7574,7 @@
         <v>14</v>
       </c>
       <c r="C57" s="2">
-        <v>1006</v>
+        <v>506</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>170</v>
@@ -7597,13 +7591,13 @@
       <c r="H57" s="2">
         <v>1</v>
       </c>
-      <c r="I57" s="7">
+      <c r="I57" s="6">
         <v>1</v>
       </c>
       <c r="J57" s="4">
         <v>43542.999988368058</v>
       </c>
-      <c r="K57" s="7" t="s">
+      <c r="K57" s="6" t="s">
         <v>345</v>
       </c>
       <c r="L57" s="2" t="s">
@@ -7612,7 +7606,7 @@
       <c r="M57" s="4">
         <v>43483.407719907409</v>
       </c>
-      <c r="N57" s="6" t="s">
+      <c r="N57" s="5" t="s">
         <v>0</v>
       </c>
     </row>
@@ -7624,7 +7618,7 @@
         <v>14</v>
       </c>
       <c r="C58" s="2">
-        <v>1006</v>
+        <v>506</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>172</v>
@@ -7641,13 +7635,13 @@
       <c r="H58" s="2">
         <v>1</v>
       </c>
-      <c r="I58" s="7">
+      <c r="I58" s="6">
         <v>1</v>
       </c>
       <c r="J58" s="4">
         <v>43542.999988368058</v>
       </c>
-      <c r="K58" s="7" t="s">
+      <c r="K58" s="6" t="s">
         <v>361</v>
       </c>
       <c r="L58" s="2" t="s">
@@ -7656,7 +7650,7 @@
       <c r="M58" s="4">
         <v>43483.422233796293</v>
       </c>
-      <c r="N58" s="6" t="s">
+      <c r="N58" s="5" t="s">
         <v>0</v>
       </c>
     </row>
@@ -7668,31 +7662,31 @@
         <v>14</v>
       </c>
       <c r="C59" s="2">
-        <v>1006</v>
+        <v>506</v>
       </c>
       <c r="D59" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="G59" s="2" t="s">
         <v>571</v>
       </c>
-      <c r="E59" s="2" t="s">
-        <v>572</v>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>574</v>
-      </c>
-      <c r="G59" s="2" t="s">
-        <v>573</v>
-      </c>
       <c r="H59" s="2">
         <v>1</v>
       </c>
-      <c r="I59" s="7">
+      <c r="I59" s="6">
         <v>1</v>
       </c>
       <c r="J59" s="4">
         <v>43542.999988368058</v>
       </c>
-      <c r="K59" s="7" t="s">
-        <v>573</v>
+      <c r="K59" s="6" t="s">
+        <v>571</v>
       </c>
       <c r="L59" s="2" t="s">
         <v>137</v>
@@ -7700,7 +7694,7 @@
       <c r="M59" s="4">
         <v>43483.429710648146</v>
       </c>
-      <c r="N59" s="6" t="s">
+      <c r="N59" s="5" t="s">
         <v>0</v>
       </c>
     </row>
@@ -7712,39 +7706,39 @@
         <v>14</v>
       </c>
       <c r="C60" s="2">
-        <v>1008</v>
+        <v>508</v>
       </c>
       <c r="D60" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="G60" s="2" t="s">
         <v>620</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>619</v>
-      </c>
-      <c r="F60" s="2" t="s">
-        <v>621</v>
-      </c>
-      <c r="G60" s="2" t="s">
-        <v>622</v>
       </c>
       <c r="H60" s="2">
         <v>3</v>
       </c>
-      <c r="I60" s="7">
+      <c r="I60" s="6">
         <v>1</v>
       </c>
       <c r="J60" s="4">
         <v>43543.999988368058</v>
       </c>
-      <c r="K60" s="7" t="s">
-        <v>622</v>
+      <c r="K60" s="6" t="s">
+        <v>620</v>
       </c>
       <c r="L60" s="2" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="M60" s="4">
         <v>43484.417175925926</v>
       </c>
-      <c r="N60" s="6" t="s">
+      <c r="N60" s="5" t="s">
         <v>0</v>
       </c>
     </row>
@@ -7756,39 +7750,39 @@
         <v>14</v>
       </c>
       <c r="C61" s="2">
-        <v>1008</v>
+        <v>508</v>
       </c>
       <c r="D61" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="F61" s="2" t="s">
         <v>624</v>
       </c>
-      <c r="E61" s="2" t="s">
+      <c r="G61" s="2" t="s">
         <v>625</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>626</v>
-      </c>
-      <c r="G61" s="2" t="s">
-        <v>627</v>
       </c>
       <c r="H61" s="2">
         <v>3</v>
       </c>
-      <c r="I61" s="7">
+      <c r="I61" s="6">
         <v>1</v>
       </c>
       <c r="J61" s="4">
         <v>43543.999988368058</v>
       </c>
-      <c r="K61" s="7" t="s">
+      <c r="K61" s="6" t="s">
+        <v>625</v>
+      </c>
+      <c r="L61" s="2" t="s">
         <v>627</v>
-      </c>
-      <c r="L61" s="2" t="s">
-        <v>629</v>
       </c>
       <c r="M61" s="4">
         <v>43484.424386574072</v>
       </c>
-      <c r="N61" s="6" t="s">
+      <c r="N61" s="5" t="s">
         <v>0</v>
       </c>
     </row>
@@ -7800,39 +7794,39 @@
         <v>14</v>
       </c>
       <c r="C62" s="2">
-        <v>1008</v>
+        <v>508</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="E62" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="G62" s="2" t="s">
         <v>630</v>
-      </c>
-      <c r="F62" s="2" t="s">
-        <v>631</v>
-      </c>
-      <c r="G62" s="2" t="s">
-        <v>632</v>
       </c>
       <c r="H62" s="2">
         <v>2</v>
       </c>
-      <c r="I62" s="7">
+      <c r="I62" s="6">
         <v>1</v>
       </c>
       <c r="J62" s="4">
         <v>43543.999988368058</v>
       </c>
-      <c r="K62" s="7" t="s">
-        <v>632</v>
+      <c r="K62" s="6" t="s">
+        <v>630</v>
       </c>
       <c r="L62" s="2" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="M62" s="4">
         <v>43484.43372685185</v>
       </c>
-      <c r="N62" s="6" t="s">
+      <c r="N62" s="5" t="s">
         <v>0</v>
       </c>
     </row>
@@ -7844,39 +7838,39 @@
         <v>14</v>
       </c>
       <c r="C63" s="2">
-        <v>1008</v>
+        <v>508</v>
       </c>
       <c r="D63" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="G63" s="2" t="s">
         <v>635</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>634</v>
-      </c>
-      <c r="F63" s="2" t="s">
-        <v>636</v>
-      </c>
-      <c r="G63" s="2" t="s">
-        <v>637</v>
       </c>
       <c r="H63" s="2">
         <v>2</v>
       </c>
-      <c r="I63" s="7">
+      <c r="I63" s="6">
         <v>1</v>
       </c>
       <c r="J63" s="4">
         <v>43543.999988368058</v>
       </c>
-      <c r="K63" s="7" t="s">
-        <v>637</v>
+      <c r="K63" s="6" t="s">
+        <v>635</v>
       </c>
       <c r="L63" s="2" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="M63" s="4">
         <v>43484.442442129628</v>
       </c>
-      <c r="N63" s="6" t="s">
+      <c r="N63" s="5" t="s">
         <v>0</v>
       </c>
     </row>
@@ -7888,31 +7882,31 @@
         <v>14</v>
       </c>
       <c r="C64" s="2">
-        <v>1008</v>
+        <v>508</v>
       </c>
       <c r="D64" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>639</v>
+      </c>
+      <c r="G64" s="2" t="s">
         <v>640</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>639</v>
-      </c>
-      <c r="F64" s="2" t="s">
-        <v>641</v>
-      </c>
-      <c r="G64" s="2" t="s">
-        <v>642</v>
       </c>
       <c r="H64" s="2">
         <v>4</v>
       </c>
-      <c r="I64" s="7">
+      <c r="I64" s="6">
         <v>0</v>
       </c>
       <c r="J64" s="4">
         <v>43543.999988368058</v>
       </c>
-      <c r="K64" s="7" t="s">
-        <v>642</v>
+      <c r="K64" s="6" t="s">
+        <v>640</v>
       </c>
       <c r="L64" s="2" t="s">
         <v>188</v>
@@ -7920,7 +7914,7 @@
       <c r="M64" s="4">
         <v>43484.447592592594</v>
       </c>
-      <c r="N64" s="6" t="s">
+      <c r="N64" s="5" t="s">
         <v>0</v>
       </c>
     </row>
@@ -7932,31 +7926,31 @@
         <v>14</v>
       </c>
       <c r="C65" s="2">
-        <v>1008</v>
+        <v>508</v>
       </c>
       <c r="D65" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>643</v>
+      </c>
+      <c r="G65" s="2" t="s">
         <v>644</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>643</v>
-      </c>
-      <c r="F65" s="2" t="s">
-        <v>645</v>
-      </c>
-      <c r="G65" s="2" t="s">
-        <v>646</v>
       </c>
       <c r="H65" s="2">
         <v>3</v>
       </c>
-      <c r="I65" s="7">
+      <c r="I65" s="6">
         <v>1</v>
       </c>
       <c r="J65" s="4">
         <v>43543.999988368058</v>
       </c>
-      <c r="K65" s="7" t="s">
-        <v>646</v>
+      <c r="K65" s="6" t="s">
+        <v>644</v>
       </c>
       <c r="L65" s="2" t="s">
         <v>467</v>
@@ -7964,7 +7958,7 @@
       <c r="M65" s="4">
         <v>43484.457743055558</v>
       </c>
-      <c r="N65" s="6" t="s">
+      <c r="N65" s="5" t="s">
         <v>0</v>
       </c>
     </row>
@@ -7976,7 +7970,7 @@
         <v>16</v>
       </c>
       <c r="C66" s="2">
-        <v>1001</v>
+        <v>501</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>135</v>
@@ -7993,14 +7987,14 @@
       <c r="H66" s="2">
         <v>1</v>
       </c>
-      <c r="I66" s="7">
+      <c r="I66" s="6">
         <v>1</v>
       </c>
       <c r="J66" s="4">
         <v>43544.999988368058</v>
       </c>
-      <c r="K66" s="7" t="s">
-        <v>671</v>
+      <c r="K66" s="6" t="s">
+        <v>669</v>
       </c>
       <c r="L66" s="2" t="s">
         <v>137</v>
@@ -8008,7 +8002,7 @@
       <c r="M66" s="4">
         <v>43485.543738425928</v>
       </c>
-      <c r="N66" s="6" t="s">
+      <c r="N66" s="5" t="s">
         <v>0</v>
       </c>
     </row>
@@ -8020,7 +8014,7 @@
         <v>16</v>
       </c>
       <c r="C67" s="2">
-        <v>1001</v>
+        <v>501</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>175</v>
@@ -8037,13 +8031,13 @@
       <c r="H67" s="2">
         <v>2</v>
       </c>
-      <c r="I67" s="7">
+      <c r="I67" s="6">
         <v>1</v>
       </c>
       <c r="J67" s="4">
         <v>43544.999988368058</v>
       </c>
-      <c r="K67" s="7" t="s">
+      <c r="K67" s="6" t="s">
         <v>182</v>
       </c>
       <c r="L67" s="2" t="s">
@@ -8052,7 +8046,7 @@
       <c r="M67" s="4">
         <v>43485.553020833337</v>
       </c>
-      <c r="N67" s="6" t="s">
+      <c r="N67" s="5" t="s">
         <v>0</v>
       </c>
     </row>
@@ -8064,7 +8058,7 @@
         <v>16</v>
       </c>
       <c r="C68" s="2">
-        <v>1001</v>
+        <v>501</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>336</v>
@@ -8081,14 +8075,14 @@
       <c r="H68" s="2">
         <v>5</v>
       </c>
-      <c r="I68" s="7">
+      <c r="I68" s="6">
         <v>1</v>
       </c>
       <c r="J68" s="4">
         <v>43544.999988368058</v>
       </c>
-      <c r="K68" s="7" t="s">
-        <v>672</v>
+      <c r="K68" s="6" t="s">
+        <v>670</v>
       </c>
       <c r="L68" s="2" t="s">
         <v>339</v>
@@ -8096,7 +8090,7 @@
       <c r="M68" s="4">
         <v>43485.566145833334</v>
       </c>
-      <c r="N68" s="6" t="s">
+      <c r="N68" s="5" t="s">
         <v>0</v>
       </c>
     </row>
@@ -8108,7 +8102,7 @@
         <v>16</v>
       </c>
       <c r="C69" s="2">
-        <v>1001</v>
+        <v>501</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>185</v>
@@ -8125,13 +8119,13 @@
       <c r="H69" s="2">
         <v>4</v>
       </c>
-      <c r="I69" s="7">
+      <c r="I69" s="6">
         <v>1</v>
       </c>
       <c r="J69" s="4">
         <v>43544.999988368058</v>
       </c>
-      <c r="K69" s="7" t="s">
+      <c r="K69" s="6" t="s">
         <v>471</v>
       </c>
       <c r="L69" s="2" t="s">
@@ -8140,7 +8134,7 @@
       <c r="M69" s="4">
         <v>43485.576006944444</v>
       </c>
-      <c r="N69" s="6" t="s">
+      <c r="N69" s="5" t="s">
         <v>0</v>
       </c>
     </row>
@@ -8152,7 +8146,7 @@
         <v>16</v>
       </c>
       <c r="C70" s="2">
-        <v>1001</v>
+        <v>501</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>189</v>
@@ -8169,14 +8163,14 @@
       <c r="H70" s="2">
         <v>3</v>
       </c>
-      <c r="I70" s="7">
+      <c r="I70" s="6">
         <v>1</v>
       </c>
       <c r="J70" s="4">
         <v>43544.999988368058</v>
       </c>
-      <c r="K70" s="7" t="s">
-        <v>673</v>
+      <c r="K70" s="6" t="s">
+        <v>671</v>
       </c>
       <c r="L70" s="2" t="s">
         <v>193</v>
@@ -8184,7 +8178,7 @@
       <c r="M70" s="4">
         <v>43485.580972222226</v>
       </c>
-      <c r="N70" s="6" t="s">
+      <c r="N70" s="5" t="s">
         <v>0</v>
       </c>
     </row>
@@ -8196,7 +8190,7 @@
         <v>16</v>
       </c>
       <c r="C71" s="2">
-        <v>1001</v>
+        <v>501</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>341</v>
@@ -8213,14 +8207,14 @@
       <c r="H71" s="2">
         <v>2</v>
       </c>
-      <c r="I71" s="7">
+      <c r="I71" s="6">
         <v>1</v>
       </c>
       <c r="J71" s="4">
         <v>43544.999988368058</v>
       </c>
-      <c r="K71" s="7" t="s">
-        <v>560</v>
+      <c r="K71" s="6" t="s">
+        <v>558</v>
       </c>
       <c r="L71" s="2" t="s">
         <v>193</v>
@@ -8228,7 +8222,7 @@
       <c r="M71" s="4">
         <v>43485.590150462966</v>
       </c>
-      <c r="N71" s="6" t="s">
+      <c r="N71" s="5" t="s">
         <v>0</v>
       </c>
     </row>
@@ -8240,7 +8234,7 @@
         <v>16</v>
       </c>
       <c r="C72" s="2">
-        <v>1001</v>
+        <v>501</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>198</v>
@@ -8257,14 +8251,14 @@
       <c r="H72" s="2">
         <v>3</v>
       </c>
-      <c r="I72" s="7">
+      <c r="I72" s="6">
         <v>1</v>
       </c>
       <c r="J72" s="4">
         <v>43544.999988368058</v>
       </c>
-      <c r="K72" s="7" t="s">
-        <v>674</v>
+      <c r="K72" s="6" t="s">
+        <v>672</v>
       </c>
       <c r="L72" s="2" t="s">
         <v>203</v>
@@ -8272,7 +8266,7 @@
       <c r="M72" s="4">
         <v>43485.603877314818</v>
       </c>
-      <c r="N72" s="6" t="s">
+      <c r="N72" s="5" t="s">
         <v>0</v>
       </c>
     </row>
@@ -8284,7 +8278,7 @@
         <v>16</v>
       </c>
       <c r="C73" s="2">
-        <v>1002</v>
+        <v>502</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>127</v>
@@ -8293,7 +8287,7 @@
         <v>200</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="G73" s="2" t="s">
         <v>253</v>
@@ -8301,13 +8295,13 @@
       <c r="H73" s="2">
         <v>2</v>
       </c>
-      <c r="I73" s="7">
+      <c r="I73" s="6">
         <v>1</v>
       </c>
       <c r="J73" s="4">
         <v>43545.999988368058</v>
       </c>
-      <c r="K73" s="7" t="s">
+      <c r="K73" s="6" t="s">
         <v>253</v>
       </c>
       <c r="L73" s="2" t="s">
@@ -8316,7 +8310,7 @@
       <c r="M73" s="4">
         <v>43486.375590277778</v>
       </c>
-      <c r="N73" s="6" t="s">
+      <c r="N73" s="5" t="s">
         <v>0</v>
       </c>
     </row>
@@ -8328,7 +8322,7 @@
         <v>16</v>
       </c>
       <c r="C74" s="2">
-        <v>1002</v>
+        <v>502</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>178</v>
@@ -8337,7 +8331,7 @@
         <v>179</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="G74" s="2" t="s">
         <v>181</v>
@@ -8345,13 +8339,13 @@
       <c r="H74" s="2">
         <v>2</v>
       </c>
-      <c r="I74" s="7">
+      <c r="I74" s="6">
         <v>1</v>
       </c>
       <c r="J74" s="4">
         <v>43545.999988368058</v>
       </c>
-      <c r="K74" s="7" t="s">
+      <c r="K74" s="6" t="s">
         <v>181</v>
       </c>
       <c r="L74" s="2" t="s">
@@ -8360,7 +8354,7 @@
       <c r="M74" s="4">
         <v>43486.379652777781</v>
       </c>
-      <c r="N74" s="6" t="s">
+      <c r="N74" s="5" t="s">
         <v>0</v>
       </c>
     </row>
@@ -8372,7 +8366,7 @@
         <v>16</v>
       </c>
       <c r="C75" s="2">
-        <v>1002</v>
+        <v>502</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>138</v>
@@ -8381,7 +8375,7 @@
         <v>139</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="G75" s="2" t="s">
         <v>346</v>
@@ -8389,13 +8383,13 @@
       <c r="H75" s="2">
         <v>1</v>
       </c>
-      <c r="I75" s="7">
+      <c r="I75" s="6">
         <v>1</v>
       </c>
       <c r="J75" s="4">
         <v>43545.999988368058</v>
       </c>
-      <c r="K75" s="7" t="s">
+      <c r="K75" s="6" t="s">
         <v>346</v>
       </c>
       <c r="L75" s="2" t="s">
@@ -8404,7 +8398,7 @@
       <c r="M75" s="4">
         <v>43486.389027777775</v>
       </c>
-      <c r="N75" s="6" t="s">
+      <c r="N75" s="5" t="s">
         <v>0</v>
       </c>
     </row>
@@ -8416,7 +8410,7 @@
         <v>16</v>
       </c>
       <c r="C76" s="2">
-        <v>1002</v>
+        <v>502</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>141</v>
@@ -8425,7 +8419,7 @@
         <v>142</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="G76" s="2" t="s">
         <v>347</v>
@@ -8433,13 +8427,13 @@
       <c r="H76" s="2">
         <v>1</v>
       </c>
-      <c r="I76" s="7">
+      <c r="I76" s="6">
         <v>1</v>
       </c>
       <c r="J76" s="4">
         <v>43545.999988368058</v>
       </c>
-      <c r="K76" s="7" t="s">
+      <c r="K76" s="6" t="s">
         <v>347</v>
       </c>
       <c r="L76" s="2" t="s">
@@ -8448,7 +8442,7 @@
       <c r="M76" s="4">
         <v>43486.403009259258</v>
       </c>
-      <c r="N76" s="6" t="s">
+      <c r="N76" s="5" t="s">
         <v>0</v>
       </c>
     </row>
@@ -8460,7 +8454,7 @@
         <v>16</v>
       </c>
       <c r="C77" s="2">
-        <v>1002</v>
+        <v>502</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>144</v>
@@ -8469,7 +8463,7 @@
         <v>145</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="G77" s="2" t="s">
         <v>260</v>
@@ -8477,13 +8471,13 @@
       <c r="H77" s="2">
         <v>1</v>
       </c>
-      <c r="I77" s="7">
+      <c r="I77" s="6">
         <v>1</v>
       </c>
       <c r="J77" s="4">
         <v>43545.999988368058</v>
       </c>
-      <c r="K77" s="7" t="s">
+      <c r="K77" s="6" t="s">
         <v>260</v>
       </c>
       <c r="L77" s="2" t="s">
@@ -8492,7 +8486,7 @@
       <c r="M77" s="4">
         <v>43486.41673611111</v>
       </c>
-      <c r="N77" s="6" t="s">
+      <c r="N77" s="5" t="s">
         <v>0</v>
       </c>
     </row>
@@ -8504,7 +8498,7 @@
         <v>16</v>
       </c>
       <c r="C78" s="2">
-        <v>1002</v>
+        <v>502</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>194</v>
@@ -8513,7 +8507,7 @@
         <v>195</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="G78" s="2" t="s">
         <v>196</v>
@@ -8521,13 +8515,13 @@
       <c r="H78" s="2">
         <v>1</v>
       </c>
-      <c r="I78" s="7">
+      <c r="I78" s="6">
         <v>1</v>
       </c>
       <c r="J78" s="4">
         <v>43545.999988368058</v>
       </c>
-      <c r="K78" s="7" t="s">
+      <c r="K78" s="6" t="s">
         <v>196</v>
       </c>
       <c r="L78" s="2" t="s">
@@ -8536,7 +8530,7 @@
       <c r="M78" s="4">
         <v>43486.420439814814</v>
       </c>
-      <c r="N78" s="6" t="s">
+      <c r="N78" s="5" t="s">
         <v>0</v>
       </c>
     </row>
@@ -8548,7 +8542,7 @@
         <v>16</v>
       </c>
       <c r="C79" s="2">
-        <v>1003</v>
+        <v>503</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>150</v>
@@ -8565,13 +8559,13 @@
       <c r="H79" s="2">
         <v>1</v>
       </c>
-      <c r="I79" s="7">
+      <c r="I79" s="6">
         <v>1</v>
       </c>
       <c r="J79" s="4">
         <v>43546.999988368058</v>
       </c>
-      <c r="K79" s="7" t="s">
+      <c r="K79" s="6" t="s">
         <v>356</v>
       </c>
       <c r="L79" s="2" t="s">
@@ -8580,7 +8574,7 @@
       <c r="M79" s="4">
         <v>43487.377442129633</v>
       </c>
-      <c r="N79" s="6" t="s">
+      <c r="N79" s="5" t="s">
         <v>0</v>
       </c>
     </row>
@@ -8592,7 +8586,7 @@
         <v>16</v>
       </c>
       <c r="C80" s="2">
-        <v>1003</v>
+        <v>503</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>152</v>
@@ -8609,13 +8603,13 @@
       <c r="H80" s="2">
         <v>1</v>
       </c>
-      <c r="I80" s="7">
+      <c r="I80" s="6">
         <v>1</v>
       </c>
       <c r="J80" s="4">
         <v>43546.999988368058</v>
       </c>
-      <c r="K80" s="7" t="s">
+      <c r="K80" s="6" t="s">
         <v>267</v>
       </c>
       <c r="L80" s="2" t="s">
@@ -8624,7 +8618,7 @@
       <c r="M80" s="4">
         <v>43487.390370370369</v>
       </c>
-      <c r="N80" s="6" t="s">
+      <c r="N80" s="5" t="s">
         <v>0</v>
       </c>
     </row>
@@ -8636,7 +8630,7 @@
         <v>16</v>
       </c>
       <c r="C81" s="2">
-        <v>1003</v>
+        <v>503</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>364</v>
@@ -8653,13 +8647,13 @@
       <c r="H81" s="2">
         <v>2</v>
       </c>
-      <c r="I81" s="7">
+      <c r="I81" s="6">
         <v>1</v>
       </c>
       <c r="J81" s="4">
         <v>43546.999988368058</v>
       </c>
-      <c r="K81" s="7" t="s">
+      <c r="K81" s="6" t="s">
         <v>367</v>
       </c>
       <c r="L81" s="2" t="s">
@@ -8668,7 +8662,7 @@
       <c r="M81" s="4">
         <v>43487.396562499998</v>
       </c>
-      <c r="N81" s="6" t="s">
+      <c r="N81" s="5" t="s">
         <v>0</v>
       </c>
     </row>
@@ -8680,7 +8674,7 @@
         <v>16</v>
       </c>
       <c r="C82" s="2">
-        <v>1003</v>
+        <v>503</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>365</v>
@@ -8697,13 +8691,13 @@
       <c r="H82" s="2">
         <v>2</v>
       </c>
-      <c r="I82" s="7">
+      <c r="I82" s="6">
         <v>1</v>
       </c>
       <c r="J82" s="4">
         <v>43546.999988368058</v>
       </c>
-      <c r="K82" s="7" t="s">
+      <c r="K82" s="6" t="s">
         <v>366</v>
       </c>
       <c r="L82" s="2" t="s">
@@ -8712,7 +8706,7 @@
       <c r="M82" s="4">
         <v>43487.406134259261</v>
       </c>
-      <c r="N82" s="6" t="s">
+      <c r="N82" s="5" t="s">
         <v>0</v>
       </c>
     </row>
@@ -8724,7 +8718,7 @@
         <v>16</v>
       </c>
       <c r="C83" s="2">
-        <v>1004</v>
+        <v>504</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>433</v>
@@ -8741,13 +8735,13 @@
       <c r="H83" s="2">
         <v>3</v>
       </c>
-      <c r="I83" s="7">
+      <c r="I83" s="6">
         <v>1</v>
       </c>
       <c r="J83" s="4">
         <v>43547.999988368058</v>
       </c>
-      <c r="K83" s="7" t="s">
+      <c r="K83" s="6" t="s">
         <v>435</v>
       </c>
       <c r="L83" s="2" t="s">
@@ -8756,7 +8750,7 @@
       <c r="M83" s="4">
         <v>43488.3752662037</v>
       </c>
-      <c r="N83" s="6" t="s">
+      <c r="N83" s="5" t="s">
         <v>0</v>
       </c>
     </row>
@@ -8768,7 +8762,7 @@
         <v>16</v>
       </c>
       <c r="C84" s="2">
-        <v>1004</v>
+        <v>504</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>437</v>
@@ -8785,13 +8779,13 @@
       <c r="H84" s="2">
         <v>3</v>
       </c>
-      <c r="I84" s="7">
+      <c r="I84" s="6">
         <v>1</v>
       </c>
       <c r="J84" s="4">
         <v>43547.999988368058</v>
       </c>
-      <c r="K84" s="7" t="s">
+      <c r="K84" s="6" t="s">
         <v>441</v>
       </c>
       <c r="L84" s="2" t="s">
@@ -8800,7 +8794,7 @@
       <c r="M84" s="4">
         <v>43488.381736111114</v>
       </c>
-      <c r="N84" s="6" t="s">
+      <c r="N84" s="5" t="s">
         <v>0</v>
       </c>
     </row>
@@ -8812,7 +8806,7 @@
         <v>16</v>
       </c>
       <c r="C85" s="2">
-        <v>1004</v>
+        <v>504</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>442</v>
@@ -8829,13 +8823,13 @@
       <c r="H85" s="2">
         <v>2</v>
       </c>
-      <c r="I85" s="7">
+      <c r="I85" s="6">
         <v>1</v>
       </c>
       <c r="J85" s="4">
         <v>43547.999988368058</v>
       </c>
-      <c r="K85" s="7" t="s">
+      <c r="K85" s="6" t="s">
         <v>446</v>
       </c>
       <c r="L85" s="2" t="s">
@@ -8844,7 +8838,7 @@
       <c r="M85" s="4">
         <v>43488.394780092596</v>
       </c>
-      <c r="N85" s="6" t="s">
+      <c r="N85" s="5" t="s">
         <v>0</v>
       </c>
     </row>
@@ -8856,7 +8850,7 @@
         <v>16</v>
       </c>
       <c r="C86" s="2">
-        <v>1004</v>
+        <v>504</v>
       </c>
       <c r="D86" s="2" t="s">
         <v>447</v>
@@ -8873,13 +8867,13 @@
       <c r="H86" s="2">
         <v>2</v>
       </c>
-      <c r="I86" s="7">
+      <c r="I86" s="6">
         <v>1</v>
       </c>
       <c r="J86" s="4">
         <v>43547.999988368058</v>
       </c>
-      <c r="K86" s="7" t="s">
+      <c r="K86" s="6" t="s">
         <v>451</v>
       </c>
       <c r="L86" s="2" t="s">
@@ -8888,7 +8882,7 @@
       <c r="M86" s="4">
         <v>43488.409629629627</v>
       </c>
-      <c r="N86" s="6" t="s">
+      <c r="N86" s="5" t="s">
         <v>0</v>
       </c>
     </row>
@@ -8900,7 +8894,7 @@
         <v>16</v>
       </c>
       <c r="C87" s="2">
-        <v>1004</v>
+        <v>504</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>452</v>
@@ -8917,13 +8911,13 @@
       <c r="H87" s="2">
         <v>3</v>
       </c>
-      <c r="I87" s="7">
+      <c r="I87" s="6">
         <v>1</v>
       </c>
       <c r="J87" s="4">
         <v>43547.999988368058</v>
       </c>
-      <c r="K87" s="7" t="s">
+      <c r="K87" s="6" t="s">
         <v>182</v>
       </c>
       <c r="L87" s="2" t="s">
@@ -8932,7 +8926,7 @@
       <c r="M87" s="4">
         <v>43488.415590277778</v>
       </c>
-      <c r="N87" s="6" t="s">
+      <c r="N87" s="5" t="s">
         <v>0</v>
       </c>
     </row>
@@ -8944,7 +8938,7 @@
         <v>16</v>
       </c>
       <c r="C88" s="2">
-        <v>1004</v>
+        <v>504</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>456</v>
@@ -8961,13 +8955,13 @@
       <c r="H88" s="2">
         <v>3</v>
       </c>
-      <c r="I88" s="7">
+      <c r="I88" s="6">
         <v>1</v>
       </c>
       <c r="J88" s="4">
         <v>43547.999988368058</v>
       </c>
-      <c r="K88" s="7" t="s">
+      <c r="K88" s="6" t="s">
         <v>458</v>
       </c>
       <c r="L88" s="2" t="s">
@@ -8976,7 +8970,7 @@
       <c r="M88" s="4">
         <v>43488.424363425926</v>
       </c>
-      <c r="N88" s="6" t="s">
+      <c r="N88" s="5" t="s">
         <v>0</v>
       </c>
     </row>
@@ -8988,7 +8982,7 @@
         <v>16</v>
       </c>
       <c r="C89" s="2">
-        <v>1004</v>
+        <v>504</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>460</v>
@@ -9005,13 +8999,13 @@
       <c r="H89" s="2">
         <v>5</v>
       </c>
-      <c r="I89" s="7">
+      <c r="I89" s="6">
         <v>1</v>
       </c>
       <c r="J89" s="4">
         <v>43547.999988368058</v>
       </c>
-      <c r="K89" s="7" t="s">
+      <c r="K89" s="6" t="s">
         <v>464</v>
       </c>
       <c r="L89" s="2" t="s">
@@ -9020,7 +9014,7 @@
       <c r="M89" s="4">
         <v>43488.437094907407</v>
       </c>
-      <c r="N89" s="6" t="s">
+      <c r="N89" s="5" t="s">
         <v>0</v>
       </c>
     </row>
@@ -9032,7 +9026,7 @@
         <v>16</v>
       </c>
       <c r="C90" s="2">
-        <v>1004</v>
+        <v>504</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>466</v>
@@ -9049,13 +9043,13 @@
       <c r="H90" s="2">
         <v>3</v>
       </c>
-      <c r="I90" s="7">
+      <c r="I90" s="6">
         <v>1</v>
       </c>
       <c r="J90" s="4">
         <v>43547.999988368058</v>
       </c>
-      <c r="K90" s="7" t="s">
+      <c r="K90" s="6" t="s">
         <v>182</v>
       </c>
       <c r="L90" s="2" t="s">
@@ -9064,7 +9058,7 @@
       <c r="M90" s="4">
         <v>43488.457083333335</v>
       </c>
-      <c r="N90" s="6" t="s">
+      <c r="N90" s="5" t="s">
         <v>0</v>
       </c>
     </row>
@@ -9076,31 +9070,31 @@
         <v>16</v>
       </c>
       <c r="C91" s="2">
-        <v>1005</v>
+        <v>505</v>
       </c>
       <c r="D91" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="E91" s="2" t="s">
         <v>506</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>507</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>429</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H91" s="2">
         <v>10</v>
       </c>
-      <c r="I91" s="7">
+      <c r="I91" s="6">
         <v>1</v>
       </c>
       <c r="J91" s="4">
         <v>43548.999988368058</v>
       </c>
-      <c r="K91" s="7" t="s">
-        <v>508</v>
+      <c r="K91" s="6" t="s">
+        <v>507</v>
       </c>
       <c r="L91" s="2" t="s">
         <v>137</v>
@@ -9108,7 +9102,7 @@
       <c r="M91" s="4">
         <v>43489.376666666663</v>
       </c>
-      <c r="N91" s="6" t="s">
+      <c r="N91" s="5" t="s">
         <v>0</v>
       </c>
     </row>
@@ -9120,31 +9114,31 @@
         <v>16</v>
       </c>
       <c r="C92" s="2">
-        <v>1005</v>
+        <v>505</v>
       </c>
       <c r="D92" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="E92" s="2" t="s">
         <v>482</v>
       </c>
-      <c r="E92" s="2" t="s">
+      <c r="F92" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="G92" s="2" t="s">
         <v>483</v>
-      </c>
-      <c r="F92" s="2" t="s">
-        <v>485</v>
-      </c>
-      <c r="G92" s="2" t="s">
-        <v>484</v>
       </c>
       <c r="H92" s="2">
         <v>5</v>
       </c>
-      <c r="I92" s="7">
+      <c r="I92" s="6">
         <v>1</v>
       </c>
       <c r="J92" s="4">
         <v>43548.999988368058</v>
       </c>
-      <c r="K92" s="7" t="s">
-        <v>484</v>
+      <c r="K92" s="6" t="s">
+        <v>483</v>
       </c>
       <c r="L92" s="2" t="s">
         <v>328</v>
@@ -9152,7 +9146,7 @@
       <c r="M92" s="4">
         <v>43489.389675925922</v>
       </c>
-      <c r="N92" s="6" t="s">
+      <c r="N92" s="5" t="s">
         <v>0</v>
       </c>
     </row>
@@ -9164,31 +9158,31 @@
         <v>16</v>
       </c>
       <c r="C93" s="2">
-        <v>1005</v>
+        <v>505</v>
       </c>
       <c r="D93" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="E93" s="2" t="s">
         <v>486</v>
       </c>
-      <c r="E93" s="2" t="s">
+      <c r="F93" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="G93" s="2" t="s">
         <v>487</v>
-      </c>
-      <c r="F93" s="2" t="s">
-        <v>489</v>
-      </c>
-      <c r="G93" s="2" t="s">
-        <v>488</v>
       </c>
       <c r="H93" s="2">
         <v>4</v>
       </c>
-      <c r="I93" s="7">
+      <c r="I93" s="6">
         <v>1</v>
       </c>
       <c r="J93" s="4">
         <v>43548.999988368058</v>
       </c>
-      <c r="K93" s="7" t="s">
-        <v>488</v>
+      <c r="K93" s="6" t="s">
+        <v>487</v>
       </c>
       <c r="L93" s="2" t="s">
         <v>328</v>
@@ -9196,7 +9190,7 @@
       <c r="M93" s="4">
         <v>43489.40320601852</v>
       </c>
-      <c r="N93" s="6" t="s">
+      <c r="N93" s="5" t="s">
         <v>0</v>
       </c>
     </row>
@@ -9208,31 +9202,31 @@
         <v>16</v>
       </c>
       <c r="C94" s="2">
-        <v>1005</v>
+        <v>505</v>
       </c>
       <c r="D94" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="E94" s="2" t="s">
         <v>490</v>
       </c>
-      <c r="E94" s="2" t="s">
+      <c r="F94" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="G94" s="2" t="s">
         <v>491</v>
-      </c>
-      <c r="F94" s="2" t="s">
-        <v>493</v>
-      </c>
-      <c r="G94" s="2" t="s">
-        <v>492</v>
       </c>
       <c r="H94" s="2">
         <v>4</v>
       </c>
-      <c r="I94" s="7">
+      <c r="I94" s="6">
         <v>1</v>
       </c>
       <c r="J94" s="4">
         <v>43548.999988368058</v>
       </c>
-      <c r="K94" s="7" t="s">
-        <v>492</v>
+      <c r="K94" s="6" t="s">
+        <v>491</v>
       </c>
       <c r="L94" s="2" t="s">
         <v>137</v>
@@ -9240,7 +9234,7 @@
       <c r="M94" s="4">
         <v>43489.408321759256</v>
       </c>
-      <c r="N94" s="6" t="s">
+      <c r="N94" s="5" t="s">
         <v>0</v>
       </c>
     </row>
@@ -9252,31 +9246,31 @@
         <v>16</v>
       </c>
       <c r="C95" s="2">
-        <v>1005</v>
+        <v>505</v>
       </c>
       <c r="D95" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="E95" s="2" t="s">
         <v>494</v>
       </c>
-      <c r="E95" s="2" t="s">
+      <c r="F95" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="G95" s="2" t="s">
         <v>495</v>
-      </c>
-      <c r="F95" s="2" t="s">
-        <v>497</v>
-      </c>
-      <c r="G95" s="2" t="s">
-        <v>496</v>
       </c>
       <c r="H95" s="2">
         <v>4</v>
       </c>
-      <c r="I95" s="7">
+      <c r="I95" s="6">
         <v>1</v>
       </c>
       <c r="J95" s="4">
         <v>43548.999988368058</v>
       </c>
-      <c r="K95" s="7" t="s">
-        <v>496</v>
+      <c r="K95" s="6" t="s">
+        <v>495</v>
       </c>
       <c r="L95" s="2" t="s">
         <v>328</v>
@@ -9284,7 +9278,7 @@
       <c r="M95" s="4">
         <v>43489.42015046296</v>
       </c>
-      <c r="N95" s="6" t="s">
+      <c r="N95" s="5" t="s">
         <v>0</v>
       </c>
     </row>
@@ -9296,31 +9290,31 @@
         <v>16</v>
       </c>
       <c r="C96" s="2">
-        <v>1005</v>
+        <v>505</v>
       </c>
       <c r="D96" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="E96" s="2" t="s">
         <v>498</v>
       </c>
-      <c r="E96" s="2" t="s">
+      <c r="F96" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="G96" s="2" t="s">
         <v>499</v>
-      </c>
-      <c r="F96" s="2" t="s">
-        <v>501</v>
-      </c>
-      <c r="G96" s="2" t="s">
-        <v>500</v>
       </c>
       <c r="H96" s="2">
         <v>5</v>
       </c>
-      <c r="I96" s="7">
+      <c r="I96" s="6">
         <v>1</v>
       </c>
       <c r="J96" s="4">
         <v>43548.999988368058</v>
       </c>
-      <c r="K96" s="7" t="s">
-        <v>500</v>
+      <c r="K96" s="6" t="s">
+        <v>499</v>
       </c>
       <c r="L96" s="2" t="s">
         <v>328</v>
@@ -9328,7 +9322,7 @@
       <c r="M96" s="4">
         <v>43489.43445601852</v>
       </c>
-      <c r="N96" s="6" t="s">
+      <c r="N96" s="5" t="s">
         <v>0</v>
       </c>
     </row>
@@ -9340,31 +9334,31 @@
         <v>16</v>
       </c>
       <c r="C97" s="2">
-        <v>1005</v>
+        <v>505</v>
       </c>
       <c r="D97" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="E97" s="2" t="s">
         <v>502</v>
       </c>
-      <c r="E97" s="2" t="s">
+      <c r="F97" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="G97" s="2" t="s">
         <v>503</v>
-      </c>
-      <c r="F97" s="2" t="s">
-        <v>505</v>
-      </c>
-      <c r="G97" s="2" t="s">
-        <v>504</v>
       </c>
       <c r="H97" s="2">
         <v>10</v>
       </c>
-      <c r="I97" s="7">
+      <c r="I97" s="6">
         <v>1</v>
       </c>
       <c r="J97" s="4">
         <v>43548.999988368058</v>
       </c>
-      <c r="K97" s="7" t="s">
-        <v>504</v>
+      <c r="K97" s="6" t="s">
+        <v>503</v>
       </c>
       <c r="L97" s="2" t="s">
         <v>328</v>
@@ -9372,7 +9366,7 @@
       <c r="M97" s="4">
         <v>43489.44358796296</v>
       </c>
-      <c r="N97" s="6" t="s">
+      <c r="N97" s="5" t="s">
         <v>0</v>
       </c>
     </row>
@@ -9384,16 +9378,16 @@
         <v>16</v>
       </c>
       <c r="C98" s="2">
-        <v>1006</v>
+        <v>506</v>
       </c>
       <c r="D98" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="F98" s="2" t="s">
         <v>575</v>
-      </c>
-      <c r="E98" s="2" t="s">
-        <v>576</v>
-      </c>
-      <c r="F98" s="2" t="s">
-        <v>577</v>
       </c>
       <c r="G98" s="2" t="s">
         <v>176</v>
@@ -9401,13 +9395,13 @@
       <c r="H98" s="2">
         <v>2</v>
       </c>
-      <c r="I98" s="7">
+      <c r="I98" s="6">
         <v>1</v>
       </c>
       <c r="J98" s="4">
         <v>43549.999988368058</v>
       </c>
-      <c r="K98" s="7" t="s">
+      <c r="K98" s="6" t="s">
         <v>176</v>
       </c>
       <c r="L98" s="2" t="s">
@@ -9416,7 +9410,7 @@
       <c r="M98" s="4">
         <v>43490.376087962963</v>
       </c>
-      <c r="N98" s="6" t="s">
+      <c r="N98" s="5" t="s">
         <v>0</v>
       </c>
     </row>
@@ -9428,39 +9422,39 @@
         <v>16</v>
       </c>
       <c r="C99" s="2">
-        <v>1006</v>
+        <v>506</v>
       </c>
       <c r="D99" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="G99" s="2" t="s">
         <v>578</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>579</v>
-      </c>
-      <c r="F99" s="2" t="s">
-        <v>583</v>
-      </c>
-      <c r="G99" s="2" t="s">
-        <v>580</v>
       </c>
       <c r="H99" s="2">
         <v>2</v>
       </c>
-      <c r="I99" s="7">
+      <c r="I99" s="6">
         <v>1</v>
       </c>
       <c r="J99" s="4">
         <v>43549.999988368058</v>
       </c>
-      <c r="K99" s="7" t="s">
+      <c r="K99" s="6" t="s">
+        <v>578</v>
+      </c>
+      <c r="L99" s="2" t="s">
         <v>580</v>
-      </c>
-      <c r="L99" s="2" t="s">
-        <v>582</v>
       </c>
       <c r="M99" s="4">
         <v>43490.379166666666</v>
       </c>
-      <c r="N99" s="6" t="s">
+      <c r="N99" s="5" t="s">
         <v>0</v>
       </c>
     </row>
@@ -9472,16 +9466,16 @@
         <v>16</v>
       </c>
       <c r="C100" s="2">
-        <v>1006</v>
+        <v>506</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="E100" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="F100" s="2" t="s">
         <v>585</v>
-      </c>
-      <c r="F100" s="2" t="s">
-        <v>587</v>
       </c>
       <c r="G100" s="2" t="s">
         <v>435</v>
@@ -9489,22 +9483,22 @@
       <c r="H100" s="2">
         <v>2</v>
       </c>
-      <c r="I100" s="7">
+      <c r="I100" s="6">
         <v>1</v>
       </c>
       <c r="J100" s="4">
         <v>43549.999988368058</v>
       </c>
-      <c r="K100" s="7" t="s">
+      <c r="K100" s="6" t="s">
         <v>435</v>
       </c>
       <c r="L100" s="2" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="M100" s="4">
         <v>43490.391504629632</v>
       </c>
-      <c r="N100" s="6" t="s">
+      <c r="N100" s="5" t="s">
         <v>0</v>
       </c>
     </row>
@@ -9516,16 +9510,16 @@
         <v>16</v>
       </c>
       <c r="C101" s="2">
-        <v>1006</v>
+        <v>506</v>
       </c>
       <c r="D101" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="F101" s="2" t="s">
         <v>588</v>
-      </c>
-      <c r="E101" s="2" t="s">
-        <v>589</v>
-      </c>
-      <c r="F101" s="2" t="s">
-        <v>590</v>
       </c>
       <c r="G101" s="2" t="s">
         <v>210</v>
@@ -9533,13 +9527,13 @@
       <c r="H101" s="2">
         <v>0</v>
       </c>
-      <c r="I101" s="7">
+      <c r="I101" s="6">
         <v>1</v>
       </c>
       <c r="J101" s="4">
         <v>43549.999988368058</v>
       </c>
-      <c r="K101" s="7" t="s">
+      <c r="K101" s="6" t="s">
         <v>210</v>
       </c>
       <c r="L101" s="2" t="s">
@@ -9548,7 +9542,7 @@
       <c r="M101" s="4">
         <v>43490.396817129629</v>
       </c>
-      <c r="N101" s="6" t="s">
+      <c r="N101" s="5" t="s">
         <v>0</v>
       </c>
     </row>
@@ -9560,19 +9554,19 @@
         <v>16</v>
       </c>
       <c r="C102" s="2">
-        <v>1007</v>
+        <v>507</v>
       </c>
       <c r="D102" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="G102" s="2" t="s">
         <v>592</v>
-      </c>
-      <c r="E102" s="2" t="s">
-        <v>593</v>
-      </c>
-      <c r="F102" s="2" t="s">
-        <v>596</v>
-      </c>
-      <c r="G102" s="2" t="s">
-        <v>594</v>
       </c>
       <c r="H102" s="2">
         <v>2</v>
@@ -9584,15 +9578,15 @@
         <v>43550.999988368058</v>
       </c>
       <c r="K102" s="2" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="L102" s="2" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="M102" s="4">
         <v>43491.419606481482</v>
       </c>
-      <c r="N102" s="6" t="s">
+      <c r="N102" s="5" t="s">
         <v>0</v>
       </c>
     </row>
@@ -9604,16 +9598,16 @@
         <v>16</v>
       </c>
       <c r="C103" s="2">
-        <v>1007</v>
+        <v>507</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="E103" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="F103" s="2" t="s">
         <v>601</v>
-      </c>
-      <c r="F103" s="2" t="s">
-        <v>603</v>
       </c>
       <c r="G103" s="2" t="s">
         <v>421</v>
@@ -9636,7 +9630,7 @@
       <c r="M103" s="4">
         <v>43491.425706018519</v>
       </c>
-      <c r="N103" s="6" t="s">
+      <c r="N103" s="5" t="s">
         <v>0</v>
       </c>
     </row>
@@ -9648,19 +9642,19 @@
         <v>16</v>
       </c>
       <c r="C104" s="2">
-        <v>1007</v>
+        <v>507</v>
       </c>
       <c r="D104" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="G104" s="2" t="s">
         <v>605</v>
-      </c>
-      <c r="E104" s="2" t="s">
-        <v>604</v>
-      </c>
-      <c r="F104" s="2" t="s">
-        <v>606</v>
-      </c>
-      <c r="G104" s="2" t="s">
-        <v>607</v>
       </c>
       <c r="H104" s="2">
         <v>3</v>
@@ -9672,15 +9666,15 @@
         <v>43550.999988368058</v>
       </c>
       <c r="K104" s="2" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="L104" s="2" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="M104" s="4">
         <v>43491.429849537039</v>
       </c>
-      <c r="N104" s="6" t="s">
+      <c r="N104" s="5" t="s">
         <v>0</v>
       </c>
     </row>
@@ -9692,19 +9686,19 @@
         <v>16</v>
       </c>
       <c r="C105" s="2">
-        <v>1008</v>
+        <v>508</v>
       </c>
       <c r="D105" s="2" t="s">
+        <v>645</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>648</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>646</v>
+      </c>
+      <c r="G105" s="2" t="s">
         <v>647</v>
-      </c>
-      <c r="E105" s="2" t="s">
-        <v>650</v>
-      </c>
-      <c r="F105" s="2" t="s">
-        <v>648</v>
-      </c>
-      <c r="G105" s="2" t="s">
-        <v>649</v>
       </c>
       <c r="H105" s="2">
         <v>5</v>
@@ -9716,7 +9710,7 @@
         <v>43551.999988368058</v>
       </c>
       <c r="K105" s="2" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="L105" s="2" t="s">
         <v>463</v>
@@ -9724,7 +9718,7 @@
       <c r="M105" s="4">
         <v>43492.542129629626</v>
       </c>
-      <c r="N105" s="6" t="s">
+      <c r="N105" s="5" t="s">
         <v>0</v>
       </c>
     </row>
@@ -9776,7 +9770,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>101</v>
+        <v>10001</v>
       </c>
       <c r="C2">
         <v>12</v>
@@ -9796,7 +9790,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>101</v>
+        <v>10001</v>
       </c>
       <c r="C3">
         <v>12</v>
@@ -9816,7 +9810,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>104</v>
+        <v>10004</v>
       </c>
       <c r="C4">
         <v>12</v>
@@ -9836,7 +9830,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>104</v>
+        <v>10004</v>
       </c>
       <c r="C5">
         <v>12</v>
@@ -9856,7 +9850,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>104</v>
+        <v>10004</v>
       </c>
       <c r="C6">
         <v>12</v>
@@ -9876,7 +9870,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>104</v>
+        <v>10004</v>
       </c>
       <c r="C7">
         <v>12</v>
@@ -9896,7 +9890,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>104</v>
+        <v>10004</v>
       </c>
       <c r="C8">
         <v>12</v>
@@ -9916,7 +9910,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>110</v>
+        <v>10010</v>
       </c>
       <c r="C9">
         <v>11</v>
@@ -9936,7 +9930,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>110</v>
+        <v>10010</v>
       </c>
       <c r="C10">
         <v>11</v>
@@ -9956,7 +9950,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>110</v>
+        <v>10010</v>
       </c>
       <c r="C11">
         <v>11</v>
@@ -9976,7 +9970,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>104</v>
+        <v>10004</v>
       </c>
       <c r="C12">
         <v>16</v>
@@ -9996,7 +9990,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>101</v>
+        <v>10001</v>
       </c>
       <c r="C13">
         <v>16</v>
@@ -10016,7 +10010,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>101</v>
+        <v>10001</v>
       </c>
       <c r="C14">
         <v>16</v>
@@ -10036,7 +10030,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>101</v>
+        <v>10001</v>
       </c>
       <c r="C15">
         <v>16</v>
@@ -10056,7 +10050,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>104</v>
+        <v>10004</v>
       </c>
       <c r="C16">
         <v>14</v>
@@ -10076,7 +10070,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>104</v>
+        <v>10004</v>
       </c>
       <c r="C17">
         <v>14</v>
@@ -10096,7 +10090,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>110</v>
+        <v>10010</v>
       </c>
       <c r="C18">
         <v>12</v>
@@ -10116,7 +10110,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>110</v>
+        <v>10010</v>
       </c>
       <c r="C19">
         <v>12</v>
@@ -10136,7 +10130,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>116</v>
+        <v>10016</v>
       </c>
       <c r="C20">
         <v>12</v>
@@ -10156,7 +10150,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>116</v>
+        <v>10016</v>
       </c>
       <c r="C21">
         <v>12</v>
@@ -10176,7 +10170,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>101</v>
+        <v>10001</v>
       </c>
       <c r="C22">
         <v>11</v>
@@ -10196,7 +10190,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>119</v>
+        <v>10019</v>
       </c>
       <c r="C23">
         <v>12</v>
@@ -10216,7 +10210,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>101</v>
+        <v>10001</v>
       </c>
       <c r="C24">
         <v>11</v>
@@ -10236,7 +10230,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>119</v>
+        <v>10019</v>
       </c>
       <c r="C25">
         <v>12</v>
@@ -10256,7 +10250,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>101</v>
+        <v>10001</v>
       </c>
       <c r="C26">
         <v>11</v>
@@ -10276,7 +10270,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>119</v>
+        <v>10019</v>
       </c>
       <c r="C27">
         <v>12</v>
@@ -10296,7 +10290,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>101</v>
+        <v>10001</v>
       </c>
       <c r="C28">
         <v>11</v>
@@ -10316,7 +10310,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>119</v>
+        <v>10019</v>
       </c>
       <c r="C29">
         <v>14</v>
@@ -10336,7 +10330,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>119</v>
+        <v>10019</v>
       </c>
       <c r="C30">
         <v>14</v>
@@ -10421,32 +10415,32 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="3">
-        <v>101</v>
+      <c r="B2">
+        <v>10001</v>
       </c>
       <c r="C2" s="3">
         <v>11</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="7">
         <v>43478.550671296296</v>
       </c>
       <c r="E2" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="F2">
-        <v>3003</v>
+        <v>403</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="H2" t="s">
         <v>253</v>
       </c>
       <c r="I2" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="J2" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -10459,32 +10453,32 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="3">
-        <v>108</v>
+      <c r="B3">
+        <v>10008</v>
       </c>
       <c r="C3" s="3">
         <v>12</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="7">
         <v>43484.434641203705</v>
       </c>
       <c r="E3" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="F3">
-        <v>3003</v>
+        <v>403</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="H3" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="I3" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="J3" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -10497,32 +10491,32 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="3">
-        <v>101</v>
+      <c r="B4">
+        <v>10001</v>
       </c>
       <c r="C4" s="3">
         <v>11</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="7">
         <v>43485.598587962966</v>
       </c>
       <c r="E4" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="F4">
-        <v>3001</v>
+        <v>401</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="H4" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="I4" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="J4" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -10535,32 +10529,32 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="3">
-        <v>114</v>
+      <c r="B5">
+        <v>10014</v>
       </c>
       <c r="C5" s="3">
         <v>12</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="7">
         <v>43487.803229166668</v>
       </c>
       <c r="E5" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="F5">
-        <v>3003</v>
+        <v>403</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="H5" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="I5" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="J5" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -10573,32 +10567,32 @@
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="3">
-        <v>114</v>
+      <c r="B6">
+        <v>10014</v>
       </c>
       <c r="C6" s="3">
         <v>16</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="7">
         <v>43487.811284722222</v>
       </c>
       <c r="E6" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="F6">
-        <v>3002</v>
+        <v>402</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="H6" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="I6" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="J6" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -10611,32 +10605,32 @@
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="3">
-        <v>102</v>
+      <c r="B7">
+        <v>10002</v>
       </c>
       <c r="C7" s="3">
         <v>12</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="7">
         <v>43490.84983796296</v>
       </c>
       <c r="E7" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="F7">
-        <v>3003</v>
+        <v>403</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="H7" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="I7" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="J7" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -10649,32 +10643,32 @@
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="3">
-        <v>101</v>
+      <c r="B8">
+        <v>10001</v>
       </c>
       <c r="C8" s="3">
         <v>11</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="7">
         <v>43491.464479166665</v>
       </c>
       <c r="E8" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="F8">
-        <v>3001</v>
+        <v>401</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="H8" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="I8" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="J8" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -10687,32 +10681,32 @@
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="3">
-        <v>101</v>
+      <c r="B9">
+        <v>10001</v>
       </c>
       <c r="C9" s="3">
         <v>16</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="7">
         <v>43491.473715277774</v>
       </c>
       <c r="E9" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="F9">
-        <v>3001</v>
+        <v>401</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="H9" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="I9" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="J9" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -10725,32 +10719,32 @@
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="3">
-        <v>120</v>
+      <c r="B10">
+        <v>10020</v>
       </c>
       <c r="C10" s="3">
         <v>12</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="7">
         <v>43492.551666666666</v>
       </c>
       <c r="E10" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="F10">
-        <v>3001</v>
+        <v>401</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="H10" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="I10" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="J10" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -10763,32 +10757,32 @@
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="3">
-        <v>120</v>
+      <c r="B11">
+        <v>10020</v>
       </c>
       <c r="C11" s="3">
         <v>16</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="7">
         <v>43492.56082175926</v>
       </c>
       <c r="E11" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="F11">
-        <v>3001</v>
+        <v>401</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="H11" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="I11" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="J11" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -10801,32 +10795,32 @@
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="3">
-        <v>114</v>
+      <c r="B12">
+        <v>10014</v>
       </c>
       <c r="C12" s="3">
         <v>14</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="7">
         <v>43492.620625000003</v>
       </c>
       <c r="E12" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="F12">
-        <v>3002</v>
+        <v>402</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="H12" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="I12" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="J12" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -10839,32 +10833,32 @@
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="3">
-        <v>114</v>
+      <c r="B13">
+        <v>10014</v>
       </c>
       <c r="C13" s="3">
         <v>16</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13" s="7">
         <v>43492.628761574073</v>
       </c>
       <c r="E13" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="F13">
-        <v>3001</v>
+        <v>401</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="H13" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="I13" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="J13" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -10877,29 +10871,29 @@
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="3">
-        <v>104</v>
+      <c r="B14">
+        <v>10004</v>
       </c>
       <c r="C14" s="3">
         <v>14</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D14" s="7">
         <v>43493.749988425923</v>
       </c>
       <c r="E14" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="F14">
-        <v>3001</v>
+        <v>401</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="H14" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="I14" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="J14" t="s">
         <v>477</v>
@@ -10915,32 +10909,32 @@
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="3">
-        <v>118</v>
+      <c r="B15">
+        <v>10018</v>
       </c>
       <c r="C15" s="3">
         <v>12</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D15" s="7">
         <v>43494.813611111109</v>
       </c>
       <c r="E15" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="F15">
-        <v>3001</v>
+        <v>401</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="H15" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="I15" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="J15" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -10953,32 +10947,32 @@
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="3">
-        <v>120</v>
+      <c r="B16">
+        <v>10020</v>
       </c>
       <c r="C16" s="3">
         <v>12</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D16" s="7">
         <v>43495.767291666663</v>
       </c>
       <c r="E16" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="F16">
-        <v>3003</v>
+        <v>403</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="H16" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="I16" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="J16" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -10991,29 +10985,29 @@
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="3">
-        <v>119</v>
+      <c r="B17">
+        <v>10019</v>
       </c>
       <c r="C17" s="3">
         <v>12</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D17" s="7">
         <v>43496.753310185188</v>
       </c>
       <c r="E17" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="F17">
-        <v>3002</v>
+        <v>402</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>401</v>
       </c>
       <c r="H17" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="I17" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="J17" t="s">
         <v>402</v>
@@ -11030,7 +11024,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>114</v>
+        <v>10014</v>
       </c>
       <c r="C18">
         <v>16</v>
@@ -11039,22 +11033,22 @@
         <v>43497.88758101852</v>
       </c>
       <c r="E18" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="F18">
-        <v>3001</v>
+        <v>401</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="H18" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="I18" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="J18" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="K18">
         <v>1</v>
@@ -11317,7 +11311,7 @@
         <v>1600006</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -11402,7 +11396,7 @@
         <v>1100031</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -11419,7 +11413,7 @@
         <v>1100032</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -11487,7 +11481,7 @@
         <v>1600028</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -11504,7 +11498,7 @@
         <v>1600029</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -11521,7 +11515,7 @@
         <v>1600030</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -11555,7 +11549,7 @@
         <v>1400019</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -11606,7 +11600,7 @@
         <v>1400014</v>
       </c>
       <c r="D31" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -11623,7 +11617,7 @@
         <v>1400015</v>
       </c>
       <c r="D32" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -11640,7 +11634,7 @@
         <v>1400016</v>
       </c>
       <c r="D33" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="E33">
         <v>1</v>
@@ -11657,7 +11651,7 @@
         <v>1400017</v>
       </c>
       <c r="D34" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="E34">
         <v>1</v>
@@ -11776,7 +11770,7 @@
         <v>1600034</v>
       </c>
       <c r="D41" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="E41">
         <v>1</v>
@@ -11793,7 +11787,7 @@
         <v>1600035</v>
       </c>
       <c r="D42" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="E42">
         <v>1</v>
@@ -11824,7 +11818,7 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5F6AD32-B3D8-4AE8-A088-25A7746AC051}">
   <sheetPr codeName="Feuil8"/>
-  <dimension ref="A1:F127"/>
+  <dimension ref="A1:E127"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -11851,7 +11845,7 @@
         <v>11</v>
       </c>
       <c r="B2">
-        <v>101</v>
+        <v>10001</v>
       </c>
       <c r="C2" s="1">
         <v>43477.417071759257</v>
@@ -11862,7 +11856,7 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>106</v>
+        <v>10006</v>
       </c>
       <c r="C3" s="1">
         <v>43477.418182870373</v>
@@ -11873,7 +11867,7 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <v>110</v>
+        <v>10010</v>
       </c>
       <c r="C4" s="1">
         <v>43477.420694444445</v>
@@ -11884,7 +11878,7 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>111</v>
+        <v>10011</v>
       </c>
       <c r="C5" s="1">
         <v>43477.459050925929</v>
@@ -11895,7 +11889,7 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>115</v>
+        <v>10015</v>
       </c>
       <c r="C6" s="1">
         <v>43477.460497685184</v>
@@ -11906,7 +11900,7 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>117</v>
+        <v>10017</v>
       </c>
       <c r="C7" s="1">
         <v>43477.461770833332</v>
@@ -11917,7 +11911,7 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>101</v>
+        <v>10001</v>
       </c>
       <c r="C8" s="1">
         <v>43478.544317129628</v>
@@ -11928,7 +11922,7 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>106</v>
+        <v>10006</v>
       </c>
       <c r="C9" s="1">
         <v>43478.552187499998</v>
@@ -11939,7 +11933,7 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>110</v>
+        <v>10010</v>
       </c>
       <c r="C10" s="1">
         <v>43478.594386574077</v>
@@ -11950,7 +11944,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>111</v>
+        <v>10011</v>
       </c>
       <c r="C11" s="1">
         <v>43478.596458333333</v>
@@ -11961,7 +11955,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>115</v>
+        <v>10015</v>
       </c>
       <c r="C12" s="1">
         <v>43478.628842592596</v>
@@ -11972,7 +11966,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>117</v>
+        <v>10017</v>
       </c>
       <c r="C13" s="1">
         <v>43478.636087962965</v>
@@ -11983,7 +11977,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>119</v>
+        <v>10019</v>
       </c>
       <c r="C14" s="1">
         <v>43482.754201388889</v>
@@ -11994,7 +11988,7 @@
         <v>11</v>
       </c>
       <c r="B15">
-        <v>101</v>
+        <v>10001</v>
       </c>
       <c r="C15" s="1">
         <v>43484.417743055557</v>
@@ -12005,7 +11999,7 @@
         <v>11</v>
       </c>
       <c r="B16">
-        <v>110</v>
+        <v>10010</v>
       </c>
       <c r="C16" s="1">
         <v>43484.422546296293</v>
@@ -12016,7 +12010,7 @@
         <v>11</v>
       </c>
       <c r="B17">
-        <v>115</v>
+        <v>10015</v>
       </c>
       <c r="C17" s="1">
         <v>43484.42291666667</v>
@@ -12027,7 +12021,7 @@
         <v>12</v>
       </c>
       <c r="B18">
-        <v>101</v>
+        <v>10001</v>
       </c>
       <c r="C18" s="1">
         <v>43484.426423611112</v>
@@ -12038,7 +12032,7 @@
         <v>12</v>
       </c>
       <c r="B19">
-        <v>102</v>
+        <v>10002</v>
       </c>
       <c r="C19" s="1">
         <v>43484.431192129632</v>
@@ -12049,7 +12043,7 @@
         <v>12</v>
       </c>
       <c r="B20">
-        <v>104</v>
+        <v>10004</v>
       </c>
       <c r="C20" s="1">
         <v>43484.43241898148</v>
@@ -12060,7 +12054,7 @@
         <v>12</v>
       </c>
       <c r="B21">
-        <v>106</v>
+        <v>10006</v>
       </c>
       <c r="C21" s="1">
         <v>43484.434259259258</v>
@@ -12071,7 +12065,7 @@
         <v>12</v>
       </c>
       <c r="B22">
-        <v>108</v>
+        <v>10008</v>
       </c>
       <c r="C22" s="1">
         <v>43484.460717592592</v>
@@ -12082,7 +12076,7 @@
         <v>12</v>
       </c>
       <c r="B23">
-        <v>110</v>
+        <v>10010</v>
       </c>
       <c r="C23" s="1">
         <v>43484.462060185186</v>
@@ -12093,7 +12087,7 @@
         <v>12</v>
       </c>
       <c r="B24">
-        <v>114</v>
+        <v>10014</v>
       </c>
       <c r="C24" s="1">
         <v>43484.462858796294</v>
@@ -12104,7 +12098,7 @@
         <v>12</v>
       </c>
       <c r="B25">
-        <v>115</v>
+        <v>10015</v>
       </c>
       <c r="C25" s="1">
         <v>43484.466307870367</v>
@@ -12115,7 +12109,7 @@
         <v>12</v>
       </c>
       <c r="B26">
-        <v>116</v>
+        <v>10016</v>
       </c>
       <c r="C26" s="1">
         <v>43484.470775462964</v>
@@ -12126,7 +12120,7 @@
         <v>12</v>
       </c>
       <c r="B27">
-        <v>118</v>
+        <v>10018</v>
       </c>
       <c r="C27" s="1">
         <v>43484.475682870368</v>
@@ -12137,7 +12131,7 @@
         <v>12</v>
       </c>
       <c r="B28">
-        <v>119</v>
+        <v>10019</v>
       </c>
       <c r="C28" s="1">
         <v>43484.481122685182</v>
@@ -12148,7 +12142,7 @@
         <v>12</v>
       </c>
       <c r="B29">
-        <v>120</v>
+        <v>10020</v>
       </c>
       <c r="C29" s="1">
         <v>43484.545046296298</v>
@@ -12159,7 +12153,7 @@
         <v>14</v>
       </c>
       <c r="B30">
-        <v>104</v>
+        <v>10004</v>
       </c>
       <c r="C30" s="1">
         <v>43484.547118055554</v>
@@ -12170,7 +12164,7 @@
         <v>14</v>
       </c>
       <c r="B31">
-        <v>111</v>
+        <v>10011</v>
       </c>
       <c r="C31" s="1">
         <v>43484.548460648148</v>
@@ -12181,7 +12175,7 @@
         <v>14</v>
       </c>
       <c r="B32">
-        <v>114</v>
+        <v>10014</v>
       </c>
       <c r="C32" s="1">
         <v>43484.551631944443</v>
@@ -12192,7 +12186,7 @@
         <v>14</v>
       </c>
       <c r="B33">
-        <v>115</v>
+        <v>10015</v>
       </c>
       <c r="C33" s="1">
         <v>43484.552407407406</v>
@@ -12203,7 +12197,7 @@
         <v>14</v>
       </c>
       <c r="B34">
-        <v>117</v>
+        <v>10017</v>
       </c>
       <c r="C34" s="1">
         <v>43484.557893518519</v>
@@ -12214,7 +12208,7 @@
         <v>14</v>
       </c>
       <c r="B35">
-        <v>119</v>
+        <v>10019</v>
       </c>
       <c r="C35" s="1">
         <v>43484.561956018515</v>
@@ -12225,7 +12219,7 @@
         <v>11</v>
       </c>
       <c r="B36">
-        <v>110</v>
+        <v>10010</v>
       </c>
       <c r="C36" s="1">
         <v>43485.547951388886</v>
@@ -12236,7 +12230,7 @@
         <v>11</v>
       </c>
       <c r="B37">
-        <v>115</v>
+        <v>10015</v>
       </c>
       <c r="C37" s="1">
         <v>43485.553495370368</v>
@@ -12247,7 +12241,7 @@
         <v>12</v>
       </c>
       <c r="B38">
-        <v>101</v>
+        <v>10001</v>
       </c>
       <c r="C38" s="1">
         <v>43485.5546875</v>
@@ -12258,7 +12252,7 @@
         <v>12</v>
       </c>
       <c r="B39">
-        <v>102</v>
+        <v>10002</v>
       </c>
       <c r="C39" s="1">
         <v>43485.557916666665</v>
@@ -12269,7 +12263,7 @@
         <v>12</v>
       </c>
       <c r="B40">
-        <v>104</v>
+        <v>10004</v>
       </c>
       <c r="C40" s="1">
         <v>43485.560243055559</v>
@@ -12280,7 +12274,7 @@
         <v>12</v>
       </c>
       <c r="B41">
-        <v>106</v>
+        <v>10006</v>
       </c>
       <c r="C41" s="1">
         <v>43485.56453703704</v>
@@ -12291,7 +12285,7 @@
         <v>12</v>
       </c>
       <c r="B42">
-        <v>108</v>
+        <v>10008</v>
       </c>
       <c r="C42" s="1">
         <v>43485.565057870372</v>
@@ -12302,7 +12296,7 @@
         <v>12</v>
       </c>
       <c r="B43">
-        <v>110</v>
+        <v>10010</v>
       </c>
       <c r="C43" s="1">
         <v>43485.587997685187</v>
@@ -12313,7 +12307,7 @@
         <v>12</v>
       </c>
       <c r="B44">
-        <v>114</v>
+        <v>10014</v>
       </c>
       <c r="C44" s="1">
         <v>43485.590127314812</v>
@@ -12324,7 +12318,7 @@
         <v>12</v>
       </c>
       <c r="B45">
-        <v>116</v>
+        <v>10016</v>
       </c>
       <c r="C45" s="1">
         <v>43485.59578703704</v>
@@ -12335,7 +12329,7 @@
         <v>12</v>
       </c>
       <c r="B46">
-        <v>118</v>
+        <v>10018</v>
       </c>
       <c r="C46" s="1">
         <v>43485.601377314815</v>
@@ -12346,7 +12340,7 @@
         <v>12</v>
       </c>
       <c r="B47">
-        <v>119</v>
+        <v>10019</v>
       </c>
       <c r="C47" s="1">
         <v>43485.60664351852</v>
@@ -12357,184 +12351,184 @@
         <v>12</v>
       </c>
       <c r="B48">
-        <v>120</v>
+        <v>10020</v>
       </c>
       <c r="C48" s="1">
         <v>43485.609884259262</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>14</v>
       </c>
       <c r="B49">
-        <v>104</v>
+        <v>10004</v>
       </c>
       <c r="C49" s="1">
         <v>43485.614710648151</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>14</v>
       </c>
       <c r="B50">
-        <v>111</v>
+        <v>10011</v>
       </c>
       <c r="C50" s="1">
         <v>43485.61791666667</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>14</v>
       </c>
       <c r="B51">
-        <v>114</v>
+        <v>10014</v>
       </c>
       <c r="C51" s="1">
         <v>43485.626550925925</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>14</v>
       </c>
       <c r="B52">
-        <v>115</v>
+        <v>10015</v>
       </c>
       <c r="C52" s="1">
         <v>43485.629050925927</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>14</v>
       </c>
       <c r="B53">
-        <v>117</v>
+        <v>10017</v>
       </c>
       <c r="C53" s="1">
         <v>43485.63449074074</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>14</v>
       </c>
       <c r="B54">
-        <v>119</v>
+        <v>10019</v>
       </c>
       <c r="C54" s="1">
         <v>43485.638425925928</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>16</v>
       </c>
       <c r="B55">
-        <v>104</v>
+        <v>10004</v>
       </c>
       <c r="C55" s="1">
         <v>43485.64303240741</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>16</v>
       </c>
       <c r="B56">
-        <v>106</v>
+        <v>10006</v>
       </c>
       <c r="C56" s="1">
         <v>43485.647696759261</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>16</v>
       </c>
       <c r="B57">
-        <v>114</v>
+        <v>10014</v>
       </c>
       <c r="C57" s="1">
         <v>43485.651388888888</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>16</v>
       </c>
       <c r="B58">
-        <v>115</v>
+        <v>10015</v>
       </c>
       <c r="C58" s="1">
         <v>43485.653807870367</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>16</v>
       </c>
       <c r="B59">
-        <v>120</v>
+        <v>10020</v>
       </c>
       <c r="C59" s="1">
         <v>43485.659224537034</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>16</v>
       </c>
       <c r="B60">
-        <v>114</v>
+        <v>10014</v>
       </c>
       <c r="C60" s="1">
         <v>43486.750844907408</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>14</v>
       </c>
       <c r="B61">
-        <v>104</v>
+        <v>10004</v>
       </c>
       <c r="C61" s="1">
         <v>43486.767256944448</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>11</v>
       </c>
       <c r="B62">
-        <v>101</v>
+        <v>10001</v>
       </c>
       <c r="C62" s="1">
         <v>43488.713379629633</v>
       </c>
-      <c r="F62" s="1"/>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E62" s="1"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>14</v>
       </c>
       <c r="B63">
-        <v>104</v>
+        <v>10004</v>
       </c>
       <c r="C63" s="1">
         <v>43488.751446759263</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>12</v>
       </c>
       <c r="B64">
-        <v>119</v>
+        <v>10019</v>
       </c>
       <c r="C64" s="1">
         <v>43489.75099537037</v>
@@ -12545,7 +12539,7 @@
         <v>12</v>
       </c>
       <c r="B65">
-        <v>101</v>
+        <v>10001</v>
       </c>
       <c r="C65" s="1">
         <v>43490.792407407411</v>
@@ -12556,7 +12550,7 @@
         <v>12</v>
       </c>
       <c r="B66">
-        <v>104</v>
+        <v>10004</v>
       </c>
       <c r="C66" s="1">
         <v>43491.416898148149</v>
@@ -12567,7 +12561,7 @@
         <v>11</v>
       </c>
       <c r="B67">
-        <v>110</v>
+        <v>10010</v>
       </c>
       <c r="C67" s="1">
         <v>43491.423159722224</v>
@@ -12578,7 +12572,7 @@
         <v>12</v>
       </c>
       <c r="B68">
-        <v>101</v>
+        <v>10001</v>
       </c>
       <c r="C68" s="1">
         <v>43491.428483796299</v>
@@ -12589,7 +12583,7 @@
         <v>12</v>
       </c>
       <c r="B69">
-        <v>102</v>
+        <v>10002</v>
       </c>
       <c r="C69" s="1">
         <v>43491.433634259258</v>
@@ -12600,7 +12594,7 @@
         <v>12</v>
       </c>
       <c r="B70">
-        <v>108</v>
+        <v>10008</v>
       </c>
       <c r="C70" s="1">
         <v>43491.443773148145</v>
@@ -12611,7 +12605,7 @@
         <v>12</v>
       </c>
       <c r="B71">
-        <v>110</v>
+        <v>10010</v>
       </c>
       <c r="C71" s="1">
         <v>43491.460578703707</v>
@@ -12622,7 +12616,7 @@
         <v>12</v>
       </c>
       <c r="B72">
-        <v>114</v>
+        <v>10014</v>
       </c>
       <c r="C72" s="1">
         <v>43491.466435185182</v>
@@ -12633,7 +12627,7 @@
         <v>12</v>
       </c>
       <c r="B73">
-        <v>118</v>
+        <v>10018</v>
       </c>
       <c r="C73" s="1">
         <v>43491.466863425929</v>
@@ -12644,7 +12638,7 @@
         <v>12</v>
       </c>
       <c r="B74">
-        <v>119</v>
+        <v>10019</v>
       </c>
       <c r="C74" s="1">
         <v>43491.469293981485</v>
@@ -12655,7 +12649,7 @@
         <v>12</v>
       </c>
       <c r="B75">
-        <v>120</v>
+        <v>10020</v>
       </c>
       <c r="C75" s="1">
         <v>43491.471574074072</v>
@@ -12666,7 +12660,7 @@
         <v>14</v>
       </c>
       <c r="B76">
-        <v>104</v>
+        <v>10004</v>
       </c>
       <c r="C76" s="1">
         <v>43491.472384259258</v>
@@ -12677,7 +12671,7 @@
         <v>14</v>
       </c>
       <c r="B77">
-        <v>114</v>
+        <v>10014</v>
       </c>
       <c r="C77" s="1">
         <v>43491.547118055554</v>
@@ -12688,7 +12682,7 @@
         <v>14</v>
       </c>
       <c r="B78">
-        <v>115</v>
+        <v>10015</v>
       </c>
       <c r="C78" s="1">
         <v>43491.548460648148</v>
@@ -12699,7 +12693,7 @@
         <v>14</v>
       </c>
       <c r="B79">
-        <v>117</v>
+        <v>10017</v>
       </c>
       <c r="C79" s="1">
         <v>43491.553715277776</v>
@@ -12710,7 +12704,7 @@
         <v>14</v>
       </c>
       <c r="B80">
-        <v>119</v>
+        <v>10019</v>
       </c>
       <c r="C80" s="1">
         <v>43491.558009259257</v>
@@ -12721,7 +12715,7 @@
         <v>16</v>
       </c>
       <c r="B81">
-        <v>114</v>
+        <v>10014</v>
       </c>
       <c r="C81" s="1">
         <v>43491.562002314815</v>
@@ -12732,7 +12726,7 @@
         <v>16</v>
       </c>
       <c r="B82">
-        <v>104</v>
+        <v>10004</v>
       </c>
       <c r="C82" s="1">
         <v>43491.565486111111</v>
@@ -12743,7 +12737,7 @@
         <v>16</v>
       </c>
       <c r="B83">
-        <v>115</v>
+        <v>10015</v>
       </c>
       <c r="C83" s="1">
         <v>43491.56690972222</v>
@@ -12754,7 +12748,7 @@
         <v>16</v>
       </c>
       <c r="B84">
-        <v>120</v>
+        <v>10020</v>
       </c>
       <c r="C84" s="1">
         <v>43491.569699074076</v>
@@ -12765,7 +12759,7 @@
         <v>11</v>
       </c>
       <c r="B85">
-        <v>110</v>
+        <v>10010</v>
       </c>
       <c r="C85" s="1">
         <v>43492.546018518522</v>
@@ -12776,7 +12770,7 @@
         <v>12</v>
       </c>
       <c r="B86">
-        <v>101</v>
+        <v>10001</v>
       </c>
       <c r="C86" s="1">
         <v>43492.549930555557</v>
@@ -12787,7 +12781,7 @@
         <v>12</v>
       </c>
       <c r="B87">
-        <v>102</v>
+        <v>10002</v>
       </c>
       <c r="C87" s="1">
         <v>43492.552430555559</v>
@@ -12798,7 +12792,7 @@
         <v>12</v>
       </c>
       <c r="B88">
-        <v>104</v>
+        <v>10004</v>
       </c>
       <c r="C88" s="1">
         <v>43492.555543981478</v>
@@ -12809,7 +12803,7 @@
         <v>12</v>
       </c>
       <c r="B89">
-        <v>108</v>
+        <v>10008</v>
       </c>
       <c r="C89" s="1">
         <v>43492.556539351855</v>
@@ -12820,7 +12814,7 @@
         <v>12</v>
       </c>
       <c r="B90">
-        <v>114</v>
+        <v>10014</v>
       </c>
       <c r="C90" s="1">
         <v>43492.586678240739</v>
@@ -12831,7 +12825,7 @@
         <v>12</v>
       </c>
       <c r="B91">
-        <v>118</v>
+        <v>10018</v>
       </c>
       <c r="C91" s="1">
         <v>43492.587060185186</v>
@@ -12842,7 +12836,7 @@
         <v>12</v>
       </c>
       <c r="B92">
-        <v>119</v>
+        <v>10019</v>
       </c>
       <c r="C92" s="1">
         <v>43492.591527777775</v>
@@ -12853,7 +12847,7 @@
         <v>12</v>
       </c>
       <c r="B93">
-        <v>120</v>
+        <v>10020</v>
       </c>
       <c r="C93" s="1">
         <v>43492.595983796295</v>
@@ -12864,7 +12858,7 @@
         <v>14</v>
       </c>
       <c r="B94">
-        <v>104</v>
+        <v>10004</v>
       </c>
       <c r="C94" s="1">
         <v>43492.597268518519</v>
@@ -12875,7 +12869,7 @@
         <v>14</v>
       </c>
       <c r="B95">
-        <v>114</v>
+        <v>10014</v>
       </c>
       <c r="C95" s="1">
         <v>43492.630497685182</v>
@@ -12886,7 +12880,7 @@
         <v>16</v>
       </c>
       <c r="B96">
-        <v>101</v>
+        <v>10001</v>
       </c>
       <c r="C96" s="1">
         <v>43492.634293981479</v>
@@ -12897,7 +12891,7 @@
         <v>16</v>
       </c>
       <c r="B97">
-        <v>104</v>
+        <v>10004</v>
       </c>
       <c r="C97" s="1">
         <v>43492.636354166665</v>
@@ -12908,7 +12902,7 @@
         <v>16</v>
       </c>
       <c r="B98">
-        <v>114</v>
+        <v>10014</v>
       </c>
       <c r="C98" s="1">
         <v>43492.643391203703</v>
@@ -12919,7 +12913,7 @@
         <v>16</v>
       </c>
       <c r="B99">
-        <v>120</v>
+        <v>10020</v>
       </c>
       <c r="C99" s="1">
         <v>43492.644317129627</v>
@@ -12930,7 +12924,7 @@
         <v>16</v>
       </c>
       <c r="B100">
-        <v>101</v>
+        <v>10001</v>
       </c>
       <c r="C100" s="1">
         <v>43493.731493055559</v>
@@ -12941,7 +12935,7 @@
         <v>16</v>
       </c>
       <c r="B101">
-        <v>114</v>
+        <v>10014</v>
       </c>
       <c r="C101" s="1">
         <v>43493.735914351855</v>
@@ -12952,7 +12946,7 @@
         <v>16</v>
       </c>
       <c r="B102">
-        <v>120</v>
+        <v>10020</v>
       </c>
       <c r="C102" s="1">
         <v>43493.739560185182</v>
@@ -12963,7 +12957,7 @@
         <v>14</v>
       </c>
       <c r="B103">
-        <v>104</v>
+        <v>10004</v>
       </c>
       <c r="C103" s="1">
         <v>43495.751099537039</v>
@@ -12974,7 +12968,7 @@
         <v>12</v>
       </c>
       <c r="B104">
-        <v>120</v>
+        <v>10020</v>
       </c>
       <c r="C104" s="1">
         <v>43495.761493055557</v>
@@ -12985,7 +12979,7 @@
         <v>12</v>
       </c>
       <c r="B105">
-        <v>119</v>
+        <v>10019</v>
       </c>
       <c r="C105" s="1">
         <v>43496.751493055555</v>
@@ -12996,7 +12990,7 @@
         <v>12</v>
       </c>
       <c r="B106">
-        <v>110</v>
+        <v>10010</v>
       </c>
       <c r="C106" s="1">
         <v>43497.796087962961</v>
@@ -13007,7 +13001,7 @@
         <v>12</v>
       </c>
       <c r="B107">
-        <v>116</v>
+        <v>10016</v>
       </c>
       <c r="C107" s="1">
         <v>43497.797615740739</v>
@@ -13018,7 +13012,7 @@
         <v>11</v>
       </c>
       <c r="B108">
-        <v>101</v>
+        <v>10001</v>
       </c>
       <c r="C108" s="1">
         <v>43498.418240740742</v>
@@ -13029,7 +13023,7 @@
         <v>12</v>
       </c>
       <c r="B109">
-        <v>119</v>
+        <v>10019</v>
       </c>
       <c r="C109" s="1">
         <v>43498.423067129632</v>
@@ -13040,7 +13034,7 @@
         <v>11</v>
       </c>
       <c r="B110">
-        <v>110</v>
+        <v>10010</v>
       </c>
       <c r="C110" s="1">
         <v>43498.427372685182</v>
@@ -13051,7 +13045,7 @@
         <v>12</v>
       </c>
       <c r="B111">
-        <v>101</v>
+        <v>10001</v>
       </c>
       <c r="C111" s="1">
         <v>43498.462719907409</v>
@@ -13062,7 +13056,7 @@
         <v>12</v>
       </c>
       <c r="B112">
-        <v>104</v>
+        <v>10004</v>
       </c>
       <c r="C112" s="1">
         <v>43498.465057870373</v>
@@ -13073,7 +13067,7 @@
         <v>12</v>
       </c>
       <c r="B113">
-        <v>118</v>
+        <v>10018</v>
       </c>
       <c r="C113" s="1">
         <v>43498.467199074075</v>
@@ -13084,7 +13078,7 @@
         <v>12</v>
       </c>
       <c r="B114">
-        <v>120</v>
+        <v>10020</v>
       </c>
       <c r="C114" s="1">
         <v>43498.545405092591</v>
@@ -13095,7 +13089,7 @@
         <v>14</v>
       </c>
       <c r="B115">
-        <v>104</v>
+        <v>10004</v>
       </c>
       <c r="C115" s="1">
         <v>43498.550034722219</v>
@@ -13106,7 +13100,7 @@
         <v>14</v>
       </c>
       <c r="B116">
-        <v>114</v>
+        <v>10014</v>
       </c>
       <c r="C116" s="1">
         <v>43498.550763888888</v>
@@ -13117,7 +13111,7 @@
         <v>16</v>
       </c>
       <c r="B117">
-        <v>114</v>
+        <v>10014</v>
       </c>
       <c r="C117" s="1">
         <v>43498.556620370371</v>
@@ -13128,7 +13122,7 @@
         <v>16</v>
       </c>
       <c r="B118">
-        <v>120</v>
+        <v>10020</v>
       </c>
       <c r="C118" s="1">
         <v>43498.557615740741</v>
@@ -13139,7 +13133,7 @@
         <v>14</v>
       </c>
       <c r="B119">
-        <v>119</v>
+        <v>10019</v>
       </c>
       <c r="C119" s="1">
         <v>43499.543877314813</v>
@@ -13150,7 +13144,7 @@
         <v>12</v>
       </c>
       <c r="B120">
-        <v>101</v>
+        <v>10001</v>
       </c>
       <c r="C120" s="1">
         <v>43499.544965277775</v>
@@ -13161,7 +13155,7 @@
         <v>12</v>
       </c>
       <c r="B121">
-        <v>104</v>
+        <v>10004</v>
       </c>
       <c r="C121" s="1">
         <v>43499.546701388892</v>
@@ -13172,7 +13166,7 @@
         <v>12</v>
       </c>
       <c r="B122">
-        <v>119</v>
+        <v>10019</v>
       </c>
       <c r="C122" s="1">
         <v>43499.586701388886</v>
@@ -13183,7 +13177,7 @@
         <v>12</v>
       </c>
       <c r="B123">
-        <v>120</v>
+        <v>10020</v>
       </c>
       <c r="C123" s="1">
         <v>43499.587500000001</v>
@@ -13194,7 +13188,7 @@
         <v>14</v>
       </c>
       <c r="B124">
-        <v>104</v>
+        <v>10004</v>
       </c>
       <c r="C124" s="1">
         <v>43499.590636574074</v>
@@ -13205,7 +13199,7 @@
         <v>14</v>
       </c>
       <c r="B125">
-        <v>114</v>
+        <v>10014</v>
       </c>
       <c r="C125" s="1">
         <v>43499.632280092592</v>
@@ -13216,7 +13210,7 @@
         <v>16</v>
       </c>
       <c r="B126">
-        <v>114</v>
+        <v>10014</v>
       </c>
       <c r="C126" s="1">
         <v>43499.635312500002</v>
@@ -13227,7 +13221,7 @@
         <v>16</v>
       </c>
       <c r="B127">
-        <v>120</v>
+        <v>10020</v>
       </c>
       <c r="C127" s="1">
         <v>43499.64371527778</v>
@@ -13305,13 +13299,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="C2">
         <v>11</v>
       </c>
       <c r="D2">
-        <v>101</v>
+        <v>10001</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -13323,19 +13317,19 @@
         <v>4389</v>
       </c>
       <c r="H2" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="I2" t="s">
         <v>253</v>
       </c>
       <c r="J2" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="K2" t="s">
         <v>253</v>
       </c>
       <c r="L2" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -13343,13 +13337,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="C3">
         <v>12</v>
       </c>
       <c r="D3">
-        <v>108</v>
+        <v>10008</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -13361,19 +13355,19 @@
         <v>1707</v>
       </c>
       <c r="H3" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="I3" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="J3" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="K3" t="s">
-        <v>692</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>708</v>
+        <v>690</v>
+      </c>
+      <c r="L3" t="s">
+        <v>706</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
@@ -13381,13 +13375,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="C4">
         <v>11</v>
       </c>
       <c r="D4">
-        <v>101</v>
+        <v>10001</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -13399,19 +13393,19 @@
         <v>3107</v>
       </c>
       <c r="H4" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="I4" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="J4" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="K4" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="L4" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -13419,13 +13413,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="C5">
         <v>12</v>
       </c>
       <c r="D5">
-        <v>114</v>
+        <v>10014</v>
       </c>
       <c r="E5">
         <v>4</v>
@@ -13437,19 +13431,19 @@
         <v>1042</v>
       </c>
       <c r="H5" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="I5" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="J5" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="K5" t="s">
-        <v>693</v>
-      </c>
-      <c r="L5" s="5" t="s">
-        <v>709</v>
+        <v>691</v>
+      </c>
+      <c r="L5" t="s">
+        <v>707</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -13457,13 +13451,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="C6">
         <v>16</v>
       </c>
       <c r="D6">
-        <v>114</v>
+        <v>10014</v>
       </c>
       <c r="E6">
         <v>5</v>
@@ -13475,19 +13469,19 @@
         <v>3389</v>
       </c>
       <c r="H6" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="I6" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="J6" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="K6" t="s">
-        <v>721</v>
-      </c>
-      <c r="L6" s="5" t="s">
-        <v>722</v>
+        <v>719</v>
+      </c>
+      <c r="L6" t="s">
+        <v>720</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
@@ -13495,13 +13489,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="C7">
         <v>12</v>
       </c>
       <c r="D7">
-        <v>102</v>
+        <v>10002</v>
       </c>
       <c r="E7">
         <v>6</v>
@@ -13513,19 +13507,19 @@
         <v>4472</v>
       </c>
       <c r="H7" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="I7" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="J7" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="K7" t="s">
-        <v>694</v>
-      </c>
-      <c r="L7" s="5" t="s">
-        <v>710</v>
+        <v>692</v>
+      </c>
+      <c r="L7" t="s">
+        <v>708</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
@@ -13533,13 +13527,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="C8">
         <v>11</v>
       </c>
       <c r="D8">
-        <v>101</v>
+        <v>10001</v>
       </c>
       <c r="E8">
         <v>7</v>
@@ -13551,19 +13545,19 @@
         <v>3957</v>
       </c>
       <c r="H8" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="I8" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="J8" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="K8" t="s">
-        <v>695</v>
-      </c>
-      <c r="L8" s="5" t="s">
-        <v>711</v>
+        <v>693</v>
+      </c>
+      <c r="L8" t="s">
+        <v>709</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
@@ -13571,13 +13565,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="C9">
         <v>16</v>
       </c>
       <c r="D9">
-        <v>101</v>
+        <v>10001</v>
       </c>
       <c r="E9">
         <v>8</v>
@@ -13589,19 +13583,19 @@
         <v>3259</v>
       </c>
       <c r="H9" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="I9" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="J9" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="K9" t="s">
-        <v>696</v>
-      </c>
-      <c r="L9" s="5" t="s">
-        <v>712</v>
+        <v>694</v>
+      </c>
+      <c r="L9" t="s">
+        <v>710</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
@@ -13609,13 +13603,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="C10">
         <v>12</v>
       </c>
       <c r="D10">
-        <v>120</v>
+        <v>10020</v>
       </c>
       <c r="E10">
         <v>9</v>
@@ -13627,19 +13621,19 @@
         <v>3283</v>
       </c>
       <c r="H10" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="I10" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="J10" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="K10" t="s">
-        <v>697</v>
-      </c>
-      <c r="L10" s="5" t="s">
-        <v>713</v>
+        <v>695</v>
+      </c>
+      <c r="L10" t="s">
+        <v>711</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
@@ -13647,13 +13641,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="C11">
         <v>16</v>
       </c>
       <c r="D11">
-        <v>120</v>
+        <v>10020</v>
       </c>
       <c r="E11">
         <v>10</v>
@@ -13665,19 +13659,19 @@
         <v>2627</v>
       </c>
       <c r="H11" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="I11" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="J11" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="K11" t="s">
-        <v>698</v>
-      </c>
-      <c r="L11" s="5" t="s">
-        <v>714</v>
+        <v>696</v>
+      </c>
+      <c r="L11" t="s">
+        <v>712</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
@@ -13685,13 +13679,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="C12">
         <v>14</v>
       </c>
       <c r="D12">
-        <v>114</v>
+        <v>10014</v>
       </c>
       <c r="E12">
         <v>11</v>
@@ -13703,19 +13697,19 @@
         <v>1283</v>
       </c>
       <c r="H12" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="I12" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="J12" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="K12" t="s">
-        <v>700</v>
-      </c>
-      <c r="L12" s="5" t="s">
-        <v>687</v>
+        <v>698</v>
+      </c>
+      <c r="L12" t="s">
+        <v>685</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
@@ -13723,13 +13717,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="C13">
         <v>16</v>
       </c>
       <c r="D13">
-        <v>114</v>
+        <v>10014</v>
       </c>
       <c r="E13">
         <v>12</v>
@@ -13741,19 +13735,19 @@
         <v>1888</v>
       </c>
       <c r="H13" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="I13" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="J13" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="K13" t="s">
-        <v>699</v>
-      </c>
-      <c r="L13" s="5" t="s">
-        <v>715</v>
+        <v>697</v>
+      </c>
+      <c r="L13" t="s">
+        <v>713</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
@@ -13761,13 +13755,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="C14">
         <v>14</v>
       </c>
       <c r="D14">
-        <v>104</v>
+        <v>10004</v>
       </c>
       <c r="E14">
         <v>13</v>
@@ -13779,19 +13773,19 @@
         <v>4183</v>
       </c>
       <c r="H14" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="I14" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="J14" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="K14" t="s">
-        <v>701</v>
-      </c>
-      <c r="L14" s="5" t="s">
-        <v>687</v>
+        <v>699</v>
+      </c>
+      <c r="L14" t="s">
+        <v>685</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
@@ -13799,13 +13793,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="C15">
         <v>12</v>
       </c>
       <c r="D15">
-        <v>118</v>
+        <v>10018</v>
       </c>
       <c r="E15">
         <v>14</v>
@@ -13817,19 +13811,19 @@
         <v>4430</v>
       </c>
       <c r="H15" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="I15" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="J15" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="K15" t="s">
-        <v>702</v>
-      </c>
-      <c r="L15" s="5" t="s">
-        <v>716</v>
+        <v>700</v>
+      </c>
+      <c r="L15" t="s">
+        <v>714</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
@@ -13837,13 +13831,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="C16">
         <v>12</v>
       </c>
       <c r="D16">
-        <v>120</v>
+        <v>10020</v>
       </c>
       <c r="E16">
         <v>15</v>
@@ -13855,19 +13849,19 @@
         <v>4598</v>
       </c>
       <c r="H16" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="I16" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="J16" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="K16" t="s">
-        <v>703</v>
-      </c>
-      <c r="L16" s="5" t="s">
-        <v>717</v>
+        <v>701</v>
+      </c>
+      <c r="L16" t="s">
+        <v>715</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
@@ -13881,7 +13875,7 @@
         <v>12</v>
       </c>
       <c r="D17">
-        <v>119</v>
+        <v>10019</v>
       </c>
       <c r="E17">
         <v>16</v>
@@ -13893,19 +13887,19 @@
         <v>3639</v>
       </c>
       <c r="H17" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="I17" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="J17" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="K17" t="s">
-        <v>704</v>
-      </c>
-      <c r="L17" s="5" t="s">
-        <v>718</v>
+        <v>702</v>
+      </c>
+      <c r="L17" t="s">
+        <v>716</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
@@ -13913,13 +13907,13 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="C18">
         <v>16</v>
       </c>
       <c r="D18">
-        <v>114</v>
+        <v>10014</v>
       </c>
       <c r="E18">
         <v>17</v>
@@ -13931,19 +13925,19 @@
         <v>2937</v>
       </c>
       <c r="H18" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="I18" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="J18" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="K18" t="s">
-        <v>705</v>
-      </c>
-      <c r="L18" s="5" t="s">
-        <v>719</v>
+        <v>703</v>
+      </c>
+      <c r="L18" t="s">
+        <v>717</v>
       </c>
     </row>
   </sheetData>

--- a/Jeu d'essai.xlsx
+++ b/Jeu d'essai.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="123" documentId="114_{8D9B191C-2013-4270-87A9-3FB899E57325}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{A5336531-4270-454E-92BD-BC67120EEC4A}"/>
+  <xr:revisionPtr revIDLastSave="125" documentId="114_{8D9B191C-2013-4270-87A9-3FB899E57325}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{46D0E170-26AA-4533-9861-720691A4CABD}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -892,9 +892,6 @@
     <t>ON</t>
   </si>
   <si>
-    <t>K0H 1Y0</t>
-  </si>
-  <si>
     <t>Au royaume d'Arthur</t>
   </si>
   <si>
@@ -959,9 +956,6 @@
   </si>
   <si>
     <t>Ile-Perrot</t>
-  </si>
-  <si>
-    <t>J7V 8I6</t>
   </si>
   <si>
     <t>Sanson</t>
@@ -2464,6 +2458,12 @@
   </si>
   <si>
     <t>client10020@gmail.com</t>
+  </si>
+  <si>
+    <t>J7V8I6</t>
+  </si>
+  <si>
+    <t>K0H1Y0</t>
   </si>
 </sst>
 </file>
@@ -2924,10 +2924,10 @@
         <v>0</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="M2" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="N2">
         <v>500</v>
@@ -2939,10 +2939,10 @@
         <v>1</v>
       </c>
       <c r="Q2" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="R2" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="S2" s="1">
         <v>43466.224826388891</v>
@@ -2989,10 +2989,10 @@
         <v>0</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="M3" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="N3">
         <v>500</v>
@@ -3004,10 +3004,10 @@
         <v>1</v>
       </c>
       <c r="Q3" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="R3" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="S3" s="1">
         <v>43468.322939814818</v>
@@ -3054,10 +3054,10 @@
         <v>4505658849</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="M4" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="N4">
         <v>75</v>
@@ -3072,7 +3072,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="S4" s="1">
         <v>43472.385462962964</v>
@@ -3107,7 +3107,7 @@
         <v>273</v>
       </c>
       <c r="H5" t="s">
-        <v>274</v>
+        <v>789</v>
       </c>
       <c r="I5" t="s">
         <v>252</v>
@@ -3119,25 +3119,25 @@
         <v>0</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="M5" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="N5">
         <v>100</v>
       </c>
       <c r="O5" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="P5">
         <v>1</v>
       </c>
       <c r="Q5" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="R5" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="S5" s="1">
         <v>43476.262372685182</v>
@@ -3154,25 +3154,25 @@
         <v>15</v>
       </c>
       <c r="B6" t="s">
+        <v>274</v>
+      </c>
+      <c r="C6" t="s">
         <v>275</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>276</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>277</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>278</v>
-      </c>
-      <c r="F6" t="s">
-        <v>279</v>
       </c>
       <c r="G6" t="s">
         <v>250</v>
       </c>
       <c r="H6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="I6" t="s">
         <v>252</v>
@@ -3184,10 +3184,10 @@
         <v>5149938373</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="M6" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="N6">
         <v>30</v>
@@ -3202,7 +3202,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="S6" s="1">
         <v>43481.492337962962</v>
@@ -3219,16 +3219,16 @@
         <v>16</v>
       </c>
       <c r="B7" t="s">
+        <v>280</v>
+      </c>
+      <c r="C7" t="s">
         <v>281</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>282</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>283</v>
-      </c>
-      <c r="E7" t="s">
-        <v>284</v>
       </c>
       <c r="F7" t="s">
         <v>258</v>
@@ -3237,7 +3237,7 @@
         <v>250</v>
       </c>
       <c r="H7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I7" t="s">
         <v>252</v>
@@ -3249,10 +3249,10 @@
         <v>0</v>
       </c>
       <c r="L7" s="3" t="s">
+        <v>763</v>
+      </c>
+      <c r="M7" t="s">
         <v>765</v>
-      </c>
-      <c r="M7" t="s">
-        <v>767</v>
       </c>
       <c r="N7">
         <v>40</v>
@@ -3264,10 +3264,10 @@
         <v>1</v>
       </c>
       <c r="Q7" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="R7" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="S7" s="1">
         <v>43482.357361111113</v>
@@ -3284,25 +3284,25 @@
         <v>17</v>
       </c>
       <c r="B8" t="s">
+        <v>285</v>
+      </c>
+      <c r="C8" t="s">
         <v>286</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>287</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>288</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>289</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>290</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>291</v>
-      </c>
-      <c r="H8" t="s">
-        <v>292</v>
       </c>
       <c r="I8" t="s">
         <v>252</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="M8" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="N8">
         <v>50</v>
       </c>
       <c r="O8" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="P8">
         <v>1</v>
       </c>
       <c r="Q8" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="R8" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="S8" s="1">
         <v>43493.244884259257</v>
@@ -3507,7 +3507,7 @@
         <v>301</v>
       </c>
       <c r="C2" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -3518,7 +3518,7 @@
         <v>302</v>
       </c>
       <c r="C3" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -3529,7 +3529,7 @@
         <v>303</v>
       </c>
       <c r="C4" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -3551,7 +3551,7 @@
         <v>301</v>
       </c>
       <c r="C6" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -3562,7 +3562,7 @@
         <v>302</v>
       </c>
       <c r="C7" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -3573,7 +3573,7 @@
         <v>303</v>
       </c>
       <c r="C8" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -3584,7 +3584,7 @@
         <v>304</v>
       </c>
       <c r="C9" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -3595,7 +3595,7 @@
         <v>301</v>
       </c>
       <c r="C10" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -3606,7 +3606,7 @@
         <v>302</v>
       </c>
       <c r="C11" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -3803,10 +3803,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="C2" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
     </row>
   </sheetData>
@@ -3898,28 +3898,28 @@
         <v>10001</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="C2" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="D2" t="s">
+        <v>292</v>
+      </c>
+      <c r="E2" t="s">
         <v>293</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>294</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>295</v>
-      </c>
-      <c r="G2" t="s">
-        <v>296</v>
       </c>
       <c r="H2" t="s">
         <v>250</v>
       </c>
       <c r="I2" t="s">
-        <v>297</v>
+        <v>788</v>
       </c>
       <c r="J2" t="s">
         <v>252</v>
@@ -3951,28 +3951,28 @@
         <v>10002</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="C3" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="D3" t="s">
+        <v>296</v>
+      </c>
+      <c r="E3" t="s">
+        <v>297</v>
+      </c>
+      <c r="F3" t="s">
         <v>298</v>
       </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
         <v>299</v>
-      </c>
-      <c r="F3" t="s">
-        <v>300</v>
-      </c>
-      <c r="G3" t="s">
-        <v>301</v>
       </c>
       <c r="H3" t="s">
         <v>250</v>
       </c>
       <c r="I3" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="J3" t="s">
         <v>252</v>
@@ -4004,10 +4004,10 @@
         <v>10003</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="C4" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="D4" t="s">
         <v>0</v>
@@ -4057,28 +4057,28 @@
         <v>10004</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="C5" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="D5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E5" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F5" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G5" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="H5" t="s">
         <v>250</v>
       </c>
       <c r="I5" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="J5" t="s">
         <v>252</v>
@@ -4110,10 +4110,10 @@
         <v>10005</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="C6" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="D6" t="s">
         <v>0</v>
@@ -4163,10 +4163,10 @@
         <v>10006</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="C7" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="D7" t="s">
         <v>0</v>
@@ -4216,10 +4216,10 @@
         <v>10007</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="C8" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="D8" t="s">
         <v>0</v>
@@ -4269,19 +4269,19 @@
         <v>10008</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="C9" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="D9" t="s">
+        <v>304</v>
+      </c>
+      <c r="E9" t="s">
+        <v>305</v>
+      </c>
+      <c r="F9" t="s">
         <v>306</v>
-      </c>
-      <c r="E9" t="s">
-        <v>307</v>
-      </c>
-      <c r="F9" t="s">
-        <v>308</v>
       </c>
       <c r="G9" t="s">
         <v>258</v>
@@ -4322,10 +4322,10 @@
         <v>10009</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="C10" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="D10" t="s">
         <v>0</v>
@@ -4375,10 +4375,10 @@
         <v>10010</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="C11" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="D11" t="s">
         <v>0</v>
@@ -4428,10 +4428,10 @@
         <v>10011</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="C12" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="D12" t="s">
         <v>0</v>
@@ -4481,10 +4481,10 @@
         <v>10012</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="C13" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="D13" t="s">
         <v>0</v>
@@ -4534,10 +4534,10 @@
         <v>10013</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="C14" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="D14" t="s">
         <v>0</v>
@@ -4587,19 +4587,19 @@
         <v>10014</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="C15" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="D15" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E15" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F15" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G15" t="s">
         <v>249</v>
@@ -4608,7 +4608,7 @@
         <v>250</v>
       </c>
       <c r="I15" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="J15" t="s">
         <v>252</v>
@@ -4640,10 +4640,10 @@
         <v>10015</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="C16" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="D16" t="s">
         <v>0</v>
@@ -4693,10 +4693,10 @@
         <v>10016</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="C17" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="D17" t="s">
         <v>0</v>
@@ -4746,10 +4746,10 @@
         <v>10017</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="C18" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="D18" t="s">
         <v>0</v>
@@ -4799,28 +4799,28 @@
         <v>10018</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="C19" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="D19" t="s">
+        <v>310</v>
+      </c>
+      <c r="E19" t="s">
+        <v>311</v>
+      </c>
+      <c r="F19" t="s">
         <v>312</v>
       </c>
-      <c r="E19" t="s">
+      <c r="G19" t="s">
         <v>313</v>
-      </c>
-      <c r="F19" t="s">
-        <v>314</v>
-      </c>
-      <c r="G19" t="s">
-        <v>315</v>
       </c>
       <c r="H19" t="s">
         <v>250</v>
       </c>
       <c r="I19" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="J19" t="s">
         <v>252</v>
@@ -4852,28 +4852,28 @@
         <v>10019</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="C20" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="D20" t="s">
+        <v>315</v>
+      </c>
+      <c r="E20" t="s">
+        <v>316</v>
+      </c>
+      <c r="F20" t="s">
         <v>317</v>
       </c>
-      <c r="E20" t="s">
+      <c r="G20" t="s">
         <v>318</v>
-      </c>
-      <c r="F20" t="s">
-        <v>319</v>
-      </c>
-      <c r="G20" t="s">
-        <v>320</v>
       </c>
       <c r="H20" t="s">
         <v>250</v>
       </c>
       <c r="I20" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="J20" t="s">
         <v>252</v>
@@ -4905,19 +4905,19 @@
         <v>10020</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="C21" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="D21" t="s">
+        <v>320</v>
+      </c>
+      <c r="E21" t="s">
+        <v>321</v>
+      </c>
+      <c r="F21" t="s">
         <v>322</v>
-      </c>
-      <c r="E21" t="s">
-        <v>323</v>
-      </c>
-      <c r="F21" t="s">
-        <v>324</v>
       </c>
       <c r="G21" t="s">
         <v>265</v>
@@ -4926,7 +4926,7 @@
         <v>250</v>
       </c>
       <c r="I21" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="J21" t="s">
         <v>252</v>
@@ -5210,7 +5210,7 @@
         <v>232</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="H3" s="2">
         <v>0</v>
@@ -5222,7 +5222,7 @@
         <v>43533.999988425923</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>115</v>
@@ -5254,7 +5254,7 @@
         <v>233</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="H4" s="2">
         <v>0</v>
@@ -5266,7 +5266,7 @@
         <v>43533.999988425923</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>122</v>
@@ -5383,10 +5383,10 @@
         <v>148</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="H7" s="2">
         <v>1</v>
@@ -5398,7 +5398,7 @@
         <v>43533.999988425923</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>149</v>
@@ -5427,10 +5427,10 @@
         <v>108</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="H8" s="2">
         <v>1</v>
@@ -5442,7 +5442,7 @@
         <v>43534.999988368058</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>109</v>
@@ -5465,16 +5465,16 @@
         <v>504</v>
       </c>
       <c r="D9" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="G9" s="2" t="s">
         <v>419</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>421</v>
       </c>
       <c r="H9" s="2">
         <v>3</v>
@@ -5486,7 +5486,7 @@
         <v>43534.999988368058</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>116</v>
@@ -5509,16 +5509,16 @@
         <v>504</v>
       </c>
       <c r="D10" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>423</v>
-      </c>
-      <c r="F10" s="2" t="s">
+      <c r="G10" s="2" t="s">
         <v>424</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>426</v>
       </c>
       <c r="H10" s="2">
         <v>3</v>
@@ -5530,10 +5530,10 @@
         <v>43534.999988368058</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="M10" s="4">
         <v>43475.394305555557</v>
@@ -5553,16 +5553,16 @@
         <v>505</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>237</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="H11" s="2">
         <v>3</v>
@@ -5574,7 +5574,7 @@
         <v>43535.999988368058</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>137</v>
@@ -5597,16 +5597,16 @@
         <v>505</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>238</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="H12" s="2">
         <v>3</v>
@@ -5618,10 +5618,10 @@
         <v>43535.999988368058</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="M12" s="4">
         <v>43476.380740740744</v>
@@ -5641,16 +5641,16 @@
         <v>505</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>239</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="H13" s="2">
         <v>3</v>
@@ -5662,10 +5662,10 @@
         <v>43535.999988368058</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="M13" s="4">
         <v>43476.387083333335</v>
@@ -5685,16 +5685,16 @@
         <v>505</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="H14" s="2">
         <v>3</v>
@@ -5706,7 +5706,7 @@
         <v>43535.999988368058</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>203</v>
@@ -5729,16 +5729,16 @@
         <v>506</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>240</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="H15" s="2">
         <v>3</v>
@@ -5750,10 +5750,10 @@
         <v>43536.999988368058</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="M15" s="4">
         <v>43477.417650462965</v>
@@ -5773,16 +5773,16 @@
         <v>506</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="H16" s="2">
         <v>3</v>
@@ -5794,10 +5794,10 @@
         <v>43536.999988368058</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="M16" s="4">
         <v>43477.430960648147</v>
@@ -5817,16 +5817,16 @@
         <v>506</v>
       </c>
       <c r="D17" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="G17" s="2" t="s">
         <v>534</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>535</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>515</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>536</v>
       </c>
       <c r="H17" s="2">
         <v>3</v>
@@ -5838,10 +5838,10 @@
         <v>43536.999988368058</v>
       </c>
       <c r="K17" s="6" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="M17" s="4">
         <v>43477.444803240738</v>
@@ -5861,16 +5861,16 @@
         <v>506</v>
       </c>
       <c r="D18" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="F18" s="2" t="s">
         <v>517</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="G18" s="2" t="s">
         <v>518</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>519</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>520</v>
       </c>
       <c r="H18" s="2">
         <v>3</v>
@@ -5882,7 +5882,7 @@
         <v>43536.999988368058</v>
       </c>
       <c r="K18" s="6" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="L18" s="2" t="s">
         <v>137</v>
@@ -5905,13 +5905,13 @@
         <v>506</v>
       </c>
       <c r="D19" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="F19" s="2" t="s">
         <v>521</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>522</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>523</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>253</v>
@@ -5929,7 +5929,7 @@
         <v>253</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="M19" s="4">
         <v>43477.468217592592</v>
@@ -5949,16 +5949,16 @@
         <v>506</v>
       </c>
       <c r="D20" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="F20" s="2" t="s">
         <v>525</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="G20" s="2" t="s">
         <v>526</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>527</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>528</v>
       </c>
       <c r="H20" s="2">
         <v>3</v>
@@ -5970,10 +5970,10 @@
         <v>43536.999988368058</v>
       </c>
       <c r="K20" s="6" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="M20" s="4">
         <v>43477.474861111114</v>
@@ -5993,16 +5993,16 @@
         <v>506</v>
       </c>
       <c r="D21" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="F21" s="2" t="s">
         <v>531</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="G21" s="2" t="s">
         <v>530</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>533</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>532</v>
       </c>
       <c r="H21" s="2">
         <v>3</v>
@@ -6014,10 +6014,10 @@
         <v>43536.999988368058</v>
       </c>
       <c r="K21" s="6" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="M21" s="4">
         <v>43477.488576388889</v>
@@ -6037,16 +6037,16 @@
         <v>506</v>
       </c>
       <c r="D22" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="F22" s="2" t="s">
         <v>538</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="G22" s="2" t="s">
         <v>539</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>540</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>541</v>
       </c>
       <c r="H22" s="2">
         <v>3</v>
@@ -6058,10 +6058,10 @@
         <v>43536.999988368058</v>
       </c>
       <c r="K22" s="6" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="M22" s="4">
         <v>43477.543715277781</v>
@@ -6081,16 +6081,16 @@
         <v>506</v>
       </c>
       <c r="D23" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="G23" s="2" t="s">
         <v>543</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>544</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>546</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>545</v>
       </c>
       <c r="H23" s="2">
         <v>3</v>
@@ -6102,7 +6102,7 @@
         <v>43536.999988368058</v>
       </c>
       <c r="K23" s="6" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="L23" s="2" t="s">
         <v>134</v>
@@ -6125,16 +6125,16 @@
         <v>506</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="E24" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="F24" s="2" t="s">
         <v>547</v>
       </c>
-      <c r="F24" s="2" t="s">
-        <v>549</v>
-      </c>
       <c r="G24" s="2" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="H24" s="2">
         <v>3</v>
@@ -6146,10 +6146,10 @@
         <v>43536.999988368058</v>
       </c>
       <c r="K24" s="6" t="s">
+        <v>546</v>
+      </c>
+      <c r="L24" s="2" t="s">
         <v>548</v>
-      </c>
-      <c r="L24" s="2" t="s">
-        <v>550</v>
       </c>
       <c r="M24" s="4">
         <v>43477.556377314817</v>
@@ -6169,16 +6169,16 @@
         <v>506</v>
       </c>
       <c r="D25" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="G25" s="2" t="s">
         <v>551</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>552</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>554</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>553</v>
       </c>
       <c r="H25" s="2">
         <v>3</v>
@@ -6190,10 +6190,10 @@
         <v>43536.999988368058</v>
       </c>
       <c r="K25" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="L25" s="2" t="s">
         <v>553</v>
-      </c>
-      <c r="L25" s="2" t="s">
-        <v>555</v>
       </c>
       <c r="M25" s="4">
         <v>43477.567870370367</v>
@@ -6213,16 +6213,16 @@
         <v>506</v>
       </c>
       <c r="D26" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="G26" s="2" t="s">
         <v>556</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>557</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>560</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>558</v>
       </c>
       <c r="H26" s="2">
         <v>3</v>
@@ -6234,10 +6234,10 @@
         <v>43536.999988368058</v>
       </c>
       <c r="K26" s="6" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="M26" s="4">
         <v>43477.578946759262</v>
@@ -6257,16 +6257,16 @@
         <v>506</v>
       </c>
       <c r="D27" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="F27" s="2" t="s">
         <v>561</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="G27" s="2" t="s">
         <v>562</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>563</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>564</v>
       </c>
       <c r="H27" s="2">
         <v>3</v>
@@ -6278,10 +6278,10 @@
         <v>43536.999988368058</v>
       </c>
       <c r="K27" s="6" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="M27" s="4">
         <v>43477.583715277775</v>
@@ -6301,16 +6301,16 @@
         <v>506</v>
       </c>
       <c r="D28" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="F28" s="2" t="s">
         <v>566</v>
       </c>
-      <c r="E28" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>568</v>
-      </c>
       <c r="G28" s="2" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="H28" s="2">
         <v>3</v>
@@ -6322,10 +6322,10 @@
         <v>43536.999988368058</v>
       </c>
       <c r="K28" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="L28" s="2" t="s">
         <v>553</v>
-      </c>
-      <c r="L28" s="2" t="s">
-        <v>555</v>
       </c>
       <c r="M28" s="4">
         <v>43477.591446759259</v>
@@ -6348,13 +6348,13 @@
         <v>105</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>241</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="H29" s="2">
         <v>1</v>
@@ -6366,7 +6366,7 @@
         <v>43537.999988368058</v>
       </c>
       <c r="K29" s="6" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="L29" s="2" t="s">
         <v>106</v>
@@ -6389,16 +6389,16 @@
         <v>507</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>242</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="H30" s="2">
         <v>1</v>
@@ -6410,7 +6410,7 @@
         <v>43537.999988368058</v>
       </c>
       <c r="K30" s="6" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="L30" s="2" t="s">
         <v>116</v>
@@ -6436,13 +6436,13 @@
         <v>117</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>243</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="H31" s="2">
         <v>0</v>
@@ -6454,7 +6454,7 @@
         <v>43537.999988368058</v>
       </c>
       <c r="K31" s="6" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="L31" s="2" t="s">
         <v>118</v>
@@ -6477,16 +6477,16 @@
         <v>508</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="E32" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="G32" s="2" t="s">
         <v>608</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>612</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>610</v>
       </c>
       <c r="H32" s="2">
         <v>2</v>
@@ -6498,10 +6498,10 @@
         <v>43538.999988368058</v>
       </c>
       <c r="K32" s="6" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="M32" s="4">
         <v>43479.378148148149</v>
@@ -6521,16 +6521,16 @@
         <v>508</v>
       </c>
       <c r="D33" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="G33" s="2" t="s">
         <v>613</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>616</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>614</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>615</v>
       </c>
       <c r="H33" s="2">
         <v>2</v>
@@ -6542,10 +6542,10 @@
         <v>43538.999988368058</v>
       </c>
       <c r="K33" s="6" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="M33" s="4">
         <v>43479.381909722222</v>
@@ -6571,10 +6571,10 @@
         <v>205</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="H34" s="2">
         <v>1</v>
@@ -6586,7 +6586,7 @@
         <v>43539.999988368058</v>
       </c>
       <c r="K34" s="6" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="L34" s="2" t="s">
         <v>207</v>
@@ -6615,7 +6615,7 @@
         <v>209</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>210</v>
@@ -6706,7 +6706,7 @@
         <v>225</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="H37" s="2">
         <v>2</v>
@@ -6718,7 +6718,7 @@
         <v>43539.999988368058</v>
       </c>
       <c r="K37" s="6" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="L37" s="2" t="s">
         <v>219</v>
@@ -6750,7 +6750,7 @@
         <v>206</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="H38" s="2">
         <v>1</v>
@@ -6762,7 +6762,7 @@
         <v>43539.999988368058</v>
       </c>
       <c r="K38" s="6" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="L38" s="2" t="s">
         <v>223</v>
@@ -6785,16 +6785,16 @@
         <v>502</v>
       </c>
       <c r="D39" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="F39" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="E39" s="2" t="s">
+      <c r="G39" s="2" t="s">
         <v>374</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>376</v>
       </c>
       <c r="H39" s="2">
         <v>2</v>
@@ -6806,10 +6806,10 @@
         <v>43539.999988368058</v>
       </c>
       <c r="K39" s="6" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="L39" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="M39" s="4">
         <v>43480.417557870373</v>
@@ -6829,16 +6829,16 @@
         <v>502</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>213</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="H40" s="2">
         <v>1</v>
@@ -6850,10 +6850,10 @@
         <v>43539.999988368058</v>
       </c>
       <c r="K40" s="6" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="L40" s="2" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="M40" s="4">
         <v>43480.421307870369</v>
@@ -6873,16 +6873,16 @@
         <v>502</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>218</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="H41" s="2">
         <v>2</v>
@@ -6894,10 +6894,10 @@
         <v>43539.999988368058</v>
       </c>
       <c r="K41" s="6" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="M41" s="4">
         <v>43480.428981481484</v>
@@ -6917,16 +6917,16 @@
         <v>502</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>222</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="H42" s="2">
         <v>1</v>
@@ -6938,10 +6938,10 @@
         <v>43539.999988368058</v>
       </c>
       <c r="K42" s="6" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="M42" s="4">
         <v>43480.437777777777</v>
@@ -6961,16 +6961,16 @@
         <v>502</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>226</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="H43" s="2">
         <v>1</v>
@@ -6982,10 +6982,10 @@
         <v>43539.999988368058</v>
       </c>
       <c r="K43" s="6" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="M43" s="4">
         <v>43480.446944444448</v>
@@ -7005,16 +7005,16 @@
         <v>502</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>227</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="H44" s="2">
         <v>4</v>
@@ -7026,10 +7026,10 @@
         <v>43539.999988368058</v>
       </c>
       <c r="K44" s="6" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="M44" s="4">
         <v>43480.460914351854</v>
@@ -7049,16 +7049,16 @@
         <v>502</v>
       </c>
       <c r="D45" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="F45" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="E45" s="2" t="s">
+      <c r="G45" s="2" t="s">
         <v>399</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>401</v>
       </c>
       <c r="H45" s="2">
         <v>2</v>
@@ -7070,10 +7070,10 @@
         <v>43539.999988368058</v>
       </c>
       <c r="K45" s="6" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="L45" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="M45" s="4">
         <v>43480.470405092594</v>
@@ -7093,16 +7093,16 @@
         <v>505</v>
       </c>
       <c r="D46" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="G46" s="2" t="s">
         <v>403</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="G46" s="2" t="s">
-        <v>405</v>
       </c>
       <c r="H46" s="2">
         <v>6</v>
@@ -7114,10 +7114,10 @@
         <v>43539.999988368058</v>
       </c>
       <c r="K46" s="6" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="L46" s="2" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="M46" s="4">
         <v>43480.474641203706</v>
@@ -7146,7 +7146,7 @@
         <v>229</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="H47" s="2">
         <v>0</v>
@@ -7158,7 +7158,7 @@
         <v>43540.999988368058</v>
       </c>
       <c r="K47" s="6" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="L47" s="2" t="s">
         <v>131</v>
@@ -7190,7 +7190,7 @@
         <v>230</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="H48" s="2">
         <v>1</v>
@@ -7202,7 +7202,7 @@
         <v>43540.999988368058</v>
       </c>
       <c r="K48" s="6" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="L48" s="2" t="s">
         <v>134</v>
@@ -7225,16 +7225,16 @@
         <v>502</v>
       </c>
       <c r="D49" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="F49" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="E49" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>409</v>
-      </c>
       <c r="G49" s="2" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="H49" s="2">
         <v>1</v>
@@ -7246,10 +7246,10 @@
         <v>43540.999988368058</v>
       </c>
       <c r="K49" s="6" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="L49" s="2" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="M49" s="4">
         <v>43481.393090277779</v>
@@ -7275,10 +7275,10 @@
         <v>155</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="H50" s="2">
         <v>1</v>
@@ -7290,7 +7290,7 @@
         <v>43541.999988368058</v>
       </c>
       <c r="K50" s="6" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="L50" s="2" t="s">
         <v>156</v>
@@ -7319,10 +7319,10 @@
         <v>158</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="H51" s="2">
         <v>1</v>
@@ -7334,7 +7334,7 @@
         <v>43541.999988368058</v>
       </c>
       <c r="K51" s="6" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="L51" s="2" t="s">
         <v>115</v>
@@ -7363,10 +7363,10 @@
         <v>160</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="H52" s="2">
         <v>1</v>
@@ -7378,7 +7378,7 @@
         <v>43541.999988368058</v>
       </c>
       <c r="K52" s="6" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="L52" s="2" t="s">
         <v>161</v>
@@ -7401,13 +7401,13 @@
         <v>504</v>
       </c>
       <c r="D53" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="F53" s="2" t="s">
         <v>430</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>432</v>
       </c>
       <c r="G53" s="2" t="s">
         <v>253</v>
@@ -7451,10 +7451,10 @@
         <v>163</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="H54" s="2">
         <v>1</v>
@@ -7466,7 +7466,7 @@
         <v>43542.999988368058</v>
       </c>
       <c r="K54" s="6" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="L54" s="2" t="s">
         <v>164</v>
@@ -7495,7 +7495,7 @@
         <v>166</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="G55" s="2" t="s">
         <v>267</v>
@@ -7533,16 +7533,16 @@
         <v>506</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>168</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="H56" s="2">
         <v>1</v>
@@ -7554,7 +7554,7 @@
         <v>43542.999988368058</v>
       </c>
       <c r="K56" s="6" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="L56" s="2" t="s">
         <v>169</v>
@@ -7583,10 +7583,10 @@
         <v>171</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="H57" s="2">
         <v>1</v>
@@ -7598,7 +7598,7 @@
         <v>43542.999988368058</v>
       </c>
       <c r="K57" s="6" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="L57" s="2" t="s">
         <v>149</v>
@@ -7627,10 +7627,10 @@
         <v>173</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="H58" s="2">
         <v>1</v>
@@ -7642,7 +7642,7 @@
         <v>43542.999988368058</v>
       </c>
       <c r="K58" s="6" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="L58" s="2" t="s">
         <v>137</v>
@@ -7665,16 +7665,16 @@
         <v>506</v>
       </c>
       <c r="D59" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="G59" s="2" t="s">
         <v>569</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>570</v>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>572</v>
-      </c>
-      <c r="G59" s="2" t="s">
-        <v>571</v>
       </c>
       <c r="H59" s="2">
         <v>1</v>
@@ -7686,7 +7686,7 @@
         <v>43542.999988368058</v>
       </c>
       <c r="K59" s="6" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="L59" s="2" t="s">
         <v>137</v>
@@ -7709,16 +7709,16 @@
         <v>508</v>
       </c>
       <c r="D60" s="2" t="s">
+        <v>616</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="G60" s="2" t="s">
         <v>618</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>617</v>
-      </c>
-      <c r="F60" s="2" t="s">
-        <v>619</v>
-      </c>
-      <c r="G60" s="2" t="s">
-        <v>620</v>
       </c>
       <c r="H60" s="2">
         <v>3</v>
@@ -7730,10 +7730,10 @@
         <v>43543.999988368058</v>
       </c>
       <c r="K60" s="6" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="L60" s="2" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="M60" s="4">
         <v>43484.417175925926</v>
@@ -7753,16 +7753,16 @@
         <v>508</v>
       </c>
       <c r="D61" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="F61" s="2" t="s">
         <v>622</v>
       </c>
-      <c r="E61" s="2" t="s">
+      <c r="G61" s="2" t="s">
         <v>623</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>624</v>
-      </c>
-      <c r="G61" s="2" t="s">
-        <v>625</v>
       </c>
       <c r="H61" s="2">
         <v>3</v>
@@ -7774,10 +7774,10 @@
         <v>43543.999988368058</v>
       </c>
       <c r="K61" s="6" t="s">
+        <v>623</v>
+      </c>
+      <c r="L61" s="2" t="s">
         <v>625</v>
-      </c>
-      <c r="L61" s="2" t="s">
-        <v>627</v>
       </c>
       <c r="M61" s="4">
         <v>43484.424386574072</v>
@@ -7797,16 +7797,16 @@
         <v>508</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="E62" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="G62" s="2" t="s">
         <v>628</v>
-      </c>
-      <c r="F62" s="2" t="s">
-        <v>629</v>
-      </c>
-      <c r="G62" s="2" t="s">
-        <v>630</v>
       </c>
       <c r="H62" s="2">
         <v>2</v>
@@ -7818,10 +7818,10 @@
         <v>43543.999988368058</v>
       </c>
       <c r="K62" s="6" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="L62" s="2" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="M62" s="4">
         <v>43484.43372685185</v>
@@ -7841,16 +7841,16 @@
         <v>508</v>
       </c>
       <c r="D63" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="G63" s="2" t="s">
         <v>633</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>632</v>
-      </c>
-      <c r="F63" s="2" t="s">
-        <v>634</v>
-      </c>
-      <c r="G63" s="2" t="s">
-        <v>635</v>
       </c>
       <c r="H63" s="2">
         <v>2</v>
@@ -7862,10 +7862,10 @@
         <v>43543.999988368058</v>
       </c>
       <c r="K63" s="6" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="L63" s="2" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="M63" s="4">
         <v>43484.442442129628</v>
@@ -7885,16 +7885,16 @@
         <v>508</v>
       </c>
       <c r="D64" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="G64" s="2" t="s">
         <v>638</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>637</v>
-      </c>
-      <c r="F64" s="2" t="s">
-        <v>639</v>
-      </c>
-      <c r="G64" s="2" t="s">
-        <v>640</v>
       </c>
       <c r="H64" s="2">
         <v>4</v>
@@ -7906,7 +7906,7 @@
         <v>43543.999988368058</v>
       </c>
       <c r="K64" s="6" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="L64" s="2" t="s">
         <v>188</v>
@@ -7929,16 +7929,16 @@
         <v>508</v>
       </c>
       <c r="D65" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>639</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="G65" s="2" t="s">
         <v>642</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>641</v>
-      </c>
-      <c r="F65" s="2" t="s">
-        <v>643</v>
-      </c>
-      <c r="G65" s="2" t="s">
-        <v>644</v>
       </c>
       <c r="H65" s="2">
         <v>3</v>
@@ -7950,10 +7950,10 @@
         <v>43543.999988368058</v>
       </c>
       <c r="K65" s="6" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="L65" s="2" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="M65" s="4">
         <v>43484.457743055558</v>
@@ -7994,7 +7994,7 @@
         <v>43544.999988368058</v>
       </c>
       <c r="K66" s="6" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="L66" s="2" t="s">
         <v>137</v>
@@ -8061,16 +8061,16 @@
         <v>501</v>
       </c>
       <c r="D68" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="F68" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="E68" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="F68" s="2" t="s">
+      <c r="G68" s="2" t="s">
         <v>338</v>
-      </c>
-      <c r="G68" s="2" t="s">
-        <v>340</v>
       </c>
       <c r="H68" s="2">
         <v>5</v>
@@ -8082,10 +8082,10 @@
         <v>43544.999988368058</v>
       </c>
       <c r="K68" s="6" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="L68" s="2" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="M68" s="4">
         <v>43485.566145833334</v>
@@ -8126,7 +8126,7 @@
         <v>43544.999988368058</v>
       </c>
       <c r="K69" s="6" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="L69" s="2" t="s">
         <v>188</v>
@@ -8170,7 +8170,7 @@
         <v>43544.999988368058</v>
       </c>
       <c r="K70" s="6" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="L70" s="2" t="s">
         <v>193</v>
@@ -8193,16 +8193,16 @@
         <v>501</v>
       </c>
       <c r="D71" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="F71" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="E71" s="2" t="s">
+      <c r="G71" s="2" t="s">
         <v>342</v>
-      </c>
-      <c r="F71" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="G71" s="2" t="s">
-        <v>344</v>
       </c>
       <c r="H71" s="2">
         <v>2</v>
@@ -8214,7 +8214,7 @@
         <v>43544.999988368058</v>
       </c>
       <c r="K71" s="6" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="L71" s="2" t="s">
         <v>193</v>
@@ -8258,7 +8258,7 @@
         <v>43544.999988368058</v>
       </c>
       <c r="K72" s="6" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="L72" s="2" t="s">
         <v>203</v>
@@ -8287,7 +8287,7 @@
         <v>200</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="G73" s="2" t="s">
         <v>253</v>
@@ -8331,7 +8331,7 @@
         <v>179</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="G74" s="2" t="s">
         <v>181</v>
@@ -8375,10 +8375,10 @@
         <v>139</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="H75" s="2">
         <v>1</v>
@@ -8390,7 +8390,7 @@
         <v>43545.999988368058</v>
       </c>
       <c r="K75" s="6" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="L75" s="2" t="s">
         <v>140</v>
@@ -8419,10 +8419,10 @@
         <v>142</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="H76" s="2">
         <v>1</v>
@@ -8434,7 +8434,7 @@
         <v>43545.999988368058</v>
       </c>
       <c r="K76" s="6" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="L76" s="2" t="s">
         <v>143</v>
@@ -8463,7 +8463,7 @@
         <v>145</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="G77" s="2" t="s">
         <v>260</v>
@@ -8507,7 +8507,7 @@
         <v>195</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="G78" s="2" t="s">
         <v>196</v>
@@ -8554,7 +8554,7 @@
         <v>244</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="H79" s="2">
         <v>1</v>
@@ -8566,7 +8566,7 @@
         <v>43546.999988368058</v>
       </c>
       <c r="K79" s="6" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="L79" s="2" t="s">
         <v>137</v>
@@ -8633,16 +8633,16 @@
         <v>503</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="H81" s="2">
         <v>2</v>
@@ -8654,10 +8654,10 @@
         <v>43546.999988368058</v>
       </c>
       <c r="K81" s="6" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="L81" s="2" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="M81" s="4">
         <v>43487.396562499998</v>
@@ -8677,16 +8677,16 @@
         <v>503</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="H82" s="2">
         <v>2</v>
@@ -8698,7 +8698,7 @@
         <v>43546.999988368058</v>
       </c>
       <c r="K82" s="6" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="L82" s="2" t="s">
         <v>134</v>
@@ -8721,16 +8721,16 @@
         <v>504</v>
       </c>
       <c r="D83" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="G83" s="2" t="s">
         <v>433</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>434</v>
-      </c>
-      <c r="F83" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="G83" s="2" t="s">
-        <v>435</v>
       </c>
       <c r="H83" s="2">
         <v>3</v>
@@ -8742,10 +8742,10 @@
         <v>43547.999988368058</v>
       </c>
       <c r="K83" s="6" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="L83" s="2" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="M83" s="4">
         <v>43488.3752662037</v>
@@ -8765,16 +8765,16 @@
         <v>504</v>
       </c>
       <c r="D84" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="F84" s="2" t="s">
         <v>437</v>
       </c>
-      <c r="E84" s="2" t="s">
-        <v>438</v>
-      </c>
-      <c r="F84" s="2" t="s">
+      <c r="G84" s="2" t="s">
         <v>439</v>
-      </c>
-      <c r="G84" s="2" t="s">
-        <v>441</v>
       </c>
       <c r="H84" s="2">
         <v>3</v>
@@ -8786,10 +8786,10 @@
         <v>43547.999988368058</v>
       </c>
       <c r="K84" s="6" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="L84" s="2" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="M84" s="4">
         <v>43488.381736111114</v>
@@ -8809,16 +8809,16 @@
         <v>504</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="E85" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="F85" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="F85" s="2" t="s">
-        <v>445</v>
-      </c>
       <c r="G85" s="2" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="H85" s="2">
         <v>2</v>
@@ -8830,10 +8830,10 @@
         <v>43547.999988368058</v>
       </c>
       <c r="K85" s="6" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="L85" s="2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="M85" s="4">
         <v>43488.394780092596</v>
@@ -8853,16 +8853,16 @@
         <v>504</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="E86" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="F86" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="F86" s="2" t="s">
-        <v>450</v>
-      </c>
       <c r="G86" s="2" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="H86" s="2">
         <v>2</v>
@@ -8874,10 +8874,10 @@
         <v>43547.999988368058</v>
       </c>
       <c r="K86" s="6" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="L86" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="M86" s="4">
         <v>43488.409629629627</v>
@@ -8897,13 +8897,13 @@
         <v>504</v>
       </c>
       <c r="D87" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="F87" s="2" t="s">
         <v>452</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>453</v>
-      </c>
-      <c r="F87" s="2" t="s">
-        <v>454</v>
       </c>
       <c r="G87" s="2" t="s">
         <v>182</v>
@@ -8921,7 +8921,7 @@
         <v>182</v>
       </c>
       <c r="L87" s="2" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="M87" s="4">
         <v>43488.415590277778</v>
@@ -8941,16 +8941,16 @@
         <v>504</v>
       </c>
       <c r="D88" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="G88" s="2" t="s">
         <v>456</v>
-      </c>
-      <c r="E88" s="2" t="s">
-        <v>455</v>
-      </c>
-      <c r="F88" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="G88" s="2" t="s">
-        <v>458</v>
       </c>
       <c r="H88" s="2">
         <v>3</v>
@@ -8962,10 +8962,10 @@
         <v>43547.999988368058</v>
       </c>
       <c r="K88" s="6" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="L88" s="2" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="M88" s="4">
         <v>43488.424363425926</v>
@@ -8985,16 +8985,16 @@
         <v>504</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="H89" s="2">
         <v>5</v>
@@ -9006,10 +9006,10 @@
         <v>43547.999988368058</v>
       </c>
       <c r="K89" s="6" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="L89" s="2" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="M89" s="4">
         <v>43488.437094907407</v>
@@ -9029,13 +9029,13 @@
         <v>504</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="G90" s="2" t="s">
         <v>182</v>
@@ -9053,7 +9053,7 @@
         <v>182</v>
       </c>
       <c r="L90" s="2" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="M90" s="4">
         <v>43488.457083333335</v>
@@ -9073,16 +9073,16 @@
         <v>505</v>
       </c>
       <c r="D91" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="G91" s="2" t="s">
         <v>505</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>506</v>
-      </c>
-      <c r="F91" s="2" t="s">
-        <v>429</v>
-      </c>
-      <c r="G91" s="2" t="s">
-        <v>507</v>
       </c>
       <c r="H91" s="2">
         <v>10</v>
@@ -9094,7 +9094,7 @@
         <v>43548.999988368058</v>
       </c>
       <c r="K91" s="6" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="L91" s="2" t="s">
         <v>137</v>
@@ -9117,16 +9117,16 @@
         <v>505</v>
       </c>
       <c r="D92" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="G92" s="2" t="s">
         <v>481</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>482</v>
-      </c>
-      <c r="F92" s="2" t="s">
-        <v>484</v>
-      </c>
-      <c r="G92" s="2" t="s">
-        <v>483</v>
       </c>
       <c r="H92" s="2">
         <v>5</v>
@@ -9138,10 +9138,10 @@
         <v>43548.999988368058</v>
       </c>
       <c r="K92" s="6" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="L92" s="2" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="M92" s="4">
         <v>43489.389675925922</v>
@@ -9161,16 +9161,16 @@
         <v>505</v>
       </c>
       <c r="D93" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="G93" s="2" t="s">
         <v>485</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>486</v>
-      </c>
-      <c r="F93" s="2" t="s">
-        <v>488</v>
-      </c>
-      <c r="G93" s="2" t="s">
-        <v>487</v>
       </c>
       <c r="H93" s="2">
         <v>4</v>
@@ -9182,10 +9182,10 @@
         <v>43548.999988368058</v>
       </c>
       <c r="K93" s="6" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="L93" s="2" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="M93" s="4">
         <v>43489.40320601852</v>
@@ -9205,16 +9205,16 @@
         <v>505</v>
       </c>
       <c r="D94" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="G94" s="2" t="s">
         <v>489</v>
-      </c>
-      <c r="E94" s="2" t="s">
-        <v>490</v>
-      </c>
-      <c r="F94" s="2" t="s">
-        <v>492</v>
-      </c>
-      <c r="G94" s="2" t="s">
-        <v>491</v>
       </c>
       <c r="H94" s="2">
         <v>4</v>
@@ -9226,7 +9226,7 @@
         <v>43548.999988368058</v>
       </c>
       <c r="K94" s="6" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="L94" s="2" t="s">
         <v>137</v>
@@ -9249,16 +9249,16 @@
         <v>505</v>
       </c>
       <c r="D95" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="G95" s="2" t="s">
         <v>493</v>
-      </c>
-      <c r="E95" s="2" t="s">
-        <v>494</v>
-      </c>
-      <c r="F95" s="2" t="s">
-        <v>496</v>
-      </c>
-      <c r="G95" s="2" t="s">
-        <v>495</v>
       </c>
       <c r="H95" s="2">
         <v>4</v>
@@ -9270,10 +9270,10 @@
         <v>43548.999988368058</v>
       </c>
       <c r="K95" s="6" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="L95" s="2" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="M95" s="4">
         <v>43489.42015046296</v>
@@ -9293,16 +9293,16 @@
         <v>505</v>
       </c>
       <c r="D96" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="G96" s="2" t="s">
         <v>497</v>
-      </c>
-      <c r="E96" s="2" t="s">
-        <v>498</v>
-      </c>
-      <c r="F96" s="2" t="s">
-        <v>500</v>
-      </c>
-      <c r="G96" s="2" t="s">
-        <v>499</v>
       </c>
       <c r="H96" s="2">
         <v>5</v>
@@ -9314,10 +9314,10 @@
         <v>43548.999988368058</v>
       </c>
       <c r="K96" s="6" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="L96" s="2" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="M96" s="4">
         <v>43489.43445601852</v>
@@ -9337,16 +9337,16 @@
         <v>505</v>
       </c>
       <c r="D97" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="G97" s="2" t="s">
         <v>501</v>
-      </c>
-      <c r="E97" s="2" t="s">
-        <v>502</v>
-      </c>
-      <c r="F97" s="2" t="s">
-        <v>504</v>
-      </c>
-      <c r="G97" s="2" t="s">
-        <v>503</v>
       </c>
       <c r="H97" s="2">
         <v>10</v>
@@ -9358,10 +9358,10 @@
         <v>43548.999988368058</v>
       </c>
       <c r="K97" s="6" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="L97" s="2" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="M97" s="4">
         <v>43489.44358796296</v>
@@ -9381,13 +9381,13 @@
         <v>506</v>
       </c>
       <c r="D98" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="F98" s="2" t="s">
         <v>573</v>
-      </c>
-      <c r="E98" s="2" t="s">
-        <v>574</v>
-      </c>
-      <c r="F98" s="2" t="s">
-        <v>575</v>
       </c>
       <c r="G98" s="2" t="s">
         <v>176</v>
@@ -9425,16 +9425,16 @@
         <v>506</v>
       </c>
       <c r="D99" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="G99" s="2" t="s">
         <v>576</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>577</v>
-      </c>
-      <c r="F99" s="2" t="s">
-        <v>581</v>
-      </c>
-      <c r="G99" s="2" t="s">
-        <v>578</v>
       </c>
       <c r="H99" s="2">
         <v>2</v>
@@ -9446,10 +9446,10 @@
         <v>43549.999988368058</v>
       </c>
       <c r="K99" s="6" t="s">
+        <v>576</v>
+      </c>
+      <c r="L99" s="2" t="s">
         <v>578</v>
-      </c>
-      <c r="L99" s="2" t="s">
-        <v>580</v>
       </c>
       <c r="M99" s="4">
         <v>43490.379166666666</v>
@@ -9469,16 +9469,16 @@
         <v>506</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="E100" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="F100" s="2" t="s">
         <v>583</v>
       </c>
-      <c r="F100" s="2" t="s">
-        <v>585</v>
-      </c>
       <c r="G100" s="2" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="H100" s="2">
         <v>2</v>
@@ -9490,10 +9490,10 @@
         <v>43549.999988368058</v>
       </c>
       <c r="K100" s="6" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="L100" s="2" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="M100" s="4">
         <v>43490.391504629632</v>
@@ -9513,13 +9513,13 @@
         <v>506</v>
       </c>
       <c r="D101" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="F101" s="2" t="s">
         <v>586</v>
-      </c>
-      <c r="E101" s="2" t="s">
-        <v>587</v>
-      </c>
-      <c r="F101" s="2" t="s">
-        <v>588</v>
       </c>
       <c r="G101" s="2" t="s">
         <v>210</v>
@@ -9557,16 +9557,16 @@
         <v>507</v>
       </c>
       <c r="D102" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="G102" s="2" t="s">
         <v>590</v>
-      </c>
-      <c r="E102" s="2" t="s">
-        <v>591</v>
-      </c>
-      <c r="F102" s="2" t="s">
-        <v>594</v>
-      </c>
-      <c r="G102" s="2" t="s">
-        <v>592</v>
       </c>
       <c r="H102" s="2">
         <v>2</v>
@@ -9578,10 +9578,10 @@
         <v>43550.999988368058</v>
       </c>
       <c r="K102" s="2" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="L102" s="2" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="M102" s="4">
         <v>43491.419606481482</v>
@@ -9601,16 +9601,16 @@
         <v>507</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="E103" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="F103" s="2" t="s">
         <v>599</v>
       </c>
-      <c r="F103" s="2" t="s">
-        <v>601</v>
-      </c>
       <c r="G103" s="2" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="H103" s="2">
         <v>3</v>
@@ -9622,7 +9622,7 @@
         <v>43550.999988368058</v>
       </c>
       <c r="K103" s="2" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="L103" s="2" t="s">
         <v>115</v>
@@ -9645,16 +9645,16 @@
         <v>507</v>
       </c>
       <c r="D104" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="G104" s="2" t="s">
         <v>603</v>
-      </c>
-      <c r="E104" s="2" t="s">
-        <v>602</v>
-      </c>
-      <c r="F104" s="2" t="s">
-        <v>604</v>
-      </c>
-      <c r="G104" s="2" t="s">
-        <v>605</v>
       </c>
       <c r="H104" s="2">
         <v>3</v>
@@ -9666,10 +9666,10 @@
         <v>43550.999988368058</v>
       </c>
       <c r="K104" s="2" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="L104" s="2" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="M104" s="4">
         <v>43491.429849537039</v>
@@ -9689,16 +9689,16 @@
         <v>508</v>
       </c>
       <c r="D105" s="2" t="s">
+        <v>643</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>646</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="G105" s="2" t="s">
         <v>645</v>
-      </c>
-      <c r="E105" s="2" t="s">
-        <v>648</v>
-      </c>
-      <c r="F105" s="2" t="s">
-        <v>646</v>
-      </c>
-      <c r="G105" s="2" t="s">
-        <v>647</v>
       </c>
       <c r="H105" s="2">
         <v>5</v>
@@ -9710,10 +9710,10 @@
         <v>43551.999988368058</v>
       </c>
       <c r="K105" s="2" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="L105" s="2" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="M105" s="4">
         <v>43492.542129629626</v>
@@ -10425,22 +10425,22 @@
         <v>43478.550671296296</v>
       </c>
       <c r="E2" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="F2">
         <v>403</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="H2" t="s">
         <v>253</v>
       </c>
       <c r="I2" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="J2" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -10463,22 +10463,22 @@
         <v>43484.434641203705</v>
       </c>
       <c r="E3" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="F3">
         <v>403</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="H3" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="I3" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="J3" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -10501,22 +10501,22 @@
         <v>43485.598587962966</v>
       </c>
       <c r="E4" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="F4">
         <v>401</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="H4" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="I4" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="J4" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -10539,22 +10539,22 @@
         <v>43487.803229166668</v>
       </c>
       <c r="E5" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="F5">
         <v>403</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="H5" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="I5" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="J5" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -10577,22 +10577,22 @@
         <v>43487.811284722222</v>
       </c>
       <c r="E6" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="F6">
         <v>402</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="H6" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="I6" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="J6" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -10615,22 +10615,22 @@
         <v>43490.84983796296</v>
       </c>
       <c r="E7" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="F7">
         <v>403</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="H7" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="I7" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="J7" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -10653,22 +10653,22 @@
         <v>43491.464479166665</v>
       </c>
       <c r="E8" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="F8">
         <v>401</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="H8" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="I8" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="J8" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -10691,22 +10691,22 @@
         <v>43491.473715277774</v>
       </c>
       <c r="E9" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="F9">
         <v>401</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="H9" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="I9" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="J9" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -10729,22 +10729,22 @@
         <v>43492.551666666666</v>
       </c>
       <c r="E10" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="F10">
         <v>401</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="H10" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="I10" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="J10" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -10767,22 +10767,22 @@
         <v>43492.56082175926</v>
       </c>
       <c r="E11" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="F11">
         <v>401</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="H11" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="I11" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="J11" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -10805,22 +10805,22 @@
         <v>43492.620625000003</v>
       </c>
       <c r="E12" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="F12">
         <v>402</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="H12" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="I12" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="J12" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -10843,22 +10843,22 @@
         <v>43492.628761574073</v>
       </c>
       <c r="E13" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="F13">
         <v>401</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="H13" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="I13" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="J13" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -10881,22 +10881,22 @@
         <v>43493.749988425923</v>
       </c>
       <c r="E14" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="F14">
         <v>401</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="H14" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="I14" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="J14" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -10919,22 +10919,22 @@
         <v>43494.813611111109</v>
       </c>
       <c r="E15" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="F15">
         <v>401</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="H15" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="I15" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="J15" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -10957,22 +10957,22 @@
         <v>43495.767291666663</v>
       </c>
       <c r="E16" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="F16">
         <v>403</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="H16" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="I16" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="J16" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -10995,22 +10995,22 @@
         <v>43496.753310185188</v>
       </c>
       <c r="E17" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="F17">
         <v>402</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="H17" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="I17" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="J17" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -11033,22 +11033,22 @@
         <v>43497.88758101852</v>
       </c>
       <c r="E18" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="F18">
         <v>401</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="H18" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="I18" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="J18" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="K18">
         <v>1</v>
@@ -11124,7 +11124,7 @@
         <v>1100030</v>
       </c>
       <c r="D3" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -11141,7 +11141,7 @@
         <v>1200006</v>
       </c>
       <c r="D4" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -11158,7 +11158,7 @@
         <v>1200007</v>
       </c>
       <c r="D5" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -11175,7 +11175,7 @@
         <v>1200008</v>
       </c>
       <c r="D6" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -11192,7 +11192,7 @@
         <v>1200009</v>
       </c>
       <c r="D7" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -11209,7 +11209,7 @@
         <v>1100002</v>
       </c>
       <c r="D8" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -11226,7 +11226,7 @@
         <v>1100003</v>
       </c>
       <c r="D9" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -11260,7 +11260,7 @@
         <v>1200010</v>
       </c>
       <c r="D11" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -11277,7 +11277,7 @@
         <v>1200011</v>
       </c>
       <c r="D12" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="E12">
         <v>4</v>
@@ -11311,7 +11311,7 @@
         <v>1600006</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -11345,7 +11345,7 @@
         <v>1200001</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -11379,7 +11379,7 @@
         <v>1200005</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -11396,7 +11396,7 @@
         <v>1100031</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -11413,7 +11413,7 @@
         <v>1100032</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -11430,7 +11430,7 @@
         <v>1600004</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -11464,7 +11464,7 @@
         <v>1200013</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="E23">
         <v>2</v>
@@ -11481,7 +11481,7 @@
         <v>1600028</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -11498,7 +11498,7 @@
         <v>1600029</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -11515,7 +11515,7 @@
         <v>1600030</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -11532,7 +11532,7 @@
         <v>1400001</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -11549,7 +11549,7 @@
         <v>1400019</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -11566,7 +11566,7 @@
         <v>1600016</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -11583,7 +11583,7 @@
         <v>1600017</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -11600,7 +11600,7 @@
         <v>1400014</v>
       </c>
       <c r="D31" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -11617,7 +11617,7 @@
         <v>1400015</v>
       </c>
       <c r="D32" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -11634,7 +11634,7 @@
         <v>1400016</v>
       </c>
       <c r="D33" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="E33">
         <v>1</v>
@@ -11651,7 +11651,7 @@
         <v>1400017</v>
       </c>
       <c r="D34" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="E34">
         <v>1</v>
@@ -11685,7 +11685,7 @@
         <v>1200013</v>
       </c>
       <c r="D36" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="E36">
         <v>2</v>
@@ -11719,7 +11719,7 @@
         <v>1200004</v>
       </c>
       <c r="D38" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="E38">
         <v>1</v>
@@ -11736,7 +11736,7 @@
         <v>1200012</v>
       </c>
       <c r="D39" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="E39">
         <v>1</v>
@@ -11770,7 +11770,7 @@
         <v>1600034</v>
       </c>
       <c r="D41" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="E41">
         <v>1</v>
@@ -11787,7 +11787,7 @@
         <v>1600035</v>
       </c>
       <c r="D42" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="E42">
         <v>1</v>
@@ -13299,7 +13299,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="C2">
         <v>11</v>
@@ -13317,19 +13317,19 @@
         <v>4389</v>
       </c>
       <c r="H2" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="I2" t="s">
         <v>253</v>
       </c>
       <c r="J2" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="K2" t="s">
         <v>253</v>
       </c>
       <c r="L2" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -13337,7 +13337,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="C3">
         <v>12</v>
@@ -13355,19 +13355,19 @@
         <v>1707</v>
       </c>
       <c r="H3" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="I3" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="J3" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="K3" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="L3" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
@@ -13375,7 +13375,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="C4">
         <v>11</v>
@@ -13393,19 +13393,19 @@
         <v>3107</v>
       </c>
       <c r="H4" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="I4" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="J4" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="K4" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="L4" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -13413,7 +13413,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="C5">
         <v>12</v>
@@ -13431,19 +13431,19 @@
         <v>1042</v>
       </c>
       <c r="H5" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="I5" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="J5" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="K5" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="L5" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -13451,7 +13451,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="C6">
         <v>16</v>
@@ -13469,19 +13469,19 @@
         <v>3389</v>
       </c>
       <c r="H6" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="I6" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="J6" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="K6" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="L6" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
@@ -13489,7 +13489,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="C7">
         <v>12</v>
@@ -13507,19 +13507,19 @@
         <v>4472</v>
       </c>
       <c r="H7" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="I7" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="J7" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="K7" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="L7" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
@@ -13527,7 +13527,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="C8">
         <v>11</v>
@@ -13545,19 +13545,19 @@
         <v>3957</v>
       </c>
       <c r="H8" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="I8" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="J8" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="K8" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="L8" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
@@ -13565,7 +13565,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="C9">
         <v>16</v>
@@ -13583,19 +13583,19 @@
         <v>3259</v>
       </c>
       <c r="H9" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="I9" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="J9" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="K9" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="L9" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
@@ -13603,7 +13603,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="C10">
         <v>12</v>
@@ -13621,19 +13621,19 @@
         <v>3283</v>
       </c>
       <c r="H10" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="I10" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="J10" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="K10" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="L10" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
@@ -13641,7 +13641,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="C11">
         <v>16</v>
@@ -13659,19 +13659,19 @@
         <v>2627</v>
       </c>
       <c r="H11" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="I11" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="J11" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="K11" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="L11" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
@@ -13679,7 +13679,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="C12">
         <v>14</v>
@@ -13697,19 +13697,19 @@
         <v>1283</v>
       </c>
       <c r="H12" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="I12" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="J12" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="K12" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="L12" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
@@ -13717,7 +13717,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="C13">
         <v>16</v>
@@ -13735,19 +13735,19 @@
         <v>1888</v>
       </c>
       <c r="H13" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="I13" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="J13" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="K13" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="L13" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
@@ -13755,7 +13755,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="C14">
         <v>14</v>
@@ -13773,19 +13773,19 @@
         <v>4183</v>
       </c>
       <c r="H14" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="I14" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="J14" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="K14" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="L14" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
@@ -13793,7 +13793,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="C15">
         <v>12</v>
@@ -13811,19 +13811,19 @@
         <v>4430</v>
       </c>
       <c r="H15" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="I15" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="J15" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="K15" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="L15" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
@@ -13831,7 +13831,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="C16">
         <v>12</v>
@@ -13849,19 +13849,19 @@
         <v>4598</v>
       </c>
       <c r="H16" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="I16" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="J16" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="K16" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="L16" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
@@ -13869,7 +13869,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C17">
         <v>12</v>
@@ -13887,19 +13887,19 @@
         <v>3639</v>
       </c>
       <c r="H17" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="I17" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="J17" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="K17" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="L17" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
@@ -13907,7 +13907,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="C18">
         <v>16</v>
@@ -13925,19 +13925,19 @@
         <v>2937</v>
       </c>
       <c r="H18" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="I18" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="J18" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="K18" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="L18" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
     </row>
   </sheetData>

--- a/Jeu d'essai.xlsx
+++ b/Jeu d'essai.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="125" documentId="114_{8D9B191C-2013-4270-87A9-3FB899E57325}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{46D0E170-26AA-4533-9861-720691A4CABD}"/>
+  <xr:revisionPtr revIDLastSave="134" documentId="114_{8D9B191C-2013-4270-87A9-3FB899E57325}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{4DE29F17-CD87-41D4-A643-08A4CC30A177}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1905" yWindow="1905" windowWidth="21600" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PPVendeurs" sheetId="13" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1433" uniqueCount="790">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1433" uniqueCount="789">
   <si>
     <t>NULL</t>
   </si>
@@ -2259,9 +2259,6 @@
     <t>ppuces@gmail.com</t>
   </si>
   <si>
-    <t>Secret98112</t>
-  </si>
-  <si>
     <t>203.99</t>
   </si>
   <si>
@@ -2370,27 +2367,6 @@
     <t>15.00</t>
   </si>
   <si>
-    <t>vendeur11@gmail.com</t>
-  </si>
-  <si>
-    <t>vendeur12@gmail.com</t>
-  </si>
-  <si>
-    <t>vendeur13@gmail.com</t>
-  </si>
-  <si>
-    <t>vendeur14@gmail.com</t>
-  </si>
-  <si>
-    <t>vendeur15@gmail.com</t>
-  </si>
-  <si>
-    <t>vendeur16@gmail.com</t>
-  </si>
-  <si>
-    <t>vendeur17@gmail.com</t>
-  </si>
-  <si>
     <t>Secret123</t>
   </si>
   <si>
@@ -2464,6 +2440,27 @@
   </si>
   <si>
     <t>K0H1Y0</t>
+  </si>
+  <si>
+    <t>vendeur11@outlook.com</t>
+  </si>
+  <si>
+    <t>vendeur12@outlook.com</t>
+  </si>
+  <si>
+    <t>vendeur13@outlook.com</t>
+  </si>
+  <si>
+    <t>vendeur14@outlook.com</t>
+  </si>
+  <si>
+    <t>vendeur15@outlook.com</t>
+  </si>
+  <si>
+    <t>vendeur16@outlook.com</t>
+  </si>
+  <si>
+    <t>vendeur17@outlook.com</t>
   </si>
 </sst>
 </file>
@@ -2801,30 +2798,30 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="6" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="6.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -2889,7 +2886,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>11</v>
       </c>
@@ -2924,10 +2921,10 @@
         <v>0</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>758</v>
+        <v>782</v>
       </c>
       <c r="M2" t="s">
-        <v>765</v>
+        <v>757</v>
       </c>
       <c r="N2">
         <v>500</v>
@@ -2954,7 +2951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>12</v>
       </c>
@@ -2989,10 +2986,10 @@
         <v>0</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>759</v>
+        <v>783</v>
       </c>
       <c r="M3" t="s">
-        <v>765</v>
+        <v>757</v>
       </c>
       <c r="N3">
         <v>500</v>
@@ -3019,7 +3016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>13</v>
       </c>
@@ -3054,10 +3051,10 @@
         <v>4505658849</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>760</v>
+        <v>784</v>
       </c>
       <c r="M4" t="s">
-        <v>765</v>
+        <v>757</v>
       </c>
       <c r="N4">
         <v>75</v>
@@ -3084,7 +3081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>14</v>
       </c>
@@ -3107,7 +3104,7 @@
         <v>273</v>
       </c>
       <c r="H5" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
       <c r="I5" t="s">
         <v>252</v>
@@ -3119,10 +3116,10 @@
         <v>0</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>761</v>
+        <v>785</v>
       </c>
       <c r="M5" t="s">
-        <v>765</v>
+        <v>757</v>
       </c>
       <c r="N5">
         <v>100</v>
@@ -3149,7 +3146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>15</v>
       </c>
@@ -3184,10 +3181,10 @@
         <v>5149938373</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>762</v>
+        <v>786</v>
       </c>
       <c r="M6" t="s">
-        <v>765</v>
+        <v>757</v>
       </c>
       <c r="N6">
         <v>30</v>
@@ -3214,7 +3211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>16</v>
       </c>
@@ -3249,10 +3246,10 @@
         <v>0</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>763</v>
+        <v>787</v>
       </c>
       <c r="M7" t="s">
-        <v>765</v>
+        <v>757</v>
       </c>
       <c r="N7">
         <v>40</v>
@@ -3279,7 +3276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>17</v>
       </c>
@@ -3314,10 +3311,10 @@
         <v>0</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>764</v>
+        <v>788</v>
       </c>
       <c r="M8" t="s">
-        <v>765</v>
+        <v>757</v>
       </c>
       <c r="N8">
         <v>50</v>
@@ -3357,14 +3354,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>67</v>
       </c>
@@ -3375,7 +3372,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>301</v>
       </c>
@@ -3386,7 +3383,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>302</v>
       </c>
@@ -3397,7 +3394,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>303</v>
       </c>
@@ -3408,7 +3405,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>304</v>
       </c>
@@ -3431,13 +3428,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>66</v>
       </c>
@@ -3445,7 +3442,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>401</v>
       </c>
@@ -3453,7 +3450,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>402</v>
       </c>
@@ -3461,7 +3458,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>403</v>
       </c>
@@ -3481,14 +3478,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>66</v>
       </c>
@@ -3499,7 +3496,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>401</v>
       </c>
@@ -3510,7 +3507,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>401</v>
       </c>
@@ -3518,10 +3515,10 @@
         <v>302</v>
       </c>
       <c r="C3" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>401</v>
       </c>
@@ -3532,7 +3529,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>401</v>
       </c>
@@ -3543,7 +3540,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>402</v>
       </c>
@@ -3554,7 +3551,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>402</v>
       </c>
@@ -3562,10 +3559,10 @@
         <v>302</v>
       </c>
       <c r="C7" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>402</v>
       </c>
@@ -3576,7 +3573,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>402</v>
       </c>
@@ -3587,7 +3584,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>403</v>
       </c>
@@ -3595,10 +3592,10 @@
         <v>301</v>
       </c>
       <c r="C10" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>403</v>
       </c>
@@ -3609,7 +3606,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>403</v>
       </c>
@@ -3620,7 +3617,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>403</v>
       </c>
@@ -3643,14 +3640,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>75</v>
       </c>
@@ -3661,7 +3658,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>101</v>
       </c>
@@ -3672,7 +3669,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>102</v>
       </c>
@@ -3683,7 +3680,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>103</v>
       </c>
@@ -3694,7 +3691,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>104</v>
       </c>
@@ -3717,14 +3714,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>69</v>
       </c>
@@ -3735,7 +3732,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>201</v>
       </c>
@@ -3746,7 +3743,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>202</v>
       </c>
@@ -3757,7 +3754,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>203</v>
       </c>
@@ -3780,14 +3777,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>102</v>
       </c>
@@ -3798,7 +3795,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3806,7 +3803,7 @@
         <v>720</v>
       </c>
       <c r="C2" t="s">
-        <v>721</v>
+        <v>757</v>
       </c>
     </row>
   </sheetData>
@@ -3821,26 +3818,26 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="11" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="14" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="22.88671875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>33</v>
       </c>
@@ -3893,15 +3890,15 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>10001</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>768</v>
+        <v>760</v>
       </c>
       <c r="C2" t="s">
-        <v>765</v>
+        <v>757</v>
       </c>
       <c r="D2" t="s">
         <v>292</v>
@@ -3919,7 +3916,7 @@
         <v>250</v>
       </c>
       <c r="I2" t="s">
-        <v>788</v>
+        <v>780</v>
       </c>
       <c r="J2" t="s">
         <v>252</v>
@@ -3946,15 +3943,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>10002</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>769</v>
+        <v>761</v>
       </c>
       <c r="C3" t="s">
-        <v>765</v>
+        <v>757</v>
       </c>
       <c r="D3" t="s">
         <v>296</v>
@@ -3999,15 +3996,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>10003</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>770</v>
+        <v>762</v>
       </c>
       <c r="C4" t="s">
-        <v>765</v>
+        <v>757</v>
       </c>
       <c r="D4" t="s">
         <v>0</v>
@@ -4052,15 +4049,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>10004</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>771</v>
+        <v>763</v>
       </c>
       <c r="C5" t="s">
-        <v>765</v>
+        <v>757</v>
       </c>
       <c r="D5" t="s">
         <v>275</v>
@@ -4105,15 +4102,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>10005</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>772</v>
+        <v>764</v>
       </c>
       <c r="C6" t="s">
-        <v>765</v>
+        <v>757</v>
       </c>
       <c r="D6" t="s">
         <v>0</v>
@@ -4158,15 +4155,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>10006</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>773</v>
+        <v>765</v>
       </c>
       <c r="C7" t="s">
-        <v>765</v>
+        <v>757</v>
       </c>
       <c r="D7" t="s">
         <v>0</v>
@@ -4211,15 +4208,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>10007</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>774</v>
+        <v>766</v>
       </c>
       <c r="C8" t="s">
-        <v>765</v>
+        <v>757</v>
       </c>
       <c r="D8" t="s">
         <v>0</v>
@@ -4264,15 +4261,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>10008</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>775</v>
+        <v>767</v>
       </c>
       <c r="C9" t="s">
-        <v>765</v>
+        <v>757</v>
       </c>
       <c r="D9" t="s">
         <v>304</v>
@@ -4317,15 +4314,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>10009</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>776</v>
+        <v>768</v>
       </c>
       <c r="C10" t="s">
-        <v>765</v>
+        <v>757</v>
       </c>
       <c r="D10" t="s">
         <v>0</v>
@@ -4370,15 +4367,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10010</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>777</v>
+        <v>769</v>
       </c>
       <c r="C11" t="s">
-        <v>765</v>
+        <v>757</v>
       </c>
       <c r="D11" t="s">
         <v>0</v>
@@ -4423,15 +4420,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10011</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>778</v>
+        <v>770</v>
       </c>
       <c r="C12" t="s">
-        <v>765</v>
+        <v>757</v>
       </c>
       <c r="D12" t="s">
         <v>0</v>
@@ -4476,15 +4473,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>10012</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>779</v>
+        <v>771</v>
       </c>
       <c r="C13" t="s">
-        <v>765</v>
+        <v>757</v>
       </c>
       <c r="D13" t="s">
         <v>0</v>
@@ -4529,15 +4526,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>10013</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>780</v>
+        <v>772</v>
       </c>
       <c r="C14" t="s">
-        <v>765</v>
+        <v>757</v>
       </c>
       <c r="D14" t="s">
         <v>0</v>
@@ -4582,15 +4579,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>10014</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>781</v>
+        <v>773</v>
       </c>
       <c r="C15" t="s">
-        <v>765</v>
+        <v>757</v>
       </c>
       <c r="D15" t="s">
         <v>307</v>
@@ -4635,15 +4632,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>10015</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>782</v>
+        <v>774</v>
       </c>
       <c r="C16" t="s">
-        <v>765</v>
+        <v>757</v>
       </c>
       <c r="D16" t="s">
         <v>0</v>
@@ -4688,15 +4685,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>10016</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>783</v>
+        <v>775</v>
       </c>
       <c r="C17" t="s">
-        <v>765</v>
+        <v>757</v>
       </c>
       <c r="D17" t="s">
         <v>0</v>
@@ -4741,15 +4738,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>10017</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>784</v>
+        <v>776</v>
       </c>
       <c r="C18" t="s">
-        <v>765</v>
+        <v>757</v>
       </c>
       <c r="D18" t="s">
         <v>0</v>
@@ -4794,15 +4791,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>10018</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>785</v>
+        <v>777</v>
       </c>
       <c r="C19" t="s">
-        <v>765</v>
+        <v>757</v>
       </c>
       <c r="D19" t="s">
         <v>310</v>
@@ -4847,15 +4844,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>10019</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>786</v>
+        <v>778</v>
       </c>
       <c r="C20" t="s">
-        <v>765</v>
+        <v>757</v>
       </c>
       <c r="D20" t="s">
         <v>315</v>
@@ -4900,15 +4897,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>10020</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>787</v>
+        <v>779</v>
       </c>
       <c r="C21" t="s">
-        <v>765</v>
+        <v>757</v>
       </c>
       <c r="D21" t="s">
         <v>320</v>
@@ -4965,14 +4962,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="66.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="66.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -4983,7 +4980,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>501</v>
       </c>
@@ -4994,7 +4991,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>502</v>
       </c>
@@ -5005,7 +5002,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>503</v>
       </c>
@@ -5016,7 +5013,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>504</v>
       </c>
@@ -5027,7 +5024,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>505</v>
       </c>
@@ -5038,7 +5035,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>506</v>
       </c>
@@ -5049,7 +5046,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>507</v>
       </c>
@@ -5060,7 +5057,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>508</v>
       </c>
@@ -5083,26 +5080,26 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="47.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="255.6640625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="47.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="255.7109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" style="2" customWidth="1"/>
     <col min="7" max="7" width="13" style="2" customWidth="1"/>
-    <col min="8" max="8" width="13.33203125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="12.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.88671875" style="2" customWidth="1"/>
-    <col min="13" max="13" width="15.44140625" style="2" customWidth="1"/>
-    <col min="14" max="14" width="8.88671875" style="2" customWidth="1"/>
-    <col min="15" max="16384" width="8.6640625" style="2"/>
+    <col min="8" max="8" width="13.28515625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="12.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.85546875" style="2" customWidth="1"/>
+    <col min="13" max="13" width="15.42578125" style="2" customWidth="1"/>
+    <col min="14" max="14" width="8.85546875" style="2" customWidth="1"/>
+    <col min="15" max="16384" width="8.7109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -5146,7 +5143,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1100001</v>
       </c>
@@ -5190,7 +5187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1100002</v>
       </c>
@@ -5234,7 +5231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>1100003</v>
       </c>
@@ -5278,7 +5275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>1100004</v>
       </c>
@@ -5322,7 +5319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>1100005</v>
       </c>
@@ -5366,7 +5363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>1100006</v>
       </c>
@@ -5410,7 +5407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>1100007</v>
       </c>
@@ -5454,7 +5451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>1100008</v>
       </c>
@@ -5498,7 +5495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>1100009</v>
       </c>
@@ -5542,7 +5539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>1100010</v>
       </c>
@@ -5586,7 +5583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>1100011</v>
       </c>
@@ -5630,7 +5627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>1100012</v>
       </c>
@@ -5674,7 +5671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>1100013</v>
       </c>
@@ -5685,7 +5682,7 @@
         <v>505</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>766</v>
+        <v>758</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>477</v>
@@ -5718,7 +5715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>1100014</v>
       </c>
@@ -5762,7 +5759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>1100015</v>
       </c>
@@ -5806,7 +5803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>1100016</v>
       </c>
@@ -5850,7 +5847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>1100017</v>
       </c>
@@ -5894,7 +5891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>1100018</v>
       </c>
@@ -5938,7 +5935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>1100019</v>
       </c>
@@ -5982,7 +5979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>1100020</v>
       </c>
@@ -6026,7 +6023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>1100021</v>
       </c>
@@ -6070,7 +6067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>1100022</v>
       </c>
@@ -6114,7 +6111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>1100023</v>
       </c>
@@ -6125,7 +6122,7 @@
         <v>506</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>767</v>
+        <v>759</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>545</v>
@@ -6158,7 +6155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>1100024</v>
       </c>
@@ -6202,7 +6199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>1100025</v>
       </c>
@@ -6246,7 +6243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>1100026</v>
       </c>
@@ -6290,7 +6287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>1100027</v>
       </c>
@@ -6334,7 +6331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>1100028</v>
       </c>
@@ -6378,7 +6375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>1100029</v>
       </c>
@@ -6422,7 +6419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>1100030</v>
       </c>
@@ -6466,7 +6463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>1100031</v>
       </c>
@@ -6510,7 +6507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>1100032</v>
       </c>
@@ -6554,7 +6551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>1200001</v>
       </c>
@@ -6598,7 +6595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>1200002</v>
       </c>
@@ -6642,7 +6639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>1200003</v>
       </c>
@@ -6686,7 +6683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>1200004</v>
       </c>
@@ -6730,7 +6727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>1200005</v>
       </c>
@@ -6774,7 +6771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>1200006</v>
       </c>
@@ -6818,7 +6815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>1200007</v>
       </c>
@@ -6862,7 +6859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>1200008</v>
       </c>
@@ -6906,7 +6903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>1200009</v>
       </c>
@@ -6950,7 +6947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>1200010</v>
       </c>
@@ -6994,7 +6991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>1200011</v>
       </c>
@@ -7038,7 +7035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>1200012</v>
       </c>
@@ -7082,7 +7079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>1200013</v>
       </c>
@@ -7126,7 +7123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>1400001</v>
       </c>
@@ -7170,7 +7167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>1400002</v>
       </c>
@@ -7214,7 +7211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>1400003</v>
       </c>
@@ -7258,7 +7255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>1400004</v>
       </c>
@@ -7302,7 +7299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>1400005</v>
       </c>
@@ -7346,7 +7343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>1400006</v>
       </c>
@@ -7390,7 +7387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>1400007</v>
       </c>
@@ -7434,7 +7431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>1400008</v>
       </c>
@@ -7478,7 +7475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>1400009</v>
       </c>
@@ -7522,7 +7519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>1400010</v>
       </c>
@@ -7566,7 +7563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>1400011</v>
       </c>
@@ -7610,7 +7607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>1400012</v>
       </c>
@@ -7654,7 +7651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>1400013</v>
       </c>
@@ -7698,7 +7695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>1400014</v>
       </c>
@@ -7742,7 +7739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>1400015</v>
       </c>
@@ -7786,7 +7783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>1400016</v>
       </c>
@@ -7830,7 +7827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>1400017</v>
       </c>
@@ -7874,7 +7871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>1400018</v>
       </c>
@@ -7918,7 +7915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>1400019</v>
       </c>
@@ -7962,7 +7959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>1600001</v>
       </c>
@@ -8006,7 +8003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>1600002</v>
       </c>
@@ -8050,7 +8047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>1600003</v>
       </c>
@@ -8094,7 +8091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>1600004</v>
       </c>
@@ -8138,7 +8135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>1600005</v>
       </c>
@@ -8182,7 +8179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>1600006</v>
       </c>
@@ -8226,7 +8223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>1600007</v>
       </c>
@@ -8270,7 +8267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>1600008</v>
       </c>
@@ -8314,7 +8311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>1600009</v>
       </c>
@@ -8358,7 +8355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>1600010</v>
       </c>
@@ -8402,7 +8399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>1600011</v>
       </c>
@@ -8446,7 +8443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>1600012</v>
       </c>
@@ -8490,7 +8487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>1600013</v>
       </c>
@@ -8534,7 +8531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>1600014</v>
       </c>
@@ -8578,7 +8575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>1600015</v>
       </c>
@@ -8622,7 +8619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>1600016</v>
       </c>
@@ -8666,7 +8663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>1600017</v>
       </c>
@@ -8710,7 +8707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>1600018</v>
       </c>
@@ -8754,7 +8751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>1600019</v>
       </c>
@@ -8798,7 +8795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>1600020</v>
       </c>
@@ -8842,7 +8839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>1600021</v>
       </c>
@@ -8886,7 +8883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>1600022</v>
       </c>
@@ -8930,7 +8927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>1600023</v>
       </c>
@@ -8974,7 +8971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>1600024</v>
       </c>
@@ -9018,7 +9015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>1600025</v>
       </c>
@@ -9062,7 +9059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>1600026</v>
       </c>
@@ -9106,7 +9103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>1600027</v>
       </c>
@@ -9150,7 +9147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
         <v>1600028</v>
       </c>
@@ -9194,7 +9191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <v>1600029</v>
       </c>
@@ -9238,7 +9235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
         <v>1600030</v>
       </c>
@@ -9282,7 +9279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <v>1600031</v>
       </c>
@@ -9326,7 +9323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
         <v>1600032</v>
       </c>
@@ -9370,7 +9367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
         <v>1600033</v>
       </c>
@@ -9414,7 +9411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
         <v>1600034</v>
       </c>
@@ -9458,7 +9455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
         <v>1600035</v>
       </c>
@@ -9502,7 +9499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
         <v>1600036</v>
       </c>
@@ -9546,7 +9543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
         <v>1600037</v>
       </c>
@@ -9590,7 +9587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
         <v>1600038</v>
       </c>
@@ -9634,7 +9631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
         <v>1600039</v>
       </c>
@@ -9678,7 +9675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
         <v>1600040</v>
       </c>
@@ -9735,17 +9732,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>32</v>
       </c>
@@ -9765,7 +9762,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -9785,7 +9782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -9805,7 +9802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -9825,7 +9822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -9845,7 +9842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -9865,7 +9862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -9885,7 +9882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -9905,7 +9902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -9925,7 +9922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -9945,7 +9942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -9965,7 +9962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -9985,7 +9982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -10005,7 +10002,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -10025,7 +10022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -10045,7 +10042,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -10065,7 +10062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -10085,7 +10082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -10105,7 +10102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -10125,7 +10122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -10145,7 +10142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -10165,7 +10162,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -10185,7 +10182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -10205,7 +10202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -10225,7 +10222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -10245,7 +10242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -10265,7 +10262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -10285,7 +10282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -10305,7 +10302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -10325,7 +10322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -10357,23 +10354,23 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>48</v>
       </c>
@@ -10411,7 +10408,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -10449,7 +10446,7 @@
         <v>4389</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -10487,7 +10484,7 @@
         <v>1707</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -10525,7 +10522,7 @@
         <v>3107</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -10563,7 +10560,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -10583,7 +10580,7 @@
         <v>402</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="H6" t="s">
         <v>717</v>
@@ -10601,7 +10598,7 @@
         <v>3389</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -10639,7 +10636,7 @@
         <v>4472</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -10677,7 +10674,7 @@
         <v>3957</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -10715,7 +10712,7 @@
         <v>3259</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -10735,7 +10732,7 @@
         <v>401</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="H10" t="s">
         <v>693</v>
@@ -10753,7 +10750,7 @@
         <v>3283</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -10773,7 +10770,7 @@
         <v>401</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="H11" t="s">
         <v>694</v>
@@ -10791,7 +10788,7 @@
         <v>2627</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -10811,7 +10808,7 @@
         <v>402</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="H12" t="s">
         <v>696</v>
@@ -10829,7 +10826,7 @@
         <v>1283</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -10867,7 +10864,7 @@
         <v>1888</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -10905,7 +10902,7 @@
         <v>4183</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -10925,7 +10922,7 @@
         <v>401</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="H15" t="s">
         <v>698</v>
@@ -10943,7 +10940,7 @@
         <v>4430</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -10981,7 +10978,7 @@
         <v>4598</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -11019,7 +11016,7 @@
         <v>3639</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -11070,16 +11067,16 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>57</v>
       </c>
@@ -11096,7 +11093,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -11113,7 +11110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -11130,7 +11127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -11147,7 +11144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -11164,7 +11161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -11181,7 +11178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -11198,7 +11195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -11215,7 +11212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -11232,7 +11229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -11249,7 +11246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -11266,7 +11263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -11283,7 +11280,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -11300,7 +11297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -11317,7 +11314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -11334,7 +11331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -11351,7 +11348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -11368,7 +11365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -11385,7 +11382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -11402,7 +11399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -11419,7 +11416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -11436,7 +11433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -11453,7 +11450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -11470,7 +11467,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -11487,7 +11484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -11504,7 +11501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -11521,7 +11518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -11538,7 +11535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -11555,7 +11552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -11572,7 +11569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -11589,7 +11586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -11606,7 +11603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -11623,7 +11620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -11640,7 +11637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -11657,7 +11654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -11674,7 +11671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -11691,7 +11688,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -11708,7 +11705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -11725,7 +11722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -11742,7 +11739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -11759,7 +11756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -11776,7 +11773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -11793,7 +11790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -11822,14 +11819,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -11840,7 +11837,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>11</v>
       </c>
@@ -11851,7 +11848,7 @@
         <v>43477.417071759257</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>11</v>
       </c>
@@ -11862,7 +11859,7 @@
         <v>43477.418182870373</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>11</v>
       </c>
@@ -11873,7 +11870,7 @@
         <v>43477.420694444445</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>11</v>
       </c>
@@ -11884,7 +11881,7 @@
         <v>43477.459050925929</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>11</v>
       </c>
@@ -11895,7 +11892,7 @@
         <v>43477.460497685184</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>11</v>
       </c>
@@ -11906,7 +11903,7 @@
         <v>43477.461770833332</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>11</v>
       </c>
@@ -11917,7 +11914,7 @@
         <v>43478.544317129628</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>11</v>
       </c>
@@ -11928,7 +11925,7 @@
         <v>43478.552187499998</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>11</v>
       </c>
@@ -11939,7 +11936,7 @@
         <v>43478.594386574077</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>11</v>
       </c>
@@ -11950,7 +11947,7 @@
         <v>43478.596458333333</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -11961,7 +11958,7 @@
         <v>43478.628842592596</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -11972,7 +11969,7 @@
         <v>43478.636087962965</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -11983,7 +11980,7 @@
         <v>43482.754201388889</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>11</v>
       </c>
@@ -11994,7 +11991,7 @@
         <v>43484.417743055557</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>11</v>
       </c>
@@ -12005,7 +12002,7 @@
         <v>43484.422546296293</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>11</v>
       </c>
@@ -12016,7 +12013,7 @@
         <v>43484.42291666667</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>12</v>
       </c>
@@ -12027,7 +12024,7 @@
         <v>43484.426423611112</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>12</v>
       </c>
@@ -12038,7 +12035,7 @@
         <v>43484.431192129632</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>12</v>
       </c>
@@ -12049,7 +12046,7 @@
         <v>43484.43241898148</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>12</v>
       </c>
@@ -12060,7 +12057,7 @@
         <v>43484.434259259258</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>12</v>
       </c>
@@ -12071,7 +12068,7 @@
         <v>43484.460717592592</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>12</v>
       </c>
@@ -12082,7 +12079,7 @@
         <v>43484.462060185186</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>12</v>
       </c>
@@ -12093,7 +12090,7 @@
         <v>43484.462858796294</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>12</v>
       </c>
@@ -12104,7 +12101,7 @@
         <v>43484.466307870367</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>12</v>
       </c>
@@ -12115,7 +12112,7 @@
         <v>43484.470775462964</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>12</v>
       </c>
@@ -12126,7 +12123,7 @@
         <v>43484.475682870368</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>12</v>
       </c>
@@ -12137,7 +12134,7 @@
         <v>43484.481122685182</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>12</v>
       </c>
@@ -12148,7 +12145,7 @@
         <v>43484.545046296298</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>14</v>
       </c>
@@ -12159,7 +12156,7 @@
         <v>43484.547118055554</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>14</v>
       </c>
@@ -12170,7 +12167,7 @@
         <v>43484.548460648148</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>14</v>
       </c>
@@ -12181,7 +12178,7 @@
         <v>43484.551631944443</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>14</v>
       </c>
@@ -12192,7 +12189,7 @@
         <v>43484.552407407406</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>14</v>
       </c>
@@ -12203,7 +12200,7 @@
         <v>43484.557893518519</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>14</v>
       </c>
@@ -12214,7 +12211,7 @@
         <v>43484.561956018515</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>11</v>
       </c>
@@ -12225,7 +12222,7 @@
         <v>43485.547951388886</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>11</v>
       </c>
@@ -12236,7 +12233,7 @@
         <v>43485.553495370368</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>12</v>
       </c>
@@ -12247,7 +12244,7 @@
         <v>43485.5546875</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>12</v>
       </c>
@@ -12258,7 +12255,7 @@
         <v>43485.557916666665</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>12</v>
       </c>
@@ -12269,7 +12266,7 @@
         <v>43485.560243055559</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>12</v>
       </c>
@@ -12280,7 +12277,7 @@
         <v>43485.56453703704</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>12</v>
       </c>
@@ -12291,7 +12288,7 @@
         <v>43485.565057870372</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>12</v>
       </c>
@@ -12302,7 +12299,7 @@
         <v>43485.587997685187</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>12</v>
       </c>
@@ -12313,7 +12310,7 @@
         <v>43485.590127314812</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>12</v>
       </c>
@@ -12324,7 +12321,7 @@
         <v>43485.59578703704</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>12</v>
       </c>
@@ -12335,7 +12332,7 @@
         <v>43485.601377314815</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>12</v>
       </c>
@@ -12346,7 +12343,7 @@
         <v>43485.60664351852</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>12</v>
       </c>
@@ -12357,7 +12354,7 @@
         <v>43485.609884259262</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>14</v>
       </c>
@@ -12368,7 +12365,7 @@
         <v>43485.614710648151</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>14</v>
       </c>
@@ -12379,7 +12376,7 @@
         <v>43485.61791666667</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>14</v>
       </c>
@@ -12390,7 +12387,7 @@
         <v>43485.626550925925</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>14</v>
       </c>
@@ -12401,7 +12398,7 @@
         <v>43485.629050925927</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>14</v>
       </c>
@@ -12412,7 +12409,7 @@
         <v>43485.63449074074</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>14</v>
       </c>
@@ -12423,7 +12420,7 @@
         <v>43485.638425925928</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>16</v>
       </c>
@@ -12434,7 +12431,7 @@
         <v>43485.64303240741</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>16</v>
       </c>
@@ -12445,7 +12442,7 @@
         <v>43485.647696759261</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>16</v>
       </c>
@@ -12456,7 +12453,7 @@
         <v>43485.651388888888</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>16</v>
       </c>
@@ -12467,7 +12464,7 @@
         <v>43485.653807870367</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>16</v>
       </c>
@@ -12478,7 +12475,7 @@
         <v>43485.659224537034</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>16</v>
       </c>
@@ -12489,7 +12486,7 @@
         <v>43486.750844907408</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>14</v>
       </c>
@@ -12500,7 +12497,7 @@
         <v>43486.767256944448</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>11</v>
       </c>
@@ -12512,7 +12509,7 @@
       </c>
       <c r="E62" s="1"/>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>14</v>
       </c>
@@ -12523,7 +12520,7 @@
         <v>43488.751446759263</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>12</v>
       </c>
@@ -12534,7 +12531,7 @@
         <v>43489.75099537037</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>12</v>
       </c>
@@ -12545,7 +12542,7 @@
         <v>43490.792407407411</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>12</v>
       </c>
@@ -12556,7 +12553,7 @@
         <v>43491.416898148149</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>11</v>
       </c>
@@ -12567,7 +12564,7 @@
         <v>43491.423159722224</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>12</v>
       </c>
@@ -12578,7 +12575,7 @@
         <v>43491.428483796299</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>12</v>
       </c>
@@ -12589,7 +12586,7 @@
         <v>43491.433634259258</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>12</v>
       </c>
@@ -12600,7 +12597,7 @@
         <v>43491.443773148145</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>12</v>
       </c>
@@ -12611,7 +12608,7 @@
         <v>43491.460578703707</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>12</v>
       </c>
@@ -12622,7 +12619,7 @@
         <v>43491.466435185182</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>12</v>
       </c>
@@ -12633,7 +12630,7 @@
         <v>43491.466863425929</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>12</v>
       </c>
@@ -12644,7 +12641,7 @@
         <v>43491.469293981485</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>12</v>
       </c>
@@ -12655,7 +12652,7 @@
         <v>43491.471574074072</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>14</v>
       </c>
@@ -12666,7 +12663,7 @@
         <v>43491.472384259258</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>14</v>
       </c>
@@ -12677,7 +12674,7 @@
         <v>43491.547118055554</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>14</v>
       </c>
@@ -12688,7 +12685,7 @@
         <v>43491.548460648148</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>14</v>
       </c>
@@ -12699,7 +12696,7 @@
         <v>43491.553715277776</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>14</v>
       </c>
@@ -12710,7 +12707,7 @@
         <v>43491.558009259257</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>16</v>
       </c>
@@ -12721,7 +12718,7 @@
         <v>43491.562002314815</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>16</v>
       </c>
@@ -12732,7 +12729,7 @@
         <v>43491.565486111111</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>16</v>
       </c>
@@ -12743,7 +12740,7 @@
         <v>43491.56690972222</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>16</v>
       </c>
@@ -12754,7 +12751,7 @@
         <v>43491.569699074076</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>11</v>
       </c>
@@ -12765,7 +12762,7 @@
         <v>43492.546018518522</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>12</v>
       </c>
@@ -12776,7 +12773,7 @@
         <v>43492.549930555557</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>12</v>
       </c>
@@ -12787,7 +12784,7 @@
         <v>43492.552430555559</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>12</v>
       </c>
@@ -12798,7 +12795,7 @@
         <v>43492.555543981478</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>12</v>
       </c>
@@ -12809,7 +12806,7 @@
         <v>43492.556539351855</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>12</v>
       </c>
@@ -12820,7 +12817,7 @@
         <v>43492.586678240739</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>12</v>
       </c>
@@ -12831,7 +12828,7 @@
         <v>43492.587060185186</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>12</v>
       </c>
@@ -12842,7 +12839,7 @@
         <v>43492.591527777775</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>12</v>
       </c>
@@ -12853,7 +12850,7 @@
         <v>43492.595983796295</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>14</v>
       </c>
@@ -12864,7 +12861,7 @@
         <v>43492.597268518519</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>14</v>
       </c>
@@ -12875,7 +12872,7 @@
         <v>43492.630497685182</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>16</v>
       </c>
@@ -12886,7 +12883,7 @@
         <v>43492.634293981479</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>16</v>
       </c>
@@ -12897,7 +12894,7 @@
         <v>43492.636354166665</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>16</v>
       </c>
@@ -12908,7 +12905,7 @@
         <v>43492.643391203703</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>16</v>
       </c>
@@ -12919,7 +12916,7 @@
         <v>43492.644317129627</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>16</v>
       </c>
@@ -12930,7 +12927,7 @@
         <v>43493.731493055559</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>16</v>
       </c>
@@ -12941,7 +12938,7 @@
         <v>43493.735914351855</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>16</v>
       </c>
@@ -12952,7 +12949,7 @@
         <v>43493.739560185182</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>14</v>
       </c>
@@ -12963,7 +12960,7 @@
         <v>43495.751099537039</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>12</v>
       </c>
@@ -12974,7 +12971,7 @@
         <v>43495.761493055557</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>12</v>
       </c>
@@ -12985,7 +12982,7 @@
         <v>43496.751493055555</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>12</v>
       </c>
@@ -12996,7 +12993,7 @@
         <v>43497.796087962961</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>12</v>
       </c>
@@ -13007,7 +13004,7 @@
         <v>43497.797615740739</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>11</v>
       </c>
@@ -13018,7 +13015,7 @@
         <v>43498.418240740742</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>12</v>
       </c>
@@ -13029,7 +13026,7 @@
         <v>43498.423067129632</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>11</v>
       </c>
@@ -13040,7 +13037,7 @@
         <v>43498.427372685182</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>12</v>
       </c>
@@ -13051,7 +13048,7 @@
         <v>43498.462719907409</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>12</v>
       </c>
@@ -13062,7 +13059,7 @@
         <v>43498.465057870373</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>12</v>
       </c>
@@ -13073,7 +13070,7 @@
         <v>43498.467199074075</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>12</v>
       </c>
@@ -13084,7 +13081,7 @@
         <v>43498.545405092591</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>14</v>
       </c>
@@ -13095,7 +13092,7 @@
         <v>43498.550034722219</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>14</v>
       </c>
@@ -13106,7 +13103,7 @@
         <v>43498.550763888888</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>16</v>
       </c>
@@ -13117,7 +13114,7 @@
         <v>43498.556620370371</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>16</v>
       </c>
@@ -13128,7 +13125,7 @@
         <v>43498.557615740741</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>14</v>
       </c>
@@ -13139,7 +13136,7 @@
         <v>43499.543877314813</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>12</v>
       </c>
@@ -13150,7 +13147,7 @@
         <v>43499.544965277775</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>12</v>
       </c>
@@ -13161,7 +13158,7 @@
         <v>43499.546701388892</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>12</v>
       </c>
@@ -13172,7 +13169,7 @@
         <v>43499.586701388886</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>12</v>
       </c>
@@ -13183,7 +13180,7 @@
         <v>43499.587500000001</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>14</v>
       </c>
@@ -13194,7 +13191,7 @@
         <v>43499.590636574074</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>14</v>
       </c>
@@ -13205,7 +13202,7 @@
         <v>43499.632280092592</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>16</v>
       </c>
@@ -13216,7 +13213,7 @@
         <v>43499.635312500002</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>16</v>
       </c>
@@ -13240,23 +13237,23 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>59</v>
       </c>
@@ -13294,7 +13291,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -13317,7 +13314,7 @@
         <v>4389</v>
       </c>
       <c r="H2" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="I2" t="s">
         <v>253</v>
@@ -13332,7 +13329,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -13355,10 +13352,10 @@
         <v>1707</v>
       </c>
       <c r="H3" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="I3" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="J3" t="s">
         <v>683</v>
@@ -13370,7 +13367,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -13393,7 +13390,7 @@
         <v>3107</v>
       </c>
       <c r="H4" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="I4" t="s">
         <v>687</v>
@@ -13408,7 +13405,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -13431,10 +13428,10 @@
         <v>1042</v>
       </c>
       <c r="H5" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="I5" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="J5" t="s">
         <v>683</v>
@@ -13446,12 +13443,12 @@
         <v>705</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="C6">
         <v>16</v>
@@ -13469,10 +13466,10 @@
         <v>3389</v>
       </c>
       <c r="H6" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="I6" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="J6" t="s">
         <v>551</v>
@@ -13484,7 +13481,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -13507,10 +13504,10 @@
         <v>4472</v>
       </c>
       <c r="H7" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="I7" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="J7" t="s">
         <v>683</v>
@@ -13522,7 +13519,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -13545,7 +13542,7 @@
         <v>3957</v>
       </c>
       <c r="H8" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="I8" t="s">
         <v>691</v>
@@ -13560,7 +13557,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -13583,7 +13580,7 @@
         <v>3259</v>
       </c>
       <c r="H9" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="I9" t="s">
         <v>692</v>
@@ -13598,12 +13595,12 @@
         <v>708</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="C10">
         <v>12</v>
@@ -13621,10 +13618,10 @@
         <v>3283</v>
       </c>
       <c r="H10" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="I10" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="J10" t="s">
         <v>684</v>
@@ -13636,12 +13633,12 @@
         <v>709</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="C11">
         <v>16</v>
@@ -13659,10 +13656,10 @@
         <v>2627</v>
       </c>
       <c r="H11" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="I11" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="J11" t="s">
         <v>684</v>
@@ -13674,12 +13671,12 @@
         <v>710</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="C12">
         <v>14</v>
@@ -13697,10 +13694,10 @@
         <v>1283</v>
       </c>
       <c r="H12" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="I12" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="J12" t="s">
         <v>685</v>
@@ -13712,7 +13709,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -13735,7 +13732,7 @@
         <v>1888</v>
       </c>
       <c r="H13" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="I13" t="s">
         <v>695</v>
@@ -13750,7 +13747,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -13773,10 +13770,10 @@
         <v>4183</v>
       </c>
       <c r="H14" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="I14" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="J14" t="s">
         <v>683</v>
@@ -13788,12 +13785,12 @@
         <v>683</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="C15">
         <v>12</v>
@@ -13811,10 +13808,10 @@
         <v>4430</v>
       </c>
       <c r="H15" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="I15" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="J15" t="s">
         <v>686</v>
@@ -13826,7 +13823,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -13849,10 +13846,10 @@
         <v>4598</v>
       </c>
       <c r="H16" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="I16" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="J16" t="s">
         <v>683</v>
@@ -13864,7 +13861,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -13887,10 +13884,10 @@
         <v>3639</v>
       </c>
       <c r="H17" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="I17" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="J17" t="s">
         <v>551</v>
@@ -13902,7 +13899,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -13925,7 +13922,7 @@
         <v>2937</v>
       </c>
       <c r="H18" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="I18" t="s">
         <v>701</v>

--- a/Jeu d'essai.xlsx
+++ b/Jeu d'essai.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="134" documentId="114_{8D9B191C-2013-4270-87A9-3FB899E57325}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{4DE29F17-CD87-41D4-A643-08A4CC30A177}"/>
+  <xr:revisionPtr revIDLastSave="145" documentId="114_{8D9B191C-2013-4270-87A9-3FB899E57325}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{C7C63C9A-166B-40C8-9094-0DB7A69481D7}"/>
   <bookViews>
-    <workbookView xWindow="1905" yWindow="1905" windowWidth="21600" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PPVendeurs" sheetId="13" r:id="rId1"/>
@@ -2256,9 +2256,6 @@
     <t>1100013.JPG</t>
   </si>
   <si>
-    <t>ppuces@gmail.com</t>
-  </si>
-  <si>
     <t>203.99</t>
   </si>
   <si>
@@ -2442,25 +2439,28 @@
     <t>K0H1Y0</t>
   </si>
   <si>
-    <t>vendeur11@outlook.com</t>
-  </si>
-  <si>
-    <t>vendeur12@outlook.com</t>
-  </si>
-  <si>
-    <t>vendeur13@outlook.com</t>
-  </si>
-  <si>
-    <t>vendeur14@outlook.com</t>
-  </si>
-  <si>
-    <t>vendeur15@outlook.com</t>
-  </si>
-  <si>
-    <t>vendeur16@outlook.com</t>
-  </si>
-  <si>
-    <t>vendeur17@outlook.com</t>
+    <t>vendeur11@gmail.com</t>
+  </si>
+  <si>
+    <t>vendeur12@gmail.com</t>
+  </si>
+  <si>
+    <t>vendeur13@gmail.com</t>
+  </si>
+  <si>
+    <t>vendeur14@gmail.com</t>
+  </si>
+  <si>
+    <t>vendeur15@gmail.com</t>
+  </si>
+  <si>
+    <t>vendeur16@gmail.com</t>
+  </si>
+  <si>
+    <t>vendeur17@gmail.com</t>
+  </si>
+  <si>
+    <t>gestionnaire1@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -2798,30 +2798,30 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.88671875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="6" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="6.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -2886,7 +2886,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>11</v>
       </c>
@@ -2921,10 +2921,10 @@
         <v>0</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="M2" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="N2">
         <v>500</v>
@@ -2951,7 +2951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>12</v>
       </c>
@@ -2986,10 +2986,10 @@
         <v>0</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="M3" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="N3">
         <v>500</v>
@@ -3016,7 +3016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>13</v>
       </c>
@@ -3051,10 +3051,10 @@
         <v>4505658849</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="M4" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="N4">
         <v>75</v>
@@ -3081,7 +3081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>14</v>
       </c>
@@ -3104,7 +3104,7 @@
         <v>273</v>
       </c>
       <c r="H5" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="I5" t="s">
         <v>252</v>
@@ -3116,10 +3116,10 @@
         <v>0</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="M5" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="N5">
         <v>100</v>
@@ -3146,7 +3146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>15</v>
       </c>
@@ -3181,10 +3181,10 @@
         <v>5149938373</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="M6" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="N6">
         <v>30</v>
@@ -3211,7 +3211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>16</v>
       </c>
@@ -3246,10 +3246,10 @@
         <v>0</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="M7" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="N7">
         <v>40</v>
@@ -3276,7 +3276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>17</v>
       </c>
@@ -3311,10 +3311,10 @@
         <v>0</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="M8" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="N8">
         <v>50</v>
@@ -3354,14 +3354,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>67</v>
       </c>
@@ -3372,7 +3372,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>301</v>
       </c>
@@ -3383,7 +3383,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>302</v>
       </c>
@@ -3394,7 +3394,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>303</v>
       </c>
@@ -3405,7 +3405,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>304</v>
       </c>
@@ -3428,13 +3428,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>66</v>
       </c>
@@ -3442,7 +3442,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>401</v>
       </c>
@@ -3450,7 +3450,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>402</v>
       </c>
@@ -3458,7 +3458,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>403</v>
       </c>
@@ -3478,14 +3478,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>66</v>
       </c>
@@ -3496,7 +3496,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>401</v>
       </c>
@@ -3507,7 +3507,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>401</v>
       </c>
@@ -3515,10 +3515,10 @@
         <v>302</v>
       </c>
       <c r="C3" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>401</v>
       </c>
@@ -3529,7 +3529,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>401</v>
       </c>
@@ -3540,7 +3540,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>402</v>
       </c>
@@ -3551,7 +3551,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>402</v>
       </c>
@@ -3559,10 +3559,10 @@
         <v>302</v>
       </c>
       <c r="C7" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>402</v>
       </c>
@@ -3573,7 +3573,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>402</v>
       </c>
@@ -3584,7 +3584,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>403</v>
       </c>
@@ -3592,10 +3592,10 @@
         <v>301</v>
       </c>
       <c r="C10" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>403</v>
       </c>
@@ -3606,7 +3606,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>403</v>
       </c>
@@ -3617,7 +3617,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>403</v>
       </c>
@@ -3640,14 +3640,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>75</v>
       </c>
@@ -3658,7 +3658,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>101</v>
       </c>
@@ -3669,7 +3669,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>102</v>
       </c>
@@ -3680,7 +3680,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>103</v>
       </c>
@@ -3691,7 +3691,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>104</v>
       </c>
@@ -3714,14 +3714,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>69</v>
       </c>
@@ -3732,7 +3732,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>201</v>
       </c>
@@ -3743,7 +3743,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>202</v>
       </c>
@@ -3754,7 +3754,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>203</v>
       </c>
@@ -3777,14 +3777,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>102</v>
       </c>
@@ -3795,15 +3795,15 @@
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>720</v>
+        <v>788</v>
       </c>
       <c r="C2" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
   </sheetData>
@@ -3818,26 +3818,26 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.44140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="11" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="15.44140625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="14" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="22.88671875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>33</v>
       </c>
@@ -3890,15 +3890,15 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>10001</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="C2" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="D2" t="s">
         <v>292</v>
@@ -3916,7 +3916,7 @@
         <v>250</v>
       </c>
       <c r="I2" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="J2" t="s">
         <v>252</v>
@@ -3943,15 +3943,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>10002</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="C3" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="D3" t="s">
         <v>296</v>
@@ -3996,15 +3996,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>10003</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C4" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="D4" t="s">
         <v>0</v>
@@ -4049,15 +4049,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>10004</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="C5" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="D5" t="s">
         <v>275</v>
@@ -4102,15 +4102,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>10005</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="C6" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="D6" t="s">
         <v>0</v>
@@ -4155,15 +4155,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>10006</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="C7" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="D7" t="s">
         <v>0</v>
@@ -4208,15 +4208,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>10007</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="C8" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="D8" t="s">
         <v>0</v>
@@ -4261,15 +4261,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>10008</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="C9" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="D9" t="s">
         <v>304</v>
@@ -4314,15 +4314,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>10009</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="C10" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="D10" t="s">
         <v>0</v>
@@ -4367,15 +4367,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10010</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="C11" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="D11" t="s">
         <v>0</v>
@@ -4420,15 +4420,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10011</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="C12" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="D12" t="s">
         <v>0</v>
@@ -4473,15 +4473,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>10012</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="C13" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="D13" t="s">
         <v>0</v>
@@ -4526,15 +4526,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>10013</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="C14" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="D14" t="s">
         <v>0</v>
@@ -4579,15 +4579,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>10014</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="C15" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="D15" t="s">
         <v>307</v>
@@ -4632,15 +4632,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>10015</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C16" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="D16" t="s">
         <v>0</v>
@@ -4685,15 +4685,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>10016</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="C17" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="D17" t="s">
         <v>0</v>
@@ -4738,15 +4738,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>10017</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="C18" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="D18" t="s">
         <v>0</v>
@@ -4791,15 +4791,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>10018</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="C19" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="D19" t="s">
         <v>310</v>
@@ -4844,15 +4844,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>10019</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="C20" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="D20" t="s">
         <v>315</v>
@@ -4897,15 +4897,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>10020</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="C21" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="D21" t="s">
         <v>320</v>
@@ -4962,14 +4962,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="66.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="66.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -4980,7 +4980,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>501</v>
       </c>
@@ -4991,7 +4991,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>502</v>
       </c>
@@ -5002,7 +5002,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>503</v>
       </c>
@@ -5013,7 +5013,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>504</v>
       </c>
@@ -5024,7 +5024,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>505</v>
       </c>
@@ -5035,7 +5035,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>506</v>
       </c>
@@ -5046,7 +5046,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>507</v>
       </c>
@@ -5057,7 +5057,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>508</v>
       </c>
@@ -5080,26 +5080,26 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="47.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="255.7109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="10.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="47.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="255.6640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" style="2" customWidth="1"/>
     <col min="7" max="7" width="13" style="2" customWidth="1"/>
-    <col min="8" max="8" width="13.28515625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="12.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.85546875" style="2" customWidth="1"/>
-    <col min="13" max="13" width="15.42578125" style="2" customWidth="1"/>
-    <col min="14" max="14" width="8.85546875" style="2" customWidth="1"/>
-    <col min="15" max="16384" width="8.7109375" style="2"/>
+    <col min="8" max="8" width="13.33203125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="12.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.88671875" style="2" customWidth="1"/>
+    <col min="13" max="13" width="15.44140625" style="2" customWidth="1"/>
+    <col min="14" max="14" width="8.88671875" style="2" customWidth="1"/>
+    <col min="15" max="16384" width="8.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -5143,7 +5143,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1100001</v>
       </c>
@@ -5187,7 +5187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>1100002</v>
       </c>
@@ -5231,7 +5231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>1100003</v>
       </c>
@@ -5275,7 +5275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>1100004</v>
       </c>
@@ -5319,7 +5319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>1100005</v>
       </c>
@@ -5363,7 +5363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>1100006</v>
       </c>
@@ -5407,7 +5407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>1100007</v>
       </c>
@@ -5451,7 +5451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>1100008</v>
       </c>
@@ -5495,7 +5495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>1100009</v>
       </c>
@@ -5539,7 +5539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>1100010</v>
       </c>
@@ -5583,7 +5583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>1100011</v>
       </c>
@@ -5627,7 +5627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>1100012</v>
       </c>
@@ -5671,7 +5671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>1100013</v>
       </c>
@@ -5682,7 +5682,7 @@
         <v>505</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>477</v>
@@ -5715,7 +5715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>1100014</v>
       </c>
@@ -5759,7 +5759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>1100015</v>
       </c>
@@ -5803,7 +5803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>1100016</v>
       </c>
@@ -5847,7 +5847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>1100017</v>
       </c>
@@ -5891,7 +5891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>1100018</v>
       </c>
@@ -5935,7 +5935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>1100019</v>
       </c>
@@ -5979,7 +5979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>1100020</v>
       </c>
@@ -6023,7 +6023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>1100021</v>
       </c>
@@ -6067,7 +6067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>1100022</v>
       </c>
@@ -6111,7 +6111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>1100023</v>
       </c>
@@ -6122,7 +6122,7 @@
         <v>506</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>545</v>
@@ -6155,7 +6155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>1100024</v>
       </c>
@@ -6199,7 +6199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>1100025</v>
       </c>
@@ -6243,7 +6243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>1100026</v>
       </c>
@@ -6287,7 +6287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>1100027</v>
       </c>
@@ -6331,7 +6331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>1100028</v>
       </c>
@@ -6375,7 +6375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>1100029</v>
       </c>
@@ -6419,7 +6419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>1100030</v>
       </c>
@@ -6463,7 +6463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>1100031</v>
       </c>
@@ -6507,7 +6507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>1100032</v>
       </c>
@@ -6551,7 +6551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>1200001</v>
       </c>
@@ -6595,7 +6595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>1200002</v>
       </c>
@@ -6639,7 +6639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>1200003</v>
       </c>
@@ -6683,7 +6683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>1200004</v>
       </c>
@@ -6727,7 +6727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>1200005</v>
       </c>
@@ -6771,7 +6771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>1200006</v>
       </c>
@@ -6815,7 +6815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>1200007</v>
       </c>
@@ -6859,7 +6859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>1200008</v>
       </c>
@@ -6903,7 +6903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>1200009</v>
       </c>
@@ -6947,7 +6947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>1200010</v>
       </c>
@@ -6991,7 +6991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>1200011</v>
       </c>
@@ -7035,7 +7035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>1200012</v>
       </c>
@@ -7079,7 +7079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>1200013</v>
       </c>
@@ -7123,7 +7123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>1400001</v>
       </c>
@@ -7167,7 +7167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>1400002</v>
       </c>
@@ -7211,7 +7211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <v>1400003</v>
       </c>
@@ -7255,7 +7255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <v>1400004</v>
       </c>
@@ -7299,7 +7299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>1400005</v>
       </c>
@@ -7343,7 +7343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <v>1400006</v>
       </c>
@@ -7387,7 +7387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <v>1400007</v>
       </c>
@@ -7431,7 +7431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <v>1400008</v>
       </c>
@@ -7475,7 +7475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <v>1400009</v>
       </c>
@@ -7519,7 +7519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <v>1400010</v>
       </c>
@@ -7563,7 +7563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <v>1400011</v>
       </c>
@@ -7607,7 +7607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <v>1400012</v>
       </c>
@@ -7651,7 +7651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <v>1400013</v>
       </c>
@@ -7695,7 +7695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <v>1400014</v>
       </c>
@@ -7739,7 +7739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <v>1400015</v>
       </c>
@@ -7783,7 +7783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <v>1400016</v>
       </c>
@@ -7827,7 +7827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <v>1400017</v>
       </c>
@@ -7871,7 +7871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <v>1400018</v>
       </c>
@@ -7915,7 +7915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
         <v>1400019</v>
       </c>
@@ -7959,7 +7959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <v>1600001</v>
       </c>
@@ -8003,7 +8003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
         <v>1600002</v>
       </c>
@@ -8047,7 +8047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
         <v>1600003</v>
       </c>
@@ -8091,7 +8091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
         <v>1600004</v>
       </c>
@@ -8135,7 +8135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
         <v>1600005</v>
       </c>
@@ -8179,7 +8179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
         <v>1600006</v>
       </c>
@@ -8223,7 +8223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
         <v>1600007</v>
       </c>
@@ -8267,7 +8267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
         <v>1600008</v>
       </c>
@@ -8311,7 +8311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
         <v>1600009</v>
       </c>
@@ -8355,7 +8355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
         <v>1600010</v>
       </c>
@@ -8399,7 +8399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
         <v>1600011</v>
       </c>
@@ -8443,7 +8443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
         <v>1600012</v>
       </c>
@@ -8487,7 +8487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
         <v>1600013</v>
       </c>
@@ -8531,7 +8531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
         <v>1600014</v>
       </c>
@@ -8575,7 +8575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
         <v>1600015</v>
       </c>
@@ -8619,7 +8619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
         <v>1600016</v>
       </c>
@@ -8663,7 +8663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
         <v>1600017</v>
       </c>
@@ -8707,7 +8707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
         <v>1600018</v>
       </c>
@@ -8751,7 +8751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
         <v>1600019</v>
       </c>
@@ -8795,7 +8795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
         <v>1600020</v>
       </c>
@@ -8839,7 +8839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
         <v>1600021</v>
       </c>
@@ -8883,7 +8883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
         <v>1600022</v>
       </c>
@@ -8927,7 +8927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
         <v>1600023</v>
       </c>
@@ -8971,7 +8971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
         <v>1600024</v>
       </c>
@@ -9015,7 +9015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
         <v>1600025</v>
       </c>
@@ -9059,7 +9059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
         <v>1600026</v>
       </c>
@@ -9103,7 +9103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
         <v>1600027</v>
       </c>
@@ -9147,7 +9147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A93" s="2">
         <v>1600028</v>
       </c>
@@ -9191,7 +9191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A94" s="2">
         <v>1600029</v>
       </c>
@@ -9235,7 +9235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A95" s="2">
         <v>1600030</v>
       </c>
@@ -9279,7 +9279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A96" s="2">
         <v>1600031</v>
       </c>
@@ -9323,7 +9323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A97" s="2">
         <v>1600032</v>
       </c>
@@ -9367,7 +9367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A98" s="2">
         <v>1600033</v>
       </c>
@@ -9411,7 +9411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A99" s="2">
         <v>1600034</v>
       </c>
@@ -9455,7 +9455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A100" s="2">
         <v>1600035</v>
       </c>
@@ -9499,7 +9499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A101" s="2">
         <v>1600036</v>
       </c>
@@ -9543,7 +9543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A102" s="2">
         <v>1600037</v>
       </c>
@@ -9587,7 +9587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A103" s="2">
         <v>1600038</v>
       </c>
@@ -9631,7 +9631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A104" s="2">
         <v>1600039</v>
       </c>
@@ -9675,7 +9675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A105" s="2">
         <v>1600040</v>
       </c>
@@ -9732,17 +9732,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>32</v>
       </c>
@@ -9762,7 +9762,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -9782,7 +9782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -9802,7 +9802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -9822,7 +9822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -9842,7 +9842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -9862,7 +9862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -9882,7 +9882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -9902,7 +9902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -9922,7 +9922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -9942,7 +9942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -9962,7 +9962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -9982,7 +9982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -10002,7 +10002,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -10022,7 +10022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -10042,7 +10042,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -10062,7 +10062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -10082,7 +10082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -10102,7 +10102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -10122,7 +10122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -10142,7 +10142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -10162,7 +10162,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -10182,7 +10182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -10202,7 +10202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -10222,7 +10222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -10242,7 +10242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -10262,7 +10262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -10282,7 +10282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -10302,7 +10302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -10322,7 +10322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -10354,23 +10354,23 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>48</v>
       </c>
@@ -10408,7 +10408,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -10446,7 +10446,7 @@
         <v>4389</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -10484,7 +10484,7 @@
         <v>1707</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -10522,7 +10522,7 @@
         <v>3107</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -10560,7 +10560,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -10580,7 +10580,7 @@
         <v>402</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="H6" t="s">
         <v>717</v>
@@ -10598,7 +10598,7 @@
         <v>3389</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -10636,7 +10636,7 @@
         <v>4472</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -10674,7 +10674,7 @@
         <v>3957</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -10712,7 +10712,7 @@
         <v>3259</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -10732,7 +10732,7 @@
         <v>401</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="H10" t="s">
         <v>693</v>
@@ -10750,7 +10750,7 @@
         <v>3283</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -10770,7 +10770,7 @@
         <v>401</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="H11" t="s">
         <v>694</v>
@@ -10788,7 +10788,7 @@
         <v>2627</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -10808,7 +10808,7 @@
         <v>402</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="H12" t="s">
         <v>696</v>
@@ -10826,7 +10826,7 @@
         <v>1283</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -10864,7 +10864,7 @@
         <v>1888</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -10902,7 +10902,7 @@
         <v>4183</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -10922,7 +10922,7 @@
         <v>401</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="H15" t="s">
         <v>698</v>
@@ -10940,7 +10940,7 @@
         <v>4430</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -10978,7 +10978,7 @@
         <v>4598</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -11016,7 +11016,7 @@
         <v>3639</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -11067,16 +11067,16 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>57</v>
       </c>
@@ -11093,7 +11093,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -11110,7 +11110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -11127,7 +11127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -11144,7 +11144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -11161,7 +11161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -11178,7 +11178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -11195,7 +11195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -11212,7 +11212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -11229,7 +11229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -11246,7 +11246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -11263,7 +11263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -11280,7 +11280,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -11297,7 +11297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -11314,7 +11314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -11331,7 +11331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -11348,7 +11348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -11365,7 +11365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -11382,7 +11382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -11399,7 +11399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -11416,7 +11416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -11433,7 +11433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -11450,7 +11450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -11467,7 +11467,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -11484,7 +11484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -11501,7 +11501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -11518,7 +11518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -11535,7 +11535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -11552,7 +11552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -11569,7 +11569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -11586,7 +11586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -11603,7 +11603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -11620,7 +11620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -11637,7 +11637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -11654,7 +11654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -11671,7 +11671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -11688,7 +11688,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -11705,7 +11705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -11722,7 +11722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -11739,7 +11739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -11756,7 +11756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -11773,7 +11773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -11790,7 +11790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -11819,14 +11819,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -11837,7 +11837,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>11</v>
       </c>
@@ -11848,7 +11848,7 @@
         <v>43477.417071759257</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>11</v>
       </c>
@@ -11859,7 +11859,7 @@
         <v>43477.418182870373</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>11</v>
       </c>
@@ -11870,7 +11870,7 @@
         <v>43477.420694444445</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>11</v>
       </c>
@@ -11881,7 +11881,7 @@
         <v>43477.459050925929</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>11</v>
       </c>
@@ -11892,7 +11892,7 @@
         <v>43477.460497685184</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>11</v>
       </c>
@@ -11903,7 +11903,7 @@
         <v>43477.461770833332</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>11</v>
       </c>
@@ -11914,7 +11914,7 @@
         <v>43478.544317129628</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>11</v>
       </c>
@@ -11925,7 +11925,7 @@
         <v>43478.552187499998</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>11</v>
       </c>
@@ -11936,7 +11936,7 @@
         <v>43478.594386574077</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>11</v>
       </c>
@@ -11947,7 +11947,7 @@
         <v>43478.596458333333</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -11958,7 +11958,7 @@
         <v>43478.628842592596</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
@@ -11969,7 +11969,7 @@
         <v>43478.636087962965</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -11980,7 +11980,7 @@
         <v>43482.754201388889</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>11</v>
       </c>
@@ -11991,7 +11991,7 @@
         <v>43484.417743055557</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>11</v>
       </c>
@@ -12002,7 +12002,7 @@
         <v>43484.422546296293</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>11</v>
       </c>
@@ -12013,7 +12013,7 @@
         <v>43484.42291666667</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>12</v>
       </c>
@@ -12024,7 +12024,7 @@
         <v>43484.426423611112</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>12</v>
       </c>
@@ -12035,7 +12035,7 @@
         <v>43484.431192129632</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>12</v>
       </c>
@@ -12046,7 +12046,7 @@
         <v>43484.43241898148</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>12</v>
       </c>
@@ -12057,7 +12057,7 @@
         <v>43484.434259259258</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>12</v>
       </c>
@@ -12068,7 +12068,7 @@
         <v>43484.460717592592</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>12</v>
       </c>
@@ -12079,7 +12079,7 @@
         <v>43484.462060185186</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>12</v>
       </c>
@@ -12090,7 +12090,7 @@
         <v>43484.462858796294</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>12</v>
       </c>
@@ -12101,7 +12101,7 @@
         <v>43484.466307870367</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>12</v>
       </c>
@@ -12112,7 +12112,7 @@
         <v>43484.470775462964</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>12</v>
       </c>
@@ -12123,7 +12123,7 @@
         <v>43484.475682870368</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>12</v>
       </c>
@@ -12134,7 +12134,7 @@
         <v>43484.481122685182</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>12</v>
       </c>
@@ -12145,7 +12145,7 @@
         <v>43484.545046296298</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>14</v>
       </c>
@@ -12156,7 +12156,7 @@
         <v>43484.547118055554</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>14</v>
       </c>
@@ -12167,7 +12167,7 @@
         <v>43484.548460648148</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>14</v>
       </c>
@@ -12178,7 +12178,7 @@
         <v>43484.551631944443</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>14</v>
       </c>
@@ -12189,7 +12189,7 @@
         <v>43484.552407407406</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>14</v>
       </c>
@@ -12200,7 +12200,7 @@
         <v>43484.557893518519</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>14</v>
       </c>
@@ -12211,7 +12211,7 @@
         <v>43484.561956018515</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>11</v>
       </c>
@@ -12222,7 +12222,7 @@
         <v>43485.547951388886</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>11</v>
       </c>
@@ -12233,7 +12233,7 @@
         <v>43485.553495370368</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>12</v>
       </c>
@@ -12244,7 +12244,7 @@
         <v>43485.5546875</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>12</v>
       </c>
@@ -12255,7 +12255,7 @@
         <v>43485.557916666665</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>12</v>
       </c>
@@ -12266,7 +12266,7 @@
         <v>43485.560243055559</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>12</v>
       </c>
@@ -12277,7 +12277,7 @@
         <v>43485.56453703704</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>12</v>
       </c>
@@ -12288,7 +12288,7 @@
         <v>43485.565057870372</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>12</v>
       </c>
@@ -12299,7 +12299,7 @@
         <v>43485.587997685187</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>12</v>
       </c>
@@ -12310,7 +12310,7 @@
         <v>43485.590127314812</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>12</v>
       </c>
@@ -12321,7 +12321,7 @@
         <v>43485.59578703704</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>12</v>
       </c>
@@ -12332,7 +12332,7 @@
         <v>43485.601377314815</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>12</v>
       </c>
@@ -12343,7 +12343,7 @@
         <v>43485.60664351852</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>12</v>
       </c>
@@ -12354,7 +12354,7 @@
         <v>43485.609884259262</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>14</v>
       </c>
@@ -12365,7 +12365,7 @@
         <v>43485.614710648151</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>14</v>
       </c>
@@ -12376,7 +12376,7 @@
         <v>43485.61791666667</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>14</v>
       </c>
@@ -12387,7 +12387,7 @@
         <v>43485.626550925925</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>14</v>
       </c>
@@ -12398,7 +12398,7 @@
         <v>43485.629050925927</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>14</v>
       </c>
@@ -12409,7 +12409,7 @@
         <v>43485.63449074074</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>14</v>
       </c>
@@ -12420,7 +12420,7 @@
         <v>43485.638425925928</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>16</v>
       </c>
@@ -12431,7 +12431,7 @@
         <v>43485.64303240741</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>16</v>
       </c>
@@ -12442,7 +12442,7 @@
         <v>43485.647696759261</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>16</v>
       </c>
@@ -12453,7 +12453,7 @@
         <v>43485.651388888888</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>16</v>
       </c>
@@ -12464,7 +12464,7 @@
         <v>43485.653807870367</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>16</v>
       </c>
@@ -12475,7 +12475,7 @@
         <v>43485.659224537034</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>16</v>
       </c>
@@ -12486,7 +12486,7 @@
         <v>43486.750844907408</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>14</v>
       </c>
@@ -12497,7 +12497,7 @@
         <v>43486.767256944448</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>11</v>
       </c>
@@ -12509,7 +12509,7 @@
       </c>
       <c r="E62" s="1"/>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>14</v>
       </c>
@@ -12520,7 +12520,7 @@
         <v>43488.751446759263</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>12</v>
       </c>
@@ -12531,7 +12531,7 @@
         <v>43489.75099537037</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>12</v>
       </c>
@@ -12542,7 +12542,7 @@
         <v>43490.792407407411</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>12</v>
       </c>
@@ -12553,7 +12553,7 @@
         <v>43491.416898148149</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>11</v>
       </c>
@@ -12564,7 +12564,7 @@
         <v>43491.423159722224</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>12</v>
       </c>
@@ -12575,7 +12575,7 @@
         <v>43491.428483796299</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>12</v>
       </c>
@@ -12586,7 +12586,7 @@
         <v>43491.433634259258</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>12</v>
       </c>
@@ -12597,7 +12597,7 @@
         <v>43491.443773148145</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>12</v>
       </c>
@@ -12608,7 +12608,7 @@
         <v>43491.460578703707</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>12</v>
       </c>
@@ -12619,7 +12619,7 @@
         <v>43491.466435185182</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>12</v>
       </c>
@@ -12630,7 +12630,7 @@
         <v>43491.466863425929</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>12</v>
       </c>
@@ -12641,7 +12641,7 @@
         <v>43491.469293981485</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>12</v>
       </c>
@@ -12652,7 +12652,7 @@
         <v>43491.471574074072</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>14</v>
       </c>
@@ -12663,7 +12663,7 @@
         <v>43491.472384259258</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>14</v>
       </c>
@@ -12674,7 +12674,7 @@
         <v>43491.547118055554</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>14</v>
       </c>
@@ -12685,7 +12685,7 @@
         <v>43491.548460648148</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>14</v>
       </c>
@@ -12696,7 +12696,7 @@
         <v>43491.553715277776</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>14</v>
       </c>
@@ -12707,7 +12707,7 @@
         <v>43491.558009259257</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>16</v>
       </c>
@@ -12718,7 +12718,7 @@
         <v>43491.562002314815</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>16</v>
       </c>
@@ -12729,7 +12729,7 @@
         <v>43491.565486111111</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>16</v>
       </c>
@@ -12740,7 +12740,7 @@
         <v>43491.56690972222</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>16</v>
       </c>
@@ -12751,7 +12751,7 @@
         <v>43491.569699074076</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>11</v>
       </c>
@@ -12762,7 +12762,7 @@
         <v>43492.546018518522</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>12</v>
       </c>
@@ -12773,7 +12773,7 @@
         <v>43492.549930555557</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>12</v>
       </c>
@@ -12784,7 +12784,7 @@
         <v>43492.552430555559</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>12</v>
       </c>
@@ -12795,7 +12795,7 @@
         <v>43492.555543981478</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>12</v>
       </c>
@@ -12806,7 +12806,7 @@
         <v>43492.556539351855</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>12</v>
       </c>
@@ -12817,7 +12817,7 @@
         <v>43492.586678240739</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>12</v>
       </c>
@@ -12828,7 +12828,7 @@
         <v>43492.587060185186</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>12</v>
       </c>
@@ -12839,7 +12839,7 @@
         <v>43492.591527777775</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>12</v>
       </c>
@@ -12850,7 +12850,7 @@
         <v>43492.595983796295</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>14</v>
       </c>
@@ -12861,7 +12861,7 @@
         <v>43492.597268518519</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>14</v>
       </c>
@@ -12872,7 +12872,7 @@
         <v>43492.630497685182</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>16</v>
       </c>
@@ -12883,7 +12883,7 @@
         <v>43492.634293981479</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>16</v>
       </c>
@@ -12894,7 +12894,7 @@
         <v>43492.636354166665</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>16</v>
       </c>
@@ -12905,7 +12905,7 @@
         <v>43492.643391203703</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>16</v>
       </c>
@@ -12916,7 +12916,7 @@
         <v>43492.644317129627</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>16</v>
       </c>
@@ -12927,7 +12927,7 @@
         <v>43493.731493055559</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>16</v>
       </c>
@@ -12938,7 +12938,7 @@
         <v>43493.735914351855</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>16</v>
       </c>
@@ -12949,7 +12949,7 @@
         <v>43493.739560185182</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>14</v>
       </c>
@@ -12960,7 +12960,7 @@
         <v>43495.751099537039</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>12</v>
       </c>
@@ -12971,7 +12971,7 @@
         <v>43495.761493055557</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>12</v>
       </c>
@@ -12982,7 +12982,7 @@
         <v>43496.751493055555</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>12</v>
       </c>
@@ -12993,7 +12993,7 @@
         <v>43497.796087962961</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>12</v>
       </c>
@@ -13004,7 +13004,7 @@
         <v>43497.797615740739</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>11</v>
       </c>
@@ -13015,7 +13015,7 @@
         <v>43498.418240740742</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>12</v>
       </c>
@@ -13026,7 +13026,7 @@
         <v>43498.423067129632</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>11</v>
       </c>
@@ -13037,7 +13037,7 @@
         <v>43498.427372685182</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>12</v>
       </c>
@@ -13048,7 +13048,7 @@
         <v>43498.462719907409</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>12</v>
       </c>
@@ -13059,7 +13059,7 @@
         <v>43498.465057870373</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>12</v>
       </c>
@@ -13070,7 +13070,7 @@
         <v>43498.467199074075</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>12</v>
       </c>
@@ -13081,7 +13081,7 @@
         <v>43498.545405092591</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>14</v>
       </c>
@@ -13092,7 +13092,7 @@
         <v>43498.550034722219</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>14</v>
       </c>
@@ -13103,7 +13103,7 @@
         <v>43498.550763888888</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>16</v>
       </c>
@@ -13114,7 +13114,7 @@
         <v>43498.556620370371</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>16</v>
       </c>
@@ -13125,7 +13125,7 @@
         <v>43498.557615740741</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>14</v>
       </c>
@@ -13136,7 +13136,7 @@
         <v>43499.543877314813</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>12</v>
       </c>
@@ -13147,7 +13147,7 @@
         <v>43499.544965277775</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>12</v>
       </c>
@@ -13158,7 +13158,7 @@
         <v>43499.546701388892</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>12</v>
       </c>
@@ -13169,7 +13169,7 @@
         <v>43499.586701388886</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>12</v>
       </c>
@@ -13180,7 +13180,7 @@
         <v>43499.587500000001</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>14</v>
       </c>
@@ -13191,7 +13191,7 @@
         <v>43499.590636574074</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>14</v>
       </c>
@@ -13202,7 +13202,7 @@
         <v>43499.632280092592</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>16</v>
       </c>
@@ -13213,7 +13213,7 @@
         <v>43499.635312500002</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>16</v>
       </c>
@@ -13237,23 +13237,23 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>59</v>
       </c>
@@ -13291,7 +13291,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -13314,7 +13314,7 @@
         <v>4389</v>
       </c>
       <c r="H2" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="I2" t="s">
         <v>253</v>
@@ -13329,7 +13329,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -13352,10 +13352,10 @@
         <v>1707</v>
       </c>
       <c r="H3" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="I3" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="J3" t="s">
         <v>683</v>
@@ -13367,7 +13367,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -13390,7 +13390,7 @@
         <v>3107</v>
       </c>
       <c r="H4" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="I4" t="s">
         <v>687</v>
@@ -13405,7 +13405,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -13428,10 +13428,10 @@
         <v>1042</v>
       </c>
       <c r="H5" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="I5" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="J5" t="s">
         <v>683</v>
@@ -13443,12 +13443,12 @@
         <v>705</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="C6">
         <v>16</v>
@@ -13466,10 +13466,10 @@
         <v>3389</v>
       </c>
       <c r="H6" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="I6" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="J6" t="s">
         <v>551</v>
@@ -13481,7 +13481,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -13504,10 +13504,10 @@
         <v>4472</v>
       </c>
       <c r="H7" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="I7" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="J7" t="s">
         <v>683</v>
@@ -13519,7 +13519,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -13542,7 +13542,7 @@
         <v>3957</v>
       </c>
       <c r="H8" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="I8" t="s">
         <v>691</v>
@@ -13557,7 +13557,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -13580,7 +13580,7 @@
         <v>3259</v>
       </c>
       <c r="H9" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="I9" t="s">
         <v>692</v>
@@ -13595,12 +13595,12 @@
         <v>708</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="C10">
         <v>12</v>
@@ -13618,10 +13618,10 @@
         <v>3283</v>
       </c>
       <c r="H10" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="I10" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="J10" t="s">
         <v>684</v>
@@ -13633,12 +13633,12 @@
         <v>709</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="C11">
         <v>16</v>
@@ -13656,10 +13656,10 @@
         <v>2627</v>
       </c>
       <c r="H11" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="I11" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="J11" t="s">
         <v>684</v>
@@ -13671,12 +13671,12 @@
         <v>710</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="C12">
         <v>14</v>
@@ -13694,10 +13694,10 @@
         <v>1283</v>
       </c>
       <c r="H12" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="I12" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="J12" t="s">
         <v>685</v>
@@ -13709,7 +13709,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -13732,7 +13732,7 @@
         <v>1888</v>
       </c>
       <c r="H13" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="I13" t="s">
         <v>695</v>
@@ -13747,7 +13747,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -13770,10 +13770,10 @@
         <v>4183</v>
       </c>
       <c r="H14" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="I14" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="J14" t="s">
         <v>683</v>
@@ -13785,12 +13785,12 @@
         <v>683</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="C15">
         <v>12</v>
@@ -13808,10 +13808,10 @@
         <v>4430</v>
       </c>
       <c r="H15" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="I15" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="J15" t="s">
         <v>686</v>
@@ -13823,7 +13823,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -13846,10 +13846,10 @@
         <v>4598</v>
       </c>
       <c r="H16" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="I16" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="J16" t="s">
         <v>683</v>
@@ -13861,7 +13861,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -13884,10 +13884,10 @@
         <v>3639</v>
       </c>
       <c r="H17" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="I17" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="J17" t="s">
         <v>551</v>
@@ -13899,7 +13899,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -13922,7 +13922,7 @@
         <v>2937</v>
       </c>
       <c r="H18" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="I18" t="s">
         <v>701</v>

--- a/Jeu d'essai.xlsx
+++ b/Jeu d'essai.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="145" documentId="114_{8D9B191C-2013-4270-87A9-3FB899E57325}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{C7C63C9A-166B-40C8-9094-0DB7A69481D7}"/>
+  <xr:revisionPtr revIDLastSave="550" documentId="114_{8D9B191C-2013-4270-87A9-3FB899E57325}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{555E46CF-7038-4B79-8154-9B28D07E2385}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1433" uniqueCount="789">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1765" uniqueCount="907">
   <si>
     <t>NULL</t>
   </si>
@@ -1007,9 +1007,6 @@
   </si>
   <si>
     <t>887 Avenue Saint-Charles</t>
-  </si>
-  <si>
-    <t>Monreéal</t>
   </si>
   <si>
     <t>H4E8T2</t>
@@ -2461,6 +2458,363 @@
   </si>
   <si>
     <t>gestionnaire1@gmail.com</t>
+  </si>
+  <si>
+    <t>Imprimantes à bas prix</t>
+  </si>
+  <si>
+    <t>Vendeur1</t>
+  </si>
+  <si>
+    <t>Vendeur2</t>
+  </si>
+  <si>
+    <t>Brodeur</t>
+  </si>
+  <si>
+    <t>Jean-Luc</t>
+  </si>
+  <si>
+    <t>Saint-Laurent</t>
+  </si>
+  <si>
+    <t>jeanluc.brodeur@gmail.com</t>
+  </si>
+  <si>
+    <t>18.xml</t>
+  </si>
+  <si>
+    <t>v1@gmail.com</t>
+  </si>
+  <si>
+    <t>v2@gmail.com</t>
+  </si>
+  <si>
+    <t>1000.00</t>
+  </si>
+  <si>
+    <t>hc@gmail.com</t>
+  </si>
+  <si>
+    <t>Hubert</t>
+  </si>
+  <si>
+    <t>Caron</t>
+  </si>
+  <si>
+    <t>if@gmail.com</t>
+  </si>
+  <si>
+    <t>Fafard</t>
+  </si>
+  <si>
+    <t>c1@gmail.com</t>
+  </si>
+  <si>
+    <t>Client1</t>
+  </si>
+  <si>
+    <t>c2@gmail.com</t>
+  </si>
+  <si>
+    <t>Client2</t>
+  </si>
+  <si>
+    <t>c3@gmail.com</t>
+  </si>
+  <si>
+    <t>Client3</t>
+  </si>
+  <si>
+    <t>c4@gmail.com</t>
+  </si>
+  <si>
+    <t>Client4</t>
+  </si>
+  <si>
+    <t>pl@gmail.com</t>
+  </si>
+  <si>
+    <t>Imprimante EPSON 1000</t>
+  </si>
+  <si>
+    <t>Imprimante EPSON 1000 presque neuve</t>
+  </si>
+  <si>
+    <t>Imprimante de qualité EPSON LQ300</t>
+  </si>
+  <si>
+    <t>Imprimante EPSON LQ300 presque pas utilisée</t>
+  </si>
+  <si>
+    <t>Imprimante INTERMEC EasyCoder PX4i</t>
+  </si>
+  <si>
+    <t>Imprimante INTERMEC EasyCoder PX4i avec cartouches d'encre</t>
+  </si>
+  <si>
+    <t>Imprimante impressionnante HP lj6p</t>
+  </si>
+  <si>
+    <t>Imprimante HP lj6p</t>
+  </si>
+  <si>
+    <t>Imprimante DELL fantastique 1710N</t>
+  </si>
+  <si>
+    <t>Imprimante DELL 1710N + Manuel d'utilisation</t>
+  </si>
+  <si>
+    <t>Imprimante CANON and BALL IP 1700</t>
+  </si>
+  <si>
+    <t>Imprimante CANON IP 1700</t>
+  </si>
+  <si>
+    <t>Imprimante APPLE LaserWriter Pro 630</t>
+  </si>
+  <si>
+    <t>Imprimante APPLE LaserWriter Pro 630 + Disquette d'installation</t>
+  </si>
+  <si>
+    <t>Imprimante HP PaintWriter Optimum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Imprimante HP PaintWriter Optimum + Cartouches </t>
+  </si>
+  <si>
+    <t>Imprimante DELL Laser 964</t>
+  </si>
+  <si>
+    <t>Imprimante DELL Laser 964 + Toner</t>
+  </si>
+  <si>
+    <t>Imprimante CTS300 Pharmaceutique</t>
+  </si>
+  <si>
+    <t>Imprimante EPSON Stylus C62</t>
+  </si>
+  <si>
+    <t>Imprimante HP Laser couleur B00006L</t>
+  </si>
+  <si>
+    <t>Imprimante HP Laser couleur B00006L + Toner rouge et noir</t>
+  </si>
+  <si>
+    <t>Imprimante APPLE ImageWriter Optimum</t>
+  </si>
+  <si>
+    <t>Imprimante BROTHER and SISTER 12415</t>
+  </si>
+  <si>
+    <t>Imprimante BROTHER 12415</t>
+  </si>
+  <si>
+    <t>Imprimante INTHEDARK Braille Plus</t>
+  </si>
+  <si>
+    <t>Imprimante INTHEDARK Braille + 2 boîtes de papier</t>
+  </si>
+  <si>
+    <t>Imprimante EPSON STYLUS C66</t>
+  </si>
+  <si>
+    <t>Imprimante HP LaserJet 1022</t>
+  </si>
+  <si>
+    <t>Imprimante HP Couleur 700</t>
+  </si>
+  <si>
+    <t>Imprimante HP Couleur 700 + Toner</t>
+  </si>
+  <si>
+    <t>Imprimante BROTHER and SISTER Laser HL 1440</t>
+  </si>
+  <si>
+    <t>Imprimante BROTHER Laser HL 1440</t>
+  </si>
+  <si>
+    <t>Imprimante CANON 4200G</t>
+  </si>
+  <si>
+    <t>Imprimante EPSON AcuLaser Massage C9100</t>
+  </si>
+  <si>
+    <t>Imprimante EPSON AcuLaser C9100</t>
+  </si>
+  <si>
+    <t>Imprimante CITIZEN 124D</t>
+  </si>
+  <si>
+    <t>Imprimante HP Deskjet 450</t>
+  </si>
+  <si>
+    <t>Imprimante CANON PIXMA iP4200</t>
+  </si>
+  <si>
+    <t>Imprimante CANON PIXMA iP4200 + Cartouches d'encre</t>
+  </si>
+  <si>
+    <t>Imprimante HP Laser B119033</t>
+  </si>
+  <si>
+    <t>Imprimante01.jpg</t>
+  </si>
+  <si>
+    <t>Imprimante02.jpg</t>
+  </si>
+  <si>
+    <t>Imprimante03.jpg</t>
+  </si>
+  <si>
+    <t>Imprimante04.jpg</t>
+  </si>
+  <si>
+    <t>Imprimante05.jpg</t>
+  </si>
+  <si>
+    <t>Imprimante06.jpg</t>
+  </si>
+  <si>
+    <t>Imprimante07.jpg</t>
+  </si>
+  <si>
+    <t>Imprimante08.jpg</t>
+  </si>
+  <si>
+    <t>Imprimante09.jpg</t>
+  </si>
+  <si>
+    <t>Imprimante10.jpg</t>
+  </si>
+  <si>
+    <t>Imprimante11.jpg</t>
+  </si>
+  <si>
+    <t>Imprimante12.jpg</t>
+  </si>
+  <si>
+    <t>Imprimante13.jpg</t>
+  </si>
+  <si>
+    <t>Imprimante14.jpg</t>
+  </si>
+  <si>
+    <t>Imprimante15.jpg</t>
+  </si>
+  <si>
+    <t>Imprimante16.jpg</t>
+  </si>
+  <si>
+    <t>Imprimante17.jpg</t>
+  </si>
+  <si>
+    <t>Imprimante18.jpg</t>
+  </si>
+  <si>
+    <t>Imprimante19.jpg</t>
+  </si>
+  <si>
+    <t>Imprimante20.jpg</t>
+  </si>
+  <si>
+    <t>Imprimante21.jpg</t>
+  </si>
+  <si>
+    <t>Imprimante22.jpg</t>
+  </si>
+  <si>
+    <t>Imprimante23.jpg</t>
+  </si>
+  <si>
+    <t>Imprimante24.jpg</t>
+  </si>
+  <si>
+    <t>Imprimante25.jpg</t>
+  </si>
+  <si>
+    <t>250.00</t>
+  </si>
+  <si>
+    <t>350.00</t>
+  </si>
+  <si>
+    <t>300.00</t>
+  </si>
+  <si>
+    <t>1.5</t>
+  </si>
+  <si>
+    <t>8.5</t>
+  </si>
+  <si>
+    <t>12.5</t>
+  </si>
+  <si>
+    <t>10.5</t>
+  </si>
+  <si>
+    <t>3.5</t>
+  </si>
+  <si>
+    <t>2.0</t>
+  </si>
+  <si>
+    <t>15.0</t>
+  </si>
+  <si>
+    <t>19.xml</t>
+  </si>
+  <si>
+    <t>20.xml</t>
+  </si>
+  <si>
+    <t>Produit1</t>
+  </si>
+  <si>
+    <t>Produit2</t>
+  </si>
+  <si>
+    <t>1900001.png</t>
+  </si>
+  <si>
+    <t>2000001.png</t>
+  </si>
+  <si>
+    <t>4.88</t>
+  </si>
+  <si>
+    <t>4.12</t>
+  </si>
+  <si>
+    <t>2.50</t>
+  </si>
+  <si>
+    <t>H4L3P8</t>
+  </si>
+  <si>
+    <t>Monréal</t>
+  </si>
+  <si>
+    <t>2685 Boulevard Pitfield</t>
+  </si>
+  <si>
+    <t>H4S1T2</t>
+  </si>
+  <si>
+    <t>3119 Rue Monsabré</t>
+  </si>
+  <si>
+    <t>H1N2L3</t>
+  </si>
+  <si>
+    <t>7605 Rue Garnier</t>
+  </si>
+  <si>
+    <t>H2E2A6</t>
+  </si>
+  <si>
+    <t>747 Saint-Germain</t>
   </si>
 </sst>
 </file>
@@ -2496,7 +2850,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2513,6 +2867,7 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2794,7 +3149,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68577903-7E23-4CEF-B0E9-4DD8C1CA3581}">
   <sheetPr codeName="Feuil1"/>
-  <dimension ref="A1:U8"/>
+  <dimension ref="A1:U11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2921,10 +3276,10 @@
         <v>0</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="M2" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="N2">
         <v>500</v>
@@ -2936,10 +3291,10 @@
         <v>1</v>
       </c>
       <c r="Q2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="R2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="S2" s="1">
         <v>43466.224826388891</v>
@@ -2986,10 +3341,10 @@
         <v>0</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="M3" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="N3">
         <v>500</v>
@@ -3001,10 +3356,10 @@
         <v>1</v>
       </c>
       <c r="Q3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="R3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="S3" s="1">
         <v>43468.322939814818</v>
@@ -3051,10 +3406,10 @@
         <v>4505658849</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="M4" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="N4">
         <v>75</v>
@@ -3069,7 +3424,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="S4" s="1">
         <v>43472.385462962964</v>
@@ -3104,7 +3459,7 @@
         <v>273</v>
       </c>
       <c r="H5" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="I5" t="s">
         <v>252</v>
@@ -3116,25 +3471,25 @@
         <v>0</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="M5" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="N5">
         <v>100</v>
       </c>
       <c r="O5" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="P5">
         <v>1</v>
       </c>
       <c r="Q5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="R5" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="S5" s="1">
         <v>43476.262372685182</v>
@@ -3181,10 +3536,10 @@
         <v>5149938373</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="M6" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="N6">
         <v>30</v>
@@ -3199,7 +3554,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="S6" s="1">
         <v>43481.492337962962</v>
@@ -3246,10 +3601,10 @@
         <v>0</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="M7" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="N7">
         <v>40</v>
@@ -3261,10 +3616,10 @@
         <v>1</v>
       </c>
       <c r="Q7" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="R7" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="S7" s="1">
         <v>43482.357361111113</v>
@@ -3311,25 +3666,25 @@
         <v>0</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="M8" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="N8">
         <v>50</v>
       </c>
       <c r="O8" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="P8">
         <v>1</v>
       </c>
       <c r="Q8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="R8" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="S8" s="1">
         <v>43493.244884259257</v>
@@ -3338,6 +3693,201 @@
         <v>43493.380266203705</v>
       </c>
       <c r="U8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
+        <v>788</v>
+      </c>
+      <c r="C9" t="s">
+        <v>791</v>
+      </c>
+      <c r="D9" t="s">
+        <v>792</v>
+      </c>
+      <c r="E9" t="s">
+        <v>906</v>
+      </c>
+      <c r="F9" t="s">
+        <v>793</v>
+      </c>
+      <c r="G9" t="s">
+        <v>250</v>
+      </c>
+      <c r="H9" t="s">
+        <v>898</v>
+      </c>
+      <c r="I9" t="s">
+        <v>252</v>
+      </c>
+      <c r="J9">
+        <v>5147487872</v>
+      </c>
+      <c r="K9">
+        <v>5149921092</v>
+      </c>
+      <c r="L9" t="s">
+        <v>794</v>
+      </c>
+      <c r="M9">
+        <v>1234</v>
+      </c>
+      <c r="N9">
+        <v>50</v>
+      </c>
+      <c r="O9" t="s">
+        <v>798</v>
+      </c>
+      <c r="P9">
+        <v>1</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>325</v>
+      </c>
+      <c r="R9" t="s">
+        <v>795</v>
+      </c>
+      <c r="S9" s="1">
+        <v>43434</v>
+      </c>
+      <c r="T9" s="4">
+        <v>43437</v>
+      </c>
+      <c r="U9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>19</v>
+      </c>
+      <c r="B10" t="s">
+        <v>789</v>
+      </c>
+      <c r="C10" t="s">
+        <v>789</v>
+      </c>
+      <c r="D10" t="s">
+        <v>789</v>
+      </c>
+      <c r="E10" t="s">
+        <v>900</v>
+      </c>
+      <c r="F10" t="s">
+        <v>793</v>
+      </c>
+      <c r="G10" t="s">
+        <v>250</v>
+      </c>
+      <c r="H10" t="s">
+        <v>901</v>
+      </c>
+      <c r="I10" t="s">
+        <v>252</v>
+      </c>
+      <c r="J10">
+        <v>5142860521</v>
+      </c>
+      <c r="K10" t="s">
+        <v>0</v>
+      </c>
+      <c r="L10" t="s">
+        <v>796</v>
+      </c>
+      <c r="M10">
+        <v>1234</v>
+      </c>
+      <c r="N10">
+        <v>60</v>
+      </c>
+      <c r="O10" t="s">
+        <v>260</v>
+      </c>
+      <c r="P10">
+        <v>1</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>323</v>
+      </c>
+      <c r="R10" t="s">
+        <v>889</v>
+      </c>
+      <c r="S10" s="1">
+        <v>43441</v>
+      </c>
+      <c r="T10" s="4">
+        <v>43444</v>
+      </c>
+      <c r="U10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>790</v>
+      </c>
+      <c r="C11" t="s">
+        <v>790</v>
+      </c>
+      <c r="D11" t="s">
+        <v>790</v>
+      </c>
+      <c r="E11" t="s">
+        <v>902</v>
+      </c>
+      <c r="F11" t="s">
+        <v>299</v>
+      </c>
+      <c r="G11" t="s">
+        <v>250</v>
+      </c>
+      <c r="H11" t="s">
+        <v>903</v>
+      </c>
+      <c r="I11" t="s">
+        <v>252</v>
+      </c>
+      <c r="J11">
+        <v>5145061294</v>
+      </c>
+      <c r="K11" t="s">
+        <v>0</v>
+      </c>
+      <c r="L11" t="s">
+        <v>797</v>
+      </c>
+      <c r="M11">
+        <v>1234</v>
+      </c>
+      <c r="N11">
+        <v>70</v>
+      </c>
+      <c r="O11" t="s">
+        <v>253</v>
+      </c>
+      <c r="P11">
+        <v>1</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>324</v>
+      </c>
+      <c r="R11" t="s">
+        <v>890</v>
+      </c>
+      <c r="S11" s="4">
+        <v>43448</v>
+      </c>
+      <c r="T11" s="4">
+        <v>43451</v>
+      </c>
+      <c r="U11">
         <v>1</v>
       </c>
     </row>
@@ -3504,7 +4054,7 @@
         <v>301</v>
       </c>
       <c r="C2" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -3515,7 +4065,7 @@
         <v>302</v>
       </c>
       <c r="C3" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -3526,7 +4076,7 @@
         <v>303</v>
       </c>
       <c r="C4" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -3548,7 +4098,7 @@
         <v>301</v>
       </c>
       <c r="C6" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -3559,7 +4109,7 @@
         <v>302</v>
       </c>
       <c r="C7" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -3570,7 +4120,7 @@
         <v>303</v>
       </c>
       <c r="C8" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -3581,7 +4131,7 @@
         <v>304</v>
       </c>
       <c r="C9" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -3592,7 +4142,7 @@
         <v>301</v>
       </c>
       <c r="C10" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -3603,7 +4153,7 @@
         <v>302</v>
       </c>
       <c r="C11" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -3773,7 +4323,7 @@
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D312C7A-BCDC-47D6-B45B-CA1037570952}">
   <sheetPr codeName="Feuil15"/>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3800,10 +4350,21 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="C2" t="s">
-        <v>756</v>
+        <v>755</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>812</v>
+      </c>
+      <c r="C3" s="8">
+        <v>1234</v>
       </c>
     </row>
   </sheetData>
@@ -3814,7 +4375,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C96AB91-83A3-410B-82BB-2AB10447757A}">
   <sheetPr codeName="Feuil2"/>
-  <dimension ref="A1:Q21"/>
+  <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3895,10 +4456,10 @@
         <v>10001</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="C2" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="D2" t="s">
         <v>292</v>
@@ -3916,7 +4477,7 @@
         <v>250</v>
       </c>
       <c r="I2" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="J2" t="s">
         <v>252</v>
@@ -3948,10 +4509,10 @@
         <v>10002</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="C3" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="D3" t="s">
         <v>296</v>
@@ -4001,10 +4562,10 @@
         <v>10003</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="C4" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="D4" t="s">
         <v>0</v>
@@ -4054,10 +4615,10 @@
         <v>10004</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C5" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="D5" t="s">
         <v>275</v>
@@ -4107,10 +4668,10 @@
         <v>10005</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="C6" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="D6" t="s">
         <v>0</v>
@@ -4160,10 +4721,10 @@
         <v>10006</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="C7" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="D7" t="s">
         <v>0</v>
@@ -4213,10 +4774,10 @@
         <v>10007</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="C8" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="D8" t="s">
         <v>0</v>
@@ -4266,10 +4827,10 @@
         <v>10008</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="C9" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="D9" t="s">
         <v>304</v>
@@ -4319,10 +4880,10 @@
         <v>10009</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="C10" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="D10" t="s">
         <v>0</v>
@@ -4372,10 +4933,10 @@
         <v>10010</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="C11" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="D11" t="s">
         <v>0</v>
@@ -4425,10 +4986,10 @@
         <v>10011</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="C12" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="D12" t="s">
         <v>0</v>
@@ -4478,10 +5039,10 @@
         <v>10012</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="C13" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="D13" t="s">
         <v>0</v>
@@ -4531,10 +5092,10 @@
         <v>10013</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="C14" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="D14" t="s">
         <v>0</v>
@@ -4584,10 +5145,10 @@
         <v>10014</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="C15" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="D15" t="s">
         <v>307</v>
@@ -4637,10 +5198,10 @@
         <v>10015</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="C16" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="D16" t="s">
         <v>0</v>
@@ -4690,10 +5251,10 @@
         <v>10016</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C17" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="D17" t="s">
         <v>0</v>
@@ -4743,10 +5304,10 @@
         <v>10017</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="C18" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="D18" t="s">
         <v>0</v>
@@ -4796,10 +5357,10 @@
         <v>10018</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="C19" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="D19" t="s">
         <v>310</v>
@@ -4811,13 +5372,13 @@
         <v>312</v>
       </c>
       <c r="G19" t="s">
-        <v>313</v>
+        <v>899</v>
       </c>
       <c r="H19" t="s">
         <v>250</v>
       </c>
       <c r="I19" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="J19" t="s">
         <v>252</v>
@@ -4849,28 +5410,28 @@
         <v>10019</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="C20" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="D20" t="s">
+        <v>314</v>
+      </c>
+      <c r="E20" t="s">
         <v>315</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>316</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>317</v>
-      </c>
-      <c r="G20" t="s">
-        <v>318</v>
       </c>
       <c r="H20" t="s">
         <v>250</v>
       </c>
       <c r="I20" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="J20" t="s">
         <v>252</v>
@@ -4902,19 +5463,19 @@
         <v>10020</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="C21" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="D21" t="s">
+        <v>319</v>
+      </c>
+      <c r="E21" t="s">
         <v>320</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>321</v>
-      </c>
-      <c r="F21" t="s">
-        <v>322</v>
       </c>
       <c r="G21" t="s">
         <v>265</v>
@@ -4923,7 +5484,7 @@
         <v>250</v>
       </c>
       <c r="I21" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="J21" t="s">
         <v>252</v>
@@ -4947,6 +5508,324 @@
         <v>43499.584456018521</v>
       </c>
       <c r="Q21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>10021</v>
+      </c>
+      <c r="B22" t="s">
+        <v>799</v>
+      </c>
+      <c r="C22" t="s">
+        <v>755</v>
+      </c>
+      <c r="D22" t="s">
+        <v>800</v>
+      </c>
+      <c r="E22" t="s">
+        <v>801</v>
+      </c>
+      <c r="F22" t="s">
+        <v>0</v>
+      </c>
+      <c r="G22" t="s">
+        <v>0</v>
+      </c>
+      <c r="H22" t="s">
+        <v>0</v>
+      </c>
+      <c r="I22" t="s">
+        <v>0</v>
+      </c>
+      <c r="J22" t="s">
+        <v>0</v>
+      </c>
+      <c r="K22" t="s">
+        <v>0</v>
+      </c>
+      <c r="L22" t="s">
+        <v>0</v>
+      </c>
+      <c r="M22" s="1">
+        <v>43492.584317129629</v>
+      </c>
+      <c r="N22" t="s">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>1</v>
+      </c>
+      <c r="P22" s="4">
+        <v>43516.754687499997</v>
+      </c>
+      <c r="Q22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>10022</v>
+      </c>
+      <c r="B23" t="s">
+        <v>802</v>
+      </c>
+      <c r="C23" t="s">
+        <v>755</v>
+      </c>
+      <c r="D23" t="s">
+        <v>301</v>
+      </c>
+      <c r="E23" t="s">
+        <v>803</v>
+      </c>
+      <c r="F23" t="s">
+        <v>0</v>
+      </c>
+      <c r="G23" t="s">
+        <v>0</v>
+      </c>
+      <c r="H23" t="s">
+        <v>0</v>
+      </c>
+      <c r="I23" t="s">
+        <v>0</v>
+      </c>
+      <c r="J23" t="s">
+        <v>0</v>
+      </c>
+      <c r="K23" t="s">
+        <v>0</v>
+      </c>
+      <c r="L23" t="s">
+        <v>0</v>
+      </c>
+      <c r="M23" s="1">
+        <v>43495.72583333333</v>
+      </c>
+      <c r="N23" t="s">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>10023</v>
+      </c>
+      <c r="B24" t="s">
+        <v>804</v>
+      </c>
+      <c r="C24">
+        <v>1234</v>
+      </c>
+      <c r="D24" t="s">
+        <v>805</v>
+      </c>
+      <c r="E24" t="s">
+        <v>805</v>
+      </c>
+      <c r="F24" t="s">
+        <v>0</v>
+      </c>
+      <c r="G24" t="s">
+        <v>0</v>
+      </c>
+      <c r="H24" t="s">
+        <v>0</v>
+      </c>
+      <c r="I24" t="s">
+        <v>0</v>
+      </c>
+      <c r="J24" t="s">
+        <v>0</v>
+      </c>
+      <c r="K24" t="s">
+        <v>0</v>
+      </c>
+      <c r="L24" t="s">
+        <v>0</v>
+      </c>
+      <c r="M24" s="4">
+        <v>43498.39675925926</v>
+      </c>
+      <c r="N24" t="s">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>1</v>
+      </c>
+      <c r="P24" s="4">
+        <v>43518.840613425928</v>
+      </c>
+      <c r="Q24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>10024</v>
+      </c>
+      <c r="B25" t="s">
+        <v>806</v>
+      </c>
+      <c r="C25">
+        <v>1234</v>
+      </c>
+      <c r="D25" t="s">
+        <v>807</v>
+      </c>
+      <c r="E25" t="s">
+        <v>807</v>
+      </c>
+      <c r="F25" t="s">
+        <v>0</v>
+      </c>
+      <c r="G25" t="s">
+        <v>0</v>
+      </c>
+      <c r="H25" t="s">
+        <v>0</v>
+      </c>
+      <c r="I25" t="s">
+        <v>0</v>
+      </c>
+      <c r="J25" t="s">
+        <v>0</v>
+      </c>
+      <c r="K25" t="s">
+        <v>0</v>
+      </c>
+      <c r="L25" t="s">
+        <v>0</v>
+      </c>
+      <c r="M25" s="4">
+        <v>43500.742662037039</v>
+      </c>
+      <c r="N25" t="s">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>1</v>
+      </c>
+      <c r="P25" s="4">
+        <v>43519.457557870373</v>
+      </c>
+      <c r="Q25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>10025</v>
+      </c>
+      <c r="B26" t="s">
+        <v>808</v>
+      </c>
+      <c r="C26">
+        <v>1234</v>
+      </c>
+      <c r="D26" t="s">
+        <v>809</v>
+      </c>
+      <c r="E26" t="s">
+        <v>809</v>
+      </c>
+      <c r="F26" t="s">
+        <v>904</v>
+      </c>
+      <c r="G26" t="s">
+        <v>899</v>
+      </c>
+      <c r="H26" t="s">
+        <v>250</v>
+      </c>
+      <c r="I26" t="s">
+        <v>905</v>
+      </c>
+      <c r="J26" t="s">
+        <v>252</v>
+      </c>
+      <c r="K26">
+        <v>5146823948</v>
+      </c>
+      <c r="L26" t="s">
+        <v>0</v>
+      </c>
+      <c r="M26" s="1">
+        <v>43503.753900462965</v>
+      </c>
+      <c r="N26" s="4">
+        <v>43520.60125</v>
+      </c>
+      <c r="O26">
+        <v>2</v>
+      </c>
+      <c r="P26" s="4">
+        <v>43520.58353009259</v>
+      </c>
+      <c r="Q26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>10026</v>
+      </c>
+      <c r="B27" t="s">
+        <v>810</v>
+      </c>
+      <c r="C27">
+        <v>1234</v>
+      </c>
+      <c r="D27" t="s">
+        <v>811</v>
+      </c>
+      <c r="E27" t="s">
+        <v>811</v>
+      </c>
+      <c r="F27" t="s">
+        <v>0</v>
+      </c>
+      <c r="G27" t="s">
+        <v>0</v>
+      </c>
+      <c r="H27" t="s">
+        <v>0</v>
+      </c>
+      <c r="I27" t="s">
+        <v>0</v>
+      </c>
+      <c r="J27" t="s">
+        <v>0</v>
+      </c>
+      <c r="K27" t="s">
+        <v>0</v>
+      </c>
+      <c r="L27" t="s">
+        <v>0</v>
+      </c>
+      <c r="M27" s="1">
+        <v>43506.59883101852</v>
+      </c>
+      <c r="N27" t="s">
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q27">
         <v>1</v>
       </c>
     </row>
@@ -5076,9 +5955,9 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89CB741D-5E4C-40C8-84EA-99C09429462A}">
   <sheetPr codeName="Feuil4"/>
-  <dimension ref="A1:N105"/>
+  <dimension ref="A1:N132"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A97" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -5207,7 +6086,7 @@
         <v>232</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H3" s="2">
         <v>0</v>
@@ -5219,7 +6098,7 @@
         <v>43533.999988425923</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>115</v>
@@ -5251,7 +6130,7 @@
         <v>233</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H4" s="2">
         <v>0</v>
@@ -5263,7 +6142,7 @@
         <v>43533.999988425923</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>122</v>
@@ -5380,10 +6259,10 @@
         <v>148</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H7" s="2">
         <v>1</v>
@@ -5395,7 +6274,7 @@
         <v>43533.999988425923</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>149</v>
@@ -5424,10 +6303,10 @@
         <v>108</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H8" s="2">
         <v>1</v>
@@ -5439,7 +6318,7 @@
         <v>43534.999988368058</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>109</v>
@@ -5462,16 +6341,16 @@
         <v>504</v>
       </c>
       <c r="D9" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="F9" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="G9" s="2" t="s">
         <v>418</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>419</v>
       </c>
       <c r="H9" s="2">
         <v>3</v>
@@ -5483,7 +6362,7 @@
         <v>43534.999988368058</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>116</v>
@@ -5506,16 +6385,16 @@
         <v>504</v>
       </c>
       <c r="D10" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="F10" s="2" t="s">
         <v>421</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>422</v>
-      </c>
       <c r="G10" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H10" s="2">
         <v>3</v>
@@ -5527,10 +6406,10 @@
         <v>43534.999988368058</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="M10" s="4">
         <v>43475.394305555557</v>
@@ -5550,16 +6429,16 @@
         <v>505</v>
       </c>
       <c r="D11" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>466</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>467</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>237</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H11" s="2">
         <v>3</v>
@@ -5571,7 +6450,7 @@
         <v>43535.999988368058</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>137</v>
@@ -5594,16 +6473,16 @@
         <v>505</v>
       </c>
       <c r="D12" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>470</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>471</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>238</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H12" s="2">
         <v>3</v>
@@ -5615,10 +6494,10 @@
         <v>43535.999988368058</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="M12" s="4">
         <v>43476.380740740744</v>
@@ -5638,16 +6517,16 @@
         <v>505</v>
       </c>
       <c r="D13" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>473</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>474</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>239</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H13" s="2">
         <v>3</v>
@@ -5659,10 +6538,10 @@
         <v>43535.999988368058</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="M13" s="4">
         <v>43476.387083333335</v>
@@ -5682,16 +6561,16 @@
         <v>505</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="E14" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>718</v>
+      </c>
+      <c r="G14" s="2" t="s">
         <v>477</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>719</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>478</v>
       </c>
       <c r="H14" s="2">
         <v>3</v>
@@ -5703,7 +6582,7 @@
         <v>43535.999988368058</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>203</v>
@@ -5726,16 +6605,16 @@
         <v>506</v>
       </c>
       <c r="D15" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>506</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>507</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>240</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H15" s="2">
         <v>3</v>
@@ -5747,10 +6626,10 @@
         <v>43536.999988368058</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="M15" s="4">
         <v>43477.417650462965</v>
@@ -5770,16 +6649,16 @@
         <v>506</v>
       </c>
       <c r="D16" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>510</v>
       </c>
-      <c r="E16" s="2" t="s">
-        <v>511</v>
-      </c>
       <c r="F16" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H16" s="2">
         <v>3</v>
@@ -5791,10 +6670,10 @@
         <v>43536.999988368058</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="M16" s="4">
         <v>43477.430960648147</v>
@@ -5814,16 +6693,16 @@
         <v>506</v>
       </c>
       <c r="D17" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>532</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="F17" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="G17" s="2" t="s">
         <v>533</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>513</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>534</v>
       </c>
       <c r="H17" s="2">
         <v>3</v>
@@ -5835,10 +6714,10 @@
         <v>43536.999988368058</v>
       </c>
       <c r="K17" s="6" t="s">
+        <v>533</v>
+      </c>
+      <c r="L17" s="2" t="s">
         <v>534</v>
-      </c>
-      <c r="L17" s="2" t="s">
-        <v>535</v>
       </c>
       <c r="M17" s="4">
         <v>43477.444803240738</v>
@@ -5858,16 +6737,16 @@
         <v>506</v>
       </c>
       <c r="D18" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>515</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="F18" s="2" t="s">
         <v>516</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="G18" s="2" t="s">
         <v>517</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>518</v>
       </c>
       <c r="H18" s="2">
         <v>3</v>
@@ -5879,7 +6758,7 @@
         <v>43536.999988368058</v>
       </c>
       <c r="K18" s="6" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="L18" s="2" t="s">
         <v>137</v>
@@ -5902,13 +6781,13 @@
         <v>506</v>
       </c>
       <c r="D19" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>519</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="F19" s="2" t="s">
         <v>520</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>521</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>253</v>
@@ -5926,7 +6805,7 @@
         <v>253</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="M19" s="4">
         <v>43477.468217592592</v>
@@ -5946,16 +6825,16 @@
         <v>506</v>
       </c>
       <c r="D20" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>523</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="F20" s="2" t="s">
         <v>524</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="G20" s="2" t="s">
         <v>525</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>526</v>
       </c>
       <c r="H20" s="2">
         <v>3</v>
@@ -5967,10 +6846,10 @@
         <v>43536.999988368058</v>
       </c>
       <c r="K20" s="6" t="s">
+        <v>525</v>
+      </c>
+      <c r="L20" s="2" t="s">
         <v>526</v>
-      </c>
-      <c r="L20" s="2" t="s">
-        <v>527</v>
       </c>
       <c r="M20" s="4">
         <v>43477.474861111114</v>
@@ -5990,16 +6869,16 @@
         <v>506</v>
       </c>
       <c r="D21" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="G21" s="2" t="s">
         <v>529</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>528</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>531</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>530</v>
       </c>
       <c r="H21" s="2">
         <v>3</v>
@@ -6011,10 +6890,10 @@
         <v>43536.999988368058</v>
       </c>
       <c r="K21" s="6" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="M21" s="4">
         <v>43477.488576388889</v>
@@ -6034,16 +6913,16 @@
         <v>506</v>
       </c>
       <c r="D22" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>536</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="F22" s="2" t="s">
         <v>537</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="G22" s="2" t="s">
         <v>538</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>539</v>
       </c>
       <c r="H22" s="2">
         <v>3</v>
@@ -6055,10 +6934,10 @@
         <v>43536.999988368058</v>
       </c>
       <c r="K22" s="6" t="s">
+        <v>538</v>
+      </c>
+      <c r="L22" s="2" t="s">
         <v>539</v>
-      </c>
-      <c r="L22" s="2" t="s">
-        <v>540</v>
       </c>
       <c r="M22" s="4">
         <v>43477.543715277781</v>
@@ -6078,16 +6957,16 @@
         <v>506</v>
       </c>
       <c r="D23" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>541</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="F23" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="G23" s="2" t="s">
         <v>542</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>544</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>543</v>
       </c>
       <c r="H23" s="2">
         <v>3</v>
@@ -6099,7 +6978,7 @@
         <v>43536.999988368058</v>
       </c>
       <c r="K23" s="6" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="L23" s="2" t="s">
         <v>134</v>
@@ -6122,16 +7001,16 @@
         <v>506</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="E24" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="G24" s="2" t="s">
         <v>545</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>547</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>546</v>
       </c>
       <c r="H24" s="2">
         <v>3</v>
@@ -6143,10 +7022,10 @@
         <v>43536.999988368058</v>
       </c>
       <c r="K24" s="6" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="M24" s="4">
         <v>43477.556377314817</v>
@@ -6166,16 +7045,16 @@
         <v>506</v>
       </c>
       <c r="D25" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="E25" s="2" t="s">
         <v>549</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="F25" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="G25" s="2" t="s">
         <v>550</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>552</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>551</v>
       </c>
       <c r="H25" s="2">
         <v>3</v>
@@ -6187,10 +7066,10 @@
         <v>43536.999988368058</v>
       </c>
       <c r="K25" s="6" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="M25" s="4">
         <v>43477.567870370367</v>
@@ -6210,16 +7089,16 @@
         <v>506</v>
       </c>
       <c r="D26" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>554</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="F26" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="G26" s="2" t="s">
         <v>555</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>558</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>556</v>
       </c>
       <c r="H26" s="2">
         <v>3</v>
@@ -6231,10 +7110,10 @@
         <v>43536.999988368058</v>
       </c>
       <c r="K26" s="6" t="s">
+        <v>555</v>
+      </c>
+      <c r="L26" s="2" t="s">
         <v>556</v>
-      </c>
-      <c r="L26" s="2" t="s">
-        <v>557</v>
       </c>
       <c r="M26" s="4">
         <v>43477.578946759262</v>
@@ -6254,16 +7133,16 @@
         <v>506</v>
       </c>
       <c r="D27" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>559</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="F27" s="2" t="s">
         <v>560</v>
       </c>
-      <c r="F27" s="2" t="s">
+      <c r="G27" s="2" t="s">
         <v>561</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>562</v>
       </c>
       <c r="H27" s="2">
         <v>3</v>
@@ -6275,10 +7154,10 @@
         <v>43536.999988368058</v>
       </c>
       <c r="K27" s="6" t="s">
+        <v>561</v>
+      </c>
+      <c r="L27" s="2" t="s">
         <v>562</v>
-      </c>
-      <c r="L27" s="2" t="s">
-        <v>563</v>
       </c>
       <c r="M27" s="4">
         <v>43477.583715277775</v>
@@ -6298,16 +7177,16 @@
         <v>506</v>
       </c>
       <c r="D28" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>564</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="F28" s="2" t="s">
         <v>565</v>
       </c>
-      <c r="F28" s="2" t="s">
-        <v>566</v>
-      </c>
       <c r="G28" s="2" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="H28" s="2">
         <v>3</v>
@@ -6319,10 +7198,10 @@
         <v>43536.999988368058</v>
       </c>
       <c r="K28" s="6" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="M28" s="4">
         <v>43477.591446759259</v>
@@ -6345,13 +7224,13 @@
         <v>105</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>241</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H29" s="2">
         <v>1</v>
@@ -6363,7 +7242,7 @@
         <v>43537.999988368058</v>
       </c>
       <c r="K29" s="6" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="L29" s="2" t="s">
         <v>106</v>
@@ -6386,16 +7265,16 @@
         <v>507</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>242</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H30" s="2">
         <v>1</v>
@@ -6407,7 +7286,7 @@
         <v>43537.999988368058</v>
       </c>
       <c r="K30" s="6" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="L30" s="2" t="s">
         <v>116</v>
@@ -6433,13 +7312,13 @@
         <v>117</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>243</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H31" s="2">
         <v>0</v>
@@ -6451,7 +7330,7 @@
         <v>43537.999988368058</v>
       </c>
       <c r="K31" s="6" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="L31" s="2" t="s">
         <v>118</v>
@@ -6474,16 +7353,16 @@
         <v>508</v>
       </c>
       <c r="D32" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>605</v>
       </c>
-      <c r="E32" s="2" t="s">
-        <v>606</v>
-      </c>
       <c r="F32" s="2" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="H32" s="2">
         <v>2</v>
@@ -6495,10 +7374,10 @@
         <v>43538.999988368058</v>
       </c>
       <c r="K32" s="6" t="s">
+        <v>607</v>
+      </c>
+      <c r="L32" s="2" t="s">
         <v>608</v>
-      </c>
-      <c r="L32" s="2" t="s">
-        <v>609</v>
       </c>
       <c r="M32" s="4">
         <v>43479.378148148149</v>
@@ -6518,16 +7397,16 @@
         <v>508</v>
       </c>
       <c r="D33" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="F33" s="2" t="s">
         <v>611</v>
       </c>
-      <c r="E33" s="2" t="s">
-        <v>614</v>
-      </c>
-      <c r="F33" s="2" t="s">
+      <c r="G33" s="2" t="s">
         <v>612</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>613</v>
       </c>
       <c r="H33" s="2">
         <v>2</v>
@@ -6539,10 +7418,10 @@
         <v>43538.999988368058</v>
       </c>
       <c r="K33" s="6" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="M33" s="4">
         <v>43479.381909722222</v>
@@ -6568,10 +7447,10 @@
         <v>205</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H34" s="2">
         <v>1</v>
@@ -6583,7 +7462,7 @@
         <v>43539.999988368058</v>
       </c>
       <c r="K34" s="6" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="L34" s="2" t="s">
         <v>207</v>
@@ -6612,7 +7491,7 @@
         <v>209</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>210</v>
@@ -6703,7 +7582,7 @@
         <v>225</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H37" s="2">
         <v>2</v>
@@ -6715,7 +7594,7 @@
         <v>43539.999988368058</v>
       </c>
       <c r="K37" s="6" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="L37" s="2" t="s">
         <v>219</v>
@@ -6747,7 +7626,7 @@
         <v>206</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H38" s="2">
         <v>1</v>
@@ -6759,7 +7638,7 @@
         <v>43539.999988368058</v>
       </c>
       <c r="K38" s="6" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="L38" s="2" t="s">
         <v>223</v>
@@ -6782,16 +7661,16 @@
         <v>502</v>
       </c>
       <c r="D39" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="E39" s="2" t="s">
+      <c r="F39" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="F39" s="2" t="s">
+      <c r="G39" s="2" t="s">
         <v>373</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>374</v>
       </c>
       <c r="H39" s="2">
         <v>2</v>
@@ -6803,10 +7682,10 @@
         <v>43539.999988368058</v>
       </c>
       <c r="K39" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="L39" s="2" t="s">
         <v>374</v>
-      </c>
-      <c r="L39" s="2" t="s">
-        <v>375</v>
       </c>
       <c r="M39" s="4">
         <v>43480.417557870373</v>
@@ -6826,16 +7705,16 @@
         <v>502</v>
       </c>
       <c r="D40" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="E40" s="2" t="s">
         <v>376</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>377</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>213</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H40" s="2">
         <v>1</v>
@@ -6847,10 +7726,10 @@
         <v>43539.999988368058</v>
       </c>
       <c r="K40" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="L40" s="2" t="s">
         <v>378</v>
-      </c>
-      <c r="L40" s="2" t="s">
-        <v>379</v>
       </c>
       <c r="M40" s="4">
         <v>43480.421307870369</v>
@@ -6870,16 +7749,16 @@
         <v>502</v>
       </c>
       <c r="D41" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>380</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>381</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>218</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H41" s="2">
         <v>2</v>
@@ -6891,10 +7770,10 @@
         <v>43539.999988368058</v>
       </c>
       <c r="K41" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="L41" s="2" t="s">
         <v>382</v>
-      </c>
-      <c r="L41" s="2" t="s">
-        <v>383</v>
       </c>
       <c r="M41" s="4">
         <v>43480.428981481484</v>
@@ -6914,16 +7793,16 @@
         <v>502</v>
       </c>
       <c r="D42" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>384</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>385</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>222</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H42" s="2">
         <v>1</v>
@@ -6935,10 +7814,10 @@
         <v>43539.999988368058</v>
       </c>
       <c r="K42" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="L42" s="2" t="s">
         <v>386</v>
-      </c>
-      <c r="L42" s="2" t="s">
-        <v>387</v>
       </c>
       <c r="M42" s="4">
         <v>43480.437777777777</v>
@@ -6958,16 +7837,16 @@
         <v>502</v>
       </c>
       <c r="D43" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>388</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>389</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>226</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H43" s="2">
         <v>1</v>
@@ -6979,10 +7858,10 @@
         <v>43539.999988368058</v>
       </c>
       <c r="K43" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="L43" s="2" t="s">
         <v>390</v>
-      </c>
-      <c r="L43" s="2" t="s">
-        <v>391</v>
       </c>
       <c r="M43" s="4">
         <v>43480.446944444448</v>
@@ -7002,16 +7881,16 @@
         <v>502</v>
       </c>
       <c r="D44" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>392</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>393</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>227</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H44" s="2">
         <v>4</v>
@@ -7023,10 +7902,10 @@
         <v>43539.999988368058</v>
       </c>
       <c r="K44" s="6" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="M44" s="4">
         <v>43480.460914351854</v>
@@ -7046,16 +7925,16 @@
         <v>502</v>
       </c>
       <c r="D45" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="E45" s="2" t="s">
+      <c r="F45" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="F45" s="2" t="s">
+      <c r="G45" s="2" t="s">
         <v>398</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>399</v>
       </c>
       <c r="H45" s="2">
         <v>2</v>
@@ -7067,10 +7946,10 @@
         <v>43539.999988368058</v>
       </c>
       <c r="K45" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="L45" s="2" t="s">
         <v>399</v>
-      </c>
-      <c r="L45" s="2" t="s">
-        <v>400</v>
       </c>
       <c r="M45" s="4">
         <v>43480.470405092594</v>
@@ -7090,16 +7969,16 @@
         <v>505</v>
       </c>
       <c r="D46" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="E46" s="2" t="s">
+      <c r="F46" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="G46" s="2" t="s">
         <v>402</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="G46" s="2" t="s">
-        <v>403</v>
       </c>
       <c r="H46" s="2">
         <v>6</v>
@@ -7111,10 +7990,10 @@
         <v>43539.999988368058</v>
       </c>
       <c r="K46" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="L46" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="M46" s="4">
         <v>43480.474641203706</v>
@@ -7143,7 +8022,7 @@
         <v>229</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H47" s="2">
         <v>0</v>
@@ -7155,7 +8034,7 @@
         <v>43540.999988368058</v>
       </c>
       <c r="K47" s="6" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="L47" s="2" t="s">
         <v>131</v>
@@ -7187,7 +8066,7 @@
         <v>230</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H48" s="2">
         <v>1</v>
@@ -7199,7 +8078,7 @@
         <v>43540.999988368058</v>
       </c>
       <c r="K48" s="6" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="L48" s="2" t="s">
         <v>134</v>
@@ -7222,16 +8101,16 @@
         <v>502</v>
       </c>
       <c r="D49" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="E49" s="2" t="s">
+      <c r="F49" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="F49" s="2" t="s">
-        <v>407</v>
-      </c>
       <c r="G49" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H49" s="2">
         <v>1</v>
@@ -7243,10 +8122,10 @@
         <v>43540.999988368058</v>
       </c>
       <c r="K49" s="6" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="L49" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="M49" s="4">
         <v>43481.393090277779</v>
@@ -7272,10 +8151,10 @@
         <v>155</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H50" s="2">
         <v>1</v>
@@ -7287,7 +8166,7 @@
         <v>43541.999988368058</v>
       </c>
       <c r="K50" s="6" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="L50" s="2" t="s">
         <v>156</v>
@@ -7316,10 +8195,10 @@
         <v>158</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H51" s="2">
         <v>1</v>
@@ -7331,7 +8210,7 @@
         <v>43541.999988368058</v>
       </c>
       <c r="K51" s="6" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="L51" s="2" t="s">
         <v>115</v>
@@ -7360,10 +8239,10 @@
         <v>160</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H52" s="2">
         <v>1</v>
@@ -7375,7 +8254,7 @@
         <v>43541.999988368058</v>
       </c>
       <c r="K52" s="6" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="L52" s="2" t="s">
         <v>161</v>
@@ -7398,13 +8277,13 @@
         <v>504</v>
       </c>
       <c r="D53" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="E53" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="E53" s="2" t="s">
+      <c r="F53" s="2" t="s">
         <v>429</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>430</v>
       </c>
       <c r="G53" s="2" t="s">
         <v>253</v>
@@ -7448,10 +8327,10 @@
         <v>163</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H54" s="2">
         <v>1</v>
@@ -7463,7 +8342,7 @@
         <v>43542.999988368058</v>
       </c>
       <c r="K54" s="6" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="L54" s="2" t="s">
         <v>164</v>
@@ -7492,7 +8371,7 @@
         <v>166</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G55" s="2" t="s">
         <v>267</v>
@@ -7530,16 +8409,16 @@
         <v>506</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>168</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H56" s="2">
         <v>1</v>
@@ -7551,7 +8430,7 @@
         <v>43542.999988368058</v>
       </c>
       <c r="K56" s="6" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="L56" s="2" t="s">
         <v>169</v>
@@ -7580,10 +8459,10 @@
         <v>171</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H57" s="2">
         <v>1</v>
@@ -7595,7 +8474,7 @@
         <v>43542.999988368058</v>
       </c>
       <c r="K57" s="6" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="L57" s="2" t="s">
         <v>149</v>
@@ -7624,10 +8503,10 @@
         <v>173</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H58" s="2">
         <v>1</v>
@@ -7639,7 +8518,7 @@
         <v>43542.999988368058</v>
       </c>
       <c r="K58" s="6" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="L58" s="2" t="s">
         <v>137</v>
@@ -7662,16 +8541,16 @@
         <v>506</v>
       </c>
       <c r="D59" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="E59" s="2" t="s">
         <v>567</v>
       </c>
-      <c r="E59" s="2" t="s">
+      <c r="F59" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="G59" s="2" t="s">
         <v>568</v>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>570</v>
-      </c>
-      <c r="G59" s="2" t="s">
-        <v>569</v>
       </c>
       <c r="H59" s="2">
         <v>1</v>
@@ -7683,7 +8562,7 @@
         <v>43542.999988368058</v>
       </c>
       <c r="K59" s="6" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="L59" s="2" t="s">
         <v>137</v>
@@ -7706,16 +8585,16 @@
         <v>508</v>
       </c>
       <c r="D60" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="F60" s="2" t="s">
         <v>616</v>
       </c>
-      <c r="E60" s="2" t="s">
-        <v>615</v>
-      </c>
-      <c r="F60" s="2" t="s">
+      <c r="G60" s="2" t="s">
         <v>617</v>
-      </c>
-      <c r="G60" s="2" t="s">
-        <v>618</v>
       </c>
       <c r="H60" s="2">
         <v>3</v>
@@ -7727,10 +8606,10 @@
         <v>43543.999988368058</v>
       </c>
       <c r="K60" s="6" t="s">
+        <v>617</v>
+      </c>
+      <c r="L60" s="2" t="s">
         <v>618</v>
-      </c>
-      <c r="L60" s="2" t="s">
-        <v>619</v>
       </c>
       <c r="M60" s="4">
         <v>43484.417175925926</v>
@@ -7750,16 +8629,16 @@
         <v>508</v>
       </c>
       <c r="D61" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="E61" s="2" t="s">
         <v>620</v>
       </c>
-      <c r="E61" s="2" t="s">
+      <c r="F61" s="2" t="s">
         <v>621</v>
       </c>
-      <c r="F61" s="2" t="s">
+      <c r="G61" s="2" t="s">
         <v>622</v>
-      </c>
-      <c r="G61" s="2" t="s">
-        <v>623</v>
       </c>
       <c r="H61" s="2">
         <v>3</v>
@@ -7771,10 +8650,10 @@
         <v>43543.999988368058</v>
       </c>
       <c r="K61" s="6" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="L61" s="2" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="M61" s="4">
         <v>43484.424386574072</v>
@@ -7794,16 +8673,16 @@
         <v>508</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E62" s="2" t="s">
+        <v>625</v>
+      </c>
+      <c r="F62" s="2" t="s">
         <v>626</v>
       </c>
-      <c r="F62" s="2" t="s">
+      <c r="G62" s="2" t="s">
         <v>627</v>
-      </c>
-      <c r="G62" s="2" t="s">
-        <v>628</v>
       </c>
       <c r="H62" s="2">
         <v>2</v>
@@ -7815,10 +8694,10 @@
         <v>43543.999988368058</v>
       </c>
       <c r="K62" s="6" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="L62" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="M62" s="4">
         <v>43484.43372685185</v>
@@ -7838,16 +8717,16 @@
         <v>508</v>
       </c>
       <c r="D63" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="F63" s="2" t="s">
         <v>631</v>
       </c>
-      <c r="E63" s="2" t="s">
-        <v>630</v>
-      </c>
-      <c r="F63" s="2" t="s">
+      <c r="G63" s="2" t="s">
         <v>632</v>
-      </c>
-      <c r="G63" s="2" t="s">
-        <v>633</v>
       </c>
       <c r="H63" s="2">
         <v>2</v>
@@ -7859,10 +8738,10 @@
         <v>43543.999988368058</v>
       </c>
       <c r="K63" s="6" t="s">
+        <v>632</v>
+      </c>
+      <c r="L63" s="2" t="s">
         <v>633</v>
-      </c>
-      <c r="L63" s="2" t="s">
-        <v>634</v>
       </c>
       <c r="M63" s="4">
         <v>43484.442442129628</v>
@@ -7882,16 +8761,16 @@
         <v>508</v>
       </c>
       <c r="D64" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="F64" s="2" t="s">
         <v>636</v>
       </c>
-      <c r="E64" s="2" t="s">
-        <v>635</v>
-      </c>
-      <c r="F64" s="2" t="s">
+      <c r="G64" s="2" t="s">
         <v>637</v>
-      </c>
-      <c r="G64" s="2" t="s">
-        <v>638</v>
       </c>
       <c r="H64" s="2">
         <v>4</v>
@@ -7903,7 +8782,7 @@
         <v>43543.999988368058</v>
       </c>
       <c r="K64" s="6" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="L64" s="2" t="s">
         <v>188</v>
@@ -7926,16 +8805,16 @@
         <v>508</v>
       </c>
       <c r="D65" s="2" t="s">
+        <v>639</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="F65" s="2" t="s">
         <v>640</v>
       </c>
-      <c r="E65" s="2" t="s">
-        <v>639</v>
-      </c>
-      <c r="F65" s="2" t="s">
+      <c r="G65" s="2" t="s">
         <v>641</v>
-      </c>
-      <c r="G65" s="2" t="s">
-        <v>642</v>
       </c>
       <c r="H65" s="2">
         <v>3</v>
@@ -7947,10 +8826,10 @@
         <v>43543.999988368058</v>
       </c>
       <c r="K65" s="6" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="L65" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="M65" s="4">
         <v>43484.457743055558</v>
@@ -7991,7 +8870,7 @@
         <v>43544.999988368058</v>
       </c>
       <c r="K66" s="6" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="L66" s="2" t="s">
         <v>137</v>
@@ -8058,16 +8937,16 @@
         <v>501</v>
       </c>
       <c r="D68" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="E68" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="E68" s="2" t="s">
+      <c r="F68" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="F68" s="2" t="s">
-        <v>336</v>
-      </c>
       <c r="G68" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="H68" s="2">
         <v>5</v>
@@ -8079,10 +8958,10 @@
         <v>43544.999988368058</v>
       </c>
       <c r="K68" s="6" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="L68" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="M68" s="4">
         <v>43485.566145833334</v>
@@ -8123,7 +9002,7 @@
         <v>43544.999988368058</v>
       </c>
       <c r="K69" s="6" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="L69" s="2" t="s">
         <v>188</v>
@@ -8167,7 +9046,7 @@
         <v>43544.999988368058</v>
       </c>
       <c r="K70" s="6" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="L70" s="2" t="s">
         <v>193</v>
@@ -8190,16 +9069,16 @@
         <v>501</v>
       </c>
       <c r="D71" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="E71" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="E71" s="2" t="s">
+      <c r="F71" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="F71" s="2" t="s">
+      <c r="G71" s="2" t="s">
         <v>341</v>
-      </c>
-      <c r="G71" s="2" t="s">
-        <v>342</v>
       </c>
       <c r="H71" s="2">
         <v>2</v>
@@ -8211,7 +9090,7 @@
         <v>43544.999988368058</v>
       </c>
       <c r="K71" s="6" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="L71" s="2" t="s">
         <v>193</v>
@@ -8255,7 +9134,7 @@
         <v>43544.999988368058</v>
       </c>
       <c r="K72" s="6" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="L72" s="2" t="s">
         <v>203</v>
@@ -8284,7 +9163,7 @@
         <v>200</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="G73" s="2" t="s">
         <v>253</v>
@@ -8328,7 +9207,7 @@
         <v>179</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="G74" s="2" t="s">
         <v>181</v>
@@ -8372,10 +9251,10 @@
         <v>139</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H75" s="2">
         <v>1</v>
@@ -8387,7 +9266,7 @@
         <v>43545.999988368058</v>
       </c>
       <c r="K75" s="6" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="L75" s="2" t="s">
         <v>140</v>
@@ -8416,10 +9295,10 @@
         <v>142</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H76" s="2">
         <v>1</v>
@@ -8431,7 +9310,7 @@
         <v>43545.999988368058</v>
       </c>
       <c r="K76" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="L76" s="2" t="s">
         <v>143</v>
@@ -8460,7 +9339,7 @@
         <v>145</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="G77" s="2" t="s">
         <v>260</v>
@@ -8504,7 +9383,7 @@
         <v>195</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="G78" s="2" t="s">
         <v>196</v>
@@ -8551,7 +9430,7 @@
         <v>244</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H79" s="2">
         <v>1</v>
@@ -8563,7 +9442,7 @@
         <v>43546.999988368058</v>
       </c>
       <c r="K79" s="6" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="L79" s="2" t="s">
         <v>137</v>
@@ -8630,16 +9509,16 @@
         <v>503</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H81" s="2">
         <v>2</v>
@@ -8651,10 +9530,10 @@
         <v>43546.999988368058</v>
       </c>
       <c r="K81" s="6" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="L81" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="M81" s="4">
         <v>43487.396562499998</v>
@@ -8674,16 +9553,16 @@
         <v>503</v>
       </c>
       <c r="D82" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="G82" s="2" t="s">
         <v>363</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="F82" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="G82" s="2" t="s">
-        <v>364</v>
       </c>
       <c r="H82" s="2">
         <v>2</v>
@@ -8695,7 +9574,7 @@
         <v>43546.999988368058</v>
       </c>
       <c r="K82" s="6" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="L82" s="2" t="s">
         <v>134</v>
@@ -8718,16 +9597,16 @@
         <v>504</v>
       </c>
       <c r="D83" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="E83" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="E83" s="2" t="s">
+      <c r="F83" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="G83" s="2" t="s">
         <v>432</v>
-      </c>
-      <c r="F83" s="2" t="s">
-        <v>434</v>
-      </c>
-      <c r="G83" s="2" t="s">
-        <v>433</v>
       </c>
       <c r="H83" s="2">
         <v>3</v>
@@ -8739,10 +9618,10 @@
         <v>43547.999988368058</v>
       </c>
       <c r="K83" s="6" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="L83" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="M83" s="4">
         <v>43488.3752662037</v>
@@ -8762,16 +9641,16 @@
         <v>504</v>
       </c>
       <c r="D84" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="E84" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="E84" s="2" t="s">
+      <c r="F84" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="F84" s="2" t="s">
-        <v>437</v>
-      </c>
       <c r="G84" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H84" s="2">
         <v>3</v>
@@ -8783,10 +9662,10 @@
         <v>43547.999988368058</v>
       </c>
       <c r="K84" s="6" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="L84" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="M84" s="4">
         <v>43488.381736111114</v>
@@ -8806,16 +9685,16 @@
         <v>504</v>
       </c>
       <c r="D85" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="E85" s="2" t="s">
         <v>440</v>
       </c>
-      <c r="E85" s="2" t="s">
-        <v>441</v>
-      </c>
       <c r="F85" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="G85" s="2" t="s">
         <v>443</v>
-      </c>
-      <c r="G85" s="2" t="s">
-        <v>444</v>
       </c>
       <c r="H85" s="2">
         <v>2</v>
@@ -8827,10 +9706,10 @@
         <v>43547.999988368058</v>
       </c>
       <c r="K85" s="6" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="L85" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="M85" s="4">
         <v>43488.394780092596</v>
@@ -8850,16 +9729,16 @@
         <v>504</v>
       </c>
       <c r="D86" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="E86" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="E86" s="2" t="s">
-        <v>446</v>
-      </c>
       <c r="F86" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="G86" s="2" t="s">
         <v>448</v>
-      </c>
-      <c r="G86" s="2" t="s">
-        <v>449</v>
       </c>
       <c r="H86" s="2">
         <v>2</v>
@@ -8871,10 +9750,10 @@
         <v>43547.999988368058</v>
       </c>
       <c r="K86" s="6" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="L86" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="M86" s="4">
         <v>43488.409629629627</v>
@@ -8894,13 +9773,13 @@
         <v>504</v>
       </c>
       <c r="D87" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="E87" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="E87" s="2" t="s">
+      <c r="F87" s="2" t="s">
         <v>451</v>
-      </c>
-      <c r="F87" s="2" t="s">
-        <v>452</v>
       </c>
       <c r="G87" s="2" t="s">
         <v>182</v>
@@ -8918,7 +9797,7 @@
         <v>182</v>
       </c>
       <c r="L87" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="M87" s="4">
         <v>43488.415590277778</v>
@@ -8938,16 +9817,16 @@
         <v>504</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="H88" s="2">
         <v>3</v>
@@ -8959,10 +9838,10 @@
         <v>43547.999988368058</v>
       </c>
       <c r="K88" s="6" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="L88" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="M88" s="4">
         <v>43488.424363425926</v>
@@ -8982,16 +9861,16 @@
         <v>504</v>
       </c>
       <c r="D89" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="E89" s="2" t="s">
         <v>458</v>
       </c>
-      <c r="E89" s="2" t="s">
-        <v>459</v>
-      </c>
       <c r="F89" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="H89" s="2">
         <v>5</v>
@@ -9003,10 +9882,10 @@
         <v>43547.999988368058</v>
       </c>
       <c r="K89" s="6" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="L89" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="M89" s="4">
         <v>43488.437094907407</v>
@@ -9026,13 +9905,13 @@
         <v>504</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="G90" s="2" t="s">
         <v>182</v>
@@ -9050,7 +9929,7 @@
         <v>182</v>
       </c>
       <c r="L90" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="M90" s="4">
         <v>43488.457083333335</v>
@@ -9070,16 +9949,16 @@
         <v>505</v>
       </c>
       <c r="D91" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="E91" s="2" t="s">
         <v>503</v>
       </c>
-      <c r="E91" s="2" t="s">
+      <c r="F91" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="G91" s="2" t="s">
         <v>504</v>
-      </c>
-      <c r="F91" s="2" t="s">
-        <v>427</v>
-      </c>
-      <c r="G91" s="2" t="s">
-        <v>505</v>
       </c>
       <c r="H91" s="2">
         <v>10</v>
@@ -9091,7 +9970,7 @@
         <v>43548.999988368058</v>
       </c>
       <c r="K91" s="6" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="L91" s="2" t="s">
         <v>137</v>
@@ -9114,16 +9993,16 @@
         <v>505</v>
       </c>
       <c r="D92" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="E92" s="2" t="s">
         <v>479</v>
       </c>
-      <c r="E92" s="2" t="s">
+      <c r="F92" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="G92" s="2" t="s">
         <v>480</v>
-      </c>
-      <c r="F92" s="2" t="s">
-        <v>482</v>
-      </c>
-      <c r="G92" s="2" t="s">
-        <v>481</v>
       </c>
       <c r="H92" s="2">
         <v>5</v>
@@ -9135,10 +10014,10 @@
         <v>43548.999988368058</v>
       </c>
       <c r="K92" s="6" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="L92" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="M92" s="4">
         <v>43489.389675925922</v>
@@ -9158,16 +10037,16 @@
         <v>505</v>
       </c>
       <c r="D93" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="E93" s="2" t="s">
         <v>483</v>
       </c>
-      <c r="E93" s="2" t="s">
+      <c r="F93" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="G93" s="2" t="s">
         <v>484</v>
-      </c>
-      <c r="F93" s="2" t="s">
-        <v>486</v>
-      </c>
-      <c r="G93" s="2" t="s">
-        <v>485</v>
       </c>
       <c r="H93" s="2">
         <v>4</v>
@@ -9179,10 +10058,10 @@
         <v>43548.999988368058</v>
       </c>
       <c r="K93" s="6" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="L93" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="M93" s="4">
         <v>43489.40320601852</v>
@@ -9202,16 +10081,16 @@
         <v>505</v>
       </c>
       <c r="D94" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="E94" s="2" t="s">
         <v>487</v>
       </c>
-      <c r="E94" s="2" t="s">
+      <c r="F94" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="G94" s="2" t="s">
         <v>488</v>
-      </c>
-      <c r="F94" s="2" t="s">
-        <v>490</v>
-      </c>
-      <c r="G94" s="2" t="s">
-        <v>489</v>
       </c>
       <c r="H94" s="2">
         <v>4</v>
@@ -9223,7 +10102,7 @@
         <v>43548.999988368058</v>
       </c>
       <c r="K94" s="6" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="L94" s="2" t="s">
         <v>137</v>
@@ -9246,16 +10125,16 @@
         <v>505</v>
       </c>
       <c r="D95" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="E95" s="2" t="s">
         <v>491</v>
       </c>
-      <c r="E95" s="2" t="s">
+      <c r="F95" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="G95" s="2" t="s">
         <v>492</v>
-      </c>
-      <c r="F95" s="2" t="s">
-        <v>494</v>
-      </c>
-      <c r="G95" s="2" t="s">
-        <v>493</v>
       </c>
       <c r="H95" s="2">
         <v>4</v>
@@ -9267,10 +10146,10 @@
         <v>43548.999988368058</v>
       </c>
       <c r="K95" s="6" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="L95" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="M95" s="4">
         <v>43489.42015046296</v>
@@ -9290,16 +10169,16 @@
         <v>505</v>
       </c>
       <c r="D96" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="E96" s="2" t="s">
         <v>495</v>
       </c>
-      <c r="E96" s="2" t="s">
+      <c r="F96" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="G96" s="2" t="s">
         <v>496</v>
-      </c>
-      <c r="F96" s="2" t="s">
-        <v>498</v>
-      </c>
-      <c r="G96" s="2" t="s">
-        <v>497</v>
       </c>
       <c r="H96" s="2">
         <v>5</v>
@@ -9311,10 +10190,10 @@
         <v>43548.999988368058</v>
       </c>
       <c r="K96" s="6" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="L96" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="M96" s="4">
         <v>43489.43445601852</v>
@@ -9334,16 +10213,16 @@
         <v>505</v>
       </c>
       <c r="D97" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="E97" s="2" t="s">
         <v>499</v>
       </c>
-      <c r="E97" s="2" t="s">
+      <c r="F97" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="G97" s="2" t="s">
         <v>500</v>
-      </c>
-      <c r="F97" s="2" t="s">
-        <v>502</v>
-      </c>
-      <c r="G97" s="2" t="s">
-        <v>501</v>
       </c>
       <c r="H97" s="2">
         <v>10</v>
@@ -9355,10 +10234,10 @@
         <v>43548.999988368058</v>
       </c>
       <c r="K97" s="6" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="L97" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="M97" s="4">
         <v>43489.44358796296</v>
@@ -9378,13 +10257,13 @@
         <v>506</v>
       </c>
       <c r="D98" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="E98" s="2" t="s">
         <v>571</v>
       </c>
-      <c r="E98" s="2" t="s">
+      <c r="F98" s="2" t="s">
         <v>572</v>
-      </c>
-      <c r="F98" s="2" t="s">
-        <v>573</v>
       </c>
       <c r="G98" s="2" t="s">
         <v>176</v>
@@ -9422,16 +10301,16 @@
         <v>506</v>
       </c>
       <c r="D99" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="E99" s="2" t="s">
         <v>574</v>
       </c>
-      <c r="E99" s="2" t="s">
+      <c r="F99" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="G99" s="2" t="s">
         <v>575</v>
-      </c>
-      <c r="F99" s="2" t="s">
-        <v>579</v>
-      </c>
-      <c r="G99" s="2" t="s">
-        <v>576</v>
       </c>
       <c r="H99" s="2">
         <v>2</v>
@@ -9443,10 +10322,10 @@
         <v>43549.999988368058</v>
       </c>
       <c r="K99" s="6" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="L99" s="2" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="M99" s="4">
         <v>43490.379166666666</v>
@@ -9466,16 +10345,16 @@
         <v>506</v>
       </c>
       <c r="D100" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="E100" s="2" t="s">
         <v>580</v>
       </c>
-      <c r="E100" s="2" t="s">
-        <v>581</v>
-      </c>
       <c r="F100" s="2" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H100" s="2">
         <v>2</v>
@@ -9487,10 +10366,10 @@
         <v>43549.999988368058</v>
       </c>
       <c r="K100" s="6" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="L100" s="2" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="M100" s="4">
         <v>43490.391504629632</v>
@@ -9510,13 +10389,13 @@
         <v>506</v>
       </c>
       <c r="D101" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="E101" s="2" t="s">
         <v>584</v>
       </c>
-      <c r="E101" s="2" t="s">
+      <c r="F101" s="2" t="s">
         <v>585</v>
-      </c>
-      <c r="F101" s="2" t="s">
-        <v>586</v>
       </c>
       <c r="G101" s="2" t="s">
         <v>210</v>
@@ -9554,16 +10433,16 @@
         <v>507</v>
       </c>
       <c r="D102" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="E102" s="2" t="s">
         <v>588</v>
       </c>
-      <c r="E102" s="2" t="s">
+      <c r="F102" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="G102" s="2" t="s">
         <v>589</v>
-      </c>
-      <c r="F102" s="2" t="s">
-        <v>592</v>
-      </c>
-      <c r="G102" s="2" t="s">
-        <v>590</v>
       </c>
       <c r="H102" s="2">
         <v>2</v>
@@ -9575,10 +10454,10 @@
         <v>43550.999988368058</v>
       </c>
       <c r="K102" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="L102" s="2" t="s">
         <v>590</v>
-      </c>
-      <c r="L102" s="2" t="s">
-        <v>591</v>
       </c>
       <c r="M102" s="4">
         <v>43491.419606481482</v>
@@ -9598,16 +10477,16 @@
         <v>507</v>
       </c>
       <c r="D103" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="F103" s="2" t="s">
         <v>598</v>
       </c>
-      <c r="E103" s="2" t="s">
-        <v>597</v>
-      </c>
-      <c r="F103" s="2" t="s">
-        <v>599</v>
-      </c>
       <c r="G103" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H103" s="2">
         <v>3</v>
@@ -9619,7 +10498,7 @@
         <v>43550.999988368058</v>
       </c>
       <c r="K103" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="L103" s="2" t="s">
         <v>115</v>
@@ -9642,16 +10521,16 @@
         <v>507</v>
       </c>
       <c r="D104" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="F104" s="2" t="s">
         <v>601</v>
       </c>
-      <c r="E104" s="2" t="s">
-        <v>600</v>
-      </c>
-      <c r="F104" s="2" t="s">
+      <c r="G104" s="2" t="s">
         <v>602</v>
-      </c>
-      <c r="G104" s="2" t="s">
-        <v>603</v>
       </c>
       <c r="H104" s="2">
         <v>3</v>
@@ -9663,10 +10542,10 @@
         <v>43550.999988368058</v>
       </c>
       <c r="K104" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="L104" s="2" t="s">
         <v>603</v>
-      </c>
-      <c r="L104" s="2" t="s">
-        <v>604</v>
       </c>
       <c r="M104" s="4">
         <v>43491.429849537039</v>
@@ -9686,16 +10565,16 @@
         <v>508</v>
       </c>
       <c r="D105" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>645</v>
+      </c>
+      <c r="F105" s="2" t="s">
         <v>643</v>
       </c>
-      <c r="E105" s="2" t="s">
-        <v>646</v>
-      </c>
-      <c r="F105" s="2" t="s">
+      <c r="G105" s="2" t="s">
         <v>644</v>
-      </c>
-      <c r="G105" s="2" t="s">
-        <v>645</v>
       </c>
       <c r="H105" s="2">
         <v>5</v>
@@ -9707,15 +10586,1203 @@
         <v>43551.999988368058</v>
       </c>
       <c r="K105" s="2" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="L105" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="M105" s="4">
         <v>43492.542129629626</v>
       </c>
       <c r="N105" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A106" s="2">
+        <v>1800001</v>
+      </c>
+      <c r="B106" s="2">
+        <v>18</v>
+      </c>
+      <c r="C106" s="2">
+        <v>503</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>813</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>814</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>854</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="H106" s="2">
+        <v>1</v>
+      </c>
+      <c r="I106" s="2">
+        <v>1</v>
+      </c>
+      <c r="J106" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="K106" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="L106" s="2" t="s">
+        <v>882</v>
+      </c>
+      <c r="M106" s="4">
+        <v>43437</v>
+      </c>
+      <c r="N106" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A107" s="2">
+        <v>1800002</v>
+      </c>
+      <c r="B107" s="2">
+        <v>18</v>
+      </c>
+      <c r="C107" s="2">
+        <v>503</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>815</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>816</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>855</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="H107" s="2">
+        <v>2</v>
+      </c>
+      <c r="I107" s="2">
+        <v>1</v>
+      </c>
+      <c r="J107" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="K107" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="L107" s="2" t="s">
+        <v>887</v>
+      </c>
+      <c r="M107" s="4">
+        <v>43439</v>
+      </c>
+      <c r="N107" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A108" s="2">
+        <v>1800003</v>
+      </c>
+      <c r="B108" s="2">
+        <v>18</v>
+      </c>
+      <c r="C108" s="2">
+        <v>503</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>817</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>818</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>856</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="H108" s="2">
+        <v>3</v>
+      </c>
+      <c r="I108" s="2">
+        <v>1</v>
+      </c>
+      <c r="J108" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="K108" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="L108" s="2" t="s">
+        <v>887</v>
+      </c>
+      <c r="M108" s="4">
+        <v>43442</v>
+      </c>
+      <c r="N108" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A109" s="2">
+        <v>1800004</v>
+      </c>
+      <c r="B109" s="2">
+        <v>18</v>
+      </c>
+      <c r="C109" s="2">
+        <v>503</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>819</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>820</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>857</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>668</v>
+      </c>
+      <c r="H109" s="2">
+        <v>4</v>
+      </c>
+      <c r="I109" s="2">
+        <v>1</v>
+      </c>
+      <c r="J109" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="K109" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="L109" s="2" t="s">
+        <v>883</v>
+      </c>
+      <c r="M109" s="4">
+        <v>43444</v>
+      </c>
+      <c r="N109" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A110" s="2">
+        <v>1800005</v>
+      </c>
+      <c r="B110" s="2">
+        <v>18</v>
+      </c>
+      <c r="C110" s="2">
+        <v>503</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>821</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>822</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>858</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>879</v>
+      </c>
+      <c r="H110" s="2">
+        <v>5</v>
+      </c>
+      <c r="I110" s="2">
+        <v>1</v>
+      </c>
+      <c r="J110" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="K110" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="L110" s="2" t="s">
+        <v>884</v>
+      </c>
+      <c r="M110" s="4">
+        <v>43444</v>
+      </c>
+      <c r="N110" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A111" s="2">
+        <v>1800006</v>
+      </c>
+      <c r="B111" s="2">
+        <v>18</v>
+      </c>
+      <c r="C111" s="2">
+        <v>503</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>823</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>824</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>859</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="H111" s="2">
+        <v>1</v>
+      </c>
+      <c r="I111" s="2">
+        <v>1</v>
+      </c>
+      <c r="J111" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="K111" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="L111" s="2" t="s">
+        <v>887</v>
+      </c>
+      <c r="M111" s="4">
+        <v>43444</v>
+      </c>
+      <c r="N111" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A112" s="2">
+        <v>1800007</v>
+      </c>
+      <c r="B112" s="2">
+        <v>18</v>
+      </c>
+      <c r="C112" s="2">
+        <v>503</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>825</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>826</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>860</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="H112" s="2">
+        <v>2</v>
+      </c>
+      <c r="I112" s="2">
+        <v>1</v>
+      </c>
+      <c r="J112" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="K112" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="L112" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="M112" s="4">
+        <v>43448</v>
+      </c>
+      <c r="N112" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A113" s="2">
+        <v>1800008</v>
+      </c>
+      <c r="B113" s="2">
+        <v>18</v>
+      </c>
+      <c r="C113" s="2">
+        <v>503</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>827</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>828</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>861</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="H113" s="2">
+        <v>3</v>
+      </c>
+      <c r="I113" s="2">
+        <v>1</v>
+      </c>
+      <c r="J113" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="K113" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="L113" s="2" t="s">
+        <v>887</v>
+      </c>
+      <c r="M113" s="4">
+        <v>43450</v>
+      </c>
+      <c r="N113" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A114" s="2">
+        <v>1800009</v>
+      </c>
+      <c r="B114" s="2">
+        <v>18</v>
+      </c>
+      <c r="C114" s="2">
+        <v>503</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>829</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>830</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>862</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>879</v>
+      </c>
+      <c r="H114" s="2">
+        <v>4</v>
+      </c>
+      <c r="I114" s="2">
+        <v>1</v>
+      </c>
+      <c r="J114" s="4">
+        <v>43555</v>
+      </c>
+      <c r="K114" s="2" t="s">
+        <v>668</v>
+      </c>
+      <c r="L114" s="2" t="s">
+        <v>883</v>
+      </c>
+      <c r="M114" s="4">
+        <v>43450</v>
+      </c>
+      <c r="N114" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A115" s="2">
+        <v>1800010</v>
+      </c>
+      <c r="B115" s="2">
+        <v>18</v>
+      </c>
+      <c r="C115" s="2">
+        <v>503</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>831</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>831</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>863</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>879</v>
+      </c>
+      <c r="H115" s="2">
+        <v>5</v>
+      </c>
+      <c r="I115" s="2">
+        <v>1</v>
+      </c>
+      <c r="J115" s="4">
+        <v>43555</v>
+      </c>
+      <c r="K115" s="2" t="s">
+        <v>668</v>
+      </c>
+      <c r="L115" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="M115" s="4">
+        <v>43452</v>
+      </c>
+      <c r="N115" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A116" s="2">
+        <v>1800011</v>
+      </c>
+      <c r="B116" s="2">
+        <v>18</v>
+      </c>
+      <c r="C116" s="2">
+        <v>503</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>832</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>832</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>864</v>
+      </c>
+      <c r="G116" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="H116" s="2">
+        <v>1</v>
+      </c>
+      <c r="I116" s="2">
+        <v>1</v>
+      </c>
+      <c r="J116" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="K116" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="L116" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="M116" s="4">
+        <v>43453</v>
+      </c>
+      <c r="N116" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A117" s="2">
+        <v>1800012</v>
+      </c>
+      <c r="B117" s="2">
+        <v>18</v>
+      </c>
+      <c r="C117" s="2">
+        <v>503</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>833</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>834</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>865</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="H117" s="2">
+        <v>2</v>
+      </c>
+      <c r="I117" s="2">
+        <v>1</v>
+      </c>
+      <c r="J117" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="K117" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="L117" s="2" t="s">
+        <v>884</v>
+      </c>
+      <c r="M117" s="4">
+        <v>43454</v>
+      </c>
+      <c r="N117" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A118" s="2">
+        <v>1800013</v>
+      </c>
+      <c r="B118" s="2">
+        <v>18</v>
+      </c>
+      <c r="C118" s="2">
+        <v>503</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>835</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>835</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>866</v>
+      </c>
+      <c r="G118" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="H118" s="2">
+        <v>3</v>
+      </c>
+      <c r="I118" s="2">
+        <v>0</v>
+      </c>
+      <c r="J118" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="K118" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="L118" s="2" t="s">
+        <v>887</v>
+      </c>
+      <c r="M118" s="4">
+        <v>43455</v>
+      </c>
+      <c r="N118" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A119" s="2">
+        <v>1800014</v>
+      </c>
+      <c r="B119" s="2">
+        <v>18</v>
+      </c>
+      <c r="C119" s="2">
+        <v>503</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>836</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>837</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>867</v>
+      </c>
+      <c r="G119" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="H119" s="2">
+        <v>4</v>
+      </c>
+      <c r="I119" s="2">
+        <v>1</v>
+      </c>
+      <c r="J119" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="K119" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="L119" s="2" t="s">
+        <v>882</v>
+      </c>
+      <c r="M119" s="4">
+        <v>43458</v>
+      </c>
+      <c r="N119" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A120" s="2">
+        <v>1800015</v>
+      </c>
+      <c r="B120" s="2">
+        <v>18</v>
+      </c>
+      <c r="C120" s="2">
+        <v>503</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>838</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>839</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>868</v>
+      </c>
+      <c r="G120" s="2" t="s">
+        <v>879</v>
+      </c>
+      <c r="H120" s="2">
+        <v>5</v>
+      </c>
+      <c r="I120" s="2">
+        <v>1</v>
+      </c>
+      <c r="J120" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="K120" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="L120" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="M120" s="4">
+        <v>43459</v>
+      </c>
+      <c r="N120" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A121" s="2">
+        <v>1800016</v>
+      </c>
+      <c r="B121" s="2">
+        <v>18</v>
+      </c>
+      <c r="C121" s="2">
+        <v>503</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>840</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>840</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>869</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="H121" s="2">
+        <v>1</v>
+      </c>
+      <c r="I121" s="2">
+        <v>1</v>
+      </c>
+      <c r="J121" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="K121" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="L121" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="M121" s="4">
+        <v>43473</v>
+      </c>
+      <c r="N121" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A122" s="2">
+        <v>1800017</v>
+      </c>
+      <c r="B122" s="2">
+        <v>18</v>
+      </c>
+      <c r="C122" s="2">
+        <v>503</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>841</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>841</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>870</v>
+      </c>
+      <c r="G122" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="H122" s="2">
+        <v>2</v>
+      </c>
+      <c r="I122" s="2">
+        <v>1</v>
+      </c>
+      <c r="J122" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="K122" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="L122" s="2" t="s">
+        <v>885</v>
+      </c>
+      <c r="M122" s="4">
+        <v>43474</v>
+      </c>
+      <c r="N122" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A123" s="2">
+        <v>1800018</v>
+      </c>
+      <c r="B123" s="2">
+        <v>18</v>
+      </c>
+      <c r="C123" s="2">
+        <v>503</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>842</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>843</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="H123" s="2">
+        <v>3</v>
+      </c>
+      <c r="I123" s="2">
+        <v>1</v>
+      </c>
+      <c r="J123" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="K123" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="L123" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="M123" s="4">
+        <v>43474</v>
+      </c>
+      <c r="N123" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A124" s="2">
+        <v>1800019</v>
+      </c>
+      <c r="B124" s="2">
+        <v>18</v>
+      </c>
+      <c r="C124" s="2">
+        <v>503</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>844</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>845</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>872</v>
+      </c>
+      <c r="G124" s="2" t="s">
+        <v>879</v>
+      </c>
+      <c r="H124" s="2">
+        <v>4</v>
+      </c>
+      <c r="I124" s="2">
+        <v>1</v>
+      </c>
+      <c r="J124" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="K124" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="L124" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="M124" s="4">
+        <v>43477</v>
+      </c>
+      <c r="N124" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A125" s="2">
+        <v>1800020</v>
+      </c>
+      <c r="B125" s="2">
+        <v>18</v>
+      </c>
+      <c r="C125" s="2">
+        <v>503</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>846</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>846</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>873</v>
+      </c>
+      <c r="G125" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="H125" s="2">
+        <v>5</v>
+      </c>
+      <c r="I125" s="2">
+        <v>1</v>
+      </c>
+      <c r="J125" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="K125" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="L125" s="2" t="s">
+        <v>886</v>
+      </c>
+      <c r="M125" s="4">
+        <v>43490</v>
+      </c>
+      <c r="N125" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A126" s="2">
+        <v>1800021</v>
+      </c>
+      <c r="B126" s="2">
+        <v>18</v>
+      </c>
+      <c r="C126" s="2">
+        <v>503</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>847</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>848</v>
+      </c>
+      <c r="F126" s="2" t="s">
+        <v>874</v>
+      </c>
+      <c r="G126" s="2" t="s">
+        <v>880</v>
+      </c>
+      <c r="H126" s="2">
+        <v>1</v>
+      </c>
+      <c r="I126" s="2">
+        <v>1</v>
+      </c>
+      <c r="J126" s="4">
+        <v>43555</v>
+      </c>
+      <c r="K126" s="2" t="s">
+        <v>881</v>
+      </c>
+      <c r="L126" s="2" t="s">
+        <v>888</v>
+      </c>
+      <c r="M126" s="4">
+        <v>43500</v>
+      </c>
+      <c r="N126" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A127" s="2">
+        <v>1800022</v>
+      </c>
+      <c r="B127" s="2">
+        <v>18</v>
+      </c>
+      <c r="C127" s="2">
+        <v>503</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>849</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>849</v>
+      </c>
+      <c r="F127" s="2" t="s">
+        <v>875</v>
+      </c>
+      <c r="G127" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="H127" s="2">
+        <v>2</v>
+      </c>
+      <c r="I127" s="2">
+        <v>1</v>
+      </c>
+      <c r="J127" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="K127" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="L127" s="2" t="s">
+        <v>887</v>
+      </c>
+      <c r="M127" s="4">
+        <v>43500</v>
+      </c>
+      <c r="N127" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A128" s="2">
+        <v>1800023</v>
+      </c>
+      <c r="B128" s="2">
+        <v>18</v>
+      </c>
+      <c r="C128" s="2">
+        <v>503</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>850</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>850</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>876</v>
+      </c>
+      <c r="G128" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="H128" s="2">
+        <v>3</v>
+      </c>
+      <c r="I128" s="2">
+        <v>1</v>
+      </c>
+      <c r="J128" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="K128" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="L128" s="2" t="s">
+        <v>886</v>
+      </c>
+      <c r="M128" s="4">
+        <v>43503</v>
+      </c>
+      <c r="N128" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A129" s="2">
+        <v>1800024</v>
+      </c>
+      <c r="B129" s="2">
+        <v>18</v>
+      </c>
+      <c r="C129" s="2">
+        <v>503</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>851</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>852</v>
+      </c>
+      <c r="F129" s="2" t="s">
+        <v>877</v>
+      </c>
+      <c r="G129" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="H129" s="2">
+        <v>4</v>
+      </c>
+      <c r="I129" s="2">
+        <v>1</v>
+      </c>
+      <c r="J129" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="K129" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="L129" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="M129" s="4">
+        <v>43504</v>
+      </c>
+      <c r="N129" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A130" s="2">
+        <v>1800025</v>
+      </c>
+      <c r="B130" s="2">
+        <v>18</v>
+      </c>
+      <c r="C130" s="2">
+        <v>503</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>853</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>853</v>
+      </c>
+      <c r="F130" s="2" t="s">
+        <v>878</v>
+      </c>
+      <c r="G130" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="H130" s="2">
+        <v>5</v>
+      </c>
+      <c r="I130" s="2">
+        <v>1</v>
+      </c>
+      <c r="J130" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="K130" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="L130" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="M130" s="4">
+        <v>43513</v>
+      </c>
+      <c r="N130" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A131" s="2">
+        <v>1900001</v>
+      </c>
+      <c r="B131" s="2">
+        <v>19</v>
+      </c>
+      <c r="C131" s="2">
+        <v>508</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>891</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>891</v>
+      </c>
+      <c r="F131" s="2" t="s">
+        <v>893</v>
+      </c>
+      <c r="G131" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="H131" s="2">
+        <v>1</v>
+      </c>
+      <c r="I131" s="2">
+        <v>1</v>
+      </c>
+      <c r="J131" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="K131" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="L131" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="M131" s="4">
+        <v>43516</v>
+      </c>
+      <c r="N131" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A132" s="2">
+        <v>2000001</v>
+      </c>
+      <c r="B132" s="2">
+        <v>20</v>
+      </c>
+      <c r="C132" s="2">
+        <v>508</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>892</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>892</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>894</v>
+      </c>
+      <c r="G132" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="H132" s="2">
+        <v>1</v>
+      </c>
+      <c r="I132" s="2">
+        <v>1</v>
+      </c>
+      <c r="J132" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="K132" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="L132" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="M132" s="4">
+        <v>43518</v>
+      </c>
+      <c r="N132" s="5" t="s">
         <v>0</v>
       </c>
     </row>
@@ -9728,7 +11795,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76D97D7B-15CA-41E8-9326-CD4952F54623}">
   <sheetPr codeName="Feuil5"/>
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -10342,6 +12409,46 @@
         <v>1</v>
       </c>
     </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>10023</v>
+      </c>
+      <c r="C31">
+        <v>19</v>
+      </c>
+      <c r="D31">
+        <v>1900001</v>
+      </c>
+      <c r="E31" s="4">
+        <v>43518.864027777781</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>10024</v>
+      </c>
+      <c r="C32">
+        <v>20</v>
+      </c>
+      <c r="D32">
+        <v>2000001</v>
+      </c>
+      <c r="E32" s="4">
+        <v>43519.478206018517</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10350,7 +12457,7 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FC61E6A-946E-4C12-BB6E-A55092C60F5A}">
   <sheetPr codeName="Feuil6"/>
-  <dimension ref="A1:L18"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -10422,22 +12529,22 @@
         <v>43478.550671296296</v>
       </c>
       <c r="E2" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="F2">
         <v>403</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="H2" t="s">
         <v>253</v>
       </c>
       <c r="I2" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="J2" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -10460,22 +12567,22 @@
         <v>43484.434641203705</v>
       </c>
       <c r="E3" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="F3">
         <v>403</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="H3" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="I3" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="J3" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -10498,22 +12605,22 @@
         <v>43485.598587962966</v>
       </c>
       <c r="E4" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="F4">
         <v>401</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="H4" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="I4" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="J4" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -10536,22 +12643,22 @@
         <v>43487.803229166668</v>
       </c>
       <c r="E5" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="F5">
         <v>403</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="H5" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="I5" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="J5" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -10574,22 +12681,22 @@
         <v>43487.811284722222</v>
       </c>
       <c r="E6" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="F6">
         <v>402</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="H6" t="s">
+        <v>716</v>
+      </c>
+      <c r="I6" t="s">
         <v>717</v>
       </c>
-      <c r="I6" t="s">
-        <v>718</v>
-      </c>
       <c r="J6" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -10612,22 +12719,22 @@
         <v>43490.84983796296</v>
       </c>
       <c r="E7" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="F7">
         <v>403</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="H7" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="I7" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="J7" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -10650,22 +12757,22 @@
         <v>43491.464479166665</v>
       </c>
       <c r="E8" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="F8">
         <v>401</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="H8" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="I8" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="J8" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -10688,22 +12795,22 @@
         <v>43491.473715277774</v>
       </c>
       <c r="E9" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="F9">
         <v>401</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="H9" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="I9" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="J9" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -10726,22 +12833,22 @@
         <v>43492.551666666666</v>
       </c>
       <c r="E10" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="F10">
         <v>401</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="H10" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="I10" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="J10" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -10764,22 +12871,22 @@
         <v>43492.56082175926</v>
       </c>
       <c r="E11" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="F11">
         <v>401</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="H11" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="I11" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="J11" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -10802,22 +12909,22 @@
         <v>43492.620625000003</v>
       </c>
       <c r="E12" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="F12">
         <v>402</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="H12" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="I12" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="J12" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -10840,22 +12947,22 @@
         <v>43492.628761574073</v>
       </c>
       <c r="E13" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="F13">
         <v>401</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="H13" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="I13" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="J13" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -10878,22 +12985,22 @@
         <v>43493.749988425923</v>
       </c>
       <c r="E14" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="F14">
         <v>401</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H14" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="I14" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="J14" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -10916,22 +13023,22 @@
         <v>43494.813611111109</v>
       </c>
       <c r="E15" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="F15">
         <v>401</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="H15" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="I15" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="J15" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -10954,22 +13061,22 @@
         <v>43495.767291666663</v>
       </c>
       <c r="E16" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="F16">
         <v>403</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="H16" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="I16" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="J16" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -10992,22 +13099,22 @@
         <v>43496.753310185188</v>
       </c>
       <c r="E17" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="F17">
         <v>402</v>
       </c>
       <c r="G17" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="H17" t="s">
+        <v>699</v>
+      </c>
+      <c r="I17" t="s">
+        <v>713</v>
+      </c>
+      <c r="J17" t="s">
         <v>399</v>
-      </c>
-      <c r="H17" t="s">
-        <v>700</v>
-      </c>
-      <c r="I17" t="s">
-        <v>714</v>
-      </c>
-      <c r="J17" t="s">
-        <v>400</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -11030,28 +13137,66 @@
         <v>43497.88758101852</v>
       </c>
       <c r="E18" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="F18">
         <v>401</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="H18" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="I18" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="J18" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="K18">
         <v>1</v>
       </c>
       <c r="L18">
         <v>2937</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>10025</v>
+      </c>
+      <c r="C19">
+        <v>20</v>
+      </c>
+      <c r="D19" s="4">
+        <v>43520.604467592595</v>
+      </c>
+      <c r="E19" t="s">
+        <v>682</v>
+      </c>
+      <c r="F19">
+        <v>401</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="H19" t="s">
+        <v>897</v>
+      </c>
+      <c r="I19" t="s">
+        <v>895</v>
+      </c>
+      <c r="J19" t="s">
+        <v>183</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>2098</v>
       </c>
     </row>
   </sheetData>
@@ -11063,7 +13208,7 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71A6494A-BDDD-451E-A660-A5889A45E1C4}">
   <sheetPr codeName="Feuil7"/>
-  <dimension ref="A1:E43"/>
+  <dimension ref="A1:E44"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -11121,7 +13266,7 @@
         <v>1100030</v>
       </c>
       <c r="D3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -11138,7 +13283,7 @@
         <v>1200006</v>
       </c>
       <c r="D4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -11155,7 +13300,7 @@
         <v>1200007</v>
       </c>
       <c r="D5" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -11172,7 +13317,7 @@
         <v>1200008</v>
       </c>
       <c r="D6" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -11189,7 +13334,7 @@
         <v>1200009</v>
       </c>
       <c r="D7" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -11206,7 +13351,7 @@
         <v>1100002</v>
       </c>
       <c r="D8" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -11223,7 +13368,7 @@
         <v>1100003</v>
       </c>
       <c r="D9" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -11257,7 +13402,7 @@
         <v>1200010</v>
       </c>
       <c r="D11" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -11274,7 +13419,7 @@
         <v>1200011</v>
       </c>
       <c r="D12" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E12">
         <v>4</v>
@@ -11308,7 +13453,7 @@
         <v>1600006</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -11342,7 +13487,7 @@
         <v>1200001</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -11376,7 +13521,7 @@
         <v>1200005</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -11393,7 +13538,7 @@
         <v>1100031</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -11410,7 +13555,7 @@
         <v>1100032</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -11427,7 +13572,7 @@
         <v>1600004</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -11461,7 +13606,7 @@
         <v>1200013</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E23">
         <v>2</v>
@@ -11478,7 +13623,7 @@
         <v>1600028</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -11495,7 +13640,7 @@
         <v>1600029</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -11512,7 +13657,7 @@
         <v>1600030</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -11529,7 +13674,7 @@
         <v>1400001</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -11546,7 +13691,7 @@
         <v>1400019</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -11563,7 +13708,7 @@
         <v>1600016</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -11580,7 +13725,7 @@
         <v>1600017</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -11597,7 +13742,7 @@
         <v>1400014</v>
       </c>
       <c r="D31" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -11614,7 +13759,7 @@
         <v>1400015</v>
       </c>
       <c r="D32" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -11631,7 +13776,7 @@
         <v>1400016</v>
       </c>
       <c r="D33" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E33">
         <v>1</v>
@@ -11648,7 +13793,7 @@
         <v>1400017</v>
       </c>
       <c r="D34" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="E34">
         <v>1</v>
@@ -11682,7 +13827,7 @@
         <v>1200013</v>
       </c>
       <c r="D36" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E36">
         <v>2</v>
@@ -11716,7 +13861,7 @@
         <v>1200004</v>
       </c>
       <c r="D38" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E38">
         <v>1</v>
@@ -11733,7 +13878,7 @@
         <v>1200012</v>
       </c>
       <c r="D39" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E39">
         <v>1</v>
@@ -11767,7 +13912,7 @@
         <v>1600034</v>
       </c>
       <c r="D41" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="E41">
         <v>1</v>
@@ -11784,7 +13929,7 @@
         <v>1600035</v>
       </c>
       <c r="D42" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="E42">
         <v>1</v>
@@ -11804,6 +13949,23 @@
         <v>210</v>
       </c>
       <c r="E43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" s="3">
+        <v>18</v>
+      </c>
+      <c r="C44">
+        <v>2000001</v>
+      </c>
+      <c r="D44" t="s">
+        <v>260</v>
+      </c>
+      <c r="E44">
         <v>1</v>
       </c>
     </row>
@@ -11815,9 +13977,11 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5F6AD32-B3D8-4AE8-A088-25A7746AC051}">
   <sheetPr codeName="Feuil8"/>
-  <dimension ref="A1:E127"/>
+  <dimension ref="A1:E132"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="C128" sqref="C128"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -13224,6 +15388,61 @@
         <v>43499.64371527778</v>
       </c>
     </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A128">
+        <v>18</v>
+      </c>
+      <c r="B128">
+        <v>10021</v>
+      </c>
+      <c r="C128" s="4">
+        <v>43516.757939814815</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A129">
+        <v>20</v>
+      </c>
+      <c r="B129">
+        <v>10025</v>
+      </c>
+      <c r="C129" s="4">
+        <v>43517.823333333334</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A130">
+        <v>19</v>
+      </c>
+      <c r="B130">
+        <v>10023</v>
+      </c>
+      <c r="C130" s="4">
+        <v>43518.844375000001</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A131">
+        <v>20</v>
+      </c>
+      <c r="B131">
+        <v>10024</v>
+      </c>
+      <c r="C131" s="4">
+        <v>43519.460196759261</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A132">
+        <v>20</v>
+      </c>
+      <c r="B132">
+        <v>10025</v>
+      </c>
+      <c r="C132" s="4">
+        <v>43520.587094907409</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -13233,7 +15452,7 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAF50FD6-E75F-47AB-9710-BB0FD7ED764B}">
   <sheetPr codeName="Feuil9"/>
-  <dimension ref="A1:L18"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -13296,7 +15515,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C2">
         <v>11</v>
@@ -13314,19 +15533,19 @@
         <v>4389</v>
       </c>
       <c r="H2" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="I2" t="s">
         <v>253</v>
       </c>
       <c r="J2" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="K2" t="s">
         <v>253</v>
       </c>
       <c r="L2" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -13334,7 +15553,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C3">
         <v>12</v>
@@ -13352,19 +15571,19 @@
         <v>1707</v>
       </c>
       <c r="H3" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="I3" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="J3" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="K3" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="L3" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
@@ -13372,7 +15591,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C4">
         <v>11</v>
@@ -13390,19 +15609,19 @@
         <v>3107</v>
       </c>
       <c r="H4" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="I4" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="J4" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="K4" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="L4" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -13410,7 +15629,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C5">
         <v>12</v>
@@ -13428,19 +15647,19 @@
         <v>1042</v>
       </c>
       <c r="H5" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="I5" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="J5" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="K5" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="L5" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -13448,7 +15667,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="C6">
         <v>16</v>
@@ -13466,19 +15685,19 @@
         <v>3389</v>
       </c>
       <c r="H6" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="I6" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="J6" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="K6" t="s">
+        <v>716</v>
+      </c>
+      <c r="L6" t="s">
         <v>717</v>
-      </c>
-      <c r="L6" t="s">
-        <v>718</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
@@ -13486,7 +15705,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C7">
         <v>12</v>
@@ -13504,19 +15723,19 @@
         <v>4472</v>
       </c>
       <c r="H7" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="I7" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="J7" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="K7" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="L7" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
@@ -13524,7 +15743,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C8">
         <v>11</v>
@@ -13542,19 +15761,19 @@
         <v>3957</v>
       </c>
       <c r="H8" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="I8" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="J8" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="K8" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="L8" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
@@ -13562,7 +15781,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C9">
         <v>16</v>
@@ -13580,19 +15799,19 @@
         <v>3259</v>
       </c>
       <c r="H9" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="I9" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="J9" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="K9" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="L9" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
@@ -13600,7 +15819,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="C10">
         <v>12</v>
@@ -13618,19 +15837,19 @@
         <v>3283</v>
       </c>
       <c r="H10" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="I10" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="J10" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="K10" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="L10" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
@@ -13638,7 +15857,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="C11">
         <v>16</v>
@@ -13656,19 +15875,19 @@
         <v>2627</v>
       </c>
       <c r="H11" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="I11" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="J11" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="K11" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="L11" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
@@ -13676,7 +15895,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="C12">
         <v>14</v>
@@ -13694,19 +15913,19 @@
         <v>1283</v>
       </c>
       <c r="H12" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="I12" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="J12" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="K12" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="L12" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
@@ -13714,7 +15933,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C13">
         <v>16</v>
@@ -13732,19 +15951,19 @@
         <v>1888</v>
       </c>
       <c r="H13" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="I13" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="J13" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="K13" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="L13" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
@@ -13752,7 +15971,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C14">
         <v>14</v>
@@ -13770,19 +15989,19 @@
         <v>4183</v>
       </c>
       <c r="H14" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="I14" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="J14" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="K14" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="L14" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
@@ -13790,7 +16009,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="C15">
         <v>12</v>
@@ -13808,19 +16027,19 @@
         <v>4430</v>
       </c>
       <c r="H15" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="I15" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="J15" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="K15" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="L15" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
@@ -13828,7 +16047,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C16">
         <v>12</v>
@@ -13846,19 +16065,19 @@
         <v>4598</v>
       </c>
       <c r="H16" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="I16" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="J16" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="K16" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="L16" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
@@ -13866,7 +16085,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C17">
         <v>12</v>
@@ -13884,19 +16103,19 @@
         <v>3639</v>
       </c>
       <c r="H17" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="I17" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="J17" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="K17" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="L17" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
@@ -13904,7 +16123,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C18">
         <v>16</v>
@@ -13922,19 +16141,57 @@
         <v>2937</v>
       </c>
       <c r="H18" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="I18" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="J18" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="K18" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="L18" t="s">
-        <v>715</v>
+        <v>714</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>260</v>
+      </c>
+      <c r="C19">
+        <v>20</v>
+      </c>
+      <c r="D19">
+        <v>10025</v>
+      </c>
+      <c r="E19">
+        <v>18</v>
+      </c>
+      <c r="F19" s="4">
+        <v>43520.604525462964</v>
+      </c>
+      <c r="G19">
+        <v>2098</v>
+      </c>
+      <c r="H19" t="s">
+        <v>896</v>
+      </c>
+      <c r="I19" t="s">
+        <v>115</v>
+      </c>
+      <c r="J19" t="s">
+        <v>682</v>
+      </c>
+      <c r="K19" t="s">
+        <v>897</v>
+      </c>
+      <c r="L19" t="s">
+        <v>895</v>
       </c>
     </row>
   </sheetData>

--- a/Jeu d'essai.xlsx
+++ b/Jeu d'essai.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="550" documentId="114_{8D9B191C-2013-4270-87A9-3FB899E57325}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{555E46CF-7038-4B79-8154-9B28D07E2385}"/>
+  <xr:revisionPtr revIDLastSave="566" documentId="114_{8D9B191C-2013-4270-87A9-3FB899E57325}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{175A67BF-E76D-446B-87C3-7623B42B2C40}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1765" uniqueCount="907">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1859" uniqueCount="907">
   <si>
     <t>NULL</t>
   </si>
@@ -5957,7 +5957,7 @@
   <sheetPr codeName="Feuil4"/>
   <dimension ref="A1:N132"/>
   <sheetViews>
-    <sheetView topLeftCell="A97" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -6050,11 +6050,11 @@
       <c r="I2" s="2">
         <v>1</v>
       </c>
-      <c r="J2" s="4">
-        <v>43532.999988425923</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>267</v>
+      <c r="J2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>112</v>
@@ -6094,11 +6094,11 @@
       <c r="I3" s="2">
         <v>1</v>
       </c>
-      <c r="J3" s="4">
-        <v>43533.999988425923</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>350</v>
+      <c r="J3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>115</v>
@@ -6138,11 +6138,11 @@
       <c r="I4" s="2">
         <v>1</v>
       </c>
-      <c r="J4" s="4">
-        <v>43533.999988425923</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>351</v>
+      <c r="J4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>122</v>
@@ -6182,11 +6182,11 @@
       <c r="I5" s="2">
         <v>1</v>
       </c>
-      <c r="J5" s="4">
-        <v>43533.999988425923</v>
-      </c>
-      <c r="K5" s="6" t="s">
-        <v>74</v>
+      <c r="J5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>119</v>
@@ -6226,11 +6226,11 @@
       <c r="I6" s="2">
         <v>1</v>
       </c>
-      <c r="J6" s="4">
-        <v>43533.999988425923</v>
-      </c>
-      <c r="K6" s="6" t="s">
-        <v>74</v>
+      <c r="J6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>115</v>
@@ -6270,11 +6270,11 @@
       <c r="I7" s="6">
         <v>1</v>
       </c>
-      <c r="J7" s="4">
-        <v>43533.999988425923</v>
-      </c>
-      <c r="K7" s="6" t="s">
-        <v>352</v>
+      <c r="J7" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>149</v>
@@ -6317,7 +6317,7 @@
       <c r="J8" s="4">
         <v>43534.999988368058</v>
       </c>
-      <c r="K8" s="6" t="s">
+      <c r="K8" s="2" t="s">
         <v>353</v>
       </c>
       <c r="L8" s="2" t="s">
@@ -6361,7 +6361,7 @@
       <c r="J9" s="4">
         <v>43534.999988368058</v>
       </c>
-      <c r="K9" s="6" t="s">
+      <c r="K9" s="2" t="s">
         <v>670</v>
       </c>
       <c r="L9" s="2" t="s">
@@ -6405,7 +6405,7 @@
       <c r="J10" s="4">
         <v>43534.999988368058</v>
       </c>
-      <c r="K10" s="6" t="s">
+      <c r="K10" s="2" t="s">
         <v>418</v>
       </c>
       <c r="L10" s="2" t="s">
@@ -6446,11 +6446,11 @@
       <c r="I11" s="6">
         <v>1</v>
       </c>
-      <c r="J11" s="4">
-        <v>43535.999988368058</v>
-      </c>
-      <c r="K11" s="6" t="s">
-        <v>468</v>
+      <c r="J11" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>137</v>
@@ -6490,11 +6490,11 @@
       <c r="I12" s="6">
         <v>1</v>
       </c>
-      <c r="J12" s="4">
-        <v>43535.999988368058</v>
-      </c>
-      <c r="K12" s="6" t="s">
-        <v>471</v>
+      <c r="J12" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>460</v>
@@ -6534,11 +6534,11 @@
       <c r="I13" s="6">
         <v>1</v>
       </c>
-      <c r="J13" s="4">
-        <v>43535.999988368058</v>
-      </c>
-      <c r="K13" s="6" t="s">
-        <v>475</v>
+      <c r="J13" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>474</v>
@@ -6578,11 +6578,11 @@
       <c r="I14" s="6">
         <v>1</v>
       </c>
-      <c r="J14" s="4">
-        <v>43535.999988368058</v>
-      </c>
-      <c r="K14" s="6" t="s">
-        <v>477</v>
+      <c r="J14" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>203</v>
@@ -6622,11 +6622,11 @@
       <c r="I15" s="6">
         <v>1</v>
       </c>
-      <c r="J15" s="4">
-        <v>43536.999988368058</v>
-      </c>
-      <c r="K15" s="6" t="s">
-        <v>348</v>
+      <c r="J15" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>508</v>
@@ -6666,11 +6666,11 @@
       <c r="I16" s="6">
         <v>1</v>
       </c>
-      <c r="J16" s="4">
-        <v>43536.999988368058</v>
-      </c>
-      <c r="K16" s="6" t="s">
-        <v>398</v>
+      <c r="J16" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>511</v>
@@ -6710,11 +6710,11 @@
       <c r="I17" s="6">
         <v>1</v>
       </c>
-      <c r="J17" s="4">
-        <v>43536.999988368058</v>
-      </c>
-      <c r="K17" s="6" t="s">
-        <v>533</v>
+      <c r="J17" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="L17" s="2" t="s">
         <v>534</v>
@@ -6754,11 +6754,11 @@
       <c r="I18" s="6">
         <v>1</v>
       </c>
-      <c r="J18" s="4">
-        <v>43536.999988368058</v>
-      </c>
-      <c r="K18" s="6" t="s">
-        <v>517</v>
+      <c r="J18" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="L18" s="2" t="s">
         <v>137</v>
@@ -6798,11 +6798,11 @@
       <c r="I19" s="6">
         <v>0</v>
       </c>
-      <c r="J19" s="4">
-        <v>43536.999988368058</v>
-      </c>
-      <c r="K19" s="6" t="s">
-        <v>253</v>
+      <c r="J19" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="L19" s="2" t="s">
         <v>521</v>
@@ -6842,11 +6842,11 @@
       <c r="I20" s="6">
         <v>1</v>
       </c>
-      <c r="J20" s="4">
-        <v>43536.999988368058</v>
-      </c>
-      <c r="K20" s="6" t="s">
-        <v>525</v>
+      <c r="J20" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="L20" s="2" t="s">
         <v>526</v>
@@ -6886,11 +6886,11 @@
       <c r="I21" s="6">
         <v>1</v>
       </c>
-      <c r="J21" s="4">
-        <v>43536.999988368058</v>
-      </c>
-      <c r="K21" s="6" t="s">
-        <v>529</v>
+      <c r="J21" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="L21" s="2" t="s">
         <v>474</v>
@@ -6930,11 +6930,11 @@
       <c r="I22" s="6">
         <v>1</v>
       </c>
-      <c r="J22" s="4">
-        <v>43536.999988368058</v>
-      </c>
-      <c r="K22" s="6" t="s">
-        <v>538</v>
+      <c r="J22" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="L22" s="2" t="s">
         <v>539</v>
@@ -6974,11 +6974,11 @@
       <c r="I23" s="6">
         <v>1</v>
       </c>
-      <c r="J23" s="4">
-        <v>43536.999988368058</v>
-      </c>
-      <c r="K23" s="6" t="s">
-        <v>542</v>
+      <c r="J23" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="L23" s="2" t="s">
         <v>134</v>
@@ -7018,11 +7018,11 @@
       <c r="I24" s="6">
         <v>1</v>
       </c>
-      <c r="J24" s="4">
-        <v>43536.999988368058</v>
-      </c>
-      <c r="K24" s="6" t="s">
-        <v>545</v>
+      <c r="J24" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="L24" s="2" t="s">
         <v>547</v>
@@ -7062,11 +7062,11 @@
       <c r="I25" s="6">
         <v>0</v>
       </c>
-      <c r="J25" s="4">
-        <v>43536.999988368058</v>
-      </c>
-      <c r="K25" s="6" t="s">
-        <v>550</v>
+      <c r="J25" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="L25" s="2" t="s">
         <v>552</v>
@@ -7106,11 +7106,11 @@
       <c r="I26" s="6">
         <v>1</v>
       </c>
-      <c r="J26" s="4">
-        <v>43536.999988368058</v>
-      </c>
-      <c r="K26" s="6" t="s">
-        <v>555</v>
+      <c r="J26" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="L26" s="2" t="s">
         <v>556</v>
@@ -7150,11 +7150,11 @@
       <c r="I27" s="6">
         <v>1</v>
       </c>
-      <c r="J27" s="4">
-        <v>43536.999988368058</v>
-      </c>
-      <c r="K27" s="6" t="s">
-        <v>561</v>
+      <c r="J27" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="L27" s="2" t="s">
         <v>562</v>
@@ -7194,11 +7194,11 @@
       <c r="I28" s="6">
         <v>1</v>
       </c>
-      <c r="J28" s="4">
-        <v>43536.999988368058</v>
-      </c>
-      <c r="K28" s="6" t="s">
-        <v>550</v>
+      <c r="J28" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="L28" s="2" t="s">
         <v>552</v>
@@ -7238,11 +7238,11 @@
       <c r="I29" s="6">
         <v>1</v>
       </c>
-      <c r="J29" s="4">
-        <v>43537.999988368058</v>
-      </c>
-      <c r="K29" s="6" t="s">
-        <v>352</v>
+      <c r="J29" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="L29" s="2" t="s">
         <v>106</v>
@@ -7282,11 +7282,11 @@
       <c r="I30" s="6">
         <v>1</v>
       </c>
-      <c r="J30" s="4">
-        <v>43537.999988368058</v>
-      </c>
-      <c r="K30" s="6" t="s">
-        <v>356</v>
+      <c r="J30" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="L30" s="2" t="s">
         <v>116</v>
@@ -7326,11 +7326,11 @@
       <c r="I31" s="6">
         <v>0</v>
       </c>
-      <c r="J31" s="4">
-        <v>43537.999988368058</v>
-      </c>
-      <c r="K31" s="6" t="s">
-        <v>359</v>
+      <c r="J31" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="L31" s="2" t="s">
         <v>118</v>
@@ -7370,11 +7370,11 @@
       <c r="I32" s="6">
         <v>1</v>
       </c>
-      <c r="J32" s="4">
-        <v>43538.999988368058</v>
-      </c>
-      <c r="K32" s="6" t="s">
-        <v>607</v>
+      <c r="J32" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="L32" s="2" t="s">
         <v>608</v>
@@ -7414,11 +7414,11 @@
       <c r="I33" s="6">
         <v>1</v>
       </c>
-      <c r="J33" s="4">
-        <v>43538.999988368058</v>
-      </c>
-      <c r="K33" s="6" t="s">
-        <v>612</v>
+      <c r="J33" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="L33" s="2" t="s">
         <v>562</v>
@@ -7458,11 +7458,11 @@
       <c r="I34" s="6">
         <v>1</v>
       </c>
-      <c r="J34" s="4">
-        <v>43539.999988368058</v>
-      </c>
-      <c r="K34" s="6" t="s">
-        <v>345</v>
+      <c r="J34" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="L34" s="2" t="s">
         <v>207</v>
@@ -7502,11 +7502,11 @@
       <c r="I35" s="6">
         <v>1</v>
       </c>
-      <c r="J35" s="4">
-        <v>43539.999988368058</v>
-      </c>
-      <c r="K35" s="6" t="s">
-        <v>210</v>
+      <c r="J35" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="L35" s="2" t="s">
         <v>116</v>
@@ -7546,11 +7546,11 @@
       <c r="I36" s="6">
         <v>1</v>
       </c>
-      <c r="J36" s="4">
-        <v>43539.999988368058</v>
-      </c>
-      <c r="K36" s="6" t="s">
-        <v>215</v>
+      <c r="J36" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="L36" s="2" t="s">
         <v>214</v>
@@ -7590,11 +7590,11 @@
       <c r="I37" s="6">
         <v>1</v>
       </c>
-      <c r="J37" s="4">
-        <v>43539.999988368058</v>
-      </c>
-      <c r="K37" s="6" t="s">
-        <v>346</v>
+      <c r="J37" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K37" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="L37" s="2" t="s">
         <v>219</v>
@@ -7634,11 +7634,11 @@
       <c r="I38" s="6">
         <v>1</v>
       </c>
-      <c r="J38" s="4">
-        <v>43539.999988368058</v>
-      </c>
-      <c r="K38" s="6" t="s">
-        <v>347</v>
+      <c r="J38" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K38" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="L38" s="2" t="s">
         <v>223</v>
@@ -7678,11 +7678,11 @@
       <c r="I39" s="6">
         <v>1</v>
       </c>
-      <c r="J39" s="4">
-        <v>43539.999988368058</v>
-      </c>
-      <c r="K39" s="6" t="s">
-        <v>373</v>
+      <c r="J39" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K39" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="L39" s="2" t="s">
         <v>374</v>
@@ -7722,11 +7722,11 @@
       <c r="I40" s="6">
         <v>1</v>
       </c>
-      <c r="J40" s="4">
-        <v>43539.999988368058</v>
-      </c>
-      <c r="K40" s="6" t="s">
-        <v>377</v>
+      <c r="J40" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K40" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="L40" s="2" t="s">
         <v>378</v>
@@ -7766,11 +7766,11 @@
       <c r="I41" s="6">
         <v>1</v>
       </c>
-      <c r="J41" s="4">
-        <v>43539.999988368058</v>
-      </c>
-      <c r="K41" s="6" t="s">
-        <v>381</v>
+      <c r="J41" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K41" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="L41" s="2" t="s">
         <v>382</v>
@@ -7810,11 +7810,11 @@
       <c r="I42" s="6">
         <v>1</v>
       </c>
-      <c r="J42" s="4">
-        <v>43539.999988368058</v>
-      </c>
-      <c r="K42" s="6" t="s">
-        <v>385</v>
+      <c r="J42" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K42" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="L42" s="2" t="s">
         <v>386</v>
@@ -7854,11 +7854,11 @@
       <c r="I43" s="6">
         <v>1</v>
       </c>
-      <c r="J43" s="4">
-        <v>43539.999988368058</v>
-      </c>
-      <c r="K43" s="6" t="s">
-        <v>389</v>
+      <c r="J43" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K43" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="L43" s="2" t="s">
         <v>390</v>
@@ -7898,11 +7898,11 @@
       <c r="I44" s="6">
         <v>1</v>
       </c>
-      <c r="J44" s="4">
-        <v>43539.999988368058</v>
-      </c>
-      <c r="K44" s="6" t="s">
-        <v>394</v>
+      <c r="J44" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K44" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="L44" s="2" t="s">
         <v>393</v>
@@ -7942,11 +7942,11 @@
       <c r="I45" s="6">
         <v>0</v>
       </c>
-      <c r="J45" s="4">
-        <v>43539.999988368058</v>
-      </c>
-      <c r="K45" s="6" t="s">
-        <v>398</v>
+      <c r="J45" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K45" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="L45" s="2" t="s">
         <v>399</v>
@@ -7986,11 +7986,11 @@
       <c r="I46" s="6">
         <v>1</v>
       </c>
-      <c r="J46" s="4">
-        <v>43539.999988368058</v>
-      </c>
-      <c r="K46" s="6" t="s">
-        <v>402</v>
+      <c r="J46" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K46" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="L46" s="2" t="s">
         <v>325</v>
@@ -8030,11 +8030,11 @@
       <c r="I47" s="6">
         <v>0</v>
       </c>
-      <c r="J47" s="4">
-        <v>43540.999988368058</v>
-      </c>
-      <c r="K47" s="6" t="s">
-        <v>342</v>
+      <c r="J47" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K47" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="L47" s="2" t="s">
         <v>131</v>
@@ -8074,11 +8074,11 @@
       <c r="I48" s="6">
         <v>1</v>
       </c>
-      <c r="J48" s="4">
-        <v>43540.999988368058</v>
-      </c>
-      <c r="K48" s="6" t="s">
-        <v>342</v>
+      <c r="J48" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K48" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="L48" s="2" t="s">
         <v>134</v>
@@ -8118,11 +8118,11 @@
       <c r="I49" s="6">
         <v>1</v>
       </c>
-      <c r="J49" s="4">
-        <v>43540.999988368058</v>
-      </c>
-      <c r="K49" s="6" t="s">
-        <v>343</v>
+      <c r="J49" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K49" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="L49" s="2" t="s">
         <v>407</v>
@@ -8162,11 +8162,11 @@
       <c r="I50" s="6">
         <v>1</v>
       </c>
-      <c r="J50" s="4">
-        <v>43541.999988368058</v>
-      </c>
-      <c r="K50" s="6" t="s">
-        <v>354</v>
+      <c r="J50" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K50" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="L50" s="2" t="s">
         <v>156</v>
@@ -8206,11 +8206,11 @@
       <c r="I51" s="6">
         <v>1</v>
       </c>
-      <c r="J51" s="4">
-        <v>43541.999988368058</v>
-      </c>
-      <c r="K51" s="6" t="s">
-        <v>355</v>
+      <c r="J51" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K51" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="L51" s="2" t="s">
         <v>115</v>
@@ -8250,11 +8250,11 @@
       <c r="I52" s="6">
         <v>1</v>
       </c>
-      <c r="J52" s="4">
-        <v>43541.999988368058</v>
-      </c>
-      <c r="K52" s="6" t="s">
-        <v>352</v>
+      <c r="J52" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K52" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="L52" s="2" t="s">
         <v>161</v>
@@ -8294,11 +8294,11 @@
       <c r="I53" s="6">
         <v>1</v>
       </c>
-      <c r="J53" s="4">
-        <v>43541.999988368058</v>
-      </c>
-      <c r="K53" s="6" t="s">
-        <v>253</v>
+      <c r="J53" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K53" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="L53" s="2" t="s">
         <v>106</v>
@@ -8338,11 +8338,11 @@
       <c r="I54" s="6">
         <v>1</v>
       </c>
-      <c r="J54" s="4">
-        <v>43542.999988368058</v>
-      </c>
-      <c r="K54" s="6" t="s">
-        <v>350</v>
+      <c r="J54" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K54" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="L54" s="2" t="s">
         <v>164</v>
@@ -8382,11 +8382,11 @@
       <c r="I55" s="6">
         <v>1</v>
       </c>
-      <c r="J55" s="4">
-        <v>43542.999988368058</v>
-      </c>
-      <c r="K55" s="6" t="s">
-        <v>267</v>
+      <c r="J55" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K55" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="L55" s="2" t="s">
         <v>167</v>
@@ -8426,11 +8426,11 @@
       <c r="I56" s="6">
         <v>1</v>
       </c>
-      <c r="J56" s="4">
-        <v>43542.999988368058</v>
-      </c>
-      <c r="K56" s="6" t="s">
-        <v>357</v>
+      <c r="J56" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K56" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="L56" s="2" t="s">
         <v>169</v>
@@ -8470,11 +8470,11 @@
       <c r="I57" s="6">
         <v>1</v>
       </c>
-      <c r="J57" s="4">
-        <v>43542.999988368058</v>
-      </c>
-      <c r="K57" s="6" t="s">
-        <v>342</v>
+      <c r="J57" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K57" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="L57" s="2" t="s">
         <v>149</v>
@@ -8514,11 +8514,11 @@
       <c r="I58" s="6">
         <v>1</v>
       </c>
-      <c r="J58" s="4">
-        <v>43542.999988368058</v>
-      </c>
-      <c r="K58" s="6" t="s">
-        <v>358</v>
+      <c r="J58" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K58" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="L58" s="2" t="s">
         <v>137</v>
@@ -8558,11 +8558,11 @@
       <c r="I59" s="6">
         <v>1</v>
       </c>
-      <c r="J59" s="4">
-        <v>43542.999988368058</v>
-      </c>
-      <c r="K59" s="6" t="s">
-        <v>568</v>
+      <c r="J59" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K59" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="L59" s="2" t="s">
         <v>137</v>
@@ -8602,11 +8602,11 @@
       <c r="I60" s="6">
         <v>1</v>
       </c>
-      <c r="J60" s="4">
-        <v>43543.999988368058</v>
-      </c>
-      <c r="K60" s="6" t="s">
-        <v>617</v>
+      <c r="J60" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K60" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="L60" s="2" t="s">
         <v>618</v>
@@ -8646,11 +8646,11 @@
       <c r="I61" s="6">
         <v>1</v>
       </c>
-      <c r="J61" s="4">
-        <v>43543.999988368058</v>
-      </c>
-      <c r="K61" s="6" t="s">
-        <v>622</v>
+      <c r="J61" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K61" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="L61" s="2" t="s">
         <v>624</v>
@@ -8690,11 +8690,11 @@
       <c r="I62" s="6">
         <v>1</v>
       </c>
-      <c r="J62" s="4">
-        <v>43543.999988368058</v>
-      </c>
-      <c r="K62" s="6" t="s">
-        <v>627</v>
+      <c r="J62" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K62" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="L62" s="2" t="s">
         <v>618</v>
@@ -8734,11 +8734,11 @@
       <c r="I63" s="6">
         <v>1</v>
       </c>
-      <c r="J63" s="4">
-        <v>43543.999988368058</v>
-      </c>
-      <c r="K63" s="6" t="s">
-        <v>632</v>
+      <c r="J63" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K63" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="L63" s="2" t="s">
         <v>633</v>
@@ -8778,11 +8778,11 @@
       <c r="I64" s="6">
         <v>0</v>
       </c>
-      <c r="J64" s="4">
-        <v>43543.999988368058</v>
-      </c>
-      <c r="K64" s="6" t="s">
-        <v>637</v>
+      <c r="J64" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K64" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="L64" s="2" t="s">
         <v>188</v>
@@ -8822,11 +8822,11 @@
       <c r="I65" s="6">
         <v>1</v>
       </c>
-      <c r="J65" s="4">
-        <v>43543.999988368058</v>
-      </c>
-      <c r="K65" s="6" t="s">
-        <v>641</v>
+      <c r="J65" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K65" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="L65" s="2" t="s">
         <v>464</v>
@@ -8869,7 +8869,7 @@
       <c r="J66" s="4">
         <v>43544.999988368058</v>
       </c>
-      <c r="K66" s="6" t="s">
+      <c r="K66" s="2" t="s">
         <v>666</v>
       </c>
       <c r="L66" s="2" t="s">
@@ -8913,7 +8913,7 @@
       <c r="J67" s="4">
         <v>43544.999988368058</v>
       </c>
-      <c r="K67" s="6" t="s">
+      <c r="K67" s="2" t="s">
         <v>182</v>
       </c>
       <c r="L67" s="2" t="s">
@@ -8957,7 +8957,7 @@
       <c r="J68" s="4">
         <v>43544.999988368058</v>
       </c>
-      <c r="K68" s="6" t="s">
+      <c r="K68" s="2" t="s">
         <v>667</v>
       </c>
       <c r="L68" s="2" t="s">
@@ -9001,7 +9001,7 @@
       <c r="J69" s="4">
         <v>43544.999988368058</v>
       </c>
-      <c r="K69" s="6" t="s">
+      <c r="K69" s="2" t="s">
         <v>468</v>
       </c>
       <c r="L69" s="2" t="s">
@@ -9045,7 +9045,7 @@
       <c r="J70" s="4">
         <v>43544.999988368058</v>
       </c>
-      <c r="K70" s="6" t="s">
+      <c r="K70" s="2" t="s">
         <v>668</v>
       </c>
       <c r="L70" s="2" t="s">
@@ -9089,7 +9089,7 @@
       <c r="J71" s="4">
         <v>43544.999988368058</v>
       </c>
-      <c r="K71" s="6" t="s">
+      <c r="K71" s="2" t="s">
         <v>555</v>
       </c>
       <c r="L71" s="2" t="s">
@@ -9133,7 +9133,7 @@
       <c r="J72" s="4">
         <v>43544.999988368058</v>
       </c>
-      <c r="K72" s="6" t="s">
+      <c r="K72" s="2" t="s">
         <v>669</v>
       </c>
       <c r="L72" s="2" t="s">
@@ -9174,11 +9174,11 @@
       <c r="I73" s="6">
         <v>1</v>
       </c>
-      <c r="J73" s="4">
-        <v>43545.999988368058</v>
-      </c>
-      <c r="K73" s="6" t="s">
-        <v>253</v>
+      <c r="J73" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K73" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="L73" s="2" t="s">
         <v>128</v>
@@ -9218,11 +9218,11 @@
       <c r="I74" s="6">
         <v>1</v>
       </c>
-      <c r="J74" s="4">
-        <v>43545.999988368058</v>
-      </c>
-      <c r="K74" s="6" t="s">
-        <v>181</v>
+      <c r="J74" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K74" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="L74" s="2" t="s">
         <v>183</v>
@@ -9262,11 +9262,11 @@
       <c r="I75" s="6">
         <v>1</v>
       </c>
-      <c r="J75" s="4">
-        <v>43545.999988368058</v>
-      </c>
-      <c r="K75" s="6" t="s">
-        <v>343</v>
+      <c r="J75" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K75" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="L75" s="2" t="s">
         <v>140</v>
@@ -9306,11 +9306,11 @@
       <c r="I76" s="6">
         <v>1</v>
       </c>
-      <c r="J76" s="4">
-        <v>43545.999988368058</v>
-      </c>
-      <c r="K76" s="6" t="s">
-        <v>344</v>
+      <c r="J76" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K76" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="L76" s="2" t="s">
         <v>143</v>
@@ -9350,11 +9350,11 @@
       <c r="I77" s="6">
         <v>1</v>
       </c>
-      <c r="J77" s="4">
-        <v>43545.999988368058</v>
-      </c>
-      <c r="K77" s="6" t="s">
-        <v>260</v>
+      <c r="J77" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K77" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="L77" s="2" t="s">
         <v>146</v>
@@ -9394,11 +9394,11 @@
       <c r="I78" s="6">
         <v>1</v>
       </c>
-      <c r="J78" s="4">
-        <v>43545.999988368058</v>
-      </c>
-      <c r="K78" s="6" t="s">
-        <v>196</v>
+      <c r="J78" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K78" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="L78" s="2" t="s">
         <v>197</v>
@@ -9438,11 +9438,11 @@
       <c r="I79" s="6">
         <v>1</v>
       </c>
-      <c r="J79" s="4">
-        <v>43546.999988368058</v>
-      </c>
-      <c r="K79" s="6" t="s">
-        <v>353</v>
+      <c r="J79" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K79" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="L79" s="2" t="s">
         <v>137</v>
@@ -9482,11 +9482,11 @@
       <c r="I80" s="6">
         <v>1</v>
       </c>
-      <c r="J80" s="4">
-        <v>43546.999988368058</v>
-      </c>
-      <c r="K80" s="6" t="s">
-        <v>267</v>
+      <c r="J80" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K80" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="L80" s="2" t="s">
         <v>137</v>
@@ -9526,11 +9526,11 @@
       <c r="I81" s="6">
         <v>1</v>
       </c>
-      <c r="J81" s="4">
-        <v>43546.999988368058</v>
-      </c>
-      <c r="K81" s="6" t="s">
-        <v>364</v>
+      <c r="J81" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K81" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="L81" s="2" t="s">
         <v>325</v>
@@ -9570,11 +9570,11 @@
       <c r="I82" s="6">
         <v>1</v>
       </c>
-      <c r="J82" s="4">
-        <v>43546.999988368058</v>
-      </c>
-      <c r="K82" s="6" t="s">
-        <v>363</v>
+      <c r="J82" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K82" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="L82" s="2" t="s">
         <v>134</v>
@@ -9614,11 +9614,11 @@
       <c r="I83" s="6">
         <v>1</v>
       </c>
-      <c r="J83" s="4">
-        <v>43547.999988368058</v>
-      </c>
-      <c r="K83" s="6" t="s">
-        <v>432</v>
+      <c r="J83" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K83" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="L83" s="2" t="s">
         <v>336</v>
@@ -9658,11 +9658,11 @@
       <c r="I84" s="6">
         <v>1</v>
       </c>
-      <c r="J84" s="4">
-        <v>43547.999988368058</v>
-      </c>
-      <c r="K84" s="6" t="s">
-        <v>438</v>
+      <c r="J84" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K84" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="L84" s="2" t="s">
         <v>437</v>
@@ -9702,11 +9702,11 @@
       <c r="I85" s="6">
         <v>1</v>
       </c>
-      <c r="J85" s="4">
-        <v>43547.999988368058</v>
-      </c>
-      <c r="K85" s="6" t="s">
-        <v>443</v>
+      <c r="J85" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K85" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="L85" s="2" t="s">
         <v>441</v>
@@ -9746,11 +9746,11 @@
       <c r="I86" s="6">
         <v>1</v>
       </c>
-      <c r="J86" s="4">
-        <v>43547.999988368058</v>
-      </c>
-      <c r="K86" s="6" t="s">
-        <v>448</v>
+      <c r="J86" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K86" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="L86" s="2" t="s">
         <v>446</v>
@@ -9790,11 +9790,11 @@
       <c r="I87" s="6">
         <v>1</v>
       </c>
-      <c r="J87" s="4">
-        <v>43547.999988368058</v>
-      </c>
-      <c r="K87" s="6" t="s">
-        <v>182</v>
+      <c r="J87" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K87" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="L87" s="2" t="s">
         <v>393</v>
@@ -9834,11 +9834,11 @@
       <c r="I88" s="6">
         <v>1</v>
       </c>
-      <c r="J88" s="4">
-        <v>43547.999988368058</v>
-      </c>
-      <c r="K88" s="6" t="s">
-        <v>455</v>
+      <c r="J88" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K88" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="L88" s="2" t="s">
         <v>454</v>
@@ -9878,11 +9878,11 @@
       <c r="I89" s="6">
         <v>1</v>
       </c>
-      <c r="J89" s="4">
-        <v>43547.999988368058</v>
-      </c>
-      <c r="K89" s="6" t="s">
-        <v>461</v>
+      <c r="J89" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K89" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="L89" s="2" t="s">
         <v>460</v>
@@ -9922,11 +9922,11 @@
       <c r="I90" s="6">
         <v>1</v>
       </c>
-      <c r="J90" s="4">
-        <v>43547.999988368058</v>
-      </c>
-      <c r="K90" s="6" t="s">
-        <v>182</v>
+      <c r="J90" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K90" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="L90" s="2" t="s">
         <v>464</v>
@@ -9966,11 +9966,11 @@
       <c r="I91" s="6">
         <v>1</v>
       </c>
-      <c r="J91" s="4">
-        <v>43548.999988368058</v>
-      </c>
-      <c r="K91" s="6" t="s">
-        <v>504</v>
+      <c r="J91" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K91" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="L91" s="2" t="s">
         <v>137</v>
@@ -10010,11 +10010,11 @@
       <c r="I92" s="6">
         <v>1</v>
       </c>
-      <c r="J92" s="4">
-        <v>43548.999988368058</v>
-      </c>
-      <c r="K92" s="6" t="s">
-        <v>480</v>
+      <c r="J92" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K92" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="L92" s="2" t="s">
         <v>325</v>
@@ -10054,11 +10054,11 @@
       <c r="I93" s="6">
         <v>1</v>
       </c>
-      <c r="J93" s="4">
-        <v>43548.999988368058</v>
-      </c>
-      <c r="K93" s="6" t="s">
-        <v>484</v>
+      <c r="J93" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K93" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="L93" s="2" t="s">
         <v>325</v>
@@ -10098,11 +10098,11 @@
       <c r="I94" s="6">
         <v>1</v>
       </c>
-      <c r="J94" s="4">
-        <v>43548.999988368058</v>
-      </c>
-      <c r="K94" s="6" t="s">
-        <v>488</v>
+      <c r="J94" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K94" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="L94" s="2" t="s">
         <v>137</v>
@@ -10142,11 +10142,11 @@
       <c r="I95" s="6">
         <v>1</v>
       </c>
-      <c r="J95" s="4">
-        <v>43548.999988368058</v>
-      </c>
-      <c r="K95" s="6" t="s">
-        <v>492</v>
+      <c r="J95" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K95" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="L95" s="2" t="s">
         <v>325</v>
@@ -10186,11 +10186,11 @@
       <c r="I96" s="6">
         <v>1</v>
       </c>
-      <c r="J96" s="4">
-        <v>43548.999988368058</v>
-      </c>
-      <c r="K96" s="6" t="s">
-        <v>496</v>
+      <c r="J96" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K96" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="L96" s="2" t="s">
         <v>325</v>
@@ -10230,11 +10230,11 @@
       <c r="I97" s="6">
         <v>1</v>
       </c>
-      <c r="J97" s="4">
-        <v>43548.999988368058</v>
-      </c>
-      <c r="K97" s="6" t="s">
-        <v>500</v>
+      <c r="J97" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K97" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="L97" s="2" t="s">
         <v>325</v>
@@ -10274,11 +10274,11 @@
       <c r="I98" s="6">
         <v>1</v>
       </c>
-      <c r="J98" s="4">
-        <v>43549.999988368058</v>
-      </c>
-      <c r="K98" s="6" t="s">
-        <v>176</v>
+      <c r="J98" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K98" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="L98" s="2" t="s">
         <v>188</v>
@@ -10318,11 +10318,11 @@
       <c r="I99" s="6">
         <v>1</v>
       </c>
-      <c r="J99" s="4">
-        <v>43549.999988368058</v>
-      </c>
-      <c r="K99" s="6" t="s">
-        <v>575</v>
+      <c r="J99" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K99" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="L99" s="2" t="s">
         <v>577</v>
@@ -10362,11 +10362,11 @@
       <c r="I100" s="6">
         <v>1</v>
       </c>
-      <c r="J100" s="4">
-        <v>43549.999988368058</v>
-      </c>
-      <c r="K100" s="6" t="s">
-        <v>432</v>
+      <c r="J100" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K100" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="L100" s="2" t="s">
         <v>586</v>
@@ -10406,11 +10406,11 @@
       <c r="I101" s="6">
         <v>1</v>
       </c>
-      <c r="J101" s="4">
-        <v>43549.999988368058</v>
-      </c>
-      <c r="K101" s="6" t="s">
-        <v>210</v>
+      <c r="J101" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K101" s="2" t="s">
+        <v>0</v>
       </c>
       <c r="L101" s="2" t="s">
         <v>137</v>
@@ -10450,11 +10450,11 @@
       <c r="I102" s="2">
         <v>1</v>
       </c>
-      <c r="J102" s="4">
-        <v>43550.999988368058</v>
+      <c r="J102" s="4" t="s">
+        <v>0</v>
       </c>
       <c r="K102" s="2" t="s">
-        <v>589</v>
+        <v>0</v>
       </c>
       <c r="L102" s="2" t="s">
         <v>590</v>
@@ -10494,11 +10494,11 @@
       <c r="I103" s="2">
         <v>1</v>
       </c>
-      <c r="J103" s="4">
-        <v>43550.999988368058</v>
+      <c r="J103" s="4" t="s">
+        <v>0</v>
       </c>
       <c r="K103" s="2" t="s">
-        <v>418</v>
+        <v>0</v>
       </c>
       <c r="L103" s="2" t="s">
         <v>115</v>
@@ -10538,11 +10538,11 @@
       <c r="I104" s="2">
         <v>1</v>
       </c>
-      <c r="J104" s="4">
-        <v>43550.999988368058</v>
+      <c r="J104" s="4" t="s">
+        <v>0</v>
       </c>
       <c r="K104" s="2" t="s">
-        <v>602</v>
+        <v>0</v>
       </c>
       <c r="L104" s="2" t="s">
         <v>603</v>
@@ -10582,11 +10582,11 @@
       <c r="I105" s="2">
         <v>1</v>
       </c>
-      <c r="J105" s="4">
-        <v>43551.999988368058</v>
+      <c r="J105" s="4" t="s">
+        <v>0</v>
       </c>
       <c r="K105" s="2" t="s">
-        <v>644</v>
+        <v>0</v>
       </c>
       <c r="L105" s="2" t="s">
         <v>460</v>
@@ -10626,10 +10626,10 @@
       <c r="I106" s="2">
         <v>1</v>
       </c>
-      <c r="J106" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="K106" s="5" t="s">
+      <c r="J106" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K106" s="2" t="s">
         <v>0</v>
       </c>
       <c r="L106" s="2" t="s">
@@ -10670,10 +10670,10 @@
       <c r="I107" s="2">
         <v>1</v>
       </c>
-      <c r="J107" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="K107" s="5" t="s">
+      <c r="J107" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K107" s="2" t="s">
         <v>0</v>
       </c>
       <c r="L107" s="2" t="s">
@@ -10714,10 +10714,10 @@
       <c r="I108" s="2">
         <v>1</v>
       </c>
-      <c r="J108" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="K108" s="5" t="s">
+      <c r="J108" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K108" s="2" t="s">
         <v>0</v>
       </c>
       <c r="L108" s="2" t="s">
@@ -10758,10 +10758,10 @@
       <c r="I109" s="2">
         <v>1</v>
       </c>
-      <c r="J109" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="K109" s="5" t="s">
+      <c r="J109" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K109" s="2" t="s">
         <v>0</v>
       </c>
       <c r="L109" s="2" t="s">
@@ -10802,10 +10802,10 @@
       <c r="I110" s="2">
         <v>1</v>
       </c>
-      <c r="J110" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="K110" s="5" t="s">
+      <c r="J110" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K110" s="2" t="s">
         <v>0</v>
       </c>
       <c r="L110" s="2" t="s">
@@ -10846,10 +10846,10 @@
       <c r="I111" s="2">
         <v>1</v>
       </c>
-      <c r="J111" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="K111" s="5" t="s">
+      <c r="J111" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K111" s="2" t="s">
         <v>0</v>
       </c>
       <c r="L111" s="2" t="s">
@@ -10890,10 +10890,10 @@
       <c r="I112" s="2">
         <v>1</v>
       </c>
-      <c r="J112" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="K112" s="5" t="s">
+      <c r="J112" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K112" s="2" t="s">
         <v>0</v>
       </c>
       <c r="L112" s="2" t="s">
@@ -10934,10 +10934,10 @@
       <c r="I113" s="2">
         <v>1</v>
       </c>
-      <c r="J113" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="K113" s="5" t="s">
+      <c r="J113" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K113" s="2" t="s">
         <v>0</v>
       </c>
       <c r="L113" s="2" t="s">
@@ -11066,10 +11066,10 @@
       <c r="I116" s="2">
         <v>1</v>
       </c>
-      <c r="J116" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="K116" s="5" t="s">
+      <c r="J116" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K116" s="2" t="s">
         <v>0</v>
       </c>
       <c r="L116" s="2" t="s">
@@ -11110,10 +11110,10 @@
       <c r="I117" s="2">
         <v>1</v>
       </c>
-      <c r="J117" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="K117" s="5" t="s">
+      <c r="J117" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K117" s="2" t="s">
         <v>0</v>
       </c>
       <c r="L117" s="2" t="s">
@@ -11154,10 +11154,10 @@
       <c r="I118" s="2">
         <v>0</v>
       </c>
-      <c r="J118" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="K118" s="5" t="s">
+      <c r="J118" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K118" s="2" t="s">
         <v>0</v>
       </c>
       <c r="L118" s="2" t="s">
@@ -11198,10 +11198,10 @@
       <c r="I119" s="2">
         <v>1</v>
       </c>
-      <c r="J119" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="K119" s="5" t="s">
+      <c r="J119" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K119" s="2" t="s">
         <v>0</v>
       </c>
       <c r="L119" s="2" t="s">
@@ -11242,10 +11242,10 @@
       <c r="I120" s="2">
         <v>1</v>
       </c>
-      <c r="J120" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="K120" s="5" t="s">
+      <c r="J120" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K120" s="2" t="s">
         <v>0</v>
       </c>
       <c r="L120" s="2" t="s">
@@ -11286,10 +11286,10 @@
       <c r="I121" s="2">
         <v>1</v>
       </c>
-      <c r="J121" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="K121" s="5" t="s">
+      <c r="J121" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K121" s="2" t="s">
         <v>0</v>
       </c>
       <c r="L121" s="2" t="s">
@@ -11330,10 +11330,10 @@
       <c r="I122" s="2">
         <v>1</v>
       </c>
-      <c r="J122" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="K122" s="5" t="s">
+      <c r="J122" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K122" s="2" t="s">
         <v>0</v>
       </c>
       <c r="L122" s="2" t="s">
@@ -11374,10 +11374,10 @@
       <c r="I123" s="2">
         <v>1</v>
       </c>
-      <c r="J123" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="K123" s="5" t="s">
+      <c r="J123" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K123" s="2" t="s">
         <v>0</v>
       </c>
       <c r="L123" s="2" t="s">
@@ -11418,10 +11418,10 @@
       <c r="I124" s="2">
         <v>1</v>
       </c>
-      <c r="J124" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="K124" s="5" t="s">
+      <c r="J124" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K124" s="2" t="s">
         <v>0</v>
       </c>
       <c r="L124" s="2" t="s">
@@ -11462,10 +11462,10 @@
       <c r="I125" s="2">
         <v>1</v>
       </c>
-      <c r="J125" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="K125" s="5" t="s">
+      <c r="J125" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K125" s="2" t="s">
         <v>0</v>
       </c>
       <c r="L125" s="2" t="s">
@@ -11550,10 +11550,10 @@
       <c r="I127" s="2">
         <v>1</v>
       </c>
-      <c r="J127" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="K127" s="5" t="s">
+      <c r="J127" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K127" s="2" t="s">
         <v>0</v>
       </c>
       <c r="L127" s="2" t="s">
@@ -11594,10 +11594,10 @@
       <c r="I128" s="2">
         <v>1</v>
       </c>
-      <c r="J128" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="K128" s="5" t="s">
+      <c r="J128" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K128" s="2" t="s">
         <v>0</v>
       </c>
       <c r="L128" s="2" t="s">
@@ -11638,10 +11638,10 @@
       <c r="I129" s="2">
         <v>1</v>
       </c>
-      <c r="J129" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="K129" s="5" t="s">
+      <c r="J129" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K129" s="2" t="s">
         <v>0</v>
       </c>
       <c r="L129" s="2" t="s">
@@ -11682,10 +11682,10 @@
       <c r="I130" s="2">
         <v>1</v>
       </c>
-      <c r="J130" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="K130" s="5" t="s">
+      <c r="J130" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K130" s="2" t="s">
         <v>0</v>
       </c>
       <c r="L130" s="2" t="s">
@@ -11726,10 +11726,10 @@
       <c r="I131" s="2">
         <v>1</v>
       </c>
-      <c r="J131" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="K131" s="5" t="s">
+      <c r="J131" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K131" s="2" t="s">
         <v>0</v>
       </c>
       <c r="L131" s="2" t="s">
@@ -11770,10 +11770,10 @@
       <c r="I132" s="2">
         <v>1</v>
       </c>
-      <c r="J132" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="K132" s="5" t="s">
+      <c r="J132" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K132" s="2" t="s">
         <v>0</v>
       </c>
       <c r="L132" s="2" t="s">

--- a/Jeu d'essai.xlsx
+++ b/Jeu d'essai.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="566" documentId="114_{8D9B191C-2013-4270-87A9-3FB899E57325}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{175A67BF-E76D-446B-87C3-7623B42B2C40}"/>
+  <xr:revisionPtr revIDLastSave="568" documentId="114_{8D9B191C-2013-4270-87A9-3FB899E57325}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{4FDC0E3E-7502-49B1-976B-0A4A3DB3180A}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1859" uniqueCount="907">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1859" uniqueCount="906">
   <si>
     <t>NULL</t>
   </si>
@@ -2791,9 +2791,6 @@
   </si>
   <si>
     <t>H4L3P8</t>
-  </si>
-  <si>
-    <t>Monréal</t>
   </si>
   <si>
     <t>2685 Boulevard Pitfield</t>
@@ -3710,7 +3707,7 @@
         <v>792</v>
       </c>
       <c r="E9" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="F9" t="s">
         <v>793</v>
@@ -3775,7 +3772,7 @@
         <v>789</v>
       </c>
       <c r="E10" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="F10" t="s">
         <v>793</v>
@@ -3784,7 +3781,7 @@
         <v>250</v>
       </c>
       <c r="H10" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="I10" t="s">
         <v>252</v>
@@ -3840,7 +3837,7 @@
         <v>790</v>
       </c>
       <c r="E11" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="F11" t="s">
         <v>299</v>
@@ -3849,7 +3846,7 @@
         <v>250</v>
       </c>
       <c r="H11" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="I11" t="s">
         <v>252</v>
@@ -5372,7 +5369,7 @@
         <v>312</v>
       </c>
       <c r="G19" t="s">
-        <v>899</v>
+        <v>299</v>
       </c>
       <c r="H19" t="s">
         <v>250</v>
@@ -5740,16 +5737,16 @@
         <v>809</v>
       </c>
       <c r="F26" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="G26" t="s">
-        <v>899</v>
+        <v>299</v>
       </c>
       <c r="H26" t="s">
         <v>250</v>
       </c>
       <c r="I26" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="J26" t="s">
         <v>252</v>
